--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>лр1</t>
+  </si>
+  <si>
+    <t>лр2</t>
   </si>
 </sst>
 </file>
@@ -354,14 +357,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1">
+        <f ca="1">SUM(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f ca="1">RANDBETWEEN(1000,9999)</f>
+        <v>3743</v>
+      </c>
+    </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -370,16 +384,8 @@
         <v>1662</v>
       </c>
       <c r="C2">
-        <f ca="1">IF(B2=$E$2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f ca="1">SUM(C:C)</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>7426</v>
+        <f ca="1">IF(B2=$E$1,1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -388,7 +394,7 @@
         <v>1860</v>
       </c>
       <c r="C3">
-        <f ca="1">IF(B3=$E$2,1,0)</f>
+        <f ca="1">IF(B3=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -398,7 +404,7 @@
         <v>4764</v>
       </c>
       <c r="C4">
-        <f ca="1">IF(B4=$E$2,1,0)</f>
+        <f ca="1">IF(B4=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -408,7 +414,7 @@
         <v>2429</v>
       </c>
       <c r="C5">
-        <f ca="1">IF(B5=$E$2,1,0)</f>
+        <f ca="1">IF(B5=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -418,7 +424,7 @@
         <v>7472</v>
       </c>
       <c r="C6">
-        <f ca="1">IF(B6=$E$2,1,0)</f>
+        <f ca="1">IF(B6=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -428,7 +434,7 @@
         <v>3862</v>
       </c>
       <c r="C7">
-        <f ca="1">IF(B7=$E$2,1,0)</f>
+        <f ca="1">IF(B7=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -438,7 +444,7 @@
         <v>9231</v>
       </c>
       <c r="C8">
-        <f ca="1">IF(B8=$E$2,1,0)</f>
+        <f ca="1">IF(B8=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -448,7 +454,7 @@
         <v>8624</v>
       </c>
       <c r="C9">
-        <f ca="1">IF(B9=$E$2,1,0)</f>
+        <f ca="1">IF(B9=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -458,7 +464,7 @@
         <v>2959</v>
       </c>
       <c r="C10">
-        <f ca="1">IF(B10=$E$2,1,0)</f>
+        <f ca="1">IF(B10=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -468,7 +474,7 @@
         <v>7271</v>
       </c>
       <c r="C11">
-        <f ca="1">IF(B11=$E$2,1,0)</f>
+        <f ca="1">IF(B11=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -478,7 +484,7 @@
         <v>2632</v>
       </c>
       <c r="C12">
-        <f ca="1">IF(B12=$E$2,1,0)</f>
+        <f ca="1">IF(B12=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -488,7 +494,7 @@
         <v>4343</v>
       </c>
       <c r="C13">
-        <f ca="1">IF(B13=$E$2,1,0)</f>
+        <f ca="1">IF(B13=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -498,7 +504,7 @@
         <v>1517</v>
       </c>
       <c r="C14">
-        <f ca="1">IF(B14=$E$2,1,0)</f>
+        <f ca="1">IF(B14=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -508,7 +514,7 @@
         <v>1413</v>
       </c>
       <c r="C15">
-        <f ca="1">IF(B15=$E$2,1,0)</f>
+        <f ca="1">IF(B15=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -518,13 +524,416 @@
         <v>9405</v>
       </c>
       <c r="C16">
-        <f ca="1">IF(B16=$E$2,1,0)</f>
+        <f ca="1">IF(B16=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>4411</v>
+      </c>
+      <c r="C17">
+        <f ca="1">IF(B17=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18">
+        <v>9298</v>
+      </c>
+      <c r="C18">
+        <f ca="1">IF(B18=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19">
+        <v>3354</v>
+      </c>
+      <c r="C19">
+        <f ca="1">IF(B19=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20">
+        <v>8569</v>
+      </c>
+      <c r="C20">
+        <f ca="1">IF(B20=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21">
+        <v>3730</v>
+      </c>
+      <c r="C21">
+        <f ca="1">IF(B21=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22">
+        <v>9007</v>
+      </c>
+      <c r="C22">
+        <f ca="1">IF(B22=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23">
+        <v>5201</v>
+      </c>
+      <c r="C23">
+        <f ca="1">IF(B23=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24">
+        <v>2981</v>
+      </c>
+      <c r="C24">
+        <f ca="1">IF(B24=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25">
+        <v>4312</v>
+      </c>
+      <c r="C25">
+        <f ca="1">IF(B25=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26">
+        <v>8428</v>
+      </c>
+      <c r="C26">
+        <f ca="1">IF(B26=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="B27">
+        <v>2361</v>
+      </c>
+      <c r="C27">
+        <f ca="1">IF(B27=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28">
+        <v>5063</v>
+      </c>
+      <c r="C28">
+        <f ca="1">IF(B28=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1"/>
+      <c r="B29">
+        <v>7711</v>
+      </c>
+      <c r="C29">
+        <f ca="1">IF(B29=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1"/>
+      <c r="B30">
+        <v>8833</v>
+      </c>
+      <c r="C30">
+        <f ca="1">IF(B30=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1"/>
+      <c r="B31">
+        <v>1262</v>
+      </c>
+      <c r="C31">
+        <f ca="1">IF(B31=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1"/>
+      <c r="B32">
+        <v>9020</v>
+      </c>
+      <c r="C32">
+        <f ca="1">IF(B32=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1"/>
+      <c r="B33">
+        <v>1934</v>
+      </c>
+      <c r="C33">
+        <f ca="1">IF(B33=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1"/>
+      <c r="B34">
+        <v>7237</v>
+      </c>
+      <c r="C34">
+        <f ca="1">IF(B34=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1"/>
+      <c r="B35">
+        <v>3943</v>
+      </c>
+      <c r="C35">
+        <f ca="1">IF(B35=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1"/>
+      <c r="B36">
+        <v>7619</v>
+      </c>
+      <c r="C36">
+        <f ca="1">IF(B36=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1"/>
+      <c r="B37">
+        <v>3832</v>
+      </c>
+      <c r="C37">
+        <f ca="1">IF(B37=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1"/>
+      <c r="B38">
+        <v>1346</v>
+      </c>
+      <c r="C38">
+        <f ca="1">IF(B38=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1"/>
+      <c r="B39">
+        <v>9622</v>
+      </c>
+      <c r="C39">
+        <f ca="1">IF(B39=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1"/>
+      <c r="B40">
+        <v>8873</v>
+      </c>
+      <c r="C40">
+        <f ca="1">IF(B40=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1"/>
+      <c r="B41">
+        <v>7799</v>
+      </c>
+      <c r="C41">
+        <f ca="1">IF(B41=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1"/>
+      <c r="B42">
+        <v>9354</v>
+      </c>
+      <c r="C42">
+        <f ca="1">IF(B42=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1"/>
+      <c r="B43">
+        <v>9130</v>
+      </c>
+      <c r="C43">
+        <f ca="1">IF(B43=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1"/>
+      <c r="B44">
+        <v>5895</v>
+      </c>
+      <c r="C44">
+        <f ca="1">IF(B44=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1"/>
+      <c r="B45">
+        <v>2461</v>
+      </c>
+      <c r="C45">
+        <f ca="1">IF(B45=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1"/>
+      <c r="B46">
+        <v>2790</v>
+      </c>
+      <c r="C46">
+        <f ca="1">IF(B46=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1"/>
+      <c r="B47">
+        <v>2624</v>
+      </c>
+      <c r="C47">
+        <f ca="1">IF(B47=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1"/>
+      <c r="B48">
+        <v>5871</v>
+      </c>
+      <c r="C48">
+        <f ca="1">IF(B48=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1"/>
+      <c r="B49">
+        <v>9164</v>
+      </c>
+      <c r="C49">
+        <f ca="1">IF(B49=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1"/>
+      <c r="B50">
+        <v>7457</v>
+      </c>
+      <c r="C50">
+        <f ca="1">IF(B50=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1"/>
+      <c r="B51">
+        <v>9865</v>
+      </c>
+      <c r="C51">
+        <f ca="1">IF(B51=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1"/>
+      <c r="B52">
+        <v>3591</v>
+      </c>
+      <c r="C52">
+        <f ca="1">IF(B52=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1"/>
+      <c r="B53">
+        <v>3558</v>
+      </c>
+      <c r="C53">
+        <f ca="1">IF(B53=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1"/>
+      <c r="B54">
+        <v>4366</v>
+      </c>
+      <c r="C54">
+        <f ca="1">IF(B54=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1"/>
+      <c r="B55">
+        <v>5789</v>
+      </c>
+      <c r="C55">
+        <f ca="1">IF(B55=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1"/>
+      <c r="B56">
+        <v>6522</v>
+      </c>
+      <c r="C56">
+        <f ca="1">IF(B56=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>лр1</t>
   </si>
   <si>
     <t>лр2</t>
+  </si>
+  <si>
+    <t>лр3</t>
   </si>
 </sst>
 </file>
@@ -357,11 +360,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:A56"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -373,7 +376,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>3743</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -384,7 +387,7 @@
         <v>1662</v>
       </c>
       <c r="C2">
-        <f ca="1">IF(B2=$E$1,1,0)</f>
+        <f t="shared" ref="C2:C33" ca="1" si="0">IF(B2=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -394,7 +397,7 @@
         <v>1860</v>
       </c>
       <c r="C3">
-        <f ca="1">IF(B3=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -404,7 +407,7 @@
         <v>4764</v>
       </c>
       <c r="C4">
-        <f ca="1">IF(B4=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -414,7 +417,7 @@
         <v>2429</v>
       </c>
       <c r="C5">
-        <f ca="1">IF(B5=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -424,7 +427,7 @@
         <v>7472</v>
       </c>
       <c r="C6">
-        <f ca="1">IF(B6=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -434,7 +437,7 @@
         <v>3862</v>
       </c>
       <c r="C7">
-        <f ca="1">IF(B7=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -444,7 +447,7 @@
         <v>9231</v>
       </c>
       <c r="C8">
-        <f ca="1">IF(B8=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -454,7 +457,7 @@
         <v>8624</v>
       </c>
       <c r="C9">
-        <f ca="1">IF(B9=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -464,7 +467,7 @@
         <v>2959</v>
       </c>
       <c r="C10">
-        <f ca="1">IF(B10=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -474,7 +477,7 @@
         <v>7271</v>
       </c>
       <c r="C11">
-        <f ca="1">IF(B11=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -484,7 +487,7 @@
         <v>2632</v>
       </c>
       <c r="C12">
-        <f ca="1">IF(B12=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -494,7 +497,7 @@
         <v>4343</v>
       </c>
       <c r="C13">
-        <f ca="1">IF(B13=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -504,7 +507,7 @@
         <v>1517</v>
       </c>
       <c r="C14">
-        <f ca="1">IF(B14=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -514,7 +517,7 @@
         <v>1413</v>
       </c>
       <c r="C15">
-        <f ca="1">IF(B15=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -524,7 +527,7 @@
         <v>9405</v>
       </c>
       <c r="C16">
-        <f ca="1">IF(B16=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -536,7 +539,7 @@
         <v>4411</v>
       </c>
       <c r="C17">
-        <f ca="1">IF(B17=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -546,7 +549,7 @@
         <v>9298</v>
       </c>
       <c r="C18">
-        <f ca="1">IF(B18=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -556,7 +559,7 @@
         <v>3354</v>
       </c>
       <c r="C19">
-        <f ca="1">IF(B19=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -566,7 +569,7 @@
         <v>8569</v>
       </c>
       <c r="C20">
-        <f ca="1">IF(B20=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -576,7 +579,7 @@
         <v>3730</v>
       </c>
       <c r="C21">
-        <f ca="1">IF(B21=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -586,7 +589,7 @@
         <v>9007</v>
       </c>
       <c r="C22">
-        <f ca="1">IF(B22=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -596,7 +599,7 @@
         <v>5201</v>
       </c>
       <c r="C23">
-        <f ca="1">IF(B23=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -606,7 +609,7 @@
         <v>2981</v>
       </c>
       <c r="C24">
-        <f ca="1">IF(B24=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -616,7 +619,7 @@
         <v>4312</v>
       </c>
       <c r="C25">
-        <f ca="1">IF(B25=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -626,7 +629,7 @@
         <v>8428</v>
       </c>
       <c r="C26">
-        <f ca="1">IF(B26=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -636,7 +639,7 @@
         <v>2361</v>
       </c>
       <c r="C27">
-        <f ca="1">IF(B27=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -646,7 +649,7 @@
         <v>5063</v>
       </c>
       <c r="C28">
-        <f ca="1">IF(B28=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -656,7 +659,7 @@
         <v>7711</v>
       </c>
       <c r="C29">
-        <f ca="1">IF(B29=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -666,7 +669,7 @@
         <v>8833</v>
       </c>
       <c r="C30">
-        <f ca="1">IF(B30=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -676,7 +679,7 @@
         <v>1262</v>
       </c>
       <c r="C31">
-        <f ca="1">IF(B31=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -686,7 +689,7 @@
         <v>9020</v>
       </c>
       <c r="C32">
-        <f ca="1">IF(B32=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -696,7 +699,7 @@
         <v>1934</v>
       </c>
       <c r="C33">
-        <f ca="1">IF(B33=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -706,7 +709,7 @@
         <v>7237</v>
       </c>
       <c r="C34">
-        <f ca="1">IF(B34=$E$1,1,0)</f>
+        <f t="shared" ref="C34:C72" ca="1" si="1">IF(B34=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -716,7 +719,7 @@
         <v>3943</v>
       </c>
       <c r="C35">
-        <f ca="1">IF(B35=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -726,7 +729,7 @@
         <v>7619</v>
       </c>
       <c r="C36">
-        <f ca="1">IF(B36=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -736,7 +739,7 @@
         <v>3832</v>
       </c>
       <c r="C37">
-        <f ca="1">IF(B37=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -746,7 +749,7 @@
         <v>1346</v>
       </c>
       <c r="C38">
-        <f ca="1">IF(B38=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -756,7 +759,7 @@
         <v>9622</v>
       </c>
       <c r="C39">
-        <f ca="1">IF(B39=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -766,7 +769,7 @@
         <v>8873</v>
       </c>
       <c r="C40">
-        <f ca="1">IF(B40=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -776,7 +779,7 @@
         <v>7799</v>
       </c>
       <c r="C41">
-        <f ca="1">IF(B41=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -786,7 +789,7 @@
         <v>9354</v>
       </c>
       <c r="C42">
-        <f ca="1">IF(B42=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -796,7 +799,7 @@
         <v>9130</v>
       </c>
       <c r="C43">
-        <f ca="1">IF(B43=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -806,7 +809,7 @@
         <v>5895</v>
       </c>
       <c r="C44">
-        <f ca="1">IF(B44=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -816,7 +819,7 @@
         <v>2461</v>
       </c>
       <c r="C45">
-        <f ca="1">IF(B45=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -826,7 +829,7 @@
         <v>2790</v>
       </c>
       <c r="C46">
-        <f ca="1">IF(B46=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -836,7 +839,7 @@
         <v>2624</v>
       </c>
       <c r="C47">
-        <f ca="1">IF(B47=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -846,7 +849,7 @@
         <v>5871</v>
       </c>
       <c r="C48">
-        <f ca="1">IF(B48=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -856,7 +859,7 @@
         <v>9164</v>
       </c>
       <c r="C49">
-        <f ca="1">IF(B49=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -866,7 +869,7 @@
         <v>7457</v>
       </c>
       <c r="C50">
-        <f ca="1">IF(B50=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -876,7 +879,7 @@
         <v>9865</v>
       </c>
       <c r="C51">
-        <f ca="1">IF(B51=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -886,7 +889,7 @@
         <v>3591</v>
       </c>
       <c r="C52">
-        <f ca="1">IF(B52=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -896,7 +899,7 @@
         <v>3558</v>
       </c>
       <c r="C53">
-        <f ca="1">IF(B53=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -906,7 +909,7 @@
         <v>4366</v>
       </c>
       <c r="C54">
-        <f ca="1">IF(B54=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -916,7 +919,7 @@
         <v>5789</v>
       </c>
       <c r="C55">
-        <f ca="1">IF(B55=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -926,14 +929,177 @@
         <v>6522</v>
       </c>
       <c r="C56">
-        <f ca="1">IF(B56=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>8545</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1"/>
+      <c r="B58">
+        <v>1288</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1"/>
+      <c r="B59">
+        <v>2614</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1"/>
+      <c r="B60">
+        <v>7170</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1"/>
+      <c r="B61">
+        <v>2709</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1"/>
+      <c r="B62">
+        <v>3402</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1"/>
+      <c r="B63">
+        <v>8781</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1"/>
+      <c r="B64">
+        <v>8771</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1"/>
+      <c r="B65">
+        <v>3091</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1"/>
+      <c r="B66">
+        <v>2195</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1"/>
+      <c r="B67">
+        <v>1184</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1"/>
+      <c r="B68">
+        <v>2667</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1"/>
+      <c r="B69">
+        <v>5917</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1"/>
+      <c r="B70">
+        <v>3929</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1"/>
+      <c r="B71">
+        <v>3083</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1"/>
+      <c r="B72">
+        <v>7546</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
+    <mergeCell ref="A57:A72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="13335" windowHeight="7680"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>лр1</t>
   </si>
@@ -26,12 +26,18 @@
   <si>
     <t>лр3</t>
   </si>
+  <si>
+    <t>лр4</t>
+  </si>
+  <si>
+    <t>лр5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,17 +74,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -116,7 +127,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -150,6 +161,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -184,9 +196,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -359,27 +372,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1">
         <f ca="1">SUM(C:C)</f>
         <v>0</v>
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>5170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,7 +404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>1860</v>
@@ -401,7 +414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>4764</v>
@@ -411,7 +424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>2429</v>
@@ -421,7 +434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>7472</v>
@@ -431,7 +444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>3862</v>
@@ -441,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>9231</v>
@@ -451,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>8624</v>
@@ -461,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>2959</v>
@@ -471,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>7271</v>
@@ -481,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>2632</v>
@@ -491,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>4343</v>
@@ -501,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>1517</v>
@@ -511,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>1413</v>
@@ -521,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>9405</v>
@@ -531,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -543,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18">
         <v>9298</v>
@@ -553,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19">
         <v>3354</v>
@@ -563,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20">
         <v>8569</v>
@@ -573,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21">
         <v>3730</v>
@@ -583,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22">
         <v>9007</v>
@@ -593,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23">
         <v>5201</v>
@@ -603,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24">
         <v>2981</v>
@@ -613,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25">
         <v>4312</v>
@@ -623,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26">
         <v>8428</v>
@@ -633,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27">
         <v>2361</v>
@@ -643,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28">
         <v>5063</v>
@@ -653,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29">
         <v>7711</v>
@@ -663,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30">
         <v>8833</v>
@@ -673,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31">
         <v>1262</v>
@@ -683,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32">
         <v>9020</v>
@@ -693,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33">
         <v>1934</v>
@@ -703,17 +716,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34">
         <v>7237</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C72" ca="1" si="1">IF(B34=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <f t="shared" ref="C34:C97" ca="1" si="1">IF(B34=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35">
         <v>3943</v>
@@ -723,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36">
         <v>7619</v>
@@ -733,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37">
         <v>3832</v>
@@ -743,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38">
         <v>1346</v>
@@ -753,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39">
         <v>9622</v>
@@ -763,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40">
         <v>8873</v>
@@ -773,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41">
         <v>7799</v>
@@ -783,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42">
         <v>9354</v>
@@ -793,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43">
         <v>9130</v>
@@ -803,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44">
         <v>5895</v>
@@ -813,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45">
         <v>2461</v>
@@ -823,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46">
         <v>2790</v>
@@ -833,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47">
         <v>2624</v>
@@ -843,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48">
         <v>5871</v>
@@ -853,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49">
         <v>9164</v>
@@ -863,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50">
         <v>7457</v>
@@ -873,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51">
         <v>9865</v>
@@ -883,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52">
         <v>3591</v>
@@ -893,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53">
         <v>3558</v>
@@ -903,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54">
         <v>4366</v>
@@ -913,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55">
         <v>5789</v>
@@ -923,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56">
         <v>6522</v>
@@ -933,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -945,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58">
         <v>1288</v>
@@ -955,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59">
         <v>2614</v>
@@ -965,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60">
         <v>7170</v>
@@ -975,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61">
         <v>2709</v>
@@ -985,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62">
         <v>3402</v>
@@ -995,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63">
         <v>8781</v>
@@ -1005,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64">
         <v>8771</v>
@@ -1015,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65">
         <v>3091</v>
@@ -1025,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66">
         <v>2195</v>
@@ -1035,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67">
         <v>1184</v>
@@ -1045,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68">
         <v>2667</v>
@@ -1055,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69">
         <v>5917</v>
@@ -1065,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70">
         <v>3929</v>
@@ -1075,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71">
         <v>3083</v>
@@ -1085,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72">
         <v>7546</v>
@@ -1095,35 +1108,4988 @@
         <v>0</v>
       </c>
     </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>6912</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74">
+        <v>6598</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75">
+        <v>3093</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76">
+        <v>8805</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77">
+        <v>8158</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78">
+        <v>6499</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>3587</v>
+      </c>
+      <c r="C79">
+        <f ca="1">IF(B85=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>2217</v>
+      </c>
+      <c r="C80">
+        <f ca="1">IF(B86=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>1824</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ref="C81:C86" ca="1" si="2">IF(B79=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>2564</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>8487</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>8045</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>8878</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>3072</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>5980</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>8174</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>4257</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>2291</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>1763</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>5662</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>1945</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>1186</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>8715</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>8518</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>4847</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>7991</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ref="C98:C161" ca="1" si="3">IF(B98=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>6291</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>3770</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>7178</v>
+      </c>
+      <c r="C101">
+        <f ca="1">IF(B101=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>3883</v>
+      </c>
+      <c r="C102">
+        <f ca="1">IF(B102=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>4527</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <f t="shared" ref="C162:C225" ca="1" si="4">IF(B162=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <f t="shared" ref="C226:C289" ca="1" si="5">IF(B226=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290">
+        <f t="shared" ref="C290:C353" ca="1" si="6">IF(B290=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354">
+        <f t="shared" ref="C354:C417" ca="1" si="7">IF(B354=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C364">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C366">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C374">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C376">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C377">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C378">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C379">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C380">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C381">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C382">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C383">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C384">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C385">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C386">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C387">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C388">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C389">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C390">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C391">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C392">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C393">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C394">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C395">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C396">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C397">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C398">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C399">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C400">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C402">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C403">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C404">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C405">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C406">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C407">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C408">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C409">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C410">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C411">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C412">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C413">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C414">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C415">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C416">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C417">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C418">
+        <f t="shared" ref="C418:C481" ca="1" si="8">IF(B418=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C419">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C420">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C421">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C422">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C423">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C424">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C426">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C427">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C428">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C429">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C430">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C431">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C432">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C433">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C434">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C435">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C436">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C437">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C438">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C439">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C440">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C441">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C442">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C443">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C444">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C445">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C446">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C447">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C448">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C449">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C450">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C452">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C453">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C454">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C455">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C456">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C457">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C458">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C459">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C460">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C461">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C462">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C463">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C464">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C465">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C466">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C467">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C468">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C469">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C470">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C471">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C472">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C473">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C474">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C475">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C476">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C477">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C478">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C479">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C480">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C481">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C482">
+        <f t="shared" ref="C482:C545" ca="1" si="9">IF(B482=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C483">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C484">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C485">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C486">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C487">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C488">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C489">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C490">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C491">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C492">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C493">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C494">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C495">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C496">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C497">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C498">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C499">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C500">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C501">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C502">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C503">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C504">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C505">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C506">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C507">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C508">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C509">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C510">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C511">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C512">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C513">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C514">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C515">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C516">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C517">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C518">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C519">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C520">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C521">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C522">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C523">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C524">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C525">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C526">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C527">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C528">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C529">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C530">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C531">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C532">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C533">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C534">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C535">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C536">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C537">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C538">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C539">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C540">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C541">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C542">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C543">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C544">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C545">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C546">
+        <f t="shared" ref="C546:C609" ca="1" si="10">IF(B546=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C547">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C548">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C549">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C550">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C551">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C552">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C553">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C554">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C555">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C556">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C557">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C558">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C559">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C560">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C561">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C562">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C563">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C564">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C565">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C566">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C567">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C568">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C569">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C570">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C571">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C572">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C573">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C574">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C575">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C576">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C577">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C578">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C579">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C580">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C581">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C582">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C583">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C584">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C585">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C586">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C587">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C588">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C589">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C590">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C591">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C592">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C593">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C594">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C595">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C596">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C597">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C598">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C599">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C600">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C601">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C602">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C603">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C604">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C605">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C606">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C607">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C608">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C609">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C610">
+        <f t="shared" ref="C610:C673" ca="1" si="11">IF(B610=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C611">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C612">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C613">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C614">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C615">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C616">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C617">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C618">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C619">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C620">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C621">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C622">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C623">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C624">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C625">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C626">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C627">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C628">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C629">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C630">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C631">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C632">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C633">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C634">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C635">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C636">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C637">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C638">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C639">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C640">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C641">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C642">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C643">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C644">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C645">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C646">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C647">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C648">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C649">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C650">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C651">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C652">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C653">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C654">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C655">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C656">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C657">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C658">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C659">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C660">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C661">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C662">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C663">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C664">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C665">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C666">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C667">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C668">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C669">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C670">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C671">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C672">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C673">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C674">
+        <f t="shared" ref="C674:C737" ca="1" si="12">IF(B674=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C675">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C676">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C677">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C678">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C679">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C680">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C681">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C682">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C683">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C684">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C685">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C686">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C687">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C688">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C689">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C690">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C691">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C692">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C693">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C694">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C695">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C696">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C697">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C698">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C699">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C700">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C701">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C702">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C703">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C704">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C705">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C706">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C707">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C708">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C709">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C710">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C711">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C712">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C713">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C714">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C715">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C716">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C717">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C718">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C719">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C720">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C721">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C722">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C723">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C724">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C725">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C726">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C727">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C728">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C729">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C730">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C731">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C732">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C733">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C734">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C735">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C736">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C737">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C738">
+        <f t="shared" ref="C738:C801" ca="1" si="13">IF(B738=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C739">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C740">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C741">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C742">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C743">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C744">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C745">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C746">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C747">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C748">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C749">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C750">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C751">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C752">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C753">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C754">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C755">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C756">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C757">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C758">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C759">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C760">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C761">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C762">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C763">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C764">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C765">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C766">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C767">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C768">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C769">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C770">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C771">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C772">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C773">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C774">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C775">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C776">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C777">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C778">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C779">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C780">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C781">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C782">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C783">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C784">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C785">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C786">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C787">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C788">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C789">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C790">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C791">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C792">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C793">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C794">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C795">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C796">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C797">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C798">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C799">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C800">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C801">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C802">
+        <f t="shared" ref="C802:C865" ca="1" si="14">IF(B802=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C803">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C804">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C805">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C806">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C807">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C808">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C809">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C810">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C811">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C812">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C813">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C814">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C815">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C816">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C817">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C818">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C819">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C820">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C821">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C822">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C823">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C824">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C825">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C826">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C827">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C828">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C829">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C830">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C831">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C832">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C833">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C834">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C835">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C836">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C837">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C838">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C839">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C840">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C841">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C842">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C843">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C844">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C845">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C846">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C847">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C848">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C849">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C850">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C851">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C852">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C853">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C854">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C855">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C856">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C857">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C858">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C859">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C860">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C861">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C862">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C863">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C864">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C865">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C866">
+        <f t="shared" ref="C866:C880" ca="1" si="15">IF(B866=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C867">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C868">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C869">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C870">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C871">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C872">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C873">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C874">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C875">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C876">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C877">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C878">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C879">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C880">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
+    <mergeCell ref="A73:A78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="13335" windowHeight="7680"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -36,8 +36,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,7 +74,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -87,9 +87,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -127,7 +127,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -161,7 +161,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -196,10 +195,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -372,27 +370,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79:A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="D1">
         <f ca="1">SUM(C:C)</f>
         <v>0</v>
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>3661</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>1860</v>
@@ -414,7 +412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>4764</v>
@@ -424,7 +422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>2429</v>
@@ -434,7 +432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>7472</v>
@@ -444,7 +442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>3862</v>
@@ -454,7 +452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>9231</v>
@@ -464,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>8624</v>
@@ -474,7 +472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>2959</v>
@@ -484,7 +482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>7271</v>
@@ -494,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>2632</v>
@@ -504,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>4343</v>
@@ -514,7 +512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>1517</v>
@@ -524,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>1413</v>
@@ -534,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>9405</v>
@@ -544,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -556,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18">
         <v>9298</v>
@@ -566,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19">
         <v>3354</v>
@@ -576,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20">
         <v>8569</v>
@@ -586,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21">
         <v>3730</v>
@@ -596,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22">
         <v>9007</v>
@@ -606,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23">
         <v>5201</v>
@@ -616,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24">
         <v>2981</v>
@@ -626,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25">
         <v>4312</v>
@@ -636,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26">
         <v>8428</v>
@@ -646,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27">
         <v>2361</v>
@@ -656,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28">
         <v>5063</v>
@@ -666,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29">
         <v>7711</v>
@@ -676,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30">
         <v>8833</v>
@@ -686,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31">
         <v>1262</v>
@@ -696,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32">
         <v>9020</v>
@@ -706,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33">
         <v>1934</v>
@@ -716,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34">
         <v>7237</v>
@@ -726,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35">
         <v>3943</v>
@@ -736,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36">
         <v>7619</v>
@@ -746,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37">
         <v>3832</v>
@@ -756,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38">
         <v>1346</v>
@@ -766,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39">
         <v>9622</v>
@@ -776,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40">
         <v>8873</v>
@@ -786,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41">
         <v>7799</v>
@@ -796,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42">
         <v>9354</v>
@@ -806,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43">
         <v>9130</v>
@@ -816,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44">
         <v>5895</v>
@@ -826,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45">
         <v>2461</v>
@@ -836,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46">
         <v>2790</v>
@@ -846,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47">
         <v>2624</v>
@@ -856,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48">
         <v>5871</v>
@@ -866,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49">
         <v>9164</v>
@@ -876,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50">
         <v>7457</v>
@@ -886,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51">
         <v>9865</v>
@@ -896,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52">
         <v>3591</v>
@@ -906,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53">
         <v>3558</v>
@@ -916,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54">
         <v>4366</v>
@@ -926,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1"/>
       <c r="B55">
         <v>5789</v>
@@ -936,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1"/>
       <c r="B56">
         <v>6522</v>
@@ -946,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -958,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1"/>
       <c r="B58">
         <v>1288</v>
@@ -968,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1"/>
       <c r="B59">
         <v>2614</v>
@@ -978,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60">
         <v>7170</v>
@@ -988,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1"/>
       <c r="B61">
         <v>2709</v>
@@ -998,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1"/>
       <c r="B62">
         <v>3402</v>
@@ -1008,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1"/>
       <c r="B63">
         <v>8781</v>
@@ -1018,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64">
         <v>8771</v>
@@ -1028,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65">
         <v>3091</v>
@@ -1038,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1"/>
       <c r="B66">
         <v>2195</v>
@@ -1048,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67">
         <v>1184</v>
@@ -1058,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1"/>
       <c r="B68">
         <v>2667</v>
@@ -1068,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1"/>
       <c r="B69">
         <v>5917</v>
@@ -1078,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70">
         <v>3929</v>
@@ -1088,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71">
         <v>3083</v>
@@ -1098,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1"/>
       <c r="B72">
         <v>7546</v>
@@ -1108,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -1120,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1"/>
       <c r="B74">
         <v>6598</v>
@@ -1130,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75">
         <v>3093</v>
@@ -1140,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76">
         <v>8805</v>
@@ -1150,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1"/>
       <c r="B77">
         <v>8158</v>
@@ -1160,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1"/>
       <c r="B78">
         <v>6499</v>
@@ -1170,8 +1168,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B79">
@@ -1182,7 +1180,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
+      <c r="A80" s="1"/>
       <c r="B80">
         <v>2217</v>
       </c>
@@ -1191,7 +1190,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
+      <c r="A81" s="1"/>
       <c r="B81">
         <v>1824</v>
       </c>
@@ -1200,7 +1200,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
+      <c r="A82" s="1"/>
       <c r="B82">
         <v>2564</v>
       </c>
@@ -1209,7 +1210,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
+      <c r="A83" s="1"/>
       <c r="B83">
         <v>8487</v>
       </c>
@@ -1218,7 +1220,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
+      <c r="A84" s="1"/>
       <c r="B84">
         <v>8045</v>
       </c>
@@ -1227,7 +1230,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
+      <c r="A85" s="1"/>
       <c r="B85">
         <v>8878</v>
       </c>
@@ -1236,7 +1240,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
+      <c r="A86" s="1"/>
       <c r="B86">
         <v>3072</v>
       </c>
@@ -1245,7 +1250,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
+      <c r="A87" s="1"/>
       <c r="B87">
         <v>5980</v>
       </c>
@@ -1254,7 +1260,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
+      <c r="A88" s="1"/>
       <c r="B88">
         <v>8174</v>
       </c>
@@ -1263,7 +1270,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
+      <c r="A89" s="1"/>
       <c r="B89">
         <v>4257</v>
       </c>
@@ -1272,7 +1280,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
+      <c r="A90" s="1"/>
       <c r="B90">
         <v>2291</v>
       </c>
@@ -1281,7 +1290,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
+      <c r="A91" s="1"/>
       <c r="B91">
         <v>1763</v>
       </c>
@@ -1290,7 +1300,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
+      <c r="A92" s="1"/>
       <c r="B92">
         <v>5662</v>
       </c>
@@ -1299,7 +1310,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
+      <c r="A93" s="1"/>
       <c r="B93">
         <v>1945</v>
       </c>
@@ -1308,7 +1320,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
+      <c r="A94" s="1"/>
       <c r="B94">
         <v>1186</v>
       </c>
@@ -1317,7 +1330,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
+      <c r="A95" s="1"/>
       <c r="B95">
         <v>8715</v>
       </c>
@@ -1326,7 +1340,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
+      <c r="A96" s="1"/>
       <c r="B96">
         <v>8518</v>
       </c>
@@ -1335,7 +1350,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
+      <c r="A97" s="1"/>
       <c r="B97">
         <v>4847</v>
       </c>
@@ -1344,7 +1360,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
+      <c r="A98" s="1"/>
       <c r="B98">
         <v>7991</v>
       </c>
@@ -1353,7 +1370,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
+      <c r="A99" s="1"/>
       <c r="B99">
         <v>6291</v>
       </c>
@@ -1362,7 +1380,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
+      <c r="A100" s="1"/>
       <c r="B100">
         <v>3770</v>
       </c>
@@ -1371,7 +1390,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
+      <c r="A101" s="1"/>
       <c r="B101">
         <v>7178</v>
       </c>
@@ -1380,7 +1400,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
+      <c r="A102" s="1"/>
       <c r="B102">
         <v>3883</v>
       </c>
@@ -1389,7 +1410,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
+      <c r="A103" s="1"/>
       <c r="B103">
         <v>4527</v>
       </c>
@@ -1398,4698 +1420,4759 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
+      <c r="A104" s="1"/>
+      <c r="B104">
+        <v>6556</v>
+      </c>
       <c r="C104">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
+      <c r="A105" s="1"/>
+      <c r="B105">
+        <v>5635</v>
+      </c>
       <c r="C105">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
+      <c r="A106" s="1"/>
+      <c r="B106">
+        <v>3878</v>
+      </c>
       <c r="C106">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
+      <c r="A107" s="1"/>
+      <c r="B107">
+        <v>1217</v>
+      </c>
       <c r="C107">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
+      <c r="A108" s="1"/>
+      <c r="B108">
+        <v>1438</v>
+      </c>
       <c r="C108">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
+      <c r="A109" s="1"/>
+      <c r="B109">
+        <v>2153</v>
+      </c>
       <c r="C109">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
+      <c r="A110" s="1"/>
+      <c r="B110">
+        <v>7937</v>
+      </c>
       <c r="C110">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
+      <c r="A111" s="1"/>
+      <c r="B111">
+        <v>1999</v>
+      </c>
       <c r="C111">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
+      <c r="A112" s="1"/>
+      <c r="B112">
+        <v>4042</v>
+      </c>
       <c r="C112">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
+      <c r="A113" s="1"/>
+      <c r="B113">
+        <v>6351</v>
+      </c>
       <c r="C113">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
+      <c r="A114" s="1"/>
+      <c r="B114">
+        <v>5382</v>
+      </c>
       <c r="C114">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
+      <c r="A115" s="1"/>
+      <c r="B115">
+        <v>7088</v>
+      </c>
       <c r="C115">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
+      <c r="A116" s="1"/>
+      <c r="B116">
+        <v>7250</v>
+      </c>
       <c r="C116">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
+      <c r="A117" s="1"/>
+      <c r="B117">
+        <v>6740</v>
+      </c>
       <c r="C117">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
+      <c r="A118" s="1"/>
+      <c r="B118">
+        <v>9038</v>
+      </c>
       <c r="C118">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="C119">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="C120">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="C121">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="C122">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="C123">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="C124">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="C125">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="C126">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="C127">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="C128">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3">
       <c r="C129">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3">
       <c r="C130">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3">
       <c r="C131">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3">
       <c r="C132">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3">
       <c r="C133">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3">
       <c r="C134">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3">
       <c r="C135">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3">
       <c r="C136">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3">
       <c r="C137">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3">
       <c r="C138">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3">
       <c r="C139">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3">
       <c r="C140">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3">
       <c r="C141">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3">
       <c r="C142">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3">
       <c r="C143">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3">
       <c r="C144">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3">
       <c r="C145">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3">
       <c r="C146">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3">
       <c r="C147">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3">
       <c r="C148">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3">
       <c r="C149">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3">
       <c r="C150">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3">
       <c r="C151">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3">
       <c r="C152">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3">
       <c r="C153">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3">
       <c r="C154">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3">
       <c r="C155">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3">
       <c r="C156">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3">
       <c r="C157">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3">
       <c r="C158">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3">
       <c r="C159">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3">
       <c r="C160">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3">
       <c r="C161">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3">
       <c r="C162">
         <f t="shared" ref="C162:C225" ca="1" si="4">IF(B162=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3">
       <c r="C163">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3">
       <c r="C164">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3">
       <c r="C165">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3">
       <c r="C166">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3">
       <c r="C167">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3">
       <c r="C168">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3">
       <c r="C169">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3">
       <c r="C170">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3">
       <c r="C171">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3">
       <c r="C172">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3">
       <c r="C173">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3">
       <c r="C174">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3">
       <c r="C175">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3">
       <c r="C176">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3">
       <c r="C177">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3">
       <c r="C178">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3">
       <c r="C179">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3">
       <c r="C180">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3">
       <c r="C181">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3">
       <c r="C182">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3">
       <c r="C183">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3">
       <c r="C184">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3">
       <c r="C185">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3">
       <c r="C186">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3">
       <c r="C187">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3">
       <c r="C188">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3">
       <c r="C189">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3">
       <c r="C190">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3">
       <c r="C191">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3">
       <c r="C192">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3">
       <c r="C193">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3">
       <c r="C194">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3">
       <c r="C195">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3">
       <c r="C196">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3">
       <c r="C197">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3">
       <c r="C198">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3">
       <c r="C199">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3">
       <c r="C200">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3">
       <c r="C201">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3">
       <c r="C202">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3">
       <c r="C203">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3">
       <c r="C204">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3">
       <c r="C205">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3">
       <c r="C206">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3">
       <c r="C207">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3">
       <c r="C208">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3">
       <c r="C209">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3">
       <c r="C210">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3">
       <c r="C211">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3">
       <c r="C212">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3">
       <c r="C213">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3">
       <c r="C214">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3">
       <c r="C215">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3">
       <c r="C216">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3">
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3">
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3">
       <c r="C219">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3">
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3">
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3">
       <c r="C222">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3">
       <c r="C223">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3">
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3">
       <c r="C225">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3">
       <c r="C226">
         <f t="shared" ref="C226:C289" ca="1" si="5">IF(B226=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3">
       <c r="C227">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3">
       <c r="C228">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3">
       <c r="C229">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3">
       <c r="C230">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3">
       <c r="C231">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3">
       <c r="C232">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3">
       <c r="C233">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3">
       <c r="C234">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3">
       <c r="C235">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3">
       <c r="C236">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3">
       <c r="C237">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3">
       <c r="C238">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3">
       <c r="C239">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3">
       <c r="C240">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3">
       <c r="C241">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3">
       <c r="C242">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3">
       <c r="C243">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3">
       <c r="C244">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3">
       <c r="C245">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3">
       <c r="C246">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3">
       <c r="C247">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3">
       <c r="C248">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3">
       <c r="C249">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3">
       <c r="C250">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3">
       <c r="C251">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3">
       <c r="C252">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3">
       <c r="C253">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3">
       <c r="C254">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3">
       <c r="C255">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3">
       <c r="C256">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3">
       <c r="C257">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3">
       <c r="C258">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3">
       <c r="C259">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3">
       <c r="C260">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3">
       <c r="C261">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3">
       <c r="C262">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3">
       <c r="C263">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3">
       <c r="C264">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3">
       <c r="C265">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3">
       <c r="C266">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3">
       <c r="C267">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3">
       <c r="C268">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3">
       <c r="C269">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3">
       <c r="C270">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3">
       <c r="C271">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3">
       <c r="C272">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3">
       <c r="C273">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3">
       <c r="C274">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3">
       <c r="C275">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3">
       <c r="C276">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3">
       <c r="C277">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3">
       <c r="C278">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3">
       <c r="C279">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3">
       <c r="C280">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3">
       <c r="C281">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3">
       <c r="C282">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3">
       <c r="C283">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3">
       <c r="C284">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3">
       <c r="C285">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3">
       <c r="C286">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3">
       <c r="C287">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3">
       <c r="C288">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3">
       <c r="C289">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3">
       <c r="C290">
         <f t="shared" ref="C290:C353" ca="1" si="6">IF(B290=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3">
       <c r="C291">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3">
       <c r="C292">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3">
       <c r="C293">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3">
       <c r="C294">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3">
       <c r="C295">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3">
       <c r="C296">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3">
       <c r="C297">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3">
       <c r="C298">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3">
       <c r="C299">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3">
       <c r="C300">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3">
       <c r="C301">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3">
       <c r="C302">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3">
       <c r="C303">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3">
       <c r="C304">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3">
       <c r="C305">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3">
       <c r="C306">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3">
       <c r="C307">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3">
       <c r="C308">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3">
       <c r="C309">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3">
       <c r="C310">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3">
       <c r="C311">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3">
       <c r="C312">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3">
       <c r="C313">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3">
       <c r="C314">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3">
       <c r="C315">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3">
       <c r="C316">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3">
       <c r="C317">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3">
       <c r="C318">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3">
       <c r="C319">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3">
       <c r="C320">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3">
       <c r="C321">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3">
       <c r="C322">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3">
       <c r="C323">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3">
       <c r="C324">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3">
       <c r="C325">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3">
       <c r="C326">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3">
       <c r="C327">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3">
       <c r="C328">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3">
       <c r="C329">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3">
       <c r="C330">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3">
       <c r="C331">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3">
       <c r="C332">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3">
       <c r="C333">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3">
       <c r="C334">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3">
       <c r="C335">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3">
       <c r="C336">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3">
       <c r="C337">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3">
       <c r="C338">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3">
       <c r="C339">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3">
       <c r="C340">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3">
       <c r="C341">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3">
       <c r="C342">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3">
       <c r="C343">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3">
       <c r="C344">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3">
       <c r="C345">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3">
       <c r="C346">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3">
       <c r="C347">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3">
       <c r="C348">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3">
       <c r="C349">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3">
       <c r="C350">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3">
       <c r="C351">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3">
       <c r="C352">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3">
       <c r="C353">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3">
       <c r="C354">
         <f t="shared" ref="C354:C417" ca="1" si="7">IF(B354=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3">
       <c r="C355">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3">
       <c r="C356">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3">
       <c r="C357">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3">
       <c r="C358">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3">
       <c r="C359">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3">
       <c r="C360">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3">
       <c r="C361">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3">
       <c r="C362">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3">
       <c r="C363">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3">
       <c r="C364">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3">
       <c r="C365">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3">
       <c r="C366">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3">
       <c r="C367">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3">
       <c r="C368">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3">
       <c r="C369">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3">
       <c r="C370">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3">
       <c r="C371">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3">
       <c r="C372">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3">
       <c r="C373">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3">
       <c r="C374">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3">
       <c r="C375">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3">
       <c r="C376">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3">
       <c r="C377">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3">
       <c r="C378">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3">
       <c r="C379">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3">
       <c r="C380">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3">
       <c r="C381">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3">
       <c r="C382">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3">
       <c r="C383">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3">
       <c r="C384">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3">
       <c r="C385">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3">
       <c r="C386">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3">
       <c r="C387">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3">
       <c r="C388">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3">
       <c r="C389">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3">
       <c r="C390">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3">
       <c r="C391">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3">
       <c r="C392">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3">
       <c r="C393">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3">
       <c r="C394">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3">
       <c r="C395">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3">
       <c r="C396">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3">
       <c r="C397">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3">
       <c r="C398">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3">
       <c r="C399">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3">
       <c r="C400">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3">
       <c r="C401">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3">
       <c r="C402">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3">
       <c r="C403">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3">
       <c r="C404">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3">
       <c r="C405">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3">
       <c r="C406">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3">
       <c r="C407">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3">
       <c r="C408">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3">
       <c r="C409">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3">
       <c r="C410">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3">
       <c r="C411">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3">
       <c r="C412">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3">
       <c r="C413">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3">
       <c r="C414">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3">
       <c r="C415">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3">
       <c r="C416">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3">
       <c r="C417">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3">
       <c r="C418">
         <f t="shared" ref="C418:C481" ca="1" si="8">IF(B418=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3">
       <c r="C419">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3">
       <c r="C420">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3">
       <c r="C421">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3">
       <c r="C422">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3">
       <c r="C423">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3">
       <c r="C424">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3">
       <c r="C425">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3">
       <c r="C426">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3">
       <c r="C427">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3">
       <c r="C428">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3">
       <c r="C429">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3">
       <c r="C430">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3">
       <c r="C431">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3">
       <c r="C432">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3">
       <c r="C433">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3">
       <c r="C434">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3">
       <c r="C435">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3">
       <c r="C436">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3">
       <c r="C437">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3">
       <c r="C438">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3">
       <c r="C439">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3">
       <c r="C440">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3">
       <c r="C441">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3">
       <c r="C442">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3">
       <c r="C443">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3">
       <c r="C444">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3">
       <c r="C445">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3">
       <c r="C446">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3">
       <c r="C447">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3">
       <c r="C448">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3">
       <c r="C449">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3">
       <c r="C450">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3">
       <c r="C451">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3">
       <c r="C452">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3">
       <c r="C453">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3">
       <c r="C454">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3">
       <c r="C455">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3">
       <c r="C456">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3">
       <c r="C457">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3">
       <c r="C458">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3">
       <c r="C459">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3">
       <c r="C460">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3">
       <c r="C461">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3">
       <c r="C462">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3">
       <c r="C463">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3">
       <c r="C464">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3">
       <c r="C465">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3">
       <c r="C466">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3">
       <c r="C467">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3">
       <c r="C468">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3">
       <c r="C469">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3">
       <c r="C470">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3">
       <c r="C471">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3">
       <c r="C472">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3">
       <c r="C473">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3">
       <c r="C474">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3">
       <c r="C475">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3">
       <c r="C476">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3">
       <c r="C477">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3">
       <c r="C478">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3">
       <c r="C479">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3">
       <c r="C480">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3">
       <c r="C481">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3">
       <c r="C482">
         <f t="shared" ref="C482:C545" ca="1" si="9">IF(B482=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3">
       <c r="C483">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3">
       <c r="C484">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3">
       <c r="C485">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3">
       <c r="C486">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3">
       <c r="C487">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3">
       <c r="C488">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3">
       <c r="C489">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3">
       <c r="C490">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3">
       <c r="C491">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3">
       <c r="C492">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3">
       <c r="C493">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3">
       <c r="C494">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3">
       <c r="C495">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3">
       <c r="C496">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3">
       <c r="C497">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3">
       <c r="C498">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3">
       <c r="C499">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3">
       <c r="C500">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3">
       <c r="C501">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3">
       <c r="C502">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3">
       <c r="C503">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3">
       <c r="C504">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3">
       <c r="C505">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3">
       <c r="C506">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3">
       <c r="C507">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3">
       <c r="C508">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3">
       <c r="C509">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3">
       <c r="C510">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3">
       <c r="C511">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3">
       <c r="C512">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3">
       <c r="C513">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3">
       <c r="C514">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3">
       <c r="C515">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3">
       <c r="C516">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3">
       <c r="C517">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3">
       <c r="C518">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3">
       <c r="C519">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3">
       <c r="C520">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3">
       <c r="C521">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3">
       <c r="C522">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3">
       <c r="C523">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3">
       <c r="C524">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3">
       <c r="C525">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3">
       <c r="C526">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3">
       <c r="C527">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3">
       <c r="C528">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3">
       <c r="C529">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3">
       <c r="C530">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3">
       <c r="C531">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3">
       <c r="C532">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3">
       <c r="C533">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3">
       <c r="C534">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3">
       <c r="C535">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3">
       <c r="C536">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3">
       <c r="C537">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3">
       <c r="C538">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3">
       <c r="C539">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3">
       <c r="C540">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3">
       <c r="C541">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3">
       <c r="C542">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3">
       <c r="C543">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3">
       <c r="C544">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3">
       <c r="C545">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3">
       <c r="C546">
         <f t="shared" ref="C546:C609" ca="1" si="10">IF(B546=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3">
       <c r="C547">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3">
       <c r="C548">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3">
       <c r="C549">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3">
       <c r="C550">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3">
       <c r="C551">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3">
       <c r="C552">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3">
       <c r="C553">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3">
       <c r="C554">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3">
       <c r="C555">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3">
       <c r="C556">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3">
       <c r="C557">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3">
       <c r="C558">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3">
       <c r="C559">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3">
       <c r="C560">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3">
       <c r="C561">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3">
       <c r="C562">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3">
       <c r="C563">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3">
       <c r="C564">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3">
       <c r="C565">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3">
       <c r="C566">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3">
       <c r="C567">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3">
       <c r="C568">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3">
       <c r="C569">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3">
       <c r="C570">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3">
       <c r="C571">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3">
       <c r="C572">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3">
       <c r="C573">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3">
       <c r="C574">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3">
       <c r="C575">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3">
       <c r="C576">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3">
       <c r="C577">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3">
       <c r="C578">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3">
       <c r="C579">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3">
       <c r="C580">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3">
       <c r="C581">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3">
       <c r="C582">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3">
       <c r="C583">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3">
       <c r="C584">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3">
       <c r="C585">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3">
       <c r="C586">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3">
       <c r="C587">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3">
       <c r="C588">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3">
       <c r="C589">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3">
       <c r="C590">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3">
       <c r="C591">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3">
       <c r="C592">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3">
       <c r="C593">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3">
       <c r="C594">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3">
       <c r="C595">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3">
       <c r="C596">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3">
       <c r="C597">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3">
       <c r="C598">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3">
       <c r="C599">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3">
       <c r="C600">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3">
       <c r="C601">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3">
       <c r="C602">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3">
       <c r="C603">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3">
       <c r="C604">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3">
       <c r="C605">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3">
       <c r="C606">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3">
       <c r="C607">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3">
       <c r="C608">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3">
       <c r="C609">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3">
       <c r="C610">
         <f t="shared" ref="C610:C673" ca="1" si="11">IF(B610=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3">
       <c r="C611">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3">
       <c r="C612">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3">
       <c r="C613">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3">
       <c r="C614">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3">
       <c r="C615">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3">
       <c r="C616">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3">
       <c r="C617">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3">
       <c r="C618">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3">
       <c r="C619">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3">
       <c r="C620">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3">
       <c r="C621">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3">
       <c r="C622">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3">
       <c r="C623">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3">
       <c r="C624">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3">
       <c r="C625">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3">
       <c r="C626">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3">
       <c r="C627">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3">
       <c r="C628">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3">
       <c r="C629">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3">
       <c r="C630">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3">
       <c r="C631">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3">
       <c r="C632">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3">
       <c r="C633">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3">
       <c r="C634">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3">
       <c r="C635">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3">
       <c r="C636">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3">
       <c r="C637">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3">
       <c r="C638">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3">
       <c r="C639">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3">
       <c r="C640">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3">
       <c r="C641">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3">
       <c r="C642">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3">
       <c r="C643">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3">
       <c r="C644">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3">
       <c r="C645">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3">
       <c r="C646">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3">
       <c r="C647">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3">
       <c r="C648">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3">
       <c r="C649">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3">
       <c r="C650">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3">
       <c r="C651">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3">
       <c r="C652">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3">
       <c r="C653">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3">
       <c r="C654">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3">
       <c r="C655">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3">
       <c r="C656">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3">
       <c r="C657">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3">
       <c r="C658">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3">
       <c r="C659">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3">
       <c r="C660">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3">
       <c r="C661">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3">
       <c r="C662">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3">
       <c r="C663">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3">
       <c r="C664">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3">
       <c r="C665">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3">
       <c r="C666">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3">
       <c r="C667">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3">
       <c r="C668">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3">
       <c r="C669">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3">
       <c r="C670">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3">
       <c r="C671">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3">
       <c r="C672">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3">
       <c r="C673">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3">
       <c r="C674">
         <f t="shared" ref="C674:C737" ca="1" si="12">IF(B674=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3">
       <c r="C675">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3">
       <c r="C676">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3">
       <c r="C677">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3">
       <c r="C678">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3">
       <c r="C679">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3">
       <c r="C680">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3">
       <c r="C681">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3">
       <c r="C682">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3">
       <c r="C683">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3">
       <c r="C684">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3">
       <c r="C685">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3">
       <c r="C686">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3">
       <c r="C687">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3">
       <c r="C688">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3">
       <c r="C689">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3">
       <c r="C690">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3">
       <c r="C691">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3">
       <c r="C692">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3">
       <c r="C693">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3">
       <c r="C694">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3">
       <c r="C695">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3">
       <c r="C696">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3">
       <c r="C697">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3">
       <c r="C698">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3">
       <c r="C699">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3">
       <c r="C700">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3">
       <c r="C701">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3">
       <c r="C702">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3">
       <c r="C703">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3">
       <c r="C704">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3">
       <c r="C705">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3">
       <c r="C706">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3">
       <c r="C707">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3">
       <c r="C708">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3">
       <c r="C709">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3">
       <c r="C710">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3">
       <c r="C711">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3">
       <c r="C712">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3">
       <c r="C713">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3">
       <c r="C714">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3">
       <c r="C715">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3">
       <c r="C716">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3">
       <c r="C717">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3">
       <c r="C718">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3">
       <c r="C719">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3">
       <c r="C720">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3">
       <c r="C721">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3">
       <c r="C722">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3">
       <c r="C723">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3">
       <c r="C724">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3">
       <c r="C725">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3">
       <c r="C726">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3">
       <c r="C727">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3">
       <c r="C728">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3">
       <c r="C729">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3">
       <c r="C730">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3">
       <c r="C731">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3">
       <c r="C732">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3">
       <c r="C733">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3">
       <c r="C734">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3">
       <c r="C735">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3">
       <c r="C736">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3">
       <c r="C737">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3">
       <c r="C738">
         <f t="shared" ref="C738:C801" ca="1" si="13">IF(B738=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3">
       <c r="C739">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3">
       <c r="C740">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3">
       <c r="C741">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3">
       <c r="C742">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3">
       <c r="C743">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3">
       <c r="C744">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3">
       <c r="C745">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3">
       <c r="C746">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3">
       <c r="C747">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3">
       <c r="C748">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3">
       <c r="C749">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3">
       <c r="C750">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3">
       <c r="C751">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3">
       <c r="C752">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3">
       <c r="C753">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3">
       <c r="C754">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3">
       <c r="C755">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3">
       <c r="C756">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3">
       <c r="C757">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3">
       <c r="C758">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3">
       <c r="C759">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3">
       <c r="C760">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3">
       <c r="C761">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3">
       <c r="C762">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3">
       <c r="C763">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3">
       <c r="C764">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3">
       <c r="C765">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3">
       <c r="C766">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3">
       <c r="C767">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3">
       <c r="C768">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3">
       <c r="C769">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3">
       <c r="C770">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3">
       <c r="C771">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3">
       <c r="C772">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3">
       <c r="C773">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3">
       <c r="C774">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3">
       <c r="C775">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3">
       <c r="C776">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3">
       <c r="C777">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3">
       <c r="C778">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3">
       <c r="C779">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3">
       <c r="C780">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3">
       <c r="C781">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3">
       <c r="C782">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3">
       <c r="C783">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3">
       <c r="C784">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3">
       <c r="C785">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3">
       <c r="C786">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3">
       <c r="C787">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3">
       <c r="C788">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3">
       <c r="C789">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3">
       <c r="C790">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3">
       <c r="C791">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3">
       <c r="C792">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3">
       <c r="C793">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3">
       <c r="C794">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3">
       <c r="C795">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3">
       <c r="C796">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3">
       <c r="C797">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3">
       <c r="C798">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3">
       <c r="C799">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3">
       <c r="C800">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3">
       <c r="C801">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3">
       <c r="C802">
         <f t="shared" ref="C802:C865" ca="1" si="14">IF(B802=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3">
       <c r="C803">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3">
       <c r="C804">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3">
       <c r="C805">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3">
       <c r="C806">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3">
       <c r="C807">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3">
       <c r="C808">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3">
       <c r="C809">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3">
       <c r="C810">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3">
       <c r="C811">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3">
       <c r="C812">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3">
       <c r="C813">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3">
       <c r="C814">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3">
       <c r="C815">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3">
       <c r="C816">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3">
       <c r="C817">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3">
       <c r="C818">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3">
       <c r="C819">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3">
       <c r="C820">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3">
       <c r="C821">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3">
       <c r="C822">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3">
       <c r="C823">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3">
       <c r="C824">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3">
       <c r="C825">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3">
       <c r="C826">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3">
       <c r="C827">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3">
       <c r="C828">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3">
       <c r="C829">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3">
       <c r="C830">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3">
       <c r="C831">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3">
       <c r="C832">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3">
       <c r="C833">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3">
       <c r="C834">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3">
       <c r="C835">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3">
       <c r="C836">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3">
       <c r="C837">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3">
       <c r="C838">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3">
       <c r="C839">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3">
       <c r="C840">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3">
       <c r="C841">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3">
       <c r="C842">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3">
       <c r="C843">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3">
       <c r="C844">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3">
       <c r="C845">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3">
       <c r="C846">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3">
       <c r="C847">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3">
       <c r="C848">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3">
       <c r="C849">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3">
       <c r="C850">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3">
       <c r="C851">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3">
       <c r="C852">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3">
       <c r="C853">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3">
       <c r="C854">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3">
       <c r="C855">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3">
       <c r="C856">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3">
       <c r="C857">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3">
       <c r="C858">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3">
       <c r="C859">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3">
       <c r="C860">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3">
       <c r="C861">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3">
       <c r="C862">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3">
       <c r="C863">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3">
       <c r="C864">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3">
       <c r="C865">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3">
       <c r="C866">
         <f t="shared" ref="C866:C880" ca="1" si="15">IF(B866=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3">
       <c r="C867">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3">
       <c r="C868">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3">
       <c r="C869">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3">
       <c r="C870">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3">
       <c r="C871">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3">
       <c r="C872">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3">
       <c r="C873">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3">
       <c r="C874">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3">
       <c r="C875">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3">
       <c r="C876">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3">
       <c r="C877">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3">
       <c r="C878">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3">
       <c r="C879">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3">
       <c r="C880">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
     <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A79:A118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>лр1</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>лр5</t>
+  </si>
+  <si>
+    <t>лр6</t>
   </si>
 </sst>
 </file>
@@ -374,8 +377,8 @@
   <dimension ref="A1:E880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79:A118"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119:A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -387,7 +390,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>7400</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1571,252 +1574,394 @@
       </c>
     </row>
     <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119">
+        <v>7779</v>
+      </c>
       <c r="C119">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
+      <c r="A120" s="1"/>
+      <c r="B120">
+        <v>8495</v>
+      </c>
       <c r="C120">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
+      <c r="A121" s="1"/>
+      <c r="B121">
+        <v>1315</v>
+      </c>
       <c r="C121">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
+      <c r="A122" s="1"/>
+      <c r="B122">
+        <v>6066</v>
+      </c>
       <c r="C122">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
+      <c r="A123" s="1"/>
+      <c r="B123">
+        <v>2565</v>
+      </c>
       <c r="C123">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
+      <c r="A124" s="1"/>
+      <c r="B124">
+        <v>2594</v>
+      </c>
       <c r="C124">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
+      <c r="A125" s="1"/>
+      <c r="B125">
+        <v>3762</v>
+      </c>
       <c r="C125">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
+      <c r="A126" s="1"/>
+      <c r="B126">
+        <v>3550</v>
+      </c>
       <c r="C126">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
+      <c r="A127" s="1"/>
+      <c r="B127">
+        <v>2475</v>
+      </c>
       <c r="C127">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
+      <c r="A128" s="1"/>
+      <c r="B128">
+        <v>9180</v>
+      </c>
       <c r="C128">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:3">
+    <row r="129" spans="1:3">
+      <c r="A129" s="1"/>
+      <c r="B129">
+        <v>1544</v>
+      </c>
       <c r="C129">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="1:3">
+      <c r="A130" s="1"/>
+      <c r="B130">
+        <v>9562</v>
+      </c>
       <c r="C130">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:3">
+    <row r="131" spans="1:3">
+      <c r="A131" s="1"/>
+      <c r="B131">
+        <v>3669</v>
+      </c>
       <c r="C131">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="1:3">
+      <c r="A132" s="1"/>
+      <c r="B132">
+        <v>5951</v>
+      </c>
       <c r="C132">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="1:3">
+      <c r="A133" s="1"/>
+      <c r="B133">
+        <v>2802</v>
+      </c>
       <c r="C133">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="1:3">
+      <c r="A134" s="1"/>
+      <c r="B134">
+        <v>6580</v>
+      </c>
       <c r="C134">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:3">
+    <row r="135" spans="1:3">
+      <c r="A135" s="1"/>
+      <c r="B135">
+        <v>7585</v>
+      </c>
       <c r="C135">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="1:3">
+      <c r="A136" s="1"/>
+      <c r="B136">
+        <v>8770</v>
+      </c>
       <c r="C136">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:3">
+    <row r="137" spans="1:3">
+      <c r="A137" s="1"/>
+      <c r="B137">
+        <v>4236</v>
+      </c>
       <c r="C137">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="1:3">
+      <c r="A138" s="1"/>
+      <c r="B138">
+        <v>5969</v>
+      </c>
       <c r="C138">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:3">
+    <row r="139" spans="1:3">
+      <c r="A139" s="1"/>
+      <c r="B139">
+        <v>8696</v>
+      </c>
       <c r="C139">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="1:3">
+      <c r="A140" s="1"/>
+      <c r="B140">
+        <v>8418</v>
+      </c>
       <c r="C140">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:3">
+    <row r="141" spans="1:3">
+      <c r="A141" s="1"/>
+      <c r="B141">
+        <v>8395</v>
+      </c>
       <c r="C141">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="1:3">
+      <c r="A142" s="1"/>
+      <c r="B142">
+        <v>5568</v>
+      </c>
       <c r="C142">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:3">
+    <row r="143" spans="1:3">
+      <c r="A143" s="1"/>
+      <c r="B143">
+        <v>2592</v>
+      </c>
       <c r="C143">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:3">
+    <row r="144" spans="1:3">
+      <c r="A144" s="1"/>
+      <c r="B144">
+        <v>4075</v>
+      </c>
       <c r="C144">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:3">
+    <row r="145" spans="1:3">
+      <c r="A145" s="1"/>
+      <c r="B145">
+        <v>7517</v>
+      </c>
       <c r="C145">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:3">
+    <row r="146" spans="1:3">
+      <c r="A146" s="1"/>
+      <c r="B146">
+        <v>5448</v>
+      </c>
       <c r="C146">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:3">
+    <row r="147" spans="1:3">
+      <c r="A147" s="1"/>
+      <c r="B147">
+        <v>6572</v>
+      </c>
       <c r="C147">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:3">
+    <row r="148" spans="1:3">
+      <c r="A148" s="1"/>
+      <c r="B148">
+        <v>5238</v>
+      </c>
       <c r="C148">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:3">
+    <row r="149" spans="1:3">
+      <c r="A149" s="1"/>
+      <c r="B149">
+        <v>2084</v>
+      </c>
       <c r="C149">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:3">
+    <row r="150" spans="1:3">
+      <c r="A150" s="1"/>
+      <c r="B150">
+        <v>5411</v>
+      </c>
       <c r="C150">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:3">
+    <row r="151" spans="1:3">
+      <c r="A151" s="1"/>
+      <c r="B151">
+        <v>5171</v>
+      </c>
       <c r="C151">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:3">
+    <row r="152" spans="1:3">
+      <c r="A152" s="1"/>
+      <c r="B152">
+        <v>1862</v>
+      </c>
       <c r="C152">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:3">
+    <row r="153" spans="1:3">
+      <c r="A153" s="1"/>
+      <c r="B153">
+        <v>9238</v>
+      </c>
       <c r="C153">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:3">
+    <row r="154" spans="1:3">
       <c r="C154">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:3">
+    <row r="155" spans="1:3">
       <c r="C155">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:3">
+    <row r="156" spans="1:3">
       <c r="C156">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:3">
+    <row r="157" spans="1:3">
       <c r="C157">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:3">
+    <row r="158" spans="1:3">
       <c r="C158">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:3">
+    <row r="159" spans="1:3">
       <c r="C159">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:3">
+    <row r="160" spans="1:3">
       <c r="C160">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
@@ -6143,7 +6288,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A119:A153"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>лр1</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>лр6</t>
+  </si>
+  <si>
+    <t>лр7</t>
   </si>
 </sst>
 </file>
@@ -377,8 +380,8 @@
   <dimension ref="A1:E880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A119:A153"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A154" sqref="A154:A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -390,7 +393,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>3778</v>
+        <v>8995</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1926,138 +1929,184 @@
       </c>
     </row>
     <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154">
+        <v>8165</v>
+      </c>
       <c r="C154">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3">
+      <c r="A155" s="1"/>
+      <c r="B155">
+        <v>9001</v>
+      </c>
       <c r="C155">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3">
+      <c r="A156" s="1"/>
+      <c r="B156">
+        <v>9631</v>
+      </c>
       <c r="C156">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3">
+      <c r="A157" s="1"/>
+      <c r="B157">
+        <v>9812</v>
+      </c>
       <c r="C157">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
+      <c r="A158" s="1"/>
+      <c r="B158">
+        <v>5728</v>
+      </c>
       <c r="C158">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3">
+      <c r="A159" s="1"/>
+      <c r="B159">
+        <v>7491</v>
+      </c>
       <c r="C159">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3">
+      <c r="A160" s="1"/>
+      <c r="B160">
+        <v>5923</v>
+      </c>
       <c r="C160">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:3">
+    <row r="161" spans="1:3">
+      <c r="A161" s="1"/>
+      <c r="B161">
+        <v>4265</v>
+      </c>
       <c r="C161">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:3">
+    <row r="162" spans="1:3">
+      <c r="A162" s="1"/>
+      <c r="B162">
+        <v>2166</v>
+      </c>
       <c r="C162">
         <f t="shared" ref="C162:C225" ca="1" si="4">IF(B162=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:3">
+    <row r="163" spans="1:3">
+      <c r="A163" s="1"/>
+      <c r="B163">
+        <v>9116</v>
+      </c>
       <c r="C163">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:3">
+    <row r="164" spans="1:3">
+      <c r="A164" s="1"/>
+      <c r="B164">
+        <v>9925</v>
+      </c>
       <c r="C164">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:3">
+    <row r="165" spans="1:3">
       <c r="C165">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:3">
+    <row r="166" spans="1:3">
       <c r="C166">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:3">
+    <row r="167" spans="1:3">
       <c r="C167">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:3">
+    <row r="168" spans="1:3">
       <c r="C168">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:3">
+    <row r="169" spans="1:3">
       <c r="C169">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:3">
+    <row r="170" spans="1:3">
       <c r="C170">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:3">
+    <row r="171" spans="1:3">
       <c r="C171">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:3">
+    <row r="172" spans="1:3">
       <c r="C172">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:3">
+    <row r="173" spans="1:3">
       <c r="C173">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:3">
+    <row r="174" spans="1:3">
       <c r="C174">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:3">
+    <row r="175" spans="1:3">
       <c r="C175">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:3">
+    <row r="176" spans="1:3">
       <c r="C176">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -6288,7 +6337,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A154:A164"/>
     <mergeCell ref="A119:A153"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>лр1</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>лр7</t>
+  </si>
+  <si>
+    <t>лр8</t>
   </si>
 </sst>
 </file>
@@ -380,8 +383,8 @@
   <dimension ref="A1:E880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A154" sqref="A154:A164"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A165" sqref="A165:A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -393,7 +396,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>8995</v>
+        <v>7506</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2041,168 +2044,274 @@
       </c>
     </row>
     <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165">
+        <v>2885</v>
+      </c>
       <c r="C165">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3">
+      <c r="A166" s="1"/>
+      <c r="B166">
+        <v>9931</v>
+      </c>
       <c r="C166">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3">
+      <c r="A167" s="1"/>
+      <c r="B167">
+        <v>1947</v>
+      </c>
       <c r="C167">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
+      <c r="A168" s="1"/>
+      <c r="B168">
+        <v>9696</v>
+      </c>
       <c r="C168">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3">
+      <c r="A169" s="1"/>
+      <c r="B169">
+        <v>1223</v>
+      </c>
       <c r="C169">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3">
+      <c r="A170" s="1"/>
+      <c r="B170">
+        <v>3946</v>
+      </c>
       <c r="C170">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3">
+      <c r="A171" s="1"/>
+      <c r="B171">
+        <v>8311</v>
+      </c>
       <c r="C171">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3">
+      <c r="A172" s="1"/>
+      <c r="B172">
+        <v>3134</v>
+      </c>
       <c r="C172">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3">
+      <c r="A173" s="1"/>
+      <c r="B173">
+        <v>9774</v>
+      </c>
       <c r="C173">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3">
+      <c r="A174" s="1"/>
+      <c r="B174">
+        <v>9711</v>
+      </c>
       <c r="C174">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3">
+      <c r="A175" s="1"/>
+      <c r="B175">
+        <v>3333</v>
+      </c>
       <c r="C175">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3">
+      <c r="A176" s="1"/>
+      <c r="B176">
+        <v>7290</v>
+      </c>
       <c r="C176">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:3">
+    <row r="177" spans="1:3">
+      <c r="A177" s="1"/>
+      <c r="B177">
+        <v>5694</v>
+      </c>
       <c r="C177">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:3">
+    <row r="178" spans="1:3">
+      <c r="A178" s="1"/>
+      <c r="B178">
+        <v>6806</v>
+      </c>
       <c r="C178">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:3">
+    <row r="179" spans="1:3">
+      <c r="A179" s="1"/>
+      <c r="B179">
+        <v>4515</v>
+      </c>
       <c r="C179">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:3">
+    <row r="180" spans="1:3">
+      <c r="A180" s="1"/>
+      <c r="B180">
+        <v>9271</v>
+      </c>
       <c r="C180">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:3">
+    <row r="181" spans="1:3">
+      <c r="A181" s="1"/>
+      <c r="B181">
+        <v>8769</v>
+      </c>
       <c r="C181">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:3">
+    <row r="182" spans="1:3">
+      <c r="A182" s="1"/>
+      <c r="B182">
+        <v>4497</v>
+      </c>
       <c r="C182">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:3">
+    <row r="183" spans="1:3">
+      <c r="A183" s="1"/>
+      <c r="B183">
+        <v>8820</v>
+      </c>
       <c r="C183">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:3">
+    <row r="184" spans="1:3">
+      <c r="A184" s="1"/>
+      <c r="B184">
+        <v>3218</v>
+      </c>
       <c r="C184">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:3">
+    <row r="185" spans="1:3">
+      <c r="A185" s="1"/>
+      <c r="B185">
+        <v>4283</v>
+      </c>
       <c r="C185">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:3">
+    <row r="186" spans="1:3">
+      <c r="A186" s="1"/>
+      <c r="B186">
+        <v>7703</v>
+      </c>
       <c r="C186">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:3">
+    <row r="187" spans="1:3">
+      <c r="A187" s="1"/>
+      <c r="B187">
+        <v>9182</v>
+      </c>
       <c r="C187">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:3">
+    <row r="188" spans="1:3">
+      <c r="A188" s="1"/>
+      <c r="B188">
+        <v>5541</v>
+      </c>
       <c r="C188">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:3">
+    <row r="189" spans="1:3">
+      <c r="A189" s="1"/>
+      <c r="B189">
+        <v>2386</v>
+      </c>
       <c r="C189">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:3">
+    <row r="190" spans="1:3">
+      <c r="A190" s="1"/>
+      <c r="B190">
+        <v>9159</v>
+      </c>
       <c r="C190">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:3">
+    <row r="191" spans="1:3">
       <c r="C191">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:3">
+    <row r="192" spans="1:3">
       <c r="C192">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -6337,7 +6446,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A165:A190"/>
     <mergeCell ref="A154:A164"/>
     <mergeCell ref="A119:A153"/>
     <mergeCell ref="A2:A16"/>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>лр1</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>лр8</t>
+  </si>
+  <si>
+    <t>лр9</t>
   </si>
 </sst>
 </file>
@@ -383,8 +386,8 @@
   <dimension ref="A1:E880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A165" sqref="A165:A190"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191:A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -396,7 +399,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>7506</v>
+        <v>7291</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2306,108 +2309,178 @@
       </c>
     </row>
     <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191">
+        <v>6175</v>
+      </c>
       <c r="C191">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3">
+      <c r="A192" s="1"/>
+      <c r="B192">
+        <v>4642</v>
+      </c>
       <c r="C192">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:3">
+    <row r="193" spans="1:3">
+      <c r="A193" s="1"/>
+      <c r="B193">
+        <v>9765</v>
+      </c>
       <c r="C193">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:3">
+    <row r="194" spans="1:3">
+      <c r="A194" s="1"/>
+      <c r="B194">
+        <v>4954</v>
+      </c>
       <c r="C194">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:3">
+    <row r="195" spans="1:3">
+      <c r="A195" s="1"/>
+      <c r="B195">
+        <v>5537</v>
+      </c>
       <c r="C195">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:3">
+    <row r="196" spans="1:3">
+      <c r="A196" s="1"/>
+      <c r="B196">
+        <v>6431</v>
+      </c>
       <c r="C196">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:3">
+    <row r="197" spans="1:3">
+      <c r="A197" s="1"/>
+      <c r="B197">
+        <v>7193</v>
+      </c>
       <c r="C197">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:3">
+    <row r="198" spans="1:3">
+      <c r="A198" s="1"/>
+      <c r="B198">
+        <v>5621</v>
+      </c>
       <c r="C198">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:3">
+    <row r="199" spans="1:3">
+      <c r="A199" s="1"/>
+      <c r="B199">
+        <v>5847</v>
+      </c>
       <c r="C199">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:3">
+    <row r="200" spans="1:3">
+      <c r="A200" s="1"/>
+      <c r="B200">
+        <v>4769</v>
+      </c>
       <c r="C200">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:3">
+    <row r="201" spans="1:3">
+      <c r="A201" s="1"/>
+      <c r="B201">
+        <v>9930</v>
+      </c>
       <c r="C201">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:3">
+    <row r="202" spans="1:3">
+      <c r="A202" s="1"/>
+      <c r="B202">
+        <v>6861</v>
+      </c>
       <c r="C202">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:3">
+    <row r="203" spans="1:3">
+      <c r="A203" s="1"/>
+      <c r="B203">
+        <v>2205</v>
+      </c>
       <c r="C203">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:3">
+    <row r="204" spans="1:3">
+      <c r="A204" s="1"/>
+      <c r="B204">
+        <v>4372</v>
+      </c>
       <c r="C204">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:3">
+    <row r="205" spans="1:3">
+      <c r="A205" s="1"/>
+      <c r="B205">
+        <v>4463</v>
+      </c>
       <c r="C205">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:3">
+    <row r="206" spans="1:3">
+      <c r="A206" s="1"/>
+      <c r="B206">
+        <v>1668</v>
+      </c>
       <c r="C206">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:3">
+    <row r="207" spans="1:3">
+      <c r="A207" s="1"/>
+      <c r="B207">
+        <v>2137</v>
+      </c>
       <c r="C207">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:3">
+    <row r="208" spans="1:3">
       <c r="C208">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -6446,7 +6519,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A191:A207"/>
     <mergeCell ref="A165:A190"/>
     <mergeCell ref="A154:A164"/>
     <mergeCell ref="A119:A153"/>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>лр1</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>лр9</t>
+  </si>
+  <si>
+    <t>лр10</t>
   </si>
 </sst>
 </file>
@@ -386,8 +389,8 @@
   <dimension ref="A1:E880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A191" sqref="A191:A207"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A208" sqref="A208:A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -399,7 +402,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>7291</v>
+        <v>9730</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2481,102 +2484,124 @@
       </c>
     </row>
     <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208">
+        <v>9300</v>
+      </c>
       <c r="C208">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:3">
+    <row r="209" spans="1:3">
+      <c r="A209" s="1"/>
+      <c r="B209">
+        <v>3951</v>
+      </c>
       <c r="C209">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:3">
+    <row r="210" spans="1:3">
+      <c r="A210" s="1"/>
+      <c r="B210">
+        <v>6409</v>
+      </c>
       <c r="C210">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:3">
+    <row r="211" spans="1:3">
+      <c r="A211" s="1"/>
+      <c r="B211">
+        <v>7343</v>
+      </c>
       <c r="C211">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:3">
+    <row r="212" spans="1:3">
+      <c r="A212" s="1"/>
+      <c r="B212">
+        <v>7060</v>
+      </c>
       <c r="C212">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:3">
+    <row r="213" spans="1:3">
       <c r="C213">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:3">
+    <row r="214" spans="1:3">
       <c r="C214">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:3">
+    <row r="215" spans="1:3">
       <c r="C215">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:3">
+    <row r="216" spans="1:3">
       <c r="C216">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:3">
+    <row r="217" spans="1:3">
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:3">
+    <row r="218" spans="1:3">
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:3">
+    <row r="219" spans="1:3">
       <c r="C219">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:3">
+    <row r="220" spans="1:3">
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:3">
+    <row r="221" spans="1:3">
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:3">
+    <row r="222" spans="1:3">
       <c r="C222">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:3">
+    <row r="223" spans="1:3">
       <c r="C223">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:3">
+    <row r="224" spans="1:3">
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -6519,7 +6544,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A208:A212"/>
     <mergeCell ref="A191:A207"/>
     <mergeCell ref="A165:A190"/>
     <mergeCell ref="A154:A164"/>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>лр1</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>лр10</t>
+  </si>
+  <si>
+    <t>лр11</t>
+  </si>
+  <si>
+    <t>лр12</t>
+  </si>
+  <si>
+    <t>лр14</t>
   </si>
 </sst>
 </file>
@@ -389,8 +398,8 @@
   <dimension ref="A1:E880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A208" sqref="A208:A212"/>
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A222" sqref="A222:A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -402,7 +411,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>9730</v>
+        <v>9257</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2536,168 +2545,278 @@
       </c>
     </row>
     <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213">
+        <v>9299</v>
+      </c>
       <c r="C213">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3">
+      <c r="A214" s="1"/>
+      <c r="B214">
+        <v>7560</v>
+      </c>
       <c r="C214">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3">
+      <c r="A215" s="1"/>
+      <c r="B215">
+        <v>9002</v>
+      </c>
       <c r="C215">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3">
+      <c r="A216" s="1"/>
+      <c r="B216">
+        <v>7432</v>
+      </c>
       <c r="C216">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3">
+      <c r="A217" s="1"/>
+      <c r="B217">
+        <v>1954</v>
+      </c>
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3">
+      <c r="A218" s="1"/>
+      <c r="B218">
+        <v>2048</v>
+      </c>
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B219">
+        <v>3939</v>
+      </c>
       <c r="C219">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3">
+      <c r="A220" s="1"/>
+      <c r="B220">
+        <v>1516</v>
+      </c>
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3">
+      <c r="A221" s="1"/>
+      <c r="B221">
+        <v>9062</v>
+      </c>
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B222">
+        <v>8403</v>
+      </c>
       <c r="C222">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3">
+      <c r="A223" s="1"/>
+      <c r="B223">
+        <v>3185</v>
+      </c>
       <c r="C223">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3">
+      <c r="A224" s="1"/>
+      <c r="B224">
+        <v>9914</v>
+      </c>
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:3">
+    <row r="225" spans="1:3">
+      <c r="A225" s="1"/>
+      <c r="B225">
+        <v>6011</v>
+      </c>
       <c r="C225">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:3">
+    <row r="226" spans="1:3">
+      <c r="A226" s="1"/>
+      <c r="B226">
+        <v>6037</v>
+      </c>
       <c r="C226">
         <f t="shared" ref="C226:C289" ca="1" si="5">IF(B226=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:3">
+    <row r="227" spans="1:3">
+      <c r="A227" s="1"/>
+      <c r="B227">
+        <v>2809</v>
+      </c>
       <c r="C227">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:3">
+    <row r="228" spans="1:3">
+      <c r="A228" s="1"/>
+      <c r="B228">
+        <v>7297</v>
+      </c>
       <c r="C228">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:3">
+    <row r="229" spans="1:3">
+      <c r="A229" s="1"/>
+      <c r="B229">
+        <v>5242</v>
+      </c>
       <c r="C229">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:3">
+    <row r="230" spans="1:3">
+      <c r="A230" s="1"/>
+      <c r="B230">
+        <v>1379</v>
+      </c>
       <c r="C230">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:3">
+    <row r="231" spans="1:3">
+      <c r="A231" s="1"/>
+      <c r="B231">
+        <v>2401</v>
+      </c>
       <c r="C231">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:3">
+    <row r="232" spans="1:3">
+      <c r="A232" s="1"/>
+      <c r="B232">
+        <v>5421</v>
+      </c>
       <c r="C232">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:3">
+    <row r="233" spans="1:3">
+      <c r="A233" s="1"/>
+      <c r="B233">
+        <v>7301</v>
+      </c>
       <c r="C233">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:3">
+    <row r="234" spans="1:3">
+      <c r="A234" s="1"/>
+      <c r="B234">
+        <v>2000</v>
+      </c>
       <c r="C234">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:3">
+    <row r="235" spans="1:3">
+      <c r="A235" s="1"/>
+      <c r="B235">
+        <v>4147</v>
+      </c>
       <c r="C235">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:3">
+    <row r="236" spans="1:3">
+      <c r="A236" s="1"/>
+      <c r="B236">
+        <v>1953</v>
+      </c>
       <c r="C236">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:3">
+    <row r="237" spans="1:3">
+      <c r="A237" s="1"/>
+      <c r="B237">
+        <v>3956</v>
+      </c>
       <c r="C237">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:3">
+    <row r="238" spans="1:3">
+      <c r="A238" s="1"/>
+      <c r="B238">
+        <v>5463</v>
+      </c>
       <c r="C238">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:3">
+    <row r="239" spans="1:3">
       <c r="C239">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:3">
+    <row r="240" spans="1:3">
       <c r="C240">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
@@ -6544,17 +6663,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="A213:A218"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="A222:A238"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A56"/>
+    <mergeCell ref="A57:A72"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A79:A118"/>
     <mergeCell ref="A208:A212"/>
     <mergeCell ref="A191:A207"/>
     <mergeCell ref="A165:A190"/>
     <mergeCell ref="A154:A164"/>
     <mergeCell ref="A119:A153"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A56"/>
-    <mergeCell ref="A57:A72"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A79:A118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -395,11 +395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E880"/>
+  <dimension ref="A1:E881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A222" sqref="A222:A238"/>
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,11 +407,11 @@
     <row r="1" spans="1:5">
       <c r="D1">
         <f ca="1">SUM(C:C)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>9257</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2034,7 +2034,7 @@
         <v>2166</v>
       </c>
       <c r="C162">
-        <f t="shared" ref="C162:C225" ca="1" si="4">IF(B162=$E$1,1,0)</f>
+        <f t="shared" ref="C162:C226" ca="1" si="4">IF(B162=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
     <row r="220" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220">
-        <v>1516</v>
+        <v>8861</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
@@ -2631,7 +2631,7 @@
     <row r="221" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221">
-        <v>9062</v>
+        <v>1516</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
@@ -2639,11 +2639,9 @@
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A222" s="1"/>
       <c r="B222">
-        <v>8403</v>
+        <v>9062</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="4"/>
@@ -2651,9 +2649,11 @@
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="1"/>
+      <c r="A223" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B223">
-        <v>3185</v>
+        <v>8403</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="4"/>
@@ -2663,7 +2663,7 @@
     <row r="224" spans="1:3">
       <c r="A224" s="1"/>
       <c r="B224">
-        <v>9914</v>
+        <v>3185</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
@@ -2673,7 +2673,7 @@
     <row r="225" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225">
-        <v>6011</v>
+        <v>9914</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="4"/>
@@ -2683,27 +2683,27 @@
     <row r="226" spans="1:3">
       <c r="A226" s="1"/>
       <c r="B226">
-        <v>6037</v>
+        <v>6011</v>
       </c>
       <c r="C226">
-        <f t="shared" ref="C226:C289" ca="1" si="5">IF(B226=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227">
-        <v>2809</v>
+        <v>6037</v>
       </c>
       <c r="C227">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="C227:C290" ca="1" si="5">IF(B227=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228">
-        <v>7297</v>
+        <v>2809</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="5"/>
@@ -2713,7 +2713,7 @@
     <row r="229" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229">
-        <v>5242</v>
+        <v>7297</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="5"/>
@@ -2723,7 +2723,7 @@
     <row r="230" spans="1:3">
       <c r="A230" s="1"/>
       <c r="B230">
-        <v>1379</v>
+        <v>5242</v>
       </c>
       <c r="C230">
         <f t="shared" ca="1" si="5"/>
@@ -2733,7 +2733,7 @@
     <row r="231" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231">
-        <v>2401</v>
+        <v>1379</v>
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="5"/>
@@ -2743,7 +2743,7 @@
     <row r="232" spans="1:3">
       <c r="A232" s="1"/>
       <c r="B232">
-        <v>5421</v>
+        <v>2401</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="5"/>
@@ -2753,7 +2753,7 @@
     <row r="233" spans="1:3">
       <c r="A233" s="1"/>
       <c r="B233">
-        <v>7301</v>
+        <v>5421</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="5"/>
@@ -2763,7 +2763,7 @@
     <row r="234" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234">
-        <v>2000</v>
+        <v>7301</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="5"/>
@@ -2773,7 +2773,7 @@
     <row r="235" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235">
-        <v>4147</v>
+        <v>2000</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="5"/>
@@ -2783,7 +2783,7 @@
     <row r="236" spans="1:3">
       <c r="A236" s="1"/>
       <c r="B236">
-        <v>1953</v>
+        <v>4147</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="5"/>
@@ -2793,7 +2793,7 @@
     <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237">
-        <v>3956</v>
+        <v>1953</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="5"/>
@@ -2803,7 +2803,7 @@
     <row r="238" spans="1:3">
       <c r="A238" s="1"/>
       <c r="B238">
-        <v>5463</v>
+        <v>3956</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="5"/>
@@ -2811,6 +2811,10 @@
       </c>
     </row>
     <row r="239" spans="1:3">
+      <c r="A239" s="1"/>
+      <c r="B239">
+        <v>5463</v>
+      </c>
       <c r="C239">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
@@ -3118,13 +3122,13 @@
     </row>
     <row r="290" spans="3:3">
       <c r="C290">
-        <f t="shared" ref="C290:C353" ca="1" si="6">IF(B290=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="3:3">
       <c r="C291">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="C291:C354" ca="1" si="6">IF(B291=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3502,13 +3506,13 @@
     </row>
     <row r="354" spans="3:3">
       <c r="C354">
-        <f t="shared" ref="C354:C417" ca="1" si="7">IF(B354=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="3:3">
       <c r="C355">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="C355:C418" ca="1" si="7">IF(B355=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3886,13 +3890,13 @@
     </row>
     <row r="418" spans="3:3">
       <c r="C418">
-        <f t="shared" ref="C418:C481" ca="1" si="8">IF(B418=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="3:3">
       <c r="C419">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="C419:C482" ca="1" si="8">IF(B419=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4270,13 +4274,13 @@
     </row>
     <row r="482" spans="3:3">
       <c r="C482">
-        <f t="shared" ref="C482:C545" ca="1" si="9">IF(B482=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="483" spans="3:3">
       <c r="C483">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="C483:C546" ca="1" si="9">IF(B483=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4654,13 +4658,13 @@
     </row>
     <row r="546" spans="3:3">
       <c r="C546">
-        <f t="shared" ref="C546:C609" ca="1" si="10">IF(B546=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="547" spans="3:3">
       <c r="C547">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="C547:C610" ca="1" si="10">IF(B547=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5038,13 +5042,13 @@
     </row>
     <row r="610" spans="3:3">
       <c r="C610">
-        <f t="shared" ref="C610:C673" ca="1" si="11">IF(B610=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="611" spans="3:3">
       <c r="C611">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="C611:C674" ca="1" si="11">IF(B611=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5422,13 +5426,13 @@
     </row>
     <row r="674" spans="3:3">
       <c r="C674">
-        <f t="shared" ref="C674:C737" ca="1" si="12">IF(B674=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="675" spans="3:3">
       <c r="C675">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="C675:C738" ca="1" si="12">IF(B675=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5806,13 +5810,13 @@
     </row>
     <row r="738" spans="3:3">
       <c r="C738">
-        <f t="shared" ref="C738:C801" ca="1" si="13">IF(B738=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="739" spans="3:3">
       <c r="C739">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="C739:C802" ca="1" si="13">IF(B739=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6190,13 +6194,13 @@
     </row>
     <row r="802" spans="3:3">
       <c r="C802">
-        <f t="shared" ref="C802:C865" ca="1" si="14">IF(B802=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="803" spans="3:3">
       <c r="C803">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="C803:C866" ca="1" si="14">IF(B803=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6574,13 +6578,13 @@
     </row>
     <row r="866" spans="3:3">
       <c r="C866">
-        <f t="shared" ref="C866:C880" ca="1" si="15">IF(B866=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="867" spans="3:3">
       <c r="C867">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="C867:C881" ca="1" si="15">IF(B867=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6662,11 +6666,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="881" spans="3:3">
+      <c r="C881">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A213:A218"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="A222:A238"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="A223:A239"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -91,8 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,11 +398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E881"/>
+  <dimension ref="A1:E884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D225" sqref="D225"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,15 +410,15 @@
     <row r="1" spans="1:5">
       <c r="D1">
         <f ca="1">SUM(C:C)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>6556</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -427,7 +430,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3">
         <v>1860</v>
       </c>
@@ -437,7 +440,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4">
         <v>4764</v>
       </c>
@@ -447,7 +450,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5">
         <v>2429</v>
       </c>
@@ -457,7 +460,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6">
         <v>7472</v>
       </c>
@@ -467,7 +470,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7">
         <v>3862</v>
       </c>
@@ -477,7 +480,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8">
         <v>9231</v>
       </c>
@@ -487,7 +490,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9">
         <v>8624</v>
       </c>
@@ -497,7 +500,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10">
         <v>2959</v>
       </c>
@@ -507,7 +510,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11">
         <v>7271</v>
       </c>
@@ -517,7 +520,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12">
         <v>2632</v>
       </c>
@@ -527,7 +530,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13">
         <v>4343</v>
       </c>
@@ -537,7 +540,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="B14">
         <v>1517</v>
       </c>
@@ -547,7 +550,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
       <c r="B15">
         <v>1413</v>
       </c>
@@ -557,7 +560,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
       <c r="B16">
         <v>9405</v>
       </c>
@@ -567,7 +570,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B17">
@@ -579,7 +582,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
       <c r="B18">
         <v>9298</v>
       </c>
@@ -589,7 +592,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19">
         <v>3354</v>
       </c>
@@ -599,7 +602,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
       <c r="B20">
         <v>8569</v>
       </c>
@@ -609,7 +612,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21">
         <v>3730</v>
       </c>
@@ -619,7 +622,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
       <c r="B22">
         <v>9007</v>
       </c>
@@ -629,7 +632,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
       <c r="B23">
         <v>5201</v>
       </c>
@@ -639,7 +642,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
       <c r="B24">
         <v>2981</v>
       </c>
@@ -649,7 +652,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
       <c r="B25">
         <v>4312</v>
       </c>
@@ -659,7 +662,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
       <c r="B26">
         <v>8428</v>
       </c>
@@ -669,7 +672,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
       <c r="B27">
         <v>2361</v>
       </c>
@@ -679,7 +682,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
       <c r="B28">
         <v>5063</v>
       </c>
@@ -689,7 +692,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2"/>
       <c r="B29">
         <v>7711</v>
       </c>
@@ -699,7 +702,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
       <c r="B30">
         <v>8833</v>
       </c>
@@ -709,7 +712,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2"/>
       <c r="B31">
         <v>1262</v>
       </c>
@@ -719,7 +722,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2"/>
       <c r="B32">
         <v>9020</v>
       </c>
@@ -729,7 +732,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2"/>
       <c r="B33">
         <v>1934</v>
       </c>
@@ -739,7 +742,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2"/>
       <c r="B34">
         <v>7237</v>
       </c>
@@ -749,7 +752,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2"/>
       <c r="B35">
         <v>3943</v>
       </c>
@@ -759,7 +762,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1"/>
+      <c r="A36" s="2"/>
       <c r="B36">
         <v>7619</v>
       </c>
@@ -769,7 +772,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1"/>
+      <c r="A37" s="2"/>
       <c r="B37">
         <v>3832</v>
       </c>
@@ -779,7 +782,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1"/>
+      <c r="A38" s="2"/>
       <c r="B38">
         <v>1346</v>
       </c>
@@ -789,7 +792,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1"/>
+      <c r="A39" s="2"/>
       <c r="B39">
         <v>9622</v>
       </c>
@@ -799,7 +802,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1"/>
+      <c r="A40" s="2"/>
       <c r="B40">
         <v>8873</v>
       </c>
@@ -809,7 +812,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1"/>
+      <c r="A41" s="2"/>
       <c r="B41">
         <v>7799</v>
       </c>
@@ -819,7 +822,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1"/>
+      <c r="A42" s="2"/>
       <c r="B42">
         <v>9354</v>
       </c>
@@ -829,7 +832,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2"/>
       <c r="B43">
         <v>9130</v>
       </c>
@@ -839,7 +842,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1"/>
+      <c r="A44" s="2"/>
       <c r="B44">
         <v>5895</v>
       </c>
@@ -849,7 +852,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1"/>
+      <c r="A45" s="2"/>
       <c r="B45">
         <v>2461</v>
       </c>
@@ -859,7 +862,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1"/>
+      <c r="A46" s="2"/>
       <c r="B46">
         <v>2790</v>
       </c>
@@ -869,7 +872,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1"/>
+      <c r="A47" s="2"/>
       <c r="B47">
         <v>2624</v>
       </c>
@@ -879,7 +882,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1"/>
+      <c r="A48" s="2"/>
       <c r="B48">
         <v>5871</v>
       </c>
@@ -889,7 +892,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1"/>
+      <c r="A49" s="2"/>
       <c r="B49">
         <v>9164</v>
       </c>
@@ -899,7 +902,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1"/>
+      <c r="A50" s="2"/>
       <c r="B50">
         <v>7457</v>
       </c>
@@ -909,7 +912,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1"/>
+      <c r="A51" s="2"/>
       <c r="B51">
         <v>9865</v>
       </c>
@@ -919,7 +922,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1"/>
+      <c r="A52" s="2"/>
       <c r="B52">
         <v>3591</v>
       </c>
@@ -929,7 +932,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1"/>
+      <c r="A53" s="2"/>
       <c r="B53">
         <v>3558</v>
       </c>
@@ -939,7 +942,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1"/>
+      <c r="A54" s="2"/>
       <c r="B54">
         <v>4366</v>
       </c>
@@ -949,7 +952,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1"/>
+      <c r="A55" s="2"/>
       <c r="B55">
         <v>5789</v>
       </c>
@@ -959,7 +962,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1"/>
+      <c r="A56" s="2"/>
       <c r="B56">
         <v>6522</v>
       </c>
@@ -969,7 +972,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B57">
@@ -981,7 +984,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1"/>
+      <c r="A58" s="2"/>
       <c r="B58">
         <v>1288</v>
       </c>
@@ -991,7 +994,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1"/>
+      <c r="A59" s="2"/>
       <c r="B59">
         <v>2614</v>
       </c>
@@ -1001,7 +1004,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1"/>
+      <c r="A60" s="2"/>
       <c r="B60">
         <v>7170</v>
       </c>
@@ -1011,7 +1014,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1"/>
+      <c r="A61" s="2"/>
       <c r="B61">
         <v>2709</v>
       </c>
@@ -1021,7 +1024,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1"/>
+      <c r="A62" s="2"/>
       <c r="B62">
         <v>3402</v>
       </c>
@@ -1031,7 +1034,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1"/>
+      <c r="A63" s="2"/>
       <c r="B63">
         <v>8781</v>
       </c>
@@ -1041,7 +1044,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1"/>
+      <c r="A64" s="2"/>
       <c r="B64">
         <v>8771</v>
       </c>
@@ -1051,7 +1054,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1"/>
+      <c r="A65" s="2"/>
       <c r="B65">
         <v>3091</v>
       </c>
@@ -1061,7 +1064,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1"/>
+      <c r="A66" s="2"/>
       <c r="B66">
         <v>2195</v>
       </c>
@@ -1071,7 +1074,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1"/>
+      <c r="A67" s="2"/>
       <c r="B67">
         <v>1184</v>
       </c>
@@ -1081,7 +1084,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1"/>
+      <c r="A68" s="2"/>
       <c r="B68">
         <v>2667</v>
       </c>
@@ -1091,7 +1094,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1"/>
+      <c r="A69" s="2"/>
       <c r="B69">
         <v>5917</v>
       </c>
@@ -1101,7 +1104,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1"/>
+      <c r="A70" s="2"/>
       <c r="B70">
         <v>3929</v>
       </c>
@@ -1111,7 +1114,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1"/>
+      <c r="A71" s="2"/>
       <c r="B71">
         <v>3083</v>
       </c>
@@ -1121,7 +1124,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1"/>
+      <c r="A72" s="2"/>
       <c r="B72">
         <v>7546</v>
       </c>
@@ -1131,7 +1134,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B73">
@@ -1143,7 +1146,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1"/>
+      <c r="A74" s="2"/>
       <c r="B74">
         <v>6598</v>
       </c>
@@ -1153,7 +1156,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1"/>
+      <c r="A75" s="2"/>
       <c r="B75">
         <v>3093</v>
       </c>
@@ -1163,7 +1166,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1"/>
+      <c r="A76" s="2"/>
       <c r="B76">
         <v>8805</v>
       </c>
@@ -1173,7 +1176,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1"/>
+      <c r="A77" s="2"/>
       <c r="B77">
         <v>8158</v>
       </c>
@@ -1183,7 +1186,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1"/>
+      <c r="A78" s="2"/>
       <c r="B78">
         <v>6499</v>
       </c>
@@ -1193,7 +1196,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B79">
@@ -1205,7 +1208,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1"/>
+      <c r="A80" s="2"/>
       <c r="B80">
         <v>2217</v>
       </c>
@@ -1215,7 +1218,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1"/>
+      <c r="A81" s="2"/>
       <c r="B81">
         <v>1824</v>
       </c>
@@ -1225,7 +1228,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1"/>
+      <c r="A82" s="2"/>
       <c r="B82">
         <v>2564</v>
       </c>
@@ -1235,7 +1238,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1"/>
+      <c r="A83" s="2"/>
       <c r="B83">
         <v>8487</v>
       </c>
@@ -1245,7 +1248,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1"/>
+      <c r="A84" s="2"/>
       <c r="B84">
         <v>8045</v>
       </c>
@@ -1255,7 +1258,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1"/>
+      <c r="A85" s="2"/>
       <c r="B85">
         <v>8878</v>
       </c>
@@ -1265,7 +1268,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1"/>
+      <c r="A86" s="2"/>
       <c r="B86">
         <v>3072</v>
       </c>
@@ -1275,7 +1278,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1"/>
+      <c r="A87" s="2"/>
       <c r="B87">
         <v>5980</v>
       </c>
@@ -1285,7 +1288,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1"/>
+      <c r="A88" s="2"/>
       <c r="B88">
         <v>8174</v>
       </c>
@@ -1295,7 +1298,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1"/>
+      <c r="A89" s="2"/>
       <c r="B89">
         <v>4257</v>
       </c>
@@ -1305,7 +1308,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1"/>
+      <c r="A90" s="2"/>
       <c r="B90">
         <v>2291</v>
       </c>
@@ -1315,7 +1318,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1"/>
+      <c r="A91" s="2"/>
       <c r="B91">
         <v>1763</v>
       </c>
@@ -1325,7 +1328,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1"/>
+      <c r="A92" s="2"/>
       <c r="B92">
         <v>5662</v>
       </c>
@@ -1335,7 +1338,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1"/>
+      <c r="A93" s="2"/>
       <c r="B93">
         <v>1945</v>
       </c>
@@ -1345,7 +1348,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1"/>
+      <c r="A94" s="2"/>
       <c r="B94">
         <v>1186</v>
       </c>
@@ -1355,7 +1358,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1"/>
+      <c r="A95" s="2"/>
       <c r="B95">
         <v>8715</v>
       </c>
@@ -1365,7 +1368,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1"/>
+      <c r="A96" s="2"/>
       <c r="B96">
         <v>8518</v>
       </c>
@@ -1375,7 +1378,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1"/>
+      <c r="A97" s="2"/>
       <c r="B97">
         <v>4847</v>
       </c>
@@ -1385,17 +1388,17 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1"/>
+      <c r="A98" s="2"/>
       <c r="B98">
         <v>7991</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:C161" ca="1" si="3">IF(B98=$E$1,1,0)</f>
+        <f t="shared" ref="C98:C162" ca="1" si="3">IF(B98=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1"/>
+      <c r="A99" s="2"/>
       <c r="B99">
         <v>6291</v>
       </c>
@@ -1405,7 +1408,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1"/>
+      <c r="A100" s="2"/>
       <c r="B100">
         <v>3770</v>
       </c>
@@ -1415,7 +1418,7 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1"/>
+      <c r="A101" s="2"/>
       <c r="B101">
         <v>7178</v>
       </c>
@@ -1425,7 +1428,7 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1"/>
+      <c r="A102" s="2"/>
       <c r="B102">
         <v>3883</v>
       </c>
@@ -1435,7 +1438,7 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1"/>
+      <c r="A103" s="2"/>
       <c r="B103">
         <v>4527</v>
       </c>
@@ -1445,17 +1448,17 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1"/>
+      <c r="A104" s="2"/>
       <c r="B104">
         <v>6556</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1"/>
+      <c r="A105" s="2"/>
       <c r="B105">
         <v>5635</v>
       </c>
@@ -1465,7 +1468,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1"/>
+      <c r="A106" s="2"/>
       <c r="B106">
         <v>3878</v>
       </c>
@@ -1475,7 +1478,7 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1"/>
+      <c r="A107" s="2"/>
       <c r="B107">
         <v>1217</v>
       </c>
@@ -1485,7 +1488,7 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1"/>
+      <c r="A108" s="2"/>
       <c r="B108">
         <v>1438</v>
       </c>
@@ -1495,7 +1498,7 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1"/>
+      <c r="A109" s="2"/>
       <c r="B109">
         <v>2153</v>
       </c>
@@ -1505,7 +1508,7 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="2"/>
       <c r="B110">
         <v>7937</v>
       </c>
@@ -1515,7 +1518,7 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1"/>
+      <c r="A111" s="2"/>
       <c r="B111">
         <v>1999</v>
       </c>
@@ -1525,7 +1528,7 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1"/>
+      <c r="A112" s="2"/>
       <c r="B112">
         <v>4042</v>
       </c>
@@ -1535,7 +1538,7 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1"/>
+      <c r="A113" s="2"/>
       <c r="B113">
         <v>6351</v>
       </c>
@@ -1545,7 +1548,7 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1"/>
+      <c r="A114" s="2"/>
       <c r="B114">
         <v>5382</v>
       </c>
@@ -1555,7 +1558,7 @@
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1"/>
+      <c r="A115" s="2"/>
       <c r="B115">
         <v>7088</v>
       </c>
@@ -1565,7 +1568,7 @@
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1"/>
+      <c r="A116" s="2"/>
       <c r="B116">
         <v>7250</v>
       </c>
@@ -1575,7 +1578,7 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1"/>
+      <c r="A117" s="2"/>
       <c r="B117">
         <v>6740</v>
       </c>
@@ -1585,7 +1588,7 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1"/>
+      <c r="A118" s="2"/>
       <c r="B118">
         <v>9038</v>
       </c>
@@ -1595,7 +1598,7 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B119">
@@ -1607,7 +1610,7 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1"/>
+      <c r="A120" s="2"/>
       <c r="B120">
         <v>8495</v>
       </c>
@@ -1617,7 +1620,7 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1"/>
+      <c r="A121" s="2"/>
       <c r="B121">
         <v>1315</v>
       </c>
@@ -1627,7 +1630,7 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1"/>
+      <c r="A122" s="2"/>
       <c r="B122">
         <v>6066</v>
       </c>
@@ -1637,7 +1640,7 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1"/>
+      <c r="A123" s="2"/>
       <c r="B123">
         <v>2565</v>
       </c>
@@ -1647,7 +1650,7 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1"/>
+      <c r="A124" s="2"/>
       <c r="B124">
         <v>2594</v>
       </c>
@@ -1657,7 +1660,7 @@
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1"/>
+      <c r="A125" s="2"/>
       <c r="B125">
         <v>3762</v>
       </c>
@@ -1667,7 +1670,7 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1"/>
+      <c r="A126" s="2"/>
       <c r="B126">
         <v>3550</v>
       </c>
@@ -1677,7 +1680,7 @@
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1"/>
+      <c r="A127" s="2"/>
       <c r="B127">
         <v>2475</v>
       </c>
@@ -1687,7 +1690,7 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1"/>
+      <c r="A128" s="2"/>
       <c r="B128">
         <v>9180</v>
       </c>
@@ -1697,7 +1700,7 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1"/>
+      <c r="A129" s="2"/>
       <c r="B129">
         <v>1544</v>
       </c>
@@ -1707,7 +1710,7 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1"/>
+      <c r="A130" s="2"/>
       <c r="B130">
         <v>9562</v>
       </c>
@@ -1717,7 +1720,7 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1"/>
+      <c r="A131" s="2"/>
       <c r="B131">
         <v>3669</v>
       </c>
@@ -1727,7 +1730,7 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1"/>
+      <c r="A132" s="2"/>
       <c r="B132">
         <v>5951</v>
       </c>
@@ -1737,7 +1740,7 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1"/>
+      <c r="A133" s="2"/>
       <c r="B133">
         <v>2802</v>
       </c>
@@ -1747,7 +1750,7 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1"/>
+      <c r="A134" s="2"/>
       <c r="B134">
         <v>6580</v>
       </c>
@@ -1757,7 +1760,7 @@
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1"/>
+      <c r="A135" s="2"/>
       <c r="B135">
         <v>7585</v>
       </c>
@@ -1767,7 +1770,7 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1"/>
+      <c r="A136" s="2"/>
       <c r="B136">
         <v>8770</v>
       </c>
@@ -1777,7 +1780,7 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1"/>
+      <c r="A137" s="2"/>
       <c r="B137">
         <v>4236</v>
       </c>
@@ -1787,7 +1790,7 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1"/>
+      <c r="A138" s="2"/>
       <c r="B138">
         <v>5969</v>
       </c>
@@ -1797,7 +1800,7 @@
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1"/>
+      <c r="A139" s="2"/>
       <c r="B139">
         <v>8696</v>
       </c>
@@ -1807,7 +1810,7 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1"/>
+      <c r="A140" s="2"/>
       <c r="B140">
         <v>8418</v>
       </c>
@@ -1817,7 +1820,7 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1"/>
+      <c r="A141" s="2"/>
       <c r="B141">
         <v>8395</v>
       </c>
@@ -1827,9 +1830,9 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1"/>
+      <c r="A142" s="2"/>
       <c r="B142">
-        <v>5568</v>
+        <v>5170</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="3"/>
@@ -1837,9 +1840,9 @@
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1"/>
+      <c r="A143" s="2"/>
       <c r="B143">
-        <v>2592</v>
+        <v>5568</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="3"/>
@@ -1847,9 +1850,9 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1"/>
+      <c r="A144" s="2"/>
       <c r="B144">
-        <v>4075</v>
+        <v>2592</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="3"/>
@@ -1857,9 +1860,9 @@
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1"/>
+      <c r="A145" s="2"/>
       <c r="B145">
-        <v>7517</v>
+        <v>4075</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="3"/>
@@ -1867,9 +1870,9 @@
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1"/>
+      <c r="A146" s="2"/>
       <c r="B146">
-        <v>5448</v>
+        <v>7517</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="3"/>
@@ -1877,9 +1880,9 @@
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1"/>
+      <c r="A147" s="2"/>
       <c r="B147">
-        <v>6572</v>
+        <v>5448</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="3"/>
@@ -1887,9 +1890,9 @@
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1"/>
+      <c r="A148" s="2"/>
       <c r="B148">
-        <v>5238</v>
+        <v>6572</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="3"/>
@@ -1897,9 +1900,9 @@
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1"/>
+      <c r="A149" s="2"/>
       <c r="B149">
-        <v>2084</v>
+        <v>5238</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="3"/>
@@ -1907,9 +1910,9 @@
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1"/>
+      <c r="A150" s="2"/>
       <c r="B150">
-        <v>5411</v>
+        <v>2084</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="3"/>
@@ -1917,9 +1920,9 @@
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1"/>
+      <c r="A151" s="2"/>
       <c r="B151">
-        <v>5171</v>
+        <v>5411</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="3"/>
@@ -1927,9 +1930,9 @@
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1"/>
+      <c r="A152" s="2"/>
       <c r="B152">
-        <v>1862</v>
+        <v>5171</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="3"/>
@@ -1937,9 +1940,9 @@
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1"/>
+      <c r="A153" s="2"/>
       <c r="B153">
-        <v>9238</v>
+        <v>1862</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="3"/>
@@ -1947,11 +1950,9 @@
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A154" s="2"/>
       <c r="B154">
-        <v>8165</v>
+        <v>9238</v>
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="3"/>
@@ -1959,9 +1960,11 @@
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1"/>
+      <c r="A155" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B155">
-        <v>9001</v>
+        <v>8165</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="3"/>
@@ -1969,9 +1972,9 @@
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1"/>
+      <c r="A156" s="2"/>
       <c r="B156">
-        <v>9631</v>
+        <v>9001</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="3"/>
@@ -1979,9 +1982,9 @@
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1"/>
+      <c r="A157" s="2"/>
       <c r="B157">
-        <v>9812</v>
+        <v>9631</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="3"/>
@@ -1989,9 +1992,9 @@
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1"/>
+      <c r="A158" s="2"/>
       <c r="B158">
-        <v>5728</v>
+        <v>9812</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="3"/>
@@ -1999,9 +2002,9 @@
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1"/>
+      <c r="A159" s="2"/>
       <c r="B159">
-        <v>7491</v>
+        <v>5728</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="3"/>
@@ -2009,9 +2012,9 @@
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1"/>
+      <c r="A160" s="2"/>
       <c r="B160">
-        <v>5923</v>
+        <v>7491</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="3"/>
@@ -2019,9 +2022,9 @@
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1"/>
+      <c r="A161" s="2"/>
       <c r="B161">
-        <v>4265</v>
+        <v>5923</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="3"/>
@@ -2029,29 +2032,29 @@
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1"/>
+      <c r="A162" s="2"/>
       <c r="B162">
+        <v>4265</v>
+      </c>
+      <c r="C162">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2"/>
+      <c r="B163">
         <v>2166</v>
       </c>
-      <c r="C162">
-        <f t="shared" ref="C162:C226" ca="1" si="4">IF(B162=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="1"/>
-      <c r="B163">
+      <c r="C163">
+        <f t="shared" ref="C163:C229" ca="1" si="4">IF(B163=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2"/>
+      <c r="B164">
         <v>9116</v>
-      </c>
-      <c r="C163">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="1"/>
-      <c r="B164">
-        <v>9925</v>
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="4"/>
@@ -2059,11 +2062,9 @@
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A165" s="2"/>
       <c r="B165">
-        <v>2885</v>
+        <v>9925</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="4"/>
@@ -2071,9 +2072,11 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1"/>
+      <c r="A166" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B166">
-        <v>9931</v>
+        <v>2885</v>
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="4"/>
@@ -2081,9 +2084,9 @@
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1"/>
+      <c r="A167" s="2"/>
       <c r="B167">
-        <v>1947</v>
+        <v>9931</v>
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="4"/>
@@ -2091,9 +2094,9 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1"/>
+      <c r="A168" s="2"/>
       <c r="B168">
-        <v>9696</v>
+        <v>1947</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="4"/>
@@ -2101,9 +2104,9 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1"/>
+      <c r="A169" s="2"/>
       <c r="B169">
-        <v>1223</v>
+        <v>9696</v>
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="4"/>
@@ -2111,9 +2114,9 @@
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1"/>
+      <c r="A170" s="2"/>
       <c r="B170">
-        <v>3946</v>
+        <v>1223</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="4"/>
@@ -2121,9 +2124,9 @@
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1"/>
+      <c r="A171" s="2"/>
       <c r="B171">
-        <v>8311</v>
+        <v>3946</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="4"/>
@@ -2131,9 +2134,9 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1"/>
+      <c r="A172" s="2"/>
       <c r="B172">
-        <v>3134</v>
+        <v>8311</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="4"/>
@@ -2141,9 +2144,9 @@
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1"/>
+      <c r="A173" s="2"/>
       <c r="B173">
-        <v>9774</v>
+        <v>3134</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="4"/>
@@ -2151,9 +2154,9 @@
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1"/>
+      <c r="A174" s="2"/>
       <c r="B174">
-        <v>9711</v>
+        <v>9774</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="4"/>
@@ -2161,9 +2164,9 @@
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1"/>
+      <c r="A175" s="2"/>
       <c r="B175">
-        <v>3333</v>
+        <v>9711</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="4"/>
@@ -2171,9 +2174,9 @@
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1"/>
+      <c r="A176" s="2"/>
       <c r="B176">
-        <v>7290</v>
+        <v>3333</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="4"/>
@@ -2181,9 +2184,9 @@
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1"/>
+      <c r="A177" s="2"/>
       <c r="B177">
-        <v>5694</v>
+        <v>7290</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="4"/>
@@ -2191,9 +2194,9 @@
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1"/>
+      <c r="A178" s="2"/>
       <c r="B178">
-        <v>6806</v>
+        <v>5694</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="4"/>
@@ -2201,9 +2204,9 @@
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1"/>
+      <c r="A179" s="2"/>
       <c r="B179">
-        <v>4515</v>
+        <v>6806</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="4"/>
@@ -2211,9 +2214,9 @@
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1"/>
+      <c r="A180" s="2"/>
       <c r="B180">
-        <v>9271</v>
+        <v>4515</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="4"/>
@@ -2221,9 +2224,9 @@
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1"/>
+      <c r="A181" s="2"/>
       <c r="B181">
-        <v>8769</v>
+        <v>9271</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="4"/>
@@ -2231,9 +2234,9 @@
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1"/>
+      <c r="A182" s="2"/>
       <c r="B182">
-        <v>4497</v>
+        <v>8769</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="4"/>
@@ -2241,9 +2244,9 @@
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="1"/>
+      <c r="A183" s="2"/>
       <c r="B183">
-        <v>8820</v>
+        <v>4497</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="4"/>
@@ -2251,9 +2254,9 @@
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="1"/>
+      <c r="A184" s="2"/>
       <c r="B184">
-        <v>3218</v>
+        <v>8820</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="4"/>
@@ -2261,9 +2264,9 @@
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="1"/>
+      <c r="A185" s="2"/>
       <c r="B185">
-        <v>4283</v>
+        <v>3218</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="4"/>
@@ -2271,9 +2274,9 @@
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="1"/>
+      <c r="A186" s="2"/>
       <c r="B186">
-        <v>7703</v>
+        <v>4283</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="4"/>
@@ -2281,9 +2284,9 @@
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="1"/>
+      <c r="A187" s="2"/>
       <c r="B187">
-        <v>9182</v>
+        <v>7703</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="4"/>
@@ -2291,9 +2294,9 @@
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="1"/>
+      <c r="A188" s="2"/>
       <c r="B188">
-        <v>5541</v>
+        <v>9182</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="4"/>
@@ -2301,9 +2304,9 @@
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="1"/>
+      <c r="A189" s="2"/>
       <c r="B189">
-        <v>2386</v>
+        <v>5541</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="4"/>
@@ -2311,9 +2314,9 @@
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="1"/>
+      <c r="A190" s="2"/>
       <c r="B190">
-        <v>9159</v>
+        <v>2386</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="4"/>
@@ -2321,11 +2324,9 @@
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A191" s="2"/>
       <c r="B191">
-        <v>6175</v>
+        <v>9159</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="4"/>
@@ -2333,9 +2334,11 @@
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="1"/>
+      <c r="A192" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B192">
-        <v>4642</v>
+        <v>6175</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="4"/>
@@ -2343,9 +2346,9 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="1"/>
+      <c r="A193" s="2"/>
       <c r="B193">
-        <v>9765</v>
+        <v>4642</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="4"/>
@@ -2353,9 +2356,9 @@
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="1"/>
+      <c r="A194" s="2"/>
       <c r="B194">
-        <v>4954</v>
+        <v>9765</v>
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="4"/>
@@ -2363,9 +2366,9 @@
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="1"/>
+      <c r="A195" s="2"/>
       <c r="B195">
-        <v>5537</v>
+        <v>4954</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="4"/>
@@ -2373,9 +2376,9 @@
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="1"/>
+      <c r="A196" s="2"/>
       <c r="B196">
-        <v>6431</v>
+        <v>5537</v>
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="4"/>
@@ -2383,9 +2386,9 @@
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="1"/>
+      <c r="A197" s="2"/>
       <c r="B197">
-        <v>7193</v>
+        <v>6431</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="4"/>
@@ -2393,9 +2396,9 @@
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="1"/>
+      <c r="A198" s="2"/>
       <c r="B198">
-        <v>5621</v>
+        <v>7193</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="4"/>
@@ -2403,9 +2406,9 @@
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="1"/>
+      <c r="A199" s="2"/>
       <c r="B199">
-        <v>5847</v>
+        <v>5621</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="4"/>
@@ -2413,9 +2416,9 @@
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="1"/>
+      <c r="A200" s="2"/>
       <c r="B200">
-        <v>4769</v>
+        <v>5847</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="4"/>
@@ -2423,9 +2426,9 @@
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="1"/>
+      <c r="A201" s="2"/>
       <c r="B201">
-        <v>9930</v>
+        <v>4769</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="4"/>
@@ -2433,9 +2436,9 @@
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="1"/>
+      <c r="A202" s="2"/>
       <c r="B202">
-        <v>6861</v>
+        <v>9930</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="4"/>
@@ -2443,9 +2446,9 @@
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="1"/>
+      <c r="A203" s="2"/>
       <c r="B203">
-        <v>2205</v>
+        <v>6861</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="4"/>
@@ -2453,9 +2456,9 @@
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="1"/>
+      <c r="A204" s="2"/>
       <c r="B204">
-        <v>4372</v>
+        <v>2205</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="4"/>
@@ -2463,9 +2466,9 @@
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="1"/>
+      <c r="A205" s="2"/>
       <c r="B205">
-        <v>4463</v>
+        <v>4372</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="4"/>
@@ -2473,9 +2476,9 @@
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1"/>
+      <c r="A206" s="2"/>
       <c r="B206">
-        <v>1668</v>
+        <v>4463</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="4"/>
@@ -2483,9 +2486,9 @@
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="1"/>
+      <c r="A207" s="2"/>
       <c r="B207">
-        <v>2137</v>
+        <v>1668</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="4"/>
@@ -2493,11 +2496,9 @@
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A208" s="2"/>
       <c r="B208">
-        <v>9300</v>
+        <v>2137</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="4"/>
@@ -2505,9 +2506,11 @@
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="1"/>
+      <c r="A209" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B209">
-        <v>3951</v>
+        <v>9300</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="4"/>
@@ -2515,9 +2518,9 @@
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="1"/>
+      <c r="A210" s="2"/>
       <c r="B210">
-        <v>6409</v>
+        <v>3951</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="4"/>
@@ -2525,9 +2528,9 @@
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="1"/>
+      <c r="A211" s="2"/>
       <c r="B211">
-        <v>7343</v>
+        <v>6409</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="4"/>
@@ -2535,9 +2538,9 @@
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="1"/>
+      <c r="A212" s="2"/>
       <c r="B212">
-        <v>7060</v>
+        <v>7343</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="4"/>
@@ -2545,11 +2548,9 @@
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A213" s="2"/>
       <c r="B213">
-        <v>9299</v>
+        <v>7060</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="4"/>
@@ -2557,9 +2558,11 @@
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="1"/>
+      <c r="A214" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B214">
-        <v>7560</v>
+        <v>9299</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="4"/>
@@ -2567,9 +2570,9 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="1"/>
+      <c r="A215" s="2"/>
       <c r="B215">
-        <v>9002</v>
+        <v>7560</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="4"/>
@@ -2577,9 +2580,9 @@
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="1"/>
+      <c r="A216" s="2"/>
       <c r="B216">
-        <v>7432</v>
+        <v>9002</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="4"/>
@@ -2587,9 +2590,9 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="1"/>
+      <c r="A217" s="2"/>
       <c r="B217">
-        <v>1954</v>
+        <v>7432</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
@@ -2597,9 +2600,9 @@
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1"/>
+      <c r="A218" s="2"/>
       <c r="B218">
-        <v>2048</v>
+        <v>1954</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
@@ -2607,11 +2610,9 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A219" s="2"/>
       <c r="B219">
-        <v>3939</v>
+        <v>2048</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="4"/>
@@ -2619,9 +2620,11 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="1"/>
+      <c r="A220" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B220">
-        <v>8861</v>
+        <v>3939</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
@@ -2629,9 +2632,9 @@
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="1"/>
+      <c r="A221" s="2"/>
       <c r="B221">
-        <v>1516</v>
+        <v>8861</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
@@ -2639,51 +2642,51 @@
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="1"/>
+      <c r="A222" s="2"/>
       <c r="B222">
+        <v>1516</v>
+      </c>
+      <c r="C222">
+        <f ca="1">IF(B222=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2"/>
+      <c r="B223">
         <v>9062</v>
       </c>
-      <c r="C222">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B223">
-        <v>8403</v>
-      </c>
       <c r="C223">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(B223=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="1"/>
+      <c r="A224" s="2"/>
       <c r="B224">
-        <v>3185</v>
+        <v>5164</v>
       </c>
       <c r="C224">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(B224=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225">
-        <v>9914</v>
+        <v>2354</v>
       </c>
       <c r="C225">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(B225=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="1"/>
+      <c r="A226" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B226">
-        <v>6011</v>
+        <v>8403</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="4"/>
@@ -2691,49 +2694,49 @@
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="1"/>
+      <c r="A227" s="2"/>
       <c r="B227">
+        <v>3185</v>
+      </c>
+      <c r="C227">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2"/>
+      <c r="B228">
+        <v>9914</v>
+      </c>
+      <c r="C228">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2"/>
+      <c r="B229">
+        <v>6011</v>
+      </c>
+      <c r="C229">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2"/>
+      <c r="B230">
         <v>6037</v>
       </c>
-      <c r="C227">
-        <f t="shared" ref="C227:C290" ca="1" si="5">IF(B227=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="1"/>
-      <c r="B228">
+      <c r="C230">
+        <f t="shared" ref="C230:C293" ca="1" si="5">IF(B230=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2"/>
+      <c r="B231">
         <v>2809</v>
-      </c>
-      <c r="C228">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="1"/>
-      <c r="B229">
-        <v>7297</v>
-      </c>
-      <c r="C229">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="1"/>
-      <c r="B230">
-        <v>5242</v>
-      </c>
-      <c r="C230">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="1"/>
-      <c r="B231">
-        <v>1379</v>
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="5"/>
@@ -2741,9 +2744,9 @@
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="1"/>
+      <c r="A232" s="2"/>
       <c r="B232">
-        <v>2401</v>
+        <v>7297</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="5"/>
@@ -2751,9 +2754,9 @@
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="1"/>
+      <c r="A233" s="2"/>
       <c r="B233">
-        <v>5421</v>
+        <v>5242</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="5"/>
@@ -2761,9 +2764,9 @@
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="1"/>
+      <c r="A234" s="2"/>
       <c r="B234">
-        <v>7301</v>
+        <v>1379</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="5"/>
@@ -2771,9 +2774,9 @@
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="1"/>
+      <c r="A235" s="2"/>
       <c r="B235">
-        <v>2000</v>
+        <v>2401</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="5"/>
@@ -2781,9 +2784,9 @@
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="1"/>
+      <c r="A236" s="2"/>
       <c r="B236">
-        <v>4147</v>
+        <v>5421</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="5"/>
@@ -2791,9 +2794,9 @@
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="1"/>
+      <c r="A237" s="2"/>
       <c r="B237">
-        <v>1953</v>
+        <v>7301</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="5"/>
@@ -2801,9 +2804,9 @@
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="1"/>
+      <c r="A238" s="2"/>
       <c r="B238">
-        <v>3956</v>
+        <v>2000</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="5"/>
@@ -2811,9 +2814,9 @@
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="1"/>
+      <c r="A239" s="2"/>
       <c r="B239">
-        <v>5463</v>
+        <v>4147</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="5"/>
@@ -2821,102 +2824,114 @@
       </c>
     </row>
     <row r="240" spans="1:3">
+      <c r="A240" s="2"/>
+      <c r="B240">
+        <v>1953</v>
+      </c>
       <c r="C240">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:3">
+    <row r="241" spans="1:3">
+      <c r="A241" s="2"/>
+      <c r="B241">
+        <v>3956</v>
+      </c>
       <c r="C241">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:3">
+    <row r="242" spans="1:3">
+      <c r="A242" s="2"/>
+      <c r="B242">
+        <v>5463</v>
+      </c>
       <c r="C242">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:3">
+    <row r="243" spans="1:3">
       <c r="C243">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:3">
+    <row r="244" spans="1:3">
       <c r="C244">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:3">
+    <row r="245" spans="1:3">
       <c r="C245">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:3">
+    <row r="246" spans="1:3">
       <c r="C246">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:3">
+    <row r="247" spans="1:3">
       <c r="C247">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:3">
+    <row r="248" spans="1:3">
       <c r="C248">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:3">
+    <row r="249" spans="1:3">
       <c r="C249">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:3">
+    <row r="250" spans="1:3">
       <c r="C250">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:3">
+    <row r="251" spans="1:3">
       <c r="C251">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:3">
+    <row r="252" spans="1:3">
       <c r="C252">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:3">
+    <row r="253" spans="1:3">
       <c r="C253">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:3">
+    <row r="254" spans="1:3">
       <c r="C254">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:3">
+    <row r="255" spans="1:3">
       <c r="C255">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:3">
+    <row r="256" spans="1:3">
       <c r="C256">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
@@ -3128,25 +3143,25 @@
     </row>
     <row r="291" spans="3:3">
       <c r="C291">
-        <f t="shared" ref="C291:C354" ca="1" si="6">IF(B291=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="3:3">
       <c r="C292">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="3:3">
       <c r="C293">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="3:3">
       <c r="C294">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="C294:C357" ca="1" si="6">IF(B294=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3512,25 +3527,25 @@
     </row>
     <row r="355" spans="3:3">
       <c r="C355">
-        <f t="shared" ref="C355:C418" ca="1" si="7">IF(B355=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="3:3">
       <c r="C356">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="3:3">
       <c r="C357">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="3:3">
       <c r="C358">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="C358:C421" ca="1" si="7">IF(B358=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3896,25 +3911,25 @@
     </row>
     <row r="419" spans="3:3">
       <c r="C419">
-        <f t="shared" ref="C419:C482" ca="1" si="8">IF(B419=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="420" spans="3:3">
       <c r="C420">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="421" spans="3:3">
       <c r="C421">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="422" spans="3:3">
       <c r="C422">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="C422:C485" ca="1" si="8">IF(B422=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4280,25 +4295,25 @@
     </row>
     <row r="483" spans="3:3">
       <c r="C483">
-        <f t="shared" ref="C483:C546" ca="1" si="9">IF(B483=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="484" spans="3:3">
       <c r="C484">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="485" spans="3:3">
       <c r="C485">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="486" spans="3:3">
       <c r="C486">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="C486:C549" ca="1" si="9">IF(B486=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4664,25 +4679,25 @@
     </row>
     <row r="547" spans="3:3">
       <c r="C547">
-        <f t="shared" ref="C547:C610" ca="1" si="10">IF(B547=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="548" spans="3:3">
       <c r="C548">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="549" spans="3:3">
       <c r="C549">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="550" spans="3:3">
       <c r="C550">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="C550:C613" ca="1" si="10">IF(B550=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5048,25 +5063,25 @@
     </row>
     <row r="611" spans="3:3">
       <c r="C611">
-        <f t="shared" ref="C611:C674" ca="1" si="11">IF(B611=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="612" spans="3:3">
       <c r="C612">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="613" spans="3:3">
       <c r="C613">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="614" spans="3:3">
       <c r="C614">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="C614:C677" ca="1" si="11">IF(B614=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5432,25 +5447,25 @@
     </row>
     <row r="675" spans="3:3">
       <c r="C675">
-        <f t="shared" ref="C675:C738" ca="1" si="12">IF(B675=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="676" spans="3:3">
       <c r="C676">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="677" spans="3:3">
       <c r="C677">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="678" spans="3:3">
       <c r="C678">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="C678:C741" ca="1" si="12">IF(B678=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5816,25 +5831,25 @@
     </row>
     <row r="739" spans="3:3">
       <c r="C739">
-        <f t="shared" ref="C739:C802" ca="1" si="13">IF(B739=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="740" spans="3:3">
       <c r="C740">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="741" spans="3:3">
       <c r="C741">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="742" spans="3:3">
       <c r="C742">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="C742:C805" ca="1" si="13">IF(B742=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6200,25 +6215,25 @@
     </row>
     <row r="803" spans="3:3">
       <c r="C803">
-        <f t="shared" ref="C803:C866" ca="1" si="14">IF(B803=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="804" spans="3:3">
       <c r="C804">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="805" spans="3:3">
       <c r="C805">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="806" spans="3:3">
       <c r="C806">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="C806:C869" ca="1" si="14">IF(B806=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6584,25 +6599,25 @@
     </row>
     <row r="867" spans="3:3">
       <c r="C867">
-        <f t="shared" ref="C867:C881" ca="1" si="15">IF(B867=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="868" spans="3:3">
       <c r="C868">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="869" spans="3:3">
       <c r="C869">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="870" spans="3:3">
       <c r="C870">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="C870:C884" ca="1" si="15">IF(B870=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6672,21 +6687,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="882" spans="3:3">
+      <c r="C882">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="3:3">
+      <c r="C883">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="3:3">
+      <c r="C884">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A213:A218"/>
-    <mergeCell ref="A219:A222"/>
-    <mergeCell ref="A223:A239"/>
+    <mergeCell ref="A214:A219"/>
+    <mergeCell ref="A220:A224"/>
+    <mergeCell ref="A226:A242"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="A79:A118"/>
-    <mergeCell ref="A208:A212"/>
-    <mergeCell ref="A191:A207"/>
-    <mergeCell ref="A165:A190"/>
-    <mergeCell ref="A154:A164"/>
-    <mergeCell ref="A119:A153"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="A192:A208"/>
+    <mergeCell ref="A166:A191"/>
+    <mergeCell ref="A155:A165"/>
+    <mergeCell ref="A119:A154"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="13335" windowHeight="7680"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -60,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,7 +101,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,9 +114,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,7 +154,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -188,6 +188,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,9 +223,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,27 +399,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E884"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1">
         <f ca="1">SUM(C:C)</f>
         <v>0</v>
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>4038</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>8085</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -429,7 +431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>1860</v>
@@ -439,7 +441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>4764</v>
@@ -449,7 +451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>2429</v>
@@ -459,7 +461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>7472</v>
@@ -469,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>3862</v>
@@ -479,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8">
         <v>9231</v>
@@ -489,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9">
         <v>8624</v>
@@ -499,7 +501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10">
         <v>2959</v>
@@ -509,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>7271</v>
@@ -519,7 +521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>2632</v>
@@ -529,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>4343</v>
@@ -539,7 +541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14">
         <v>1517</v>
@@ -549,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15">
         <v>1413</v>
@@ -559,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16">
         <v>9405</v>
@@ -569,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -581,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18">
         <v>9298</v>
@@ -591,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19">
         <v>3354</v>
@@ -601,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20">
         <v>8569</v>
@@ -611,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21">
         <v>3730</v>
@@ -621,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22">
         <v>9007</v>
@@ -631,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23">
         <v>5201</v>
@@ -641,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24">
         <v>2981</v>
@@ -651,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25">
         <v>4312</v>
@@ -661,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26">
         <v>8428</v>
@@ -671,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27">
         <v>2361</v>
@@ -681,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28">
         <v>5063</v>
@@ -691,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29">
         <v>7711</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30">
         <v>8833</v>
@@ -711,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31">
         <v>1262</v>
@@ -721,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32">
         <v>9020</v>
@@ -731,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33">
         <v>1934</v>
@@ -741,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34">
         <v>7237</v>
@@ -751,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35">
         <v>3943</v>
@@ -761,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36">
         <v>7619</v>
@@ -771,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37">
         <v>3832</v>
@@ -781,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38">
         <v>1346</v>
@@ -791,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39">
         <v>9622</v>
@@ -801,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40">
         <v>8873</v>
@@ -811,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41">
         <v>7799</v>
@@ -821,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42">
         <v>9354</v>
@@ -831,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43">
         <v>9130</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44">
         <v>5895</v>
@@ -851,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45">
         <v>2461</v>
@@ -861,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46">
         <v>2790</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47">
         <v>2624</v>
@@ -881,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48">
         <v>5871</v>
@@ -891,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49">
         <v>9164</v>
@@ -901,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50">
         <v>7457</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51">
         <v>9865</v>
@@ -921,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52">
         <v>3591</v>
@@ -931,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53">
         <v>3558</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54">
         <v>4366</v>
@@ -951,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55">
         <v>5789</v>
@@ -961,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56">
         <v>6522</v>
@@ -971,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -983,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58">
         <v>1288</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59">
         <v>2614</v>
@@ -1003,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60">
         <v>7170</v>
@@ -1013,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61">
         <v>2709</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62">
         <v>3402</v>
@@ -1033,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63">
         <v>8781</v>
@@ -1043,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64">
         <v>8771</v>
@@ -1053,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65">
         <v>3091</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66">
         <v>2195</v>
@@ -1073,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67">
         <v>1184</v>
@@ -1083,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68">
         <v>2667</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69">
         <v>5917</v>
@@ -1103,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70">
         <v>3929</v>
@@ -1113,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71">
         <v>3083</v>
@@ -1123,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72">
         <v>7546</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
@@ -1145,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74">
         <v>6598</v>
@@ -1155,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75">
         <v>3093</v>
@@ -1165,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76">
         <v>8805</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77">
         <v>8158</v>
@@ -1185,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78">
         <v>6499</v>
@@ -1195,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>4</v>
       </c>
@@ -1207,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80">
         <v>2217</v>
@@ -1217,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81">
         <v>1824</v>
@@ -1227,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82">
         <v>2564</v>
@@ -1237,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83">
         <v>8487</v>
@@ -1247,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84">
         <v>8045</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85">
         <v>8878</v>
@@ -1267,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86">
         <v>3072</v>
@@ -1277,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87">
         <v>5980</v>
@@ -1287,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88">
         <v>8174</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89">
         <v>4257</v>
@@ -1307,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90">
         <v>2291</v>
@@ -1317,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91">
         <v>1763</v>
@@ -1327,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92">
         <v>5662</v>
@@ -1337,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93">
         <v>1945</v>
@@ -1347,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94">
         <v>1186</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95">
         <v>8715</v>
@@ -1367,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96">
         <v>8518</v>
@@ -1377,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97">
         <v>4847</v>
@@ -1387,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98">
         <v>7991</v>
@@ -1397,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99">
         <v>6291</v>
@@ -1407,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100">
         <v>3770</v>
@@ -1417,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101">
         <v>7178</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102">
         <v>3883</v>
@@ -1437,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103">
         <v>4527</v>
@@ -1447,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104">
         <v>6556</v>
@@ -1457,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105">
         <v>5635</v>
@@ -1467,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106">
         <v>3878</v>
@@ -1477,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107">
         <v>1217</v>
@@ -1487,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108">
         <v>1438</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109">
         <v>2153</v>
@@ -1507,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110">
         <v>7937</v>
@@ -1517,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111">
         <v>1999</v>
@@ -1527,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112">
         <v>4042</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113">
         <v>6351</v>
@@ -1547,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114">
         <v>5382</v>
@@ -1557,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115">
         <v>7088</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116">
         <v>7250</v>
@@ -1577,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117">
         <v>6740</v>
@@ -1587,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118">
         <v>9038</v>
@@ -1597,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120">
         <v>8495</v>
@@ -1619,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121">
         <v>1315</v>
@@ -1629,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122">
         <v>6066</v>
@@ -1639,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123">
         <v>2565</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124">
         <v>2594</v>
@@ -1659,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125">
         <v>3762</v>
@@ -1669,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126">
         <v>3550</v>
@@ -1679,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127">
         <v>2475</v>
@@ -1689,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128">
         <v>9180</v>
@@ -1699,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129">
         <v>1544</v>
@@ -1709,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130">
         <v>9562</v>
@@ -1719,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131">
         <v>3669</v>
@@ -1729,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132">
         <v>5951</v>
@@ -1739,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133">
         <v>2802</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134">
         <v>6580</v>
@@ -1759,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135">
         <v>7585</v>
@@ -1769,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136">
         <v>8770</v>
@@ -1779,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137">
         <v>4236</v>
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138">
         <v>5969</v>
@@ -1799,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139">
         <v>8696</v>
@@ -1809,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140">
         <v>8418</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141">
         <v>8395</v>
@@ -1829,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142">
         <v>5170</v>
@@ -1839,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143">
         <v>5568</v>
@@ -1849,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144">
         <v>2592</v>
@@ -1859,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145">
         <v>4075</v>
@@ -1869,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146">
         <v>7517</v>
@@ -1879,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147">
         <v>5448</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148">
         <v>6572</v>
@@ -1899,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149">
         <v>5238</v>
@@ -1909,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150">
         <v>2084</v>
@@ -1919,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151">
         <v>5411</v>
@@ -1929,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152">
         <v>5171</v>
@@ -1939,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153">
         <v>1862</v>
@@ -1949,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154">
         <v>9238</v>
@@ -1959,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>6</v>
       </c>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156">
         <v>9001</v>
@@ -1981,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157">
         <v>9631</v>
@@ -1991,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158">
         <v>9812</v>
@@ -2001,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159">
         <v>5728</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160">
         <v>7491</v>
@@ -2021,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161">
         <v>5923</v>
@@ -2031,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162">
         <v>4265</v>
@@ -2041,17 +2043,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163">
         <v>2166</v>
       </c>
       <c r="C163">
-        <f t="shared" ref="C163:C229" ca="1" si="4">IF(B163=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <f t="shared" ref="C163:C230" ca="1" si="4">IF(B163=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164">
         <v>9116</v>
@@ -2061,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165">
         <v>9925</v>
@@ -2071,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>7</v>
       </c>
@@ -2083,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167">
         <v>9931</v>
@@ -2093,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168">
         <v>1947</v>
@@ -2103,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169">
         <v>9696</v>
@@ -2113,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170">
         <v>1223</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171">
         <v>3946</v>
@@ -2133,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172">
         <v>8311</v>
@@ -2143,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173">
         <v>3134</v>
@@ -2153,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174">
         <v>9774</v>
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175">
         <v>9711</v>
@@ -2173,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176">
         <v>3333</v>
@@ -2183,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177">
         <v>7290</v>
@@ -2193,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178">
         <v>5694</v>
@@ -2203,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179">
         <v>6806</v>
@@ -2213,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180">
         <v>4515</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181">
         <v>9271</v>
@@ -2233,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182">
         <v>8769</v>
@@ -2243,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183">
         <v>4497</v>
@@ -2253,4471 +2255,4481 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184">
-        <v>8820</v>
+        <v>3940</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185">
-        <v>3218</v>
+        <v>8820</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186">
-        <v>4283</v>
+        <v>3218</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187">
-        <v>7703</v>
+        <v>4283</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188">
-        <v>9182</v>
+        <v>7703</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189">
-        <v>5541</v>
+        <v>9182</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190">
-        <v>2386</v>
+        <v>5541</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191">
-        <v>9159</v>
+        <v>2386</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
       <c r="B192">
-        <v>6175</v>
+        <v>9159</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="2"/>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B193">
-        <v>4642</v>
+        <v>6175</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194">
-        <v>9765</v>
+        <v>4642</v>
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195">
-        <v>4954</v>
+        <v>9765</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196">
-        <v>5537</v>
+        <v>4954</v>
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197">
-        <v>6431</v>
+        <v>5537</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198">
-        <v>7193</v>
+        <v>6431</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199">
-        <v>5621</v>
+        <v>7193</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200">
-        <v>5847</v>
+        <v>5621</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201">
-        <v>4769</v>
+        <v>5847</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202">
-        <v>9930</v>
+        <v>4769</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203">
-        <v>6861</v>
+        <v>9930</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204">
-        <v>2205</v>
+        <v>6861</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205">
-        <v>4372</v>
+        <v>2205</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206">
-        <v>4463</v>
+        <v>4372</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207">
-        <v>1668</v>
+        <v>4463</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208">
-        <v>2137</v>
+        <v>1668</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
       <c r="B209">
-        <v>9300</v>
+        <v>2137</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="2"/>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B210">
-        <v>3951</v>
+        <v>9300</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211">
-        <v>6409</v>
+        <v>3951</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212">
-        <v>7343</v>
+        <v>6409</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213">
-        <v>7060</v>
+        <v>7343</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
       <c r="B214">
-        <v>9299</v>
+        <v>7060</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="2"/>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B215">
-        <v>7560</v>
+        <v>9299</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216">
-        <v>9002</v>
+        <v>7560</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217">
-        <v>7432</v>
+        <v>9002</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218">
-        <v>1954</v>
+        <v>7432</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219">
-        <v>2048</v>
+        <v>1954</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
       <c r="B220">
-        <v>3939</v>
+        <v>2048</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="2"/>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B221">
-        <v>8861</v>
+        <v>3939</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222">
-        <v>1516</v>
+        <v>8861</v>
       </c>
       <c r="C222">
-        <f ca="1">IF(B222=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223">
-        <v>9062</v>
+        <v>1516</v>
       </c>
       <c r="C223">
         <f ca="1">IF(B223=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224">
-        <v>5164</v>
+        <v>9062</v>
       </c>
       <c r="C224">
         <f ca="1">IF(B224=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="1"/>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="2"/>
       <c r="B225">
-        <v>2354</v>
+        <v>5164</v>
       </c>
       <c r="C225">
         <f ca="1">IF(B225=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="2" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226">
+        <v>2354</v>
+      </c>
+      <c r="C226">
+        <f ca="1">IF(B226=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B226">
+      <c r="B227">
         <v>8403</v>
-      </c>
-      <c r="C226">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="2"/>
-      <c r="B227">
-        <v>3185</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228">
-        <v>9914</v>
+        <v>3185</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229">
-        <v>6011</v>
+        <v>9914</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230">
-        <v>6037</v>
+        <v>6011</v>
       </c>
       <c r="C230">
-        <f t="shared" ref="C230:C293" ca="1" si="5">IF(B230=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231">
-        <v>2809</v>
+        <v>6037</v>
       </c>
       <c r="C231">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <f t="shared" ref="C231:C294" ca="1" si="5">IF(B231=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232">
-        <v>7297</v>
+        <v>2809</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233">
-        <v>5242</v>
+        <v>7297</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234">
-        <v>1379</v>
+        <v>5242</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235">
-        <v>2401</v>
+        <v>1379</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236">
-        <v>5421</v>
+        <v>2401</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237">
-        <v>7301</v>
+        <v>5421</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238">
-        <v>2000</v>
+        <v>7301</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239">
-        <v>4147</v>
+        <v>2000</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240">
-        <v>1953</v>
+        <v>4147</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241">
-        <v>3956</v>
+        <v>1953</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242">
-        <v>5463</v>
+        <v>3956</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+      <c r="B243">
+        <v>5463</v>
+      </c>
       <c r="C243">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C244">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C245">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C246">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C247">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C248">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C249">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C250">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C251">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C252">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C253">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C254">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C255">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C256">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:3">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:3">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:3">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:3">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:3">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:3">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:3">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:3">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:3">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:3">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:3">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:3">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:3">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:3">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:3">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:3">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:3">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:3">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:3">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:3">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:3">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:3">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:3">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:3">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:3">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:3">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:3">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:3">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:3">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:3">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:3">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:3">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:3">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:3">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:3">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:3">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C292">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:3">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C293">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:3">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C294">
-        <f t="shared" ref="C294:C357" ca="1" si="6">IF(B294=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="3:3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C295">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="3:3">
+        <f t="shared" ref="C295:C358" ca="1" si="6">IF(B295=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C296">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:3">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C297">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:3">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C298">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:3">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C299">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:3">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C300">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:3">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C301">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:3">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C302">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:3">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C303">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:3">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C304">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:3">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C305">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:3">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C306">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:3">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C307">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:3">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C308">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:3">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C309">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:3">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C310">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:3">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C311">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:3">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C312">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:3">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C313">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:3">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C314">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:3">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C315">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:3">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C316">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:3">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C317">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:3">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C318">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:3">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C319">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:3">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C320">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:3">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C321">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:3">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C322">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:3">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C323">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:3">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C324">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:3">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C325">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:3">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C326">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:3">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C327">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:3">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C328">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:3">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C329">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:3">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C330">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:3">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C331">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:3">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C332">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:3">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C333">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:3">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C334">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:3">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C335">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:3">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C336">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:3">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C337">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:3">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C338">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:3">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C339">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:3">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C340">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:3">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C341">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:3">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C342">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:3">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C343">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:3">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C344">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:3">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C345">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:3">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C346">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:3">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C347">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:3">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C348">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:3">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C349">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:3">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C350">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:3">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C351">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:3">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C352">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:3">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C353">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:3">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C354">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:3">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C355">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:3">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C356">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:3">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C357">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:3">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C358">
-        <f t="shared" ref="C358:C421" ca="1" si="7">IF(B358=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="3:3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C359">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="3:3">
+        <f t="shared" ref="C359:C422" ca="1" si="7">IF(B359=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C360">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:3">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C361">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:3">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C362">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:3">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C363">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:3">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C364">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:3">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C365">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:3">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C366">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:3">
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C367">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:3">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C368">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:3">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C369">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:3">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C370">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:3">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C371">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:3">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C372">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:3">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C373">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:3">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C374">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:3">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C375">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:3">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C376">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:3">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C377">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:3">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C378">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:3">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C379">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:3">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C380">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:3">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C381">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:3">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C382">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:3">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C383">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:3">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C384">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:3">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C385">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:3">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C386">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:3">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C387">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:3">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C388">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:3">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C389">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:3">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C390">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:3">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C391">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:3">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C392">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:3">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C393">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:3">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C394">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:3">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C395">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:3">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C396">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:3">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C397">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:3">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C398">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:3">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C399">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:3">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C400">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:3">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C401">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:3">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C402">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:3">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C403">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:3">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C404">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:3">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C405">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:3">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C406">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:3">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C407">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:3">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C408">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:3">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C409">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:3">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C410">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:3">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C411">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:3">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C412">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:3">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C413">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:3">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C414">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:3">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C415">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:3">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C416">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:3">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C417">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:3">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C418">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:3">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C419">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:3">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C420">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:3">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C421">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:3">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C422">
-        <f t="shared" ref="C422:C485" ca="1" si="8">IF(B422=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="3:3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C423">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="3:3">
+        <f t="shared" ref="C423:C486" ca="1" si="8">IF(B423=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C424">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:3">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C425">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:3">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C426">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:3">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C427">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:3">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C428">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:3">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C429">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:3">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C430">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:3">
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C431">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:3">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C432">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:3">
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C433">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:3">
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C434">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:3">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C435">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:3">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C436">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:3">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C437">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:3">
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C438">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:3">
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C439">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:3">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C440">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:3">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C441">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:3">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C442">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:3">
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C443">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="3:3">
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C444">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="3:3">
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C445">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:3">
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C446">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:3">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C447">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:3">
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C448">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:3">
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C449">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:3">
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C450">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:3">
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C451">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:3">
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C452">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:3">
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C453">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:3">
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C454">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:3">
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C455">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:3">
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C456">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:3">
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C457">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:3">
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C458">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:3">
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C459">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:3">
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C460">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:3">
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C461">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:3">
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C462">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:3">
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C463">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:3">
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C464">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:3">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C465">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:3">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C466">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:3">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C467">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:3">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C468">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:3">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C469">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:3">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C470">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:3">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C471">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:3">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C472">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:3">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C473">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:3">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C474">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:3">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C475">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:3">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C476">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:3">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C477">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:3">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C478">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:3">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C479">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:3">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C480">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:3">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C481">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:3">
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C482">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:3">
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C483">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:3">
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C484">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:3">
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C485">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:3">
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C486">
-        <f t="shared" ref="C486:C549" ca="1" si="9">IF(B486=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="3:3">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C487">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="3:3">
+        <f t="shared" ref="C487:C550" ca="1" si="9">IF(B487=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C488">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:3">
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C489">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:3">
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C490">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:3">
+    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C491">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:3">
+    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C492">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:3">
+    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C493">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:3">
+    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C494">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:3">
+    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C495">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:3">
+    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C496">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:3">
+    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C497">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:3">
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C498">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:3">
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C499">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:3">
+    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C500">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:3">
+    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C501">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:3">
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C502">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:3">
+    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C503">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:3">
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C504">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:3">
+    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C505">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:3">
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C506">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:3">
+    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C507">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="3:3">
+    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C508">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="3:3">
+    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C509">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="3:3">
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C510">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:3">
+    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C511">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:3">
+    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C512">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:3">
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C513">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:3">
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C514">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:3">
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C515">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:3">
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C516">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:3">
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C517">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:3">
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C518">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:3">
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C519">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:3">
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C520">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:3">
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C521">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:3">
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C522">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:3">
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C523">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:3">
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C524">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:3">
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C525">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:3">
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C526">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:3">
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C527">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:3">
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C528">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:3">
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C529">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:3">
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C530">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:3">
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C531">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:3">
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C532">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:3">
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C533">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:3">
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C534">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:3">
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C535">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:3">
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C536">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:3">
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C537">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:3">
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C538">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:3">
+    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C539">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:3">
+    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C540">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:3">
+    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C541">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:3">
+    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C542">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:3">
+    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C543">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:3">
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C544">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:3">
+    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C545">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:3">
+    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C546">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:3">
+    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C547">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:3">
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C548">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:3">
+    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C549">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:3">
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C550">
-        <f t="shared" ref="C550:C613" ca="1" si="10">IF(B550=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551" spans="3:3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C551">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552" spans="3:3">
+        <f t="shared" ref="C551:C614" ca="1" si="10">IF(B551=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C552">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:3">
+    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C553">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:3">
+    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C554">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:3">
+    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C555">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:3">
+    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C556">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:3">
+    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C557">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:3">
+    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C558">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:3">
+    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C559">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:3">
+    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C560">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:3">
+    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C561">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:3">
+    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C562">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:3">
+    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C563">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:3">
+    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C564">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:3">
+    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C565">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:3">
+    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C566">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:3">
+    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C567">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:3">
+    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C568">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:3">
+    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C569">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:3">
+    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C570">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:3">
+    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C571">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:3">
+    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C572">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:3">
+    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C573">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:3">
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C574">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:3">
+    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C575">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:3">
+    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C576">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:3">
+    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C577">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:3">
+    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C578">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:3">
+    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C579">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:3">
+    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C580">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:3">
+    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C581">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:3">
+    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C582">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:3">
+    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C583">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:3">
+    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C584">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:3">
+    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C585">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:3">
+    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C586">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:3">
+    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C587">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:3">
+    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C588">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:3">
+    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C589">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:3">
+    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C590">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:3">
+    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C591">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:3">
+    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C592">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:3">
+    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C593">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:3">
+    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C594">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:3">
+    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C595">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:3">
+    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C596">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:3">
+    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C597">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:3">
+    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C598">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:3">
+    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C599">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:3">
+    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C600">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:3">
+    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C601">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:3">
+    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C602">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:3">
+    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C603">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:3">
+    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C604">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:3">
+    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C605">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:3">
+    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C606">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:3">
+    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C607">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:3">
+    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C608">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:3">
+    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C609">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:3">
+    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C610">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:3">
+    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C611">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:3">
+    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C612">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:3">
+    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C613">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:3">
+    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C614">
-        <f t="shared" ref="C614:C677" ca="1" si="11">IF(B614=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615" spans="3:3">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C615">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616" spans="3:3">
+        <f t="shared" ref="C615:C678" ca="1" si="11">IF(B615=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C616">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:3">
+    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C617">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:3">
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C618">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:3">
+    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C619">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:3">
+    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C620">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:3">
+    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C621">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:3">
+    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C622">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:3">
+    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C623">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:3">
+    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C624">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:3">
+    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C625">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:3">
+    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C626">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:3">
+    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C627">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:3">
+    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C628">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:3">
+    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C629">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:3">
+    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C630">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:3">
+    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C631">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:3">
+    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C632">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:3">
+    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C633">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:3">
+    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C634">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:3">
+    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C635">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:3">
+    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C636">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:3">
+    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C637">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:3">
+    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C638">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:3">
+    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C639">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:3">
+    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C640">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:3">
+    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C641">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:3">
+    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C642">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:3">
+    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C643">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:3">
+    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C644">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:3">
+    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C645">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:3">
+    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C646">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:3">
+    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C647">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:3">
+    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C648">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:3">
+    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C649">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:3">
+    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C650">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:3">
+    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C651">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:3">
+    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C652">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:3">
+    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C653">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:3">
+    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C654">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:3">
+    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C655">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:3">
+    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C656">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:3">
+    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C657">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:3">
+    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C658">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:3">
+    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C659">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:3">
+    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C660">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:3">
+    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C661">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:3">
+    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C662">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:3">
+    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C663">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:3">
+    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C664">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:3">
+    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C665">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:3">
+    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C666">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:3">
+    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C667">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:3">
+    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C668">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:3">
+    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C669">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:3">
+    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C670">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="3:3">
+    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C671">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="3:3">
+    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C672">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="3:3">
+    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C673">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="3:3">
+    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C674">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="3:3">
+    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C675">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="3:3">
+    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C676">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="3:3">
+    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C677">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="3:3">
+    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C678">
-        <f t="shared" ref="C678:C741" ca="1" si="12">IF(B678=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="679" spans="3:3">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C679">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="680" spans="3:3">
+        <f t="shared" ref="C679:C742" ca="1" si="12">IF(B679=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C680">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="3:3">
+    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C681">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="3:3">
+    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C682">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="3:3">
+    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C683">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="3:3">
+    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C684">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="3:3">
+    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C685">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="3:3">
+    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C686">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="3:3">
+    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C687">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="3:3">
+    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C688">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="3:3">
+    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C689">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="3:3">
+    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C690">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="3:3">
+    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C691">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="3:3">
+    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C692">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="3:3">
+    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C693">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="3:3">
+    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C694">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="3:3">
+    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C695">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="3:3">
+    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C696">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="3:3">
+    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C697">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="3:3">
+    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C698">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="3:3">
+    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C699">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="3:3">
+    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C700">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="3:3">
+    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C701">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="3:3">
+    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C702">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="3:3">
+    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C703">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="3:3">
+    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C704">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="3:3">
+    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C705">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="3:3">
+    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C706">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="3:3">
+    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C707">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="3:3">
+    <row r="708" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C708">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="3:3">
+    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C709">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="3:3">
+    <row r="710" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C710">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="3:3">
+    <row r="711" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C711">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="3:3">
+    <row r="712" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C712">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="3:3">
+    <row r="713" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C713">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="3:3">
+    <row r="714" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C714">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="3:3">
+    <row r="715" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C715">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="3:3">
+    <row r="716" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C716">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="3:3">
+    <row r="717" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C717">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="3:3">
+    <row r="718" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C718">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="3:3">
+    <row r="719" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C719">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="3:3">
+    <row r="720" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C720">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="3:3">
+    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C721">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="3:3">
+    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C722">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="3:3">
+    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C723">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="3:3">
+    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C724">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="3:3">
+    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C725">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="3:3">
+    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C726">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="3:3">
+    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C727">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="3:3">
+    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C728">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="3:3">
+    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C729">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="3:3">
+    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C730">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="3:3">
+    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C731">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="3:3">
+    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C732">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="3:3">
+    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C733">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="3:3">
+    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C734">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="3:3">
+    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C735">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="3:3">
+    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C736">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="3:3">
+    <row r="737" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C737">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="3:3">
+    <row r="738" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C738">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="3:3">
+    <row r="739" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C739">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="3:3">
+    <row r="740" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C740">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="3:3">
+    <row r="741" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C741">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="3:3">
+    <row r="742" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C742">
-        <f t="shared" ref="C742:C805" ca="1" si="13">IF(B742=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="743" spans="3:3">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C743">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="744" spans="3:3">
+        <f t="shared" ref="C743:C806" ca="1" si="13">IF(B743=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C744">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="3:3">
+    <row r="745" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C745">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="3:3">
+    <row r="746" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C746">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="3:3">
+    <row r="747" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C747">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="3:3">
+    <row r="748" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C748">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="3:3">
+    <row r="749" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C749">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="3:3">
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C750">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="3:3">
+    <row r="751" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C751">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="3:3">
+    <row r="752" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C752">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="3:3">
+    <row r="753" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C753">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="3:3">
+    <row r="754" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C754">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="3:3">
+    <row r="755" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C755">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="3:3">
+    <row r="756" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C756">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="3:3">
+    <row r="757" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C757">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="3:3">
+    <row r="758" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C758">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="3:3">
+    <row r="759" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C759">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="3:3">
+    <row r="760" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C760">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="3:3">
+    <row r="761" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C761">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="3:3">
+    <row r="762" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C762">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="3:3">
+    <row r="763" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C763">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="3:3">
+    <row r="764" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C764">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="3:3">
+    <row r="765" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C765">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="3:3">
+    <row r="766" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C766">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="3:3">
+    <row r="767" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C767">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="3:3">
+    <row r="768" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C768">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="3:3">
+    <row r="769" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C769">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="3:3">
+    <row r="770" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C770">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="3:3">
+    <row r="771" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C771">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="3:3">
+    <row r="772" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C772">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="3:3">
+    <row r="773" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C773">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="3:3">
+    <row r="774" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C774">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="3:3">
+    <row r="775" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C775">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="3:3">
+    <row r="776" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C776">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="3:3">
+    <row r="777" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C777">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="3:3">
+    <row r="778" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C778">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="3:3">
+    <row r="779" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C779">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="3:3">
+    <row r="780" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C780">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="3:3">
+    <row r="781" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C781">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="3:3">
+    <row r="782" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C782">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="3:3">
+    <row r="783" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C783">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="3:3">
+    <row r="784" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C784">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="3:3">
+    <row r="785" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C785">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="3:3">
+    <row r="786" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C786">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="3:3">
+    <row r="787" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C787">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="3:3">
+    <row r="788" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C788">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="3:3">
+    <row r="789" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C789">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="3:3">
+    <row r="790" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C790">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="3:3">
+    <row r="791" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C791">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="3:3">
+    <row r="792" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C792">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="3:3">
+    <row r="793" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C793">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="3:3">
+    <row r="794" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C794">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="3:3">
+    <row r="795" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C795">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="3:3">
+    <row r="796" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C796">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="3:3">
+    <row r="797" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C797">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="3:3">
+    <row r="798" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C798">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="3:3">
+    <row r="799" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C799">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="3:3">
+    <row r="800" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C800">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="3:3">
+    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C801">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="3:3">
+    <row r="802" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C802">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="3:3">
+    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C803">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="3:3">
+    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C804">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="3:3">
+    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C805">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="3:3">
+    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C806">
-        <f t="shared" ref="C806:C869" ca="1" si="14">IF(B806=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="807" spans="3:3">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C807">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="808" spans="3:3">
+        <f t="shared" ref="C807:C870" ca="1" si="14">IF(B807=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C808">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="3:3">
+    <row r="809" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C809">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="3:3">
+    <row r="810" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C810">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="3:3">
+    <row r="811" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C811">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="3:3">
+    <row r="812" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C812">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="3:3">
+    <row r="813" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C813">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="3:3">
+    <row r="814" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C814">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="3:3">
+    <row r="815" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C815">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="3:3">
+    <row r="816" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C816">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="3:3">
+    <row r="817" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C817">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="3:3">
+    <row r="818" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C818">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="3:3">
+    <row r="819" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C819">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="3:3">
+    <row r="820" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C820">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="3:3">
+    <row r="821" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C821">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="3:3">
+    <row r="822" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C822">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="3:3">
+    <row r="823" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C823">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="3:3">
+    <row r="824" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C824">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="3:3">
+    <row r="825" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C825">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="3:3">
+    <row r="826" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C826">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="3:3">
+    <row r="827" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C827">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="3:3">
+    <row r="828" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C828">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="3:3">
+    <row r="829" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C829">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="3:3">
+    <row r="830" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C830">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="3:3">
+    <row r="831" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C831">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="3:3">
+    <row r="832" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C832">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="3:3">
+    <row r="833" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C833">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="3:3">
+    <row r="834" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C834">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="3:3">
+    <row r="835" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C835">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="3:3">
+    <row r="836" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C836">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="3:3">
+    <row r="837" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C837">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="3:3">
+    <row r="838" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C838">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="3:3">
+    <row r="839" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C839">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="3:3">
+    <row r="840" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C840">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="3:3">
+    <row r="841" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C841">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="3:3">
+    <row r="842" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C842">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="3:3">
+    <row r="843" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C843">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="3:3">
+    <row r="844" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C844">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="3:3">
+    <row r="845" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C845">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="3:3">
+    <row r="846" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C846">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="3:3">
+    <row r="847" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C847">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="3:3">
+    <row r="848" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C848">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="3:3">
+    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C849">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="3:3">
+    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C850">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="3:3">
+    <row r="851" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C851">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="3:3">
+    <row r="852" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C852">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="3:3">
+    <row r="853" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C853">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="3:3">
+    <row r="854" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C854">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="3:3">
+    <row r="855" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C855">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="3:3">
+    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C856">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="3:3">
+    <row r="857" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C857">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="3:3">
+    <row r="858" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C858">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="3:3">
+    <row r="859" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C859">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="3:3">
+    <row r="860" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C860">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="3:3">
+    <row r="861" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C861">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="3:3">
+    <row r="862" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C862">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="3:3">
+    <row r="863" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C863">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="3:3">
+    <row r="864" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C864">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="3:3">
+    <row r="865" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C865">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="3:3">
+    <row r="866" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C866">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="3:3">
+    <row r="867" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C867">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="3:3">
+    <row r="868" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C868">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="3:3">
+    <row r="869" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C869">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="3:3">
+    <row r="870" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C870">
-        <f t="shared" ref="C870:C884" ca="1" si="15">IF(B870=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="871" spans="3:3">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C871">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="872" spans="3:3">
+        <f t="shared" ref="C871:C885" ca="1" si="15">IF(B871=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C872">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="3:3">
+    <row r="873" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C873">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="3:3">
+    <row r="874" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C874">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="3:3">
+    <row r="875" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C875">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="3:3">
+    <row r="876" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C876">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="3:3">
+    <row r="877" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C877">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="3:3">
+    <row r="878" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C878">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="3:3">
+    <row r="879" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C879">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="3:3">
+    <row r="880" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C880">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="3:3">
+    <row r="881" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C881">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="3:3">
+    <row r="882" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C882">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="3:3">
+    <row r="883" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C883">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="3:3">
+    <row r="884" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C884">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
+    <row r="885" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C885">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A214:A219"/>
-    <mergeCell ref="A220:A224"/>
-    <mergeCell ref="A226:A242"/>
+    <mergeCell ref="A215:A220"/>
+    <mergeCell ref="A221:A225"/>
+    <mergeCell ref="A227:A243"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="A79:A118"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="A192:A208"/>
-    <mergeCell ref="A166:A191"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="A193:A209"/>
+    <mergeCell ref="A166:A192"/>
     <mergeCell ref="A155:A165"/>
     <mergeCell ref="A119:A154"/>
   </mergeCells>
@@ -6726,24 +6738,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -400,11 +400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E885"/>
+  <dimension ref="A1:E887"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +416,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>8085</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>7991</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:C162" ca="1" si="3">IF(B98=$E$1,1,0)</f>
+        <f t="shared" ref="C98:C164" ca="1" si="3">IF(B98=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136">
-        <v>8770</v>
+        <v>2321</v>
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="3"/>
@@ -1784,7 +1784,7 @@
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137">
-        <v>4236</v>
+        <v>5053</v>
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="3"/>
@@ -1794,7 +1794,7 @@
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138">
-        <v>5969</v>
+        <v>8770</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="3"/>
@@ -1804,7 +1804,7 @@
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139">
-        <v>8696</v>
+        <v>4236</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="3"/>
@@ -1814,7 +1814,7 @@
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140">
-        <v>8418</v>
+        <v>5969</v>
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="3"/>
@@ -1824,7 +1824,7 @@
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141">
-        <v>8395</v>
+        <v>8696</v>
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="3"/>
@@ -1834,7 +1834,7 @@
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142">
-        <v>5170</v>
+        <v>8418</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="3"/>
@@ -1844,7 +1844,7 @@
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143">
-        <v>5568</v>
+        <v>8395</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="3"/>
@@ -1854,7 +1854,7 @@
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144">
-        <v>2592</v>
+        <v>5170</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="3"/>
@@ -1864,7 +1864,7 @@
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145">
-        <v>4075</v>
+        <v>5568</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="3"/>
@@ -1874,7 +1874,7 @@
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146">
-        <v>7517</v>
+        <v>2592</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="3"/>
@@ -1884,7 +1884,7 @@
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147">
-        <v>5448</v>
+        <v>4075</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="3"/>
@@ -1894,7 +1894,7 @@
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148">
-        <v>6572</v>
+        <v>7517</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="3"/>
@@ -1904,7 +1904,7 @@
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149">
-        <v>5238</v>
+        <v>5448</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="3"/>
@@ -1914,7 +1914,7 @@
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150">
-        <v>2084</v>
+        <v>6572</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="3"/>
@@ -1924,7 +1924,7 @@
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151">
-        <v>5411</v>
+        <v>5238</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="3"/>
@@ -1934,7 +1934,7 @@
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152">
-        <v>5171</v>
+        <v>2084</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="3"/>
@@ -1944,7 +1944,7 @@
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153">
-        <v>1862</v>
+        <v>5411</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="3"/>
@@ -1954,7 +1954,7 @@
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154">
-        <v>9238</v>
+        <v>5171</v>
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="3"/>
@@ -1962,11 +1962,9 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A155" s="2"/>
       <c r="B155">
-        <v>8165</v>
+        <v>1862</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="3"/>
@@ -1976,7 +1974,7 @@
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156">
-        <v>9001</v>
+        <v>9238</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="3"/>
@@ -1984,9 +1982,11 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
+      <c r="A157" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B157">
-        <v>9631</v>
+        <v>8165</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="3"/>
@@ -1996,7 +1996,7 @@
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158">
-        <v>9812</v>
+        <v>9001</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="3"/>
@@ -2006,7 +2006,7 @@
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159">
-        <v>5728</v>
+        <v>9631</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="3"/>
@@ -2016,7 +2016,7 @@
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160">
-        <v>7491</v>
+        <v>9812</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="3"/>
@@ -2026,7 +2026,7 @@
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161">
-        <v>5923</v>
+        <v>5728</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="3"/>
@@ -2036,7 +2036,7 @@
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162">
-        <v>4265</v>
+        <v>7491</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="3"/>
@@ -2046,39 +2046,37 @@
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163">
-        <v>2166</v>
+        <v>5923</v>
       </c>
       <c r="C163">
-        <f t="shared" ref="C163:C230" ca="1" si="4">IF(B163=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164">
-        <v>9116</v>
+        <v>4265</v>
       </c>
       <c r="C164">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165">
-        <v>9925</v>
+        <v>2166</v>
       </c>
       <c r="C165">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="C165:C232" ca="1" si="4">IF(B165=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A166" s="2"/>
       <c r="B166">
-        <v>2885</v>
+        <v>9116</v>
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="4"/>
@@ -2088,7 +2086,7 @@
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167">
-        <v>9931</v>
+        <v>9925</v>
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="4"/>
@@ -2096,9 +2094,11 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
+      <c r="A168" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B168">
-        <v>1947</v>
+        <v>2885</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="4"/>
@@ -2108,7 +2108,7 @@
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169">
-        <v>9696</v>
+        <v>9931</v>
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="4"/>
@@ -2118,7 +2118,7 @@
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170">
-        <v>1223</v>
+        <v>1947</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="4"/>
@@ -2128,7 +2128,7 @@
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171">
-        <v>3946</v>
+        <v>9696</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="4"/>
@@ -2138,7 +2138,7 @@
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172">
-        <v>8311</v>
+        <v>1223</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="4"/>
@@ -2148,7 +2148,7 @@
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173">
-        <v>3134</v>
+        <v>3946</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="4"/>
@@ -2158,7 +2158,7 @@
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174">
-        <v>9774</v>
+        <v>8311</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="4"/>
@@ -2168,7 +2168,7 @@
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175">
-        <v>9711</v>
+        <v>3134</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="4"/>
@@ -2178,7 +2178,7 @@
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176">
-        <v>3333</v>
+        <v>9774</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="4"/>
@@ -2188,7 +2188,7 @@
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177">
-        <v>7290</v>
+        <v>9711</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="4"/>
@@ -2198,7 +2198,7 @@
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178">
-        <v>5694</v>
+        <v>3333</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="4"/>
@@ -2208,7 +2208,7 @@
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179">
-        <v>6806</v>
+        <v>7290</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="4"/>
@@ -2218,7 +2218,7 @@
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180">
-        <v>4515</v>
+        <v>5694</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="4"/>
@@ -2228,7 +2228,7 @@
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181">
-        <v>9271</v>
+        <v>6806</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="4"/>
@@ -2238,7 +2238,7 @@
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182">
-        <v>8769</v>
+        <v>4515</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="4"/>
@@ -2248,7 +2248,7 @@
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183">
-        <v>4497</v>
+        <v>9271</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="4"/>
@@ -2258,7 +2258,7 @@
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184">
-        <v>3940</v>
+        <v>8769</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="4"/>
@@ -2268,7 +2268,7 @@
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185">
-        <v>8820</v>
+        <v>4497</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="4"/>
@@ -2278,7 +2278,7 @@
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186">
-        <v>3218</v>
+        <v>3940</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="4"/>
@@ -2288,7 +2288,7 @@
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187">
-        <v>4283</v>
+        <v>8820</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="4"/>
@@ -2298,7 +2298,7 @@
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188">
-        <v>7703</v>
+        <v>3218</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="4"/>
@@ -2308,7 +2308,7 @@
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189">
-        <v>9182</v>
+        <v>4283</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="4"/>
@@ -2318,7 +2318,7 @@
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190">
-        <v>5541</v>
+        <v>7703</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="4"/>
@@ -2328,7 +2328,7 @@
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191">
-        <v>2386</v>
+        <v>9182</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="4"/>
@@ -2338,7 +2338,7 @@
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192">
-        <v>9159</v>
+        <v>5541</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="4"/>
@@ -2346,11 +2346,9 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A193" s="2"/>
       <c r="B193">
-        <v>6175</v>
+        <v>2386</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="4"/>
@@ -2360,7 +2358,7 @@
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194">
-        <v>4642</v>
+        <v>9159</v>
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="4"/>
@@ -2368,9 +2366,11 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
+      <c r="A195" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B195">
-        <v>9765</v>
+        <v>6175</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="4"/>
@@ -2380,7 +2380,7 @@
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196">
-        <v>4954</v>
+        <v>4642</v>
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="4"/>
@@ -2390,7 +2390,7 @@
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197">
-        <v>5537</v>
+        <v>9765</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="4"/>
@@ -2400,7 +2400,7 @@
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198">
-        <v>6431</v>
+        <v>4954</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="4"/>
@@ -2410,7 +2410,7 @@
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199">
-        <v>7193</v>
+        <v>5537</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="4"/>
@@ -2420,7 +2420,7 @@
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200">
-        <v>5621</v>
+        <v>6431</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="4"/>
@@ -2430,7 +2430,7 @@
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201">
-        <v>5847</v>
+        <v>7193</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="4"/>
@@ -2440,7 +2440,7 @@
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202">
-        <v>4769</v>
+        <v>5621</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="4"/>
@@ -2450,7 +2450,7 @@
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203">
-        <v>9930</v>
+        <v>5847</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="4"/>
@@ -2460,7 +2460,7 @@
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204">
-        <v>6861</v>
+        <v>4769</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="4"/>
@@ -2470,7 +2470,7 @@
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205">
-        <v>2205</v>
+        <v>9930</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="4"/>
@@ -2480,7 +2480,7 @@
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206">
-        <v>4372</v>
+        <v>6861</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="4"/>
@@ -2490,7 +2490,7 @@
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207">
-        <v>4463</v>
+        <v>2205</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="4"/>
@@ -2500,7 +2500,7 @@
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208">
-        <v>1668</v>
+        <v>4372</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="4"/>
@@ -2510,7 +2510,7 @@
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209">
-        <v>2137</v>
+        <v>4463</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="4"/>
@@ -2518,11 +2518,9 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A210" s="2"/>
       <c r="B210">
-        <v>9300</v>
+        <v>1668</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="4"/>
@@ -2532,7 +2530,7 @@
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211">
-        <v>3951</v>
+        <v>2137</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="4"/>
@@ -2540,9 +2538,11 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
+      <c r="A212" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B212">
-        <v>6409</v>
+        <v>9300</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="4"/>
@@ -2552,7 +2552,7 @@
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213">
-        <v>7343</v>
+        <v>3951</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="4"/>
@@ -2562,7 +2562,7 @@
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214">
-        <v>7060</v>
+        <v>6409</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="4"/>
@@ -2570,11 +2570,9 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A215" s="2"/>
       <c r="B215">
-        <v>9299</v>
+        <v>7343</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="4"/>
@@ -2584,7 +2582,7 @@
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216">
-        <v>7560</v>
+        <v>7060</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="4"/>
@@ -2592,9 +2590,11 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
+      <c r="A217" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B217">
-        <v>9002</v>
+        <v>9299</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
@@ -2604,7 +2604,7 @@
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218">
-        <v>7432</v>
+        <v>7560</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
@@ -2614,7 +2614,7 @@
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219">
-        <v>1954</v>
+        <v>9002</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="4"/>
@@ -2624,7 +2624,7 @@
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220">
-        <v>2048</v>
+        <v>7432</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
@@ -2632,11 +2632,9 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A221" s="2"/>
       <c r="B221">
-        <v>3939</v>
+        <v>1954</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
@@ -2646,7 +2644,7 @@
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222">
-        <v>8861</v>
+        <v>2048</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="4"/>
@@ -2654,29 +2652,31 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
+      <c r="A223" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B223">
-        <v>1516</v>
+        <v>3939</v>
       </c>
       <c r="C223">
-        <f ca="1">IF(B223=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224">
-        <v>9062</v>
+        <v>8861</v>
       </c>
       <c r="C224">
-        <f ca="1">IF(B224=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225">
-        <v>5164</v>
+        <v>1516</v>
       </c>
       <c r="C225">
         <f ca="1">IF(B225=$E$1,1,0)</f>
@@ -2684,9 +2684,9 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
+      <c r="A226" s="2"/>
       <c r="B226">
-        <v>2354</v>
+        <v>9062</v>
       </c>
       <c r="C226">
         <f ca="1">IF(B226=$E$1,1,0)</f>
@@ -2694,31 +2694,31 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="2"/>
+      <c r="B227">
+        <v>5164</v>
+      </c>
+      <c r="C227">
+        <f ca="1">IF(B227=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228">
+        <v>2354</v>
+      </c>
+      <c r="C228">
+        <f ca="1">IF(B228=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B227">
+      <c r="B229">
         <v>8403</v>
-      </c>
-      <c r="C227">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
-      <c r="B228">
-        <v>3185</v>
-      </c>
-      <c r="C228">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
-      <c r="B229">
-        <v>9914</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="4"/>
@@ -2728,7 +2728,7 @@
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230">
-        <v>6011</v>
+        <v>3185</v>
       </c>
       <c r="C230">
         <f t="shared" ca="1" si="4"/>
@@ -2738,37 +2738,37 @@
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231">
-        <v>6037</v>
+        <v>9914</v>
       </c>
       <c r="C231">
-        <f t="shared" ref="C231:C294" ca="1" si="5">IF(B231=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232">
-        <v>2809</v>
+        <v>6011</v>
       </c>
       <c r="C232">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233">
-        <v>7297</v>
+        <v>6037</v>
       </c>
       <c r="C233">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="C233:C296" ca="1" si="5">IF(B233=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234">
-        <v>5242</v>
+        <v>2809</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="5"/>
@@ -2778,7 +2778,7 @@
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235">
-        <v>1379</v>
+        <v>7297</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="5"/>
@@ -2788,7 +2788,7 @@
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236">
-        <v>2401</v>
+        <v>5242</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="5"/>
@@ -2798,7 +2798,7 @@
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237">
-        <v>5421</v>
+        <v>1379</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="5"/>
@@ -2808,7 +2808,7 @@
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238">
-        <v>7301</v>
+        <v>2401</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="5"/>
@@ -2818,7 +2818,7 @@
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239">
-        <v>2000</v>
+        <v>5421</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="5"/>
@@ -2828,7 +2828,7 @@
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240">
-        <v>4147</v>
+        <v>7301</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="5"/>
@@ -2838,7 +2838,7 @@
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241">
-        <v>1953</v>
+        <v>2000</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="5"/>
@@ -2848,7 +2848,7 @@
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242">
-        <v>3956</v>
+        <v>4147</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="5"/>
@@ -2858,7 +2858,7 @@
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243">
-        <v>5463</v>
+        <v>1953</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="5"/>
@@ -2866,12 +2866,20 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+      <c r="B244">
+        <v>3956</v>
+      </c>
       <c r="C244">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="2"/>
+      <c r="B245">
+        <v>5463</v>
+      </c>
       <c r="C245">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
@@ -3173,19 +3181,19 @@
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C295">
-        <f t="shared" ref="C295:C358" ca="1" si="6">IF(B295=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C296">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C297">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="C297:C360" ca="1" si="6">IF(B297=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3557,19 +3565,19 @@
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C359">
-        <f t="shared" ref="C359:C422" ca="1" si="7">IF(B359=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C360">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C361">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="C361:C424" ca="1" si="7">IF(B361=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3941,19 +3949,19 @@
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C423">
-        <f t="shared" ref="C423:C486" ca="1" si="8">IF(B423=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C424">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C425">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="C425:C488" ca="1" si="8">IF(B425=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4325,19 +4333,19 @@
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C487">
-        <f t="shared" ref="C487:C550" ca="1" si="9">IF(B487=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="488" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C488">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C489">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="C489:C552" ca="1" si="9">IF(B489=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4709,19 +4717,19 @@
     </row>
     <row r="551" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C551">
-        <f t="shared" ref="C551:C614" ca="1" si="10">IF(B551=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="552" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C552">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="553" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C553">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="C553:C616" ca="1" si="10">IF(B553=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5093,19 +5101,19 @@
     </row>
     <row r="615" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C615">
-        <f t="shared" ref="C615:C678" ca="1" si="11">IF(B615=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="616" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C616">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="617" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C617">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="C617:C680" ca="1" si="11">IF(B617=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5477,19 +5485,19 @@
     </row>
     <row r="679" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C679">
-        <f t="shared" ref="C679:C742" ca="1" si="12">IF(B679=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="680" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C680">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="681" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C681">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="C681:C744" ca="1" si="12">IF(B681=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5861,19 +5869,19 @@
     </row>
     <row r="743" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C743">
-        <f t="shared" ref="C743:C806" ca="1" si="13">IF(B743=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="744" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C744">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="745" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C745">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="C745:C808" ca="1" si="13">IF(B745=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6245,19 +6253,19 @@
     </row>
     <row r="807" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C807">
-        <f t="shared" ref="C807:C870" ca="1" si="14">IF(B807=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="808" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C808">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="809" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C809">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="C809:C872" ca="1" si="14">IF(B809=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6629,19 +6637,19 @@
     </row>
     <row r="871" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C871">
-        <f t="shared" ref="C871:C885" ca="1" si="15">IF(B871=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="872" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C872">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="873" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C873">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="C873:C887" ca="1" si="15">IF(B873=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6717,21 +6725,33 @@
         <v>0</v>
       </c>
     </row>
+    <row r="886" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C886">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C887">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A215:A220"/>
-    <mergeCell ref="A221:A225"/>
-    <mergeCell ref="A227:A243"/>
+    <mergeCell ref="A217:A222"/>
+    <mergeCell ref="A223:A227"/>
+    <mergeCell ref="A229:A245"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="A79:A118"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="A193:A209"/>
-    <mergeCell ref="A166:A192"/>
-    <mergeCell ref="A155:A165"/>
-    <mergeCell ref="A119:A154"/>
+    <mergeCell ref="A212:A216"/>
+    <mergeCell ref="A195:A211"/>
+    <mergeCell ref="A168:A194"/>
+    <mergeCell ref="A157:A167"/>
+    <mergeCell ref="A119:A156"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="13335" windowHeight="7680"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -60,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,7 +101,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,9 +114,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,7 +154,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -188,7 +188,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -223,10 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -399,27 +397,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E887"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B138" sqref="B138"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="D1">
         <f ca="1">SUM(C:C)</f>
         <v>0</v>
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>5622</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8086</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -431,7 +429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>1860</v>
@@ -441,7 +439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>4764</v>
@@ -451,7 +449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>2429</v>
@@ -461,7 +459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>7472</v>
@@ -471,7 +469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>3862</v>
@@ -481,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8">
         <v>9231</v>
@@ -491,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9">
         <v>8624</v>
@@ -501,7 +499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10">
         <v>2959</v>
@@ -511,7 +509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>7271</v>
@@ -521,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>2632</v>
@@ -531,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>4343</v>
@@ -541,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14">
         <v>1517</v>
@@ -551,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15">
         <v>1413</v>
@@ -561,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16">
         <v>9405</v>
@@ -571,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -583,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18">
         <v>9298</v>
@@ -593,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19">
         <v>3354</v>
@@ -603,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20">
         <v>8569</v>
@@ -613,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21">
         <v>3730</v>
@@ -623,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22">
         <v>9007</v>
@@ -633,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2"/>
       <c r="B23">
         <v>5201</v>
@@ -643,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24">
         <v>2981</v>
@@ -653,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25">
         <v>4312</v>
@@ -663,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26">
         <v>8428</v>
@@ -673,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27">
         <v>2361</v>
@@ -683,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28">
         <v>5063</v>
@@ -693,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29">
         <v>7711</v>
@@ -703,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30">
         <v>8833</v>
@@ -713,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31">
         <v>1262</v>
@@ -723,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32">
         <v>9020</v>
@@ -733,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="2"/>
       <c r="B33">
         <v>1934</v>
@@ -743,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34">
         <v>7237</v>
@@ -753,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="2"/>
       <c r="B35">
         <v>3943</v>
@@ -763,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36">
         <v>7619</v>
@@ -773,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37">
         <v>3832</v>
@@ -783,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38">
         <v>1346</v>
@@ -793,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39">
         <v>9622</v>
@@ -803,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40">
         <v>8873</v>
@@ -813,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41">
         <v>7799</v>
@@ -823,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42">
         <v>9354</v>
@@ -833,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43">
         <v>9130</v>
@@ -843,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="2"/>
       <c r="B44">
         <v>5895</v>
@@ -853,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="2"/>
       <c r="B45">
         <v>2461</v>
@@ -863,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="2"/>
       <c r="B46">
         <v>2790</v>
@@ -873,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="2"/>
       <c r="B47">
         <v>2624</v>
@@ -883,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="2"/>
       <c r="B48">
         <v>5871</v>
@@ -893,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="2"/>
       <c r="B49">
         <v>9164</v>
@@ -903,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="2"/>
       <c r="B50">
         <v>7457</v>
@@ -913,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="2"/>
       <c r="B51">
         <v>9865</v>
@@ -923,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52">
         <v>3591</v>
@@ -933,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53">
         <v>3558</v>
@@ -943,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="2"/>
       <c r="B54">
         <v>4366</v>
@@ -953,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="2"/>
       <c r="B55">
         <v>5789</v>
@@ -963,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="2"/>
       <c r="B56">
         <v>6522</v>
@@ -973,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -985,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="2"/>
       <c r="B58">
         <v>1288</v>
@@ -995,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="2"/>
       <c r="B59">
         <v>2614</v>
@@ -1005,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="2"/>
       <c r="B60">
         <v>7170</v>
@@ -1015,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="2"/>
       <c r="B61">
         <v>2709</v>
@@ -1025,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="2"/>
       <c r="B62">
         <v>3402</v>
@@ -1035,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="2"/>
       <c r="B63">
         <v>8781</v>
@@ -1045,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="2"/>
       <c r="B64">
         <v>8771</v>
@@ -1055,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="2"/>
       <c r="B65">
         <v>3091</v>
@@ -1065,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66">
         <v>2195</v>
@@ -1075,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="2"/>
       <c r="B67">
         <v>1184</v>
@@ -1085,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="2"/>
       <c r="B68">
         <v>2667</v>
@@ -1095,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="2"/>
       <c r="B69">
         <v>5917</v>
@@ -1105,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="2"/>
       <c r="B70">
         <v>3929</v>
@@ -1115,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="2"/>
       <c r="B71">
         <v>3083</v>
@@ -1125,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72">
         <v>7546</v>
@@ -1135,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
@@ -1147,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="2"/>
       <c r="B74">
         <v>6598</v>
@@ -1157,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="2"/>
       <c r="B75">
         <v>3093</v>
@@ -1167,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="2"/>
       <c r="B76">
         <v>8805</v>
@@ -1177,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="B77">
         <v>8158</v>
@@ -1187,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="2"/>
       <c r="B78">
         <v>6499</v>
@@ -1197,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
         <v>4</v>
       </c>
@@ -1209,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="2"/>
       <c r="B80">
         <v>2217</v>
@@ -1219,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="2"/>
       <c r="B81">
         <v>1824</v>
@@ -1229,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="2"/>
       <c r="B82">
         <v>2564</v>
@@ -1239,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="2"/>
       <c r="B83">
         <v>8487</v>
@@ -1249,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="2"/>
       <c r="B84">
         <v>8045</v>
@@ -1259,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="2"/>
       <c r="B85">
         <v>8878</v>
@@ -1269,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="2"/>
       <c r="B86">
         <v>3072</v>
@@ -1279,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="2"/>
       <c r="B87">
         <v>5980</v>
@@ -1289,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="2"/>
       <c r="B88">
         <v>8174</v>
@@ -1299,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="2"/>
       <c r="B89">
         <v>4257</v>
@@ -1309,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="2"/>
       <c r="B90">
         <v>2291</v>
@@ -1319,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="2"/>
       <c r="B91">
         <v>1763</v>
@@ -1329,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="2"/>
       <c r="B92">
         <v>5662</v>
@@ -1339,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="2"/>
       <c r="B93">
         <v>1945</v>
@@ -1349,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="2"/>
       <c r="B94">
         <v>1186</v>
@@ -1359,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="2"/>
       <c r="B95">
         <v>8715</v>
@@ -1369,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="2"/>
       <c r="B96">
         <v>8518</v>
@@ -1379,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="2"/>
       <c r="B97">
         <v>4847</v>
@@ -1389,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="2"/>
       <c r="B98">
         <v>7991</v>
@@ -1399,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="2"/>
       <c r="B99">
         <v>6291</v>
@@ -1409,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="2"/>
       <c r="B100">
         <v>3770</v>
@@ -1419,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="2"/>
       <c r="B101">
         <v>7178</v>
@@ -1429,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="2"/>
       <c r="B102">
         <v>3883</v>
@@ -1439,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="2"/>
       <c r="B103">
         <v>4527</v>
@@ -1449,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="2"/>
       <c r="B104">
         <v>6556</v>
@@ -1459,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="2"/>
       <c r="B105">
         <v>5635</v>
@@ -1469,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="2"/>
       <c r="B106">
         <v>3878</v>
@@ -1479,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="2"/>
       <c r="B107">
         <v>1217</v>
@@ -1489,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="2"/>
       <c r="B108">
         <v>1438</v>
@@ -1499,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="2"/>
       <c r="B109">
         <v>2153</v>
@@ -1509,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="2"/>
       <c r="B110">
         <v>7937</v>
@@ -1519,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="2"/>
       <c r="B111">
         <v>1999</v>
@@ -1529,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="2"/>
       <c r="B112">
         <v>4042</v>
@@ -1539,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="2"/>
       <c r="B113">
         <v>6351</v>
@@ -1549,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="2"/>
       <c r="B114">
         <v>5382</v>
@@ -1559,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="2"/>
       <c r="B115">
         <v>7088</v>
@@ -1569,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="2"/>
       <c r="B116">
         <v>7250</v>
@@ -1579,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="2"/>
       <c r="B117">
         <v>6740</v>
@@ -1589,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="2"/>
       <c r="B118">
         <v>9038</v>
@@ -1599,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
@@ -1611,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="2"/>
       <c r="B120">
         <v>8495</v>
@@ -1621,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="2"/>
       <c r="B121">
         <v>1315</v>
@@ -1631,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="2"/>
       <c r="B122">
         <v>6066</v>
@@ -1641,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="2"/>
       <c r="B123">
         <v>2565</v>
@@ -1651,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="2"/>
       <c r="B124">
         <v>2594</v>
@@ -1661,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="2"/>
       <c r="B125">
         <v>3762</v>
@@ -1671,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="2"/>
       <c r="B126">
         <v>3550</v>
@@ -1681,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="2"/>
       <c r="B127">
         <v>2475</v>
@@ -1691,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="2"/>
       <c r="B128">
         <v>9180</v>
@@ -1701,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="2"/>
       <c r="B129">
         <v>1544</v>
@@ -1711,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="2"/>
       <c r="B130">
         <v>9562</v>
@@ -1721,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="2"/>
       <c r="B131">
         <v>3669</v>
@@ -1731,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="2"/>
       <c r="B132">
         <v>5951</v>
@@ -1741,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="2"/>
       <c r="B133">
         <v>2802</v>
@@ -1751,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="2"/>
       <c r="B134">
         <v>6580</v>
@@ -1761,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="2"/>
       <c r="B135">
         <v>7585</v>
@@ -1771,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="2"/>
       <c r="B136">
         <v>2321</v>
@@ -1781,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="2"/>
       <c r="B137">
         <v>5053</v>
@@ -1791,197 +1789,197 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="2"/>
       <c r="B138">
-        <v>8770</v>
+        <v>3983</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="2"/>
       <c r="B139">
-        <v>4236</v>
+        <v>8770</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="2"/>
       <c r="B140">
-        <v>5969</v>
+        <v>4236</v>
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="2"/>
       <c r="B141">
-        <v>8696</v>
+        <v>5969</v>
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="2"/>
       <c r="B142">
-        <v>8418</v>
+        <v>8696</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="2"/>
       <c r="B143">
-        <v>8395</v>
+        <v>8418</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="2"/>
       <c r="B144">
-        <v>5170</v>
+        <v>8395</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="2"/>
       <c r="B145">
-        <v>5568</v>
+        <v>5170</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="2"/>
       <c r="B146">
-        <v>2592</v>
+        <v>5568</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="2"/>
       <c r="B147">
-        <v>4075</v>
+        <v>2592</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="2"/>
       <c r="B148">
-        <v>7517</v>
+        <v>4075</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="2"/>
       <c r="B149">
-        <v>5448</v>
+        <v>7517</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="2"/>
       <c r="B150">
-        <v>6572</v>
+        <v>5448</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="2"/>
       <c r="B151">
-        <v>5238</v>
+        <v>6572</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="2"/>
       <c r="B152">
-        <v>2084</v>
+        <v>5238</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="2"/>
       <c r="B153">
-        <v>5411</v>
+        <v>2084</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="2"/>
       <c r="B154">
-        <v>5171</v>
+        <v>5411</v>
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="2"/>
       <c r="B155">
-        <v>1862</v>
+        <v>5171</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="2"/>
       <c r="B156">
-        <v>9238</v>
+        <v>1862</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
         <v>6</v>
       </c>
@@ -1993,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="2"/>
       <c r="B158">
         <v>9001</v>
@@ -2003,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="2"/>
       <c r="B159">
         <v>9631</v>
@@ -2013,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="2"/>
       <c r="B160">
         <v>9812</v>
@@ -2023,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="2"/>
       <c r="B161">
         <v>5728</v>
@@ -2033,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="2"/>
       <c r="B162">
         <v>7491</v>
@@ -2043,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="2"/>
       <c r="B163">
         <v>5923</v>
@@ -2053,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="2"/>
       <c r="B164">
         <v>4265</v>
@@ -2063,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="2"/>
       <c r="B165">
         <v>2166</v>
@@ -2073,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="2"/>
       <c r="B166">
         <v>9116</v>
@@ -2083,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="2"/>
       <c r="B167">
         <v>9925</v>
@@ -2093,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="2" t="s">
         <v>7</v>
       </c>
@@ -2105,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="2"/>
       <c r="B169">
         <v>9931</v>
@@ -2115,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="2"/>
       <c r="B170">
         <v>1947</v>
@@ -2125,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="2"/>
       <c r="B171">
         <v>9696</v>
@@ -2135,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="2"/>
       <c r="B172">
         <v>1223</v>
@@ -2145,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="2"/>
       <c r="B173">
         <v>3946</v>
@@ -2155,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="2"/>
       <c r="B174">
         <v>8311</v>
@@ -2165,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="2"/>
       <c r="B175">
         <v>3134</v>
@@ -2175,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="2"/>
       <c r="B176">
         <v>9774</v>
@@ -2185,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="2"/>
       <c r="B177">
         <v>9711</v>
@@ -2195,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="2"/>
       <c r="B178">
         <v>3333</v>
@@ -2205,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="2"/>
       <c r="B179">
         <v>7290</v>
@@ -2215,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="2"/>
       <c r="B180">
         <v>5694</v>
@@ -2225,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="2"/>
       <c r="B181">
         <v>6806</v>
@@ -2235,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="2"/>
       <c r="B182">
         <v>4515</v>
@@ -2245,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="2"/>
       <c r="B183">
         <v>9271</v>
@@ -2255,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="2"/>
       <c r="B184">
         <v>8769</v>
@@ -2265,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="2"/>
       <c r="B185">
         <v>4497</v>
@@ -2275,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="2"/>
       <c r="B186">
         <v>3940</v>
@@ -2285,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="2"/>
       <c r="B187">
         <v>8820</v>
@@ -2295,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="2"/>
       <c r="B188">
         <v>3218</v>
@@ -2305,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="2"/>
       <c r="B189">
         <v>4283</v>
@@ -2315,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="2"/>
       <c r="B190">
         <v>7703</v>
@@ -2325,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="2"/>
       <c r="B191">
         <v>9182</v>
@@ -2335,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="2"/>
       <c r="B192">
         <v>5541</v>
@@ -2345,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="2"/>
       <c r="B193">
         <v>2386</v>
@@ -2355,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="2"/>
       <c r="B194">
         <v>9159</v>
@@ -2365,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="2" t="s">
         <v>8</v>
       </c>
@@ -2377,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="2"/>
       <c r="B196">
         <v>4642</v>
@@ -2387,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="2"/>
       <c r="B197">
         <v>9765</v>
@@ -2397,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198">
         <v>4954</v>
@@ -2407,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199">
         <v>5537</v>
@@ -2417,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200">
         <v>6431</v>
@@ -2427,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201">
         <v>7193</v>
@@ -2437,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202">
         <v>5621</v>
@@ -2447,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203">
         <v>5847</v>
@@ -2457,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204">
         <v>4769</v>
@@ -2467,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="2"/>
       <c r="B205">
         <v>9930</v>
@@ -2477,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="2"/>
       <c r="B206">
         <v>6861</v>
@@ -2487,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="2"/>
       <c r="B207">
         <v>2205</v>
@@ -2497,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="2"/>
       <c r="B208">
         <v>4372</v>
@@ -2507,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="2"/>
       <c r="B209">
         <v>4463</v>
@@ -2517,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="2"/>
       <c r="B210">
         <v>1668</v>
@@ -2527,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" s="2"/>
       <c r="B211">
         <v>2137</v>
@@ -2537,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
         <v>9</v>
       </c>
@@ -2549,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="2"/>
       <c r="B213">
         <v>3951</v>
@@ -2559,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="2"/>
       <c r="B214">
         <v>6409</v>
@@ -2569,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="2"/>
       <c r="B215">
         <v>7343</v>
@@ -2579,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="2"/>
       <c r="B216">
         <v>7060</v>
@@ -2589,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
         <v>10</v>
       </c>
@@ -2601,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" s="2"/>
       <c r="B218">
         <v>7560</v>
@@ -2611,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="2"/>
       <c r="B219">
         <v>9002</v>
@@ -2621,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="2"/>
       <c r="B220">
         <v>7432</v>
@@ -2631,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" s="2"/>
       <c r="B221">
         <v>1954</v>
@@ -2641,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="2"/>
       <c r="B222">
         <v>2048</v>
@@ -2651,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
         <v>11</v>
       </c>
@@ -2663,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" s="2"/>
       <c r="B224">
         <v>8861</v>
@@ -2673,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" s="2"/>
       <c r="B225">
         <v>1516</v>
@@ -2683,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" s="2"/>
       <c r="B226">
         <v>9062</v>
@@ -2693,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" s="2"/>
       <c r="B227">
         <v>5164</v>
@@ -2703,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228">
         <v>2354</v>
@@ -2713,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" s="2" t="s">
         <v>12</v>
       </c>
@@ -2725,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" s="2"/>
       <c r="B230">
         <v>3185</v>
@@ -2735,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" s="2"/>
       <c r="B231">
         <v>9914</v>
@@ -2745,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" s="2"/>
       <c r="B232">
         <v>6011</v>
@@ -2755,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" s="2"/>
       <c r="B233">
         <v>6037</v>
@@ -2765,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" s="2"/>
       <c r="B234">
         <v>2809</v>
@@ -2775,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" s="2"/>
       <c r="B235">
         <v>7297</v>
@@ -2785,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" s="2"/>
       <c r="B236">
         <v>5242</v>
@@ -2795,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" s="2"/>
       <c r="B237">
         <v>1379</v>
@@ -2805,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" s="2"/>
       <c r="B238">
         <v>2401</v>
@@ -2815,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" s="2"/>
       <c r="B239">
         <v>5421</v>
@@ -2825,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" s="2"/>
       <c r="B240">
         <v>7301</v>
@@ -2835,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" s="2"/>
       <c r="B241">
         <v>2000</v>
@@ -2845,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" s="2"/>
       <c r="B242">
         <v>4147</v>
@@ -2855,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" s="2"/>
       <c r="B243">
         <v>1953</v>
@@ -2865,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" s="2"/>
       <c r="B244">
         <v>3956</v>
@@ -2875,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" s="2"/>
       <c r="B245">
         <v>5463</v>
@@ -2885,3853 +2883,3853 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="C246">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="C247">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="C248">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="C249">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="C250">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="C251">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="C252">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="C253">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="C254">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="C255">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="C256">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3">
       <c r="C257">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3">
       <c r="C258">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3">
       <c r="C259">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3">
       <c r="C260">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3">
       <c r="C261">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3">
       <c r="C262">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3">
       <c r="C263">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3">
       <c r="C264">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3">
       <c r="C265">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3">
       <c r="C266">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3">
       <c r="C267">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3">
       <c r="C268">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3">
       <c r="C269">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3">
       <c r="C270">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3">
       <c r="C271">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3">
       <c r="C272">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3">
       <c r="C273">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3">
       <c r="C274">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3">
       <c r="C275">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3">
       <c r="C276">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3">
       <c r="C277">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3">
       <c r="C278">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3">
       <c r="C279">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3">
       <c r="C280">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3">
       <c r="C281">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3">
       <c r="C282">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3">
       <c r="C283">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3">
       <c r="C284">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3">
       <c r="C285">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3">
       <c r="C286">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3">
       <c r="C287">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3">
       <c r="C288">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3">
       <c r="C289">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3">
       <c r="C290">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3">
       <c r="C291">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3">
       <c r="C292">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3">
       <c r="C293">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3">
       <c r="C294">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3">
       <c r="C295">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3">
       <c r="C296">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3">
       <c r="C297">
         <f t="shared" ref="C297:C360" ca="1" si="6">IF(B297=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3">
       <c r="C298">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3">
       <c r="C299">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3">
       <c r="C300">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3">
       <c r="C301">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3">
       <c r="C302">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3">
       <c r="C303">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3">
       <c r="C304">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3">
       <c r="C305">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3">
       <c r="C306">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3">
       <c r="C307">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3">
       <c r="C308">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3">
       <c r="C309">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3">
       <c r="C310">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3">
       <c r="C311">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3">
       <c r="C312">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3">
       <c r="C313">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3">
       <c r="C314">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3">
       <c r="C315">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3">
       <c r="C316">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3">
       <c r="C317">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3">
       <c r="C318">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3">
       <c r="C319">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3">
       <c r="C320">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3">
       <c r="C321">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3">
       <c r="C322">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3">
       <c r="C323">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3">
       <c r="C324">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3">
       <c r="C325">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3">
       <c r="C326">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3">
       <c r="C327">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3">
       <c r="C328">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3">
       <c r="C329">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3">
       <c r="C330">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3">
       <c r="C331">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3">
       <c r="C332">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3">
       <c r="C333">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3">
       <c r="C334">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3">
       <c r="C335">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3">
       <c r="C336">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3">
       <c r="C337">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3">
       <c r="C338">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3">
       <c r="C339">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3">
       <c r="C340">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3">
       <c r="C341">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3">
       <c r="C342">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3">
       <c r="C343">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3">
       <c r="C344">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3">
       <c r="C345">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3">
       <c r="C346">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3">
       <c r="C347">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3">
       <c r="C348">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3">
       <c r="C349">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3">
       <c r="C350">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3">
       <c r="C351">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3">
       <c r="C352">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3">
       <c r="C353">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3">
       <c r="C354">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3">
       <c r="C355">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3">
       <c r="C356">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3">
       <c r="C357">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3">
       <c r="C358">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3">
       <c r="C359">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3">
       <c r="C360">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3">
       <c r="C361">
         <f t="shared" ref="C361:C424" ca="1" si="7">IF(B361=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3">
       <c r="C362">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3">
       <c r="C363">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3">
       <c r="C364">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3">
       <c r="C365">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3">
       <c r="C366">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3">
       <c r="C367">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3">
       <c r="C368">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3">
       <c r="C369">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3">
       <c r="C370">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3">
       <c r="C371">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3">
       <c r="C372">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3">
       <c r="C373">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3">
       <c r="C374">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3">
       <c r="C375">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3">
       <c r="C376">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3">
       <c r="C377">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3">
       <c r="C378">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3">
       <c r="C379">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3">
       <c r="C380">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3">
       <c r="C381">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3">
       <c r="C382">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3">
       <c r="C383">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3">
       <c r="C384">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3">
       <c r="C385">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3">
       <c r="C386">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3">
       <c r="C387">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3">
       <c r="C388">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3">
       <c r="C389">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3">
       <c r="C390">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3">
       <c r="C391">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3">
       <c r="C392">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3">
       <c r="C393">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3">
       <c r="C394">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3">
       <c r="C395">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3">
       <c r="C396">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3">
       <c r="C397">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3">
       <c r="C398">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3">
       <c r="C399">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3">
       <c r="C400">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3">
       <c r="C401">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3">
       <c r="C402">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3">
       <c r="C403">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3">
       <c r="C404">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3">
       <c r="C405">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3">
       <c r="C406">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3">
       <c r="C407">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3">
       <c r="C408">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3">
       <c r="C409">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3">
       <c r="C410">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3">
       <c r="C411">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3">
       <c r="C412">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3">
       <c r="C413">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3">
       <c r="C414">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3">
       <c r="C415">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3">
       <c r="C416">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3">
       <c r="C417">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3">
       <c r="C418">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3">
       <c r="C419">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3">
       <c r="C420">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3">
       <c r="C421">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3">
       <c r="C422">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3">
       <c r="C423">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3">
       <c r="C424">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3">
       <c r="C425">
         <f t="shared" ref="C425:C488" ca="1" si="8">IF(B425=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3">
       <c r="C426">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3">
       <c r="C427">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3">
       <c r="C428">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3">
       <c r="C429">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3">
       <c r="C430">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3">
       <c r="C431">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3">
       <c r="C432">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3">
       <c r="C433">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3">
       <c r="C434">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3">
       <c r="C435">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3">
       <c r="C436">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3">
       <c r="C437">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3">
       <c r="C438">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3">
       <c r="C439">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3">
       <c r="C440">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3">
       <c r="C441">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3">
       <c r="C442">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3">
       <c r="C443">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3">
       <c r="C444">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3">
       <c r="C445">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3">
       <c r="C446">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3">
       <c r="C447">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3">
       <c r="C448">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3">
       <c r="C449">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3">
       <c r="C450">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3">
       <c r="C451">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3">
       <c r="C452">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3">
       <c r="C453">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3">
       <c r="C454">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3">
       <c r="C455">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3">
       <c r="C456">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3">
       <c r="C457">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3">
       <c r="C458">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3">
       <c r="C459">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3">
       <c r="C460">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3">
       <c r="C461">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3">
       <c r="C462">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3">
       <c r="C463">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3">
       <c r="C464">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3">
       <c r="C465">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3">
       <c r="C466">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3">
       <c r="C467">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3">
       <c r="C468">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3">
       <c r="C469">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3">
       <c r="C470">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3">
       <c r="C471">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3">
       <c r="C472">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3">
       <c r="C473">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3">
       <c r="C474">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3">
       <c r="C475">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3">
       <c r="C476">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3">
       <c r="C477">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3">
       <c r="C478">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3">
       <c r="C479">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3">
       <c r="C480">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3">
       <c r="C481">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3">
       <c r="C482">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3">
       <c r="C483">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3">
       <c r="C484">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3">
       <c r="C485">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3">
       <c r="C486">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3">
       <c r="C487">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3">
       <c r="C488">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3">
       <c r="C489">
         <f t="shared" ref="C489:C552" ca="1" si="9">IF(B489=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3">
       <c r="C490">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3">
       <c r="C491">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3">
       <c r="C492">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3">
       <c r="C493">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3">
       <c r="C494">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3">
       <c r="C495">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3">
       <c r="C496">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3">
       <c r="C497">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3">
       <c r="C498">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3">
       <c r="C499">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3">
       <c r="C500">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3">
       <c r="C501">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3">
       <c r="C502">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3">
       <c r="C503">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3">
       <c r="C504">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3">
       <c r="C505">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3">
       <c r="C506">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3">
       <c r="C507">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3">
       <c r="C508">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3">
       <c r="C509">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3">
       <c r="C510">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3">
       <c r="C511">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3">
       <c r="C512">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3">
       <c r="C513">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3">
       <c r="C514">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3">
       <c r="C515">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3">
       <c r="C516">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3">
       <c r="C517">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3">
       <c r="C518">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3">
       <c r="C519">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3">
       <c r="C520">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3">
       <c r="C521">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3">
       <c r="C522">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3">
       <c r="C523">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3">
       <c r="C524">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3">
       <c r="C525">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3">
       <c r="C526">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3">
       <c r="C527">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3">
       <c r="C528">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3">
       <c r="C529">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3">
       <c r="C530">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3">
       <c r="C531">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3">
       <c r="C532">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3">
       <c r="C533">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3">
       <c r="C534">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3">
       <c r="C535">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3">
       <c r="C536">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3">
       <c r="C537">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3">
       <c r="C538">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3">
       <c r="C539">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3">
       <c r="C540">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3">
       <c r="C541">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3">
       <c r="C542">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3">
       <c r="C543">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3">
       <c r="C544">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3">
       <c r="C545">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3">
       <c r="C546">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3">
       <c r="C547">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3">
       <c r="C548">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3">
       <c r="C549">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3">
       <c r="C550">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3">
       <c r="C551">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3">
       <c r="C552">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3">
       <c r="C553">
         <f t="shared" ref="C553:C616" ca="1" si="10">IF(B553=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3">
       <c r="C554">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3">
       <c r="C555">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3">
       <c r="C556">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3">
       <c r="C557">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3">
       <c r="C558">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3">
       <c r="C559">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3">
       <c r="C560">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3">
       <c r="C561">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3">
       <c r="C562">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3">
       <c r="C563">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3">
       <c r="C564">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3">
       <c r="C565">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3">
       <c r="C566">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3">
       <c r="C567">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3">
       <c r="C568">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3">
       <c r="C569">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3">
       <c r="C570">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3">
       <c r="C571">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3">
       <c r="C572">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3">
       <c r="C573">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3">
       <c r="C574">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3">
       <c r="C575">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3">
       <c r="C576">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3">
       <c r="C577">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3">
       <c r="C578">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3">
       <c r="C579">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3">
       <c r="C580">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3">
       <c r="C581">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3">
       <c r="C582">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3">
       <c r="C583">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3">
       <c r="C584">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3">
       <c r="C585">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3">
       <c r="C586">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3">
       <c r="C587">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3">
       <c r="C588">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3">
       <c r="C589">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3">
       <c r="C590">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3">
       <c r="C591">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3">
       <c r="C592">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3">
       <c r="C593">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3">
       <c r="C594">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3">
       <c r="C595">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3">
       <c r="C596">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3">
       <c r="C597">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3">
       <c r="C598">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3">
       <c r="C599">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3">
       <c r="C600">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3">
       <c r="C601">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3">
       <c r="C602">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3">
       <c r="C603">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3">
       <c r="C604">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3">
       <c r="C605">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3">
       <c r="C606">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3">
       <c r="C607">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3">
       <c r="C608">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3">
       <c r="C609">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3">
       <c r="C610">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3">
       <c r="C611">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3">
       <c r="C612">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3">
       <c r="C613">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3">
       <c r="C614">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3">
       <c r="C615">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3">
       <c r="C616">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3">
       <c r="C617">
         <f t="shared" ref="C617:C680" ca="1" si="11">IF(B617=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3">
       <c r="C618">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3">
       <c r="C619">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3">
       <c r="C620">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3">
       <c r="C621">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3">
       <c r="C622">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3">
       <c r="C623">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3">
       <c r="C624">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3">
       <c r="C625">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3">
       <c r="C626">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3">
       <c r="C627">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3">
       <c r="C628">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3">
       <c r="C629">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3">
       <c r="C630">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3">
       <c r="C631">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3">
       <c r="C632">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3">
       <c r="C633">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3">
       <c r="C634">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3">
       <c r="C635">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3">
       <c r="C636">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3">
       <c r="C637">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3">
       <c r="C638">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3">
       <c r="C639">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3">
       <c r="C640">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3">
       <c r="C641">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3">
       <c r="C642">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3">
       <c r="C643">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3">
       <c r="C644">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3">
       <c r="C645">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3">
       <c r="C646">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3">
       <c r="C647">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3">
       <c r="C648">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3">
       <c r="C649">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3">
       <c r="C650">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3">
       <c r="C651">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3">
       <c r="C652">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3">
       <c r="C653">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3">
       <c r="C654">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3">
       <c r="C655">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3">
       <c r="C656">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3">
       <c r="C657">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3">
       <c r="C658">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3">
       <c r="C659">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3">
       <c r="C660">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3">
       <c r="C661">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3">
       <c r="C662">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3">
       <c r="C663">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3">
       <c r="C664">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3">
       <c r="C665">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3">
       <c r="C666">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3">
       <c r="C667">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3">
       <c r="C668">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3">
       <c r="C669">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3">
       <c r="C670">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3">
       <c r="C671">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3">
       <c r="C672">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3">
       <c r="C673">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3">
       <c r="C674">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3">
       <c r="C675">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3">
       <c r="C676">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3">
       <c r="C677">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3">
       <c r="C678">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3">
       <c r="C679">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3">
       <c r="C680">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3">
       <c r="C681">
         <f t="shared" ref="C681:C744" ca="1" si="12">IF(B681=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3">
       <c r="C682">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3">
       <c r="C683">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3">
       <c r="C684">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3">
       <c r="C685">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3">
       <c r="C686">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3">
       <c r="C687">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3">
       <c r="C688">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3">
       <c r="C689">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3">
       <c r="C690">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3">
       <c r="C691">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3">
       <c r="C692">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3">
       <c r="C693">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3">
       <c r="C694">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3">
       <c r="C695">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3">
       <c r="C696">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3">
       <c r="C697">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3">
       <c r="C698">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3">
       <c r="C699">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3">
       <c r="C700">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3">
       <c r="C701">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3">
       <c r="C702">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3">
       <c r="C703">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3">
       <c r="C704">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3">
       <c r="C705">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3">
       <c r="C706">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3">
       <c r="C707">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3">
       <c r="C708">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3">
       <c r="C709">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3">
       <c r="C710">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3">
       <c r="C711">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3">
       <c r="C712">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3">
       <c r="C713">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3">
       <c r="C714">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3">
       <c r="C715">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3">
       <c r="C716">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3">
       <c r="C717">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3">
       <c r="C718">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3">
       <c r="C719">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3">
       <c r="C720">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3">
       <c r="C721">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3">
       <c r="C722">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3">
       <c r="C723">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3">
       <c r="C724">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3">
       <c r="C725">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3">
       <c r="C726">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3">
       <c r="C727">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3">
       <c r="C728">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3">
       <c r="C729">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3">
       <c r="C730">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3">
       <c r="C731">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3">
       <c r="C732">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3">
       <c r="C733">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3">
       <c r="C734">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3">
       <c r="C735">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3">
       <c r="C736">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3">
       <c r="C737">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3">
       <c r="C738">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3">
       <c r="C739">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3">
       <c r="C740">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3">
       <c r="C741">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3">
       <c r="C742">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3">
       <c r="C743">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3">
       <c r="C744">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3">
       <c r="C745">
         <f t="shared" ref="C745:C808" ca="1" si="13">IF(B745=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3">
       <c r="C746">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3">
       <c r="C747">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3">
       <c r="C748">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3">
       <c r="C749">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3">
       <c r="C750">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3">
       <c r="C751">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3">
       <c r="C752">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3">
       <c r="C753">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3">
       <c r="C754">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3">
       <c r="C755">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3">
       <c r="C756">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3">
       <c r="C757">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3">
       <c r="C758">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3">
       <c r="C759">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3">
       <c r="C760">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3">
       <c r="C761">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3">
       <c r="C762">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3">
       <c r="C763">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3">
       <c r="C764">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3">
       <c r="C765">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3">
       <c r="C766">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3">
       <c r="C767">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3">
       <c r="C768">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3">
       <c r="C769">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3">
       <c r="C770">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3">
       <c r="C771">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3">
       <c r="C772">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3">
       <c r="C773">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3">
       <c r="C774">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3">
       <c r="C775">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3">
       <c r="C776">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3">
       <c r="C777">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3">
       <c r="C778">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3">
       <c r="C779">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3">
       <c r="C780">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3">
       <c r="C781">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3">
       <c r="C782">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3">
       <c r="C783">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3">
       <c r="C784">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3">
       <c r="C785">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3">
       <c r="C786">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3">
       <c r="C787">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3">
       <c r="C788">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3">
       <c r="C789">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3">
       <c r="C790">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3">
       <c r="C791">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3">
       <c r="C792">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3">
       <c r="C793">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3">
       <c r="C794">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3">
       <c r="C795">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3">
       <c r="C796">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3">
       <c r="C797">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3">
       <c r="C798">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3">
       <c r="C799">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3">
       <c r="C800">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3">
       <c r="C801">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3">
       <c r="C802">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3">
       <c r="C803">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3">
       <c r="C804">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3">
       <c r="C805">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3">
       <c r="C806">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3">
       <c r="C807">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3">
       <c r="C808">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3">
       <c r="C809">
         <f t="shared" ref="C809:C872" ca="1" si="14">IF(B809=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3">
       <c r="C810">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3">
       <c r="C811">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3">
       <c r="C812">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3">
       <c r="C813">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3">
       <c r="C814">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3">
       <c r="C815">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3">
       <c r="C816">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3">
       <c r="C817">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3">
       <c r="C818">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3">
       <c r="C819">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3">
       <c r="C820">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3">
       <c r="C821">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3">
       <c r="C822">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3">
       <c r="C823">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3">
       <c r="C824">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3">
       <c r="C825">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3">
       <c r="C826">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3">
       <c r="C827">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3">
       <c r="C828">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3">
       <c r="C829">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3">
       <c r="C830">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3">
       <c r="C831">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3">
       <c r="C832">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3">
       <c r="C833">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3">
       <c r="C834">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3">
       <c r="C835">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3">
       <c r="C836">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3">
       <c r="C837">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3">
       <c r="C838">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3">
       <c r="C839">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3">
       <c r="C840">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3">
       <c r="C841">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3">
       <c r="C842">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3">
       <c r="C843">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3">
       <c r="C844">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3">
       <c r="C845">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3">
       <c r="C846">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3">
       <c r="C847">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3">
       <c r="C848">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3">
       <c r="C849">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3">
       <c r="C850">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3">
       <c r="C851">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3">
       <c r="C852">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3">
       <c r="C853">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3">
       <c r="C854">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3">
       <c r="C855">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3">
       <c r="C856">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3">
       <c r="C857">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3">
       <c r="C858">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3">
       <c r="C859">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3">
       <c r="C860">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3">
       <c r="C861">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3">
       <c r="C862">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3">
       <c r="C863">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3">
       <c r="C864">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3">
       <c r="C865">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3">
       <c r="C866">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3">
       <c r="C867">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3">
       <c r="C868">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3">
       <c r="C869">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3">
       <c r="C870">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3">
       <c r="C871">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3">
       <c r="C872">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3">
       <c r="C873">
         <f t="shared" ref="C873:C887" ca="1" si="15">IF(B873=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3">
       <c r="C874">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3">
       <c r="C875">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3">
       <c r="C876">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3">
       <c r="C877">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3">
       <c r="C878">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3">
       <c r="C879">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3">
       <c r="C880">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3">
       <c r="C881">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3">
       <c r="C882">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3">
       <c r="C883">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3">
       <c r="C884">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3">
       <c r="C885">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3">
       <c r="C886">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3">
       <c r="C887">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
@@ -6758,24 +6756,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -398,11 +398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E887"/>
+  <dimension ref="A1:E889"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G154" sqref="G154"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>8086</v>
+        <v>5483</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2067,7 +2067,7 @@
         <v>2166</v>
       </c>
       <c r="C165">
-        <f t="shared" ref="C165:C232" ca="1" si="4">IF(B165=$E$1,1,0)</f>
+        <f t="shared" ref="C165:C234" ca="1" si="4">IF(B165=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
     <row r="170" spans="1:3">
       <c r="A170" s="2"/>
       <c r="B170">
-        <v>1947</v>
+        <v>4425</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="4"/>
@@ -2126,7 +2126,7 @@
     <row r="171" spans="1:3">
       <c r="A171" s="2"/>
       <c r="B171">
-        <v>9696</v>
+        <v>1947</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="4"/>
@@ -2136,7 +2136,7 @@
     <row r="172" spans="1:3">
       <c r="A172" s="2"/>
       <c r="B172">
-        <v>1223</v>
+        <v>9696</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="4"/>
@@ -2146,7 +2146,7 @@
     <row r="173" spans="1:3">
       <c r="A173" s="2"/>
       <c r="B173">
-        <v>3946</v>
+        <v>1223</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="4"/>
@@ -2156,7 +2156,7 @@
     <row r="174" spans="1:3">
       <c r="A174" s="2"/>
       <c r="B174">
-        <v>8311</v>
+        <v>3946</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="4"/>
@@ -2166,7 +2166,7 @@
     <row r="175" spans="1:3">
       <c r="A175" s="2"/>
       <c r="B175">
-        <v>3134</v>
+        <v>8311</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="4"/>
@@ -2176,7 +2176,7 @@
     <row r="176" spans="1:3">
       <c r="A176" s="2"/>
       <c r="B176">
-        <v>9774</v>
+        <v>3134</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="4"/>
@@ -2186,7 +2186,7 @@
     <row r="177" spans="1:3">
       <c r="A177" s="2"/>
       <c r="B177">
-        <v>9711</v>
+        <v>9774</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="4"/>
@@ -2196,7 +2196,7 @@
     <row r="178" spans="1:3">
       <c r="A178" s="2"/>
       <c r="B178">
-        <v>3333</v>
+        <v>9711</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="4"/>
@@ -2206,7 +2206,7 @@
     <row r="179" spans="1:3">
       <c r="A179" s="2"/>
       <c r="B179">
-        <v>7290</v>
+        <v>3333</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="4"/>
@@ -2216,7 +2216,7 @@
     <row r="180" spans="1:3">
       <c r="A180" s="2"/>
       <c r="B180">
-        <v>5694</v>
+        <v>7290</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="4"/>
@@ -2226,7 +2226,7 @@
     <row r="181" spans="1:3">
       <c r="A181" s="2"/>
       <c r="B181">
-        <v>6806</v>
+        <v>5694</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="4"/>
@@ -2236,7 +2236,7 @@
     <row r="182" spans="1:3">
       <c r="A182" s="2"/>
       <c r="B182">
-        <v>4515</v>
+        <v>7035</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="4"/>
@@ -2246,7 +2246,7 @@
     <row r="183" spans="1:3">
       <c r="A183" s="2"/>
       <c r="B183">
-        <v>9271</v>
+        <v>6806</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="4"/>
@@ -2256,7 +2256,7 @@
     <row r="184" spans="1:3">
       <c r="A184" s="2"/>
       <c r="B184">
-        <v>8769</v>
+        <v>4515</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="4"/>
@@ -2266,7 +2266,7 @@
     <row r="185" spans="1:3">
       <c r="A185" s="2"/>
       <c r="B185">
-        <v>4497</v>
+        <v>9271</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="4"/>
@@ -2276,7 +2276,7 @@
     <row r="186" spans="1:3">
       <c r="A186" s="2"/>
       <c r="B186">
-        <v>3940</v>
+        <v>8769</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="4"/>
@@ -2286,7 +2286,7 @@
     <row r="187" spans="1:3">
       <c r="A187" s="2"/>
       <c r="B187">
-        <v>8820</v>
+        <v>4497</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="4"/>
@@ -2296,7 +2296,7 @@
     <row r="188" spans="1:3">
       <c r="A188" s="2"/>
       <c r="B188">
-        <v>3218</v>
+        <v>3940</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="4"/>
@@ -2306,7 +2306,7 @@
     <row r="189" spans="1:3">
       <c r="A189" s="2"/>
       <c r="B189">
-        <v>4283</v>
+        <v>8820</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="4"/>
@@ -2316,7 +2316,7 @@
     <row r="190" spans="1:3">
       <c r="A190" s="2"/>
       <c r="B190">
-        <v>7703</v>
+        <v>3218</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="4"/>
@@ -2326,7 +2326,7 @@
     <row r="191" spans="1:3">
       <c r="A191" s="2"/>
       <c r="B191">
-        <v>9182</v>
+        <v>4283</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="4"/>
@@ -2336,7 +2336,7 @@
     <row r="192" spans="1:3">
       <c r="A192" s="2"/>
       <c r="B192">
-        <v>5541</v>
+        <v>7703</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="4"/>
@@ -2346,7 +2346,7 @@
     <row r="193" spans="1:3">
       <c r="A193" s="2"/>
       <c r="B193">
-        <v>2386</v>
+        <v>9182</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="4"/>
@@ -2356,7 +2356,7 @@
     <row r="194" spans="1:3">
       <c r="A194" s="2"/>
       <c r="B194">
-        <v>9159</v>
+        <v>5541</v>
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="4"/>
@@ -2364,11 +2364,9 @@
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A195" s="2"/>
       <c r="B195">
-        <v>6175</v>
+        <v>2386</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="4"/>
@@ -2378,7 +2376,7 @@
     <row r="196" spans="1:3">
       <c r="A196" s="2"/>
       <c r="B196">
-        <v>4642</v>
+        <v>9159</v>
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="4"/>
@@ -2386,9 +2384,11 @@
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="2"/>
+      <c r="A197" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B197">
-        <v>9765</v>
+        <v>6175</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="4"/>
@@ -2398,7 +2398,7 @@
     <row r="198" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198">
-        <v>4954</v>
+        <v>4642</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="4"/>
@@ -2408,7 +2408,7 @@
     <row r="199" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199">
-        <v>5537</v>
+        <v>9765</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="4"/>
@@ -2418,7 +2418,7 @@
     <row r="200" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200">
-        <v>6431</v>
+        <v>4954</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="4"/>
@@ -2428,7 +2428,7 @@
     <row r="201" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201">
-        <v>7193</v>
+        <v>5537</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="4"/>
@@ -2438,7 +2438,7 @@
     <row r="202" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202">
-        <v>5621</v>
+        <v>6431</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="4"/>
@@ -2448,7 +2448,7 @@
     <row r="203" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203">
-        <v>5847</v>
+        <v>7193</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="4"/>
@@ -2458,7 +2458,7 @@
     <row r="204" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204">
-        <v>4769</v>
+        <v>5621</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="4"/>
@@ -2468,7 +2468,7 @@
     <row r="205" spans="1:3">
       <c r="A205" s="2"/>
       <c r="B205">
-        <v>9930</v>
+        <v>5847</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="4"/>
@@ -2478,7 +2478,7 @@
     <row r="206" spans="1:3">
       <c r="A206" s="2"/>
       <c r="B206">
-        <v>6861</v>
+        <v>4769</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="4"/>
@@ -2488,7 +2488,7 @@
     <row r="207" spans="1:3">
       <c r="A207" s="2"/>
       <c r="B207">
-        <v>2205</v>
+        <v>9930</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="4"/>
@@ -2498,7 +2498,7 @@
     <row r="208" spans="1:3">
       <c r="A208" s="2"/>
       <c r="B208">
-        <v>4372</v>
+        <v>6861</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="4"/>
@@ -2508,7 +2508,7 @@
     <row r="209" spans="1:3">
       <c r="A209" s="2"/>
       <c r="B209">
-        <v>4463</v>
+        <v>2205</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="4"/>
@@ -2518,7 +2518,7 @@
     <row r="210" spans="1:3">
       <c r="A210" s="2"/>
       <c r="B210">
-        <v>1668</v>
+        <v>4372</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="4"/>
@@ -2528,7 +2528,7 @@
     <row r="211" spans="1:3">
       <c r="A211" s="2"/>
       <c r="B211">
-        <v>2137</v>
+        <v>4463</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="4"/>
@@ -2536,11 +2536,9 @@
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A212" s="2"/>
       <c r="B212">
-        <v>9300</v>
+        <v>1668</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="4"/>
@@ -2550,7 +2548,7 @@
     <row r="213" spans="1:3">
       <c r="A213" s="2"/>
       <c r="B213">
-        <v>3951</v>
+        <v>2137</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="4"/>
@@ -2558,9 +2556,11 @@
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="2"/>
+      <c r="A214" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B214">
-        <v>6409</v>
+        <v>9300</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="4"/>
@@ -2570,7 +2570,7 @@
     <row r="215" spans="1:3">
       <c r="A215" s="2"/>
       <c r="B215">
-        <v>7343</v>
+        <v>3951</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="4"/>
@@ -2580,7 +2580,7 @@
     <row r="216" spans="1:3">
       <c r="A216" s="2"/>
       <c r="B216">
-        <v>7060</v>
+        <v>6409</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="4"/>
@@ -2588,11 +2588,9 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A217" s="2"/>
       <c r="B217">
-        <v>9299</v>
+        <v>7343</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
@@ -2602,7 +2600,7 @@
     <row r="218" spans="1:3">
       <c r="A218" s="2"/>
       <c r="B218">
-        <v>7560</v>
+        <v>7060</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
@@ -2610,9 +2608,11 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="2"/>
+      <c r="A219" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B219">
-        <v>9002</v>
+        <v>9299</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="4"/>
@@ -2622,7 +2622,7 @@
     <row r="220" spans="1:3">
       <c r="A220" s="2"/>
       <c r="B220">
-        <v>7432</v>
+        <v>7560</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
@@ -2632,7 +2632,7 @@
     <row r="221" spans="1:3">
       <c r="A221" s="2"/>
       <c r="B221">
-        <v>1954</v>
+        <v>9002</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
@@ -2642,7 +2642,7 @@
     <row r="222" spans="1:3">
       <c r="A222" s="2"/>
       <c r="B222">
-        <v>2048</v>
+        <v>7432</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="4"/>
@@ -2650,11 +2650,9 @@
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A223" s="2"/>
       <c r="B223">
-        <v>3939</v>
+        <v>1954</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="4"/>
@@ -2664,7 +2662,7 @@
     <row r="224" spans="1:3">
       <c r="A224" s="2"/>
       <c r="B224">
-        <v>8861</v>
+        <v>2048</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
@@ -2672,29 +2670,31 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="2"/>
+      <c r="A225" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B225">
-        <v>1516</v>
+        <v>3939</v>
       </c>
       <c r="C225">
-        <f ca="1">IF(B225=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2"/>
       <c r="B226">
-        <v>9062</v>
+        <v>8861</v>
       </c>
       <c r="C226">
-        <f ca="1">IF(B226=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2"/>
       <c r="B227">
-        <v>5164</v>
+        <v>1516</v>
       </c>
       <c r="C227">
         <f ca="1">IF(B227=$E$1,1,0)</f>
@@ -2702,9 +2702,9 @@
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="1"/>
+      <c r="A228" s="2"/>
       <c r="B228">
-        <v>2354</v>
+        <v>9062</v>
       </c>
       <c r="C228">
         <f ca="1">IF(B228=$E$1,1,0)</f>
@@ -2712,31 +2712,31 @@
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="2"/>
+      <c r="B229">
+        <v>5164</v>
+      </c>
+      <c r="C229">
+        <f ca="1">IF(B229=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1"/>
+      <c r="B230">
+        <v>2354</v>
+      </c>
+      <c r="C230">
+        <f ca="1">IF(B230=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B229">
+      <c r="B231">
         <v>8403</v>
-      </c>
-      <c r="C229">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="2"/>
-      <c r="B230">
-        <v>3185</v>
-      </c>
-      <c r="C230">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="2"/>
-      <c r="B231">
-        <v>9914</v>
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="4"/>
@@ -2746,7 +2746,7 @@
     <row r="232" spans="1:3">
       <c r="A232" s="2"/>
       <c r="B232">
-        <v>6011</v>
+        <v>3185</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="4"/>
@@ -2756,37 +2756,37 @@
     <row r="233" spans="1:3">
       <c r="A233" s="2"/>
       <c r="B233">
-        <v>6037</v>
+        <v>9914</v>
       </c>
       <c r="C233">
-        <f t="shared" ref="C233:C296" ca="1" si="5">IF(B233=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2"/>
       <c r="B234">
-        <v>2809</v>
+        <v>6011</v>
       </c>
       <c r="C234">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2"/>
       <c r="B235">
-        <v>7297</v>
+        <v>6037</v>
       </c>
       <c r="C235">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="C235:C298" ca="1" si="5">IF(B235=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2"/>
       <c r="B236">
-        <v>5242</v>
+        <v>2809</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="5"/>
@@ -2796,7 +2796,7 @@
     <row r="237" spans="1:3">
       <c r="A237" s="2"/>
       <c r="B237">
-        <v>1379</v>
+        <v>7297</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="5"/>
@@ -2806,7 +2806,7 @@
     <row r="238" spans="1:3">
       <c r="A238" s="2"/>
       <c r="B238">
-        <v>2401</v>
+        <v>5242</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="5"/>
@@ -2816,7 +2816,7 @@
     <row r="239" spans="1:3">
       <c r="A239" s="2"/>
       <c r="B239">
-        <v>5421</v>
+        <v>1379</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="5"/>
@@ -2826,7 +2826,7 @@
     <row r="240" spans="1:3">
       <c r="A240" s="2"/>
       <c r="B240">
-        <v>7301</v>
+        <v>2401</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="5"/>
@@ -2836,7 +2836,7 @@
     <row r="241" spans="1:3">
       <c r="A241" s="2"/>
       <c r="B241">
-        <v>2000</v>
+        <v>5421</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="5"/>
@@ -2846,7 +2846,7 @@
     <row r="242" spans="1:3">
       <c r="A242" s="2"/>
       <c r="B242">
-        <v>4147</v>
+        <v>7301</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="5"/>
@@ -2856,7 +2856,7 @@
     <row r="243" spans="1:3">
       <c r="A243" s="2"/>
       <c r="B243">
-        <v>1953</v>
+        <v>2000</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="5"/>
@@ -2866,7 +2866,7 @@
     <row r="244" spans="1:3">
       <c r="A244" s="2"/>
       <c r="B244">
-        <v>3956</v>
+        <v>4147</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="5"/>
@@ -2876,7 +2876,7 @@
     <row r="245" spans="1:3">
       <c r="A245" s="2"/>
       <c r="B245">
-        <v>5463</v>
+        <v>1953</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="5"/>
@@ -2884,12 +2884,20 @@
       </c>
     </row>
     <row r="246" spans="1:3">
+      <c r="A246" s="2"/>
+      <c r="B246">
+        <v>3956</v>
+      </c>
       <c r="C246">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3">
+      <c r="A247" s="2"/>
+      <c r="B247">
+        <v>5463</v>
+      </c>
       <c r="C247">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
@@ -3191,19 +3199,19 @@
     </row>
     <row r="297" spans="3:3">
       <c r="C297">
-        <f t="shared" ref="C297:C360" ca="1" si="6">IF(B297=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="3:3">
       <c r="C298">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="3:3">
       <c r="C299">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="C299:C362" ca="1" si="6">IF(B299=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3575,19 +3583,19 @@
     </row>
     <row r="361" spans="3:3">
       <c r="C361">
-        <f t="shared" ref="C361:C424" ca="1" si="7">IF(B361=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="362" spans="3:3">
       <c r="C362">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="3:3">
       <c r="C363">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="C363:C426" ca="1" si="7">IF(B363=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3959,19 +3967,19 @@
     </row>
     <row r="425" spans="3:3">
       <c r="C425">
-        <f t="shared" ref="C425:C488" ca="1" si="8">IF(B425=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="426" spans="3:3">
       <c r="C426">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="427" spans="3:3">
       <c r="C427">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="C427:C490" ca="1" si="8">IF(B427=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4343,19 +4351,19 @@
     </row>
     <row r="489" spans="3:3">
       <c r="C489">
-        <f t="shared" ref="C489:C552" ca="1" si="9">IF(B489=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="490" spans="3:3">
       <c r="C490">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="491" spans="3:3">
       <c r="C491">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="C491:C554" ca="1" si="9">IF(B491=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4727,19 +4735,19 @@
     </row>
     <row r="553" spans="3:3">
       <c r="C553">
-        <f t="shared" ref="C553:C616" ca="1" si="10">IF(B553=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="554" spans="3:3">
       <c r="C554">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="555" spans="3:3">
       <c r="C555">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="C555:C618" ca="1" si="10">IF(B555=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5111,19 +5119,19 @@
     </row>
     <row r="617" spans="3:3">
       <c r="C617">
-        <f t="shared" ref="C617:C680" ca="1" si="11">IF(B617=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="618" spans="3:3">
       <c r="C618">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="619" spans="3:3">
       <c r="C619">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="C619:C682" ca="1" si="11">IF(B619=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5495,19 +5503,19 @@
     </row>
     <row r="681" spans="3:3">
       <c r="C681">
-        <f t="shared" ref="C681:C744" ca="1" si="12">IF(B681=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="682" spans="3:3">
       <c r="C682">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="683" spans="3:3">
       <c r="C683">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="C683:C746" ca="1" si="12">IF(B683=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5879,19 +5887,19 @@
     </row>
     <row r="745" spans="3:3">
       <c r="C745">
-        <f t="shared" ref="C745:C808" ca="1" si="13">IF(B745=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="746" spans="3:3">
       <c r="C746">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="747" spans="3:3">
       <c r="C747">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="C747:C810" ca="1" si="13">IF(B747=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6263,19 +6271,19 @@
     </row>
     <row r="809" spans="3:3">
       <c r="C809">
-        <f t="shared" ref="C809:C872" ca="1" si="14">IF(B809=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="810" spans="3:3">
       <c r="C810">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="811" spans="3:3">
       <c r="C811">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="C811:C874" ca="1" si="14">IF(B811=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6647,19 +6655,19 @@
     </row>
     <row r="873" spans="3:3">
       <c r="C873">
-        <f t="shared" ref="C873:C887" ca="1" si="15">IF(B873=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="874" spans="3:3">
       <c r="C874">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="875" spans="3:3">
       <c r="C875">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="C875:C889" ca="1" si="15">IF(B875=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6735,19 +6743,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="888" spans="3:3">
+      <c r="C888">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="3:3">
+      <c r="C889">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A217:A222"/>
-    <mergeCell ref="A223:A227"/>
-    <mergeCell ref="A229:A245"/>
+    <mergeCell ref="A219:A224"/>
+    <mergeCell ref="A225:A229"/>
+    <mergeCell ref="A231:A247"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="A79:A118"/>
-    <mergeCell ref="A212:A216"/>
-    <mergeCell ref="A195:A211"/>
-    <mergeCell ref="A168:A194"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="A197:A213"/>
+    <mergeCell ref="A168:A196"/>
     <mergeCell ref="A157:A167"/>
     <mergeCell ref="A119:A156"/>
   </mergeCells>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -398,11 +398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E889"/>
+  <dimension ref="A1:E890"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>5483</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2067,7 +2067,7 @@
         <v>2166</v>
       </c>
       <c r="C165">
-        <f t="shared" ref="C165:C234" ca="1" si="4">IF(B165=$E$1,1,0)</f>
+        <f t="shared" ref="C165:C235" ca="1" si="4">IF(B165=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
     <row r="199" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199">
-        <v>9765</v>
+        <v>4488</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="4"/>
@@ -2418,7 +2418,7 @@
     <row r="200" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200">
-        <v>4954</v>
+        <v>9765</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="4"/>
@@ -2428,7 +2428,7 @@
     <row r="201" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201">
-        <v>5537</v>
+        <v>4954</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="4"/>
@@ -2438,7 +2438,7 @@
     <row r="202" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202">
-        <v>6431</v>
+        <v>5537</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="4"/>
@@ -2448,7 +2448,7 @@
     <row r="203" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203">
-        <v>7193</v>
+        <v>6431</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="4"/>
@@ -2458,7 +2458,7 @@
     <row r="204" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204">
-        <v>5621</v>
+        <v>7193</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="4"/>
@@ -2468,7 +2468,7 @@
     <row r="205" spans="1:3">
       <c r="A205" s="2"/>
       <c r="B205">
-        <v>5847</v>
+        <v>5621</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="4"/>
@@ -2478,7 +2478,7 @@
     <row r="206" spans="1:3">
       <c r="A206" s="2"/>
       <c r="B206">
-        <v>4769</v>
+        <v>5847</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="4"/>
@@ -2488,7 +2488,7 @@
     <row r="207" spans="1:3">
       <c r="A207" s="2"/>
       <c r="B207">
-        <v>9930</v>
+        <v>4769</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="4"/>
@@ -2498,7 +2498,7 @@
     <row r="208" spans="1:3">
       <c r="A208" s="2"/>
       <c r="B208">
-        <v>6861</v>
+        <v>9930</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="4"/>
@@ -2508,7 +2508,7 @@
     <row r="209" spans="1:3">
       <c r="A209" s="2"/>
       <c r="B209">
-        <v>2205</v>
+        <v>6861</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="4"/>
@@ -2518,7 +2518,7 @@
     <row r="210" spans="1:3">
       <c r="A210" s="2"/>
       <c r="B210">
-        <v>4372</v>
+        <v>2205</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="4"/>
@@ -2528,7 +2528,7 @@
     <row r="211" spans="1:3">
       <c r="A211" s="2"/>
       <c r="B211">
-        <v>4463</v>
+        <v>4372</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="4"/>
@@ -2538,7 +2538,7 @@
     <row r="212" spans="1:3">
       <c r="A212" s="2"/>
       <c r="B212">
-        <v>1668</v>
+        <v>4463</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="4"/>
@@ -2548,7 +2548,7 @@
     <row r="213" spans="1:3">
       <c r="A213" s="2"/>
       <c r="B213">
-        <v>2137</v>
+        <v>1668</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="4"/>
@@ -2556,11 +2556,9 @@
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A214" s="2"/>
       <c r="B214">
-        <v>9300</v>
+        <v>2137</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="4"/>
@@ -2568,9 +2566,11 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="2"/>
+      <c r="A215" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B215">
-        <v>3951</v>
+        <v>9300</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="4"/>
@@ -2580,7 +2580,7 @@
     <row r="216" spans="1:3">
       <c r="A216" s="2"/>
       <c r="B216">
-        <v>6409</v>
+        <v>3951</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="4"/>
@@ -2590,7 +2590,7 @@
     <row r="217" spans="1:3">
       <c r="A217" s="2"/>
       <c r="B217">
-        <v>7343</v>
+        <v>6409</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
@@ -2600,7 +2600,7 @@
     <row r="218" spans="1:3">
       <c r="A218" s="2"/>
       <c r="B218">
-        <v>7060</v>
+        <v>7343</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
@@ -2608,11 +2608,9 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A219" s="2"/>
       <c r="B219">
-        <v>9299</v>
+        <v>7060</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="4"/>
@@ -2620,9 +2618,11 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="2"/>
+      <c r="A220" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B220">
-        <v>7560</v>
+        <v>9299</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
@@ -2632,7 +2632,7 @@
     <row r="221" spans="1:3">
       <c r="A221" s="2"/>
       <c r="B221">
-        <v>9002</v>
+        <v>7560</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
@@ -2642,7 +2642,7 @@
     <row r="222" spans="1:3">
       <c r="A222" s="2"/>
       <c r="B222">
-        <v>7432</v>
+        <v>9002</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="4"/>
@@ -2652,7 +2652,7 @@
     <row r="223" spans="1:3">
       <c r="A223" s="2"/>
       <c r="B223">
-        <v>1954</v>
+        <v>7432</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="4"/>
@@ -2662,7 +2662,7 @@
     <row r="224" spans="1:3">
       <c r="A224" s="2"/>
       <c r="B224">
-        <v>2048</v>
+        <v>1954</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
@@ -2670,11 +2670,9 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A225" s="2"/>
       <c r="B225">
-        <v>3939</v>
+        <v>2048</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="4"/>
@@ -2682,9 +2680,11 @@
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="2"/>
+      <c r="A226" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B226">
-        <v>8861</v>
+        <v>3939</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="4"/>
@@ -2694,17 +2694,17 @@
     <row r="227" spans="1:3">
       <c r="A227" s="2"/>
       <c r="B227">
-        <v>1516</v>
+        <v>8861</v>
       </c>
       <c r="C227">
-        <f ca="1">IF(B227=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2"/>
       <c r="B228">
-        <v>9062</v>
+        <v>1516</v>
       </c>
       <c r="C228">
         <f ca="1">IF(B228=$E$1,1,0)</f>
@@ -2714,7 +2714,7 @@
     <row r="229" spans="1:3">
       <c r="A229" s="2"/>
       <c r="B229">
-        <v>5164</v>
+        <v>9062</v>
       </c>
       <c r="C229">
         <f ca="1">IF(B229=$E$1,1,0)</f>
@@ -2722,9 +2722,9 @@
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="1"/>
+      <c r="A230" s="2"/>
       <c r="B230">
-        <v>2354</v>
+        <v>5164</v>
       </c>
       <c r="C230">
         <f ca="1">IF(B230=$E$1,1,0)</f>
@@ -2732,21 +2732,21 @@
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="1"/>
+      <c r="B231">
+        <v>2354</v>
+      </c>
+      <c r="C231">
+        <f ca="1">IF(B231=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B231">
+      <c r="B232">
         <v>8403</v>
-      </c>
-      <c r="C231">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="2"/>
-      <c r="B232">
-        <v>3185</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="4"/>
@@ -2756,7 +2756,7 @@
     <row r="233" spans="1:3">
       <c r="A233" s="2"/>
       <c r="B233">
-        <v>9914</v>
+        <v>3185</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="4"/>
@@ -2766,7 +2766,7 @@
     <row r="234" spans="1:3">
       <c r="A234" s="2"/>
       <c r="B234">
-        <v>6011</v>
+        <v>9914</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="4"/>
@@ -2776,27 +2776,27 @@
     <row r="235" spans="1:3">
       <c r="A235" s="2"/>
       <c r="B235">
-        <v>6037</v>
+        <v>6011</v>
       </c>
       <c r="C235">
-        <f t="shared" ref="C235:C298" ca="1" si="5">IF(B235=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2"/>
       <c r="B236">
-        <v>2809</v>
+        <v>6037</v>
       </c>
       <c r="C236">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="C236:C299" ca="1" si="5">IF(B236=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2"/>
       <c r="B237">
-        <v>7297</v>
+        <v>2809</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="5"/>
@@ -2806,7 +2806,7 @@
     <row r="238" spans="1:3">
       <c r="A238" s="2"/>
       <c r="B238">
-        <v>5242</v>
+        <v>7297</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="5"/>
@@ -2816,7 +2816,7 @@
     <row r="239" spans="1:3">
       <c r="A239" s="2"/>
       <c r="B239">
-        <v>1379</v>
+        <v>5242</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="5"/>
@@ -2826,7 +2826,7 @@
     <row r="240" spans="1:3">
       <c r="A240" s="2"/>
       <c r="B240">
-        <v>2401</v>
+        <v>1379</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="5"/>
@@ -2836,7 +2836,7 @@
     <row r="241" spans="1:3">
       <c r="A241" s="2"/>
       <c r="B241">
-        <v>5421</v>
+        <v>2401</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="5"/>
@@ -2846,7 +2846,7 @@
     <row r="242" spans="1:3">
       <c r="A242" s="2"/>
       <c r="B242">
-        <v>7301</v>
+        <v>5421</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="5"/>
@@ -2856,7 +2856,7 @@
     <row r="243" spans="1:3">
       <c r="A243" s="2"/>
       <c r="B243">
-        <v>2000</v>
+        <v>7301</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="5"/>
@@ -2866,7 +2866,7 @@
     <row r="244" spans="1:3">
       <c r="A244" s="2"/>
       <c r="B244">
-        <v>4147</v>
+        <v>2000</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="5"/>
@@ -2876,7 +2876,7 @@
     <row r="245" spans="1:3">
       <c r="A245" s="2"/>
       <c r="B245">
-        <v>1953</v>
+        <v>4147</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="5"/>
@@ -2886,7 +2886,7 @@
     <row r="246" spans="1:3">
       <c r="A246" s="2"/>
       <c r="B246">
-        <v>3956</v>
+        <v>1953</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="5"/>
@@ -2896,7 +2896,7 @@
     <row r="247" spans="1:3">
       <c r="A247" s="2"/>
       <c r="B247">
-        <v>5463</v>
+        <v>3956</v>
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="5"/>
@@ -2904,6 +2904,10 @@
       </c>
     </row>
     <row r="248" spans="1:3">
+      <c r="A248" s="2"/>
+      <c r="B248">
+        <v>5463</v>
+      </c>
       <c r="C248">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
@@ -3211,13 +3215,13 @@
     </row>
     <row r="299" spans="3:3">
       <c r="C299">
-        <f t="shared" ref="C299:C362" ca="1" si="6">IF(B299=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="3:3">
       <c r="C300">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="C300:C363" ca="1" si="6">IF(B300=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3595,13 +3599,13 @@
     </row>
     <row r="363" spans="3:3">
       <c r="C363">
-        <f t="shared" ref="C363:C426" ca="1" si="7">IF(B363=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="3:3">
       <c r="C364">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="C364:C427" ca="1" si="7">IF(B364=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3979,13 +3983,13 @@
     </row>
     <row r="427" spans="3:3">
       <c r="C427">
-        <f t="shared" ref="C427:C490" ca="1" si="8">IF(B427=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="428" spans="3:3">
       <c r="C428">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="C428:C491" ca="1" si="8">IF(B428=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4363,13 +4367,13 @@
     </row>
     <row r="491" spans="3:3">
       <c r="C491">
-        <f t="shared" ref="C491:C554" ca="1" si="9">IF(B491=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="492" spans="3:3">
       <c r="C492">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="C492:C555" ca="1" si="9">IF(B492=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4747,13 +4751,13 @@
     </row>
     <row r="555" spans="3:3">
       <c r="C555">
-        <f t="shared" ref="C555:C618" ca="1" si="10">IF(B555=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="556" spans="3:3">
       <c r="C556">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="C556:C619" ca="1" si="10">IF(B556=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5131,13 +5135,13 @@
     </row>
     <row r="619" spans="3:3">
       <c r="C619">
-        <f t="shared" ref="C619:C682" ca="1" si="11">IF(B619=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="620" spans="3:3">
       <c r="C620">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="C620:C683" ca="1" si="11">IF(B620=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5515,13 +5519,13 @@
     </row>
     <row r="683" spans="3:3">
       <c r="C683">
-        <f t="shared" ref="C683:C746" ca="1" si="12">IF(B683=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="684" spans="3:3">
       <c r="C684">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="C684:C747" ca="1" si="12">IF(B684=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5899,13 +5903,13 @@
     </row>
     <row r="747" spans="3:3">
       <c r="C747">
-        <f t="shared" ref="C747:C810" ca="1" si="13">IF(B747=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="748" spans="3:3">
       <c r="C748">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="C748:C811" ca="1" si="13">IF(B748=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6283,13 +6287,13 @@
     </row>
     <row r="811" spans="3:3">
       <c r="C811">
-        <f t="shared" ref="C811:C874" ca="1" si="14">IF(B811=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="812" spans="3:3">
       <c r="C812">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="C812:C875" ca="1" si="14">IF(B812=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6667,13 +6671,13 @@
     </row>
     <row r="875" spans="3:3">
       <c r="C875">
-        <f t="shared" ref="C875:C889" ca="1" si="15">IF(B875=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="876" spans="3:3">
       <c r="C876">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="C876:C890" ca="1" si="15">IF(B876=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6755,23 +6759,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="890" spans="3:3">
+      <c r="C890">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A219:A224"/>
-    <mergeCell ref="A225:A229"/>
-    <mergeCell ref="A231:A247"/>
+    <mergeCell ref="A220:A225"/>
+    <mergeCell ref="A226:A230"/>
+    <mergeCell ref="A232:A248"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="A79:A118"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="A197:A213"/>
+    <mergeCell ref="A215:A219"/>
+    <mergeCell ref="A197:A214"/>
     <mergeCell ref="A168:A196"/>
     <mergeCell ref="A157:A167"/>
     <mergeCell ref="A119:A156"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -398,11 +398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E890"/>
+  <dimension ref="A1:E892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B200" sqref="B200"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>5277</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1393,7 +1393,7 @@
         <v>7991</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:C164" ca="1" si="3">IF(B98=$E$1,1,0)</f>
+        <f t="shared" ref="C98:C165" ca="1" si="3">IF(B98=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
     <row r="162" spans="1:3">
       <c r="A162" s="2"/>
       <c r="B162">
-        <v>7491</v>
+        <v>1618</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="3"/>
@@ -2044,7 +2044,7 @@
     <row r="163" spans="1:3">
       <c r="A163" s="2"/>
       <c r="B163">
-        <v>5923</v>
+        <v>7491</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="3"/>
@@ -2054,7 +2054,7 @@
     <row r="164" spans="1:3">
       <c r="A164" s="2"/>
       <c r="B164">
-        <v>4265</v>
+        <v>5923</v>
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="3"/>
@@ -2064,27 +2064,27 @@
     <row r="165" spans="1:3">
       <c r="A165" s="2"/>
       <c r="B165">
-        <v>2166</v>
+        <v>4265</v>
       </c>
       <c r="C165">
-        <f t="shared" ref="C165:C235" ca="1" si="4">IF(B165=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2"/>
       <c r="B166">
-        <v>9116</v>
+        <v>2166</v>
       </c>
       <c r="C166">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="C166:C237" ca="1" si="4">IF(B166=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2"/>
       <c r="B167">
-        <v>9925</v>
+        <v>9116</v>
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="4"/>
@@ -2092,11 +2092,9 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A168" s="2"/>
       <c r="B168">
-        <v>2885</v>
+        <v>9925</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="4"/>
@@ -2104,9 +2102,11 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="2"/>
+      <c r="A169" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B169">
-        <v>9931</v>
+        <v>2885</v>
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="4"/>
@@ -2116,7 +2116,7 @@
     <row r="170" spans="1:3">
       <c r="A170" s="2"/>
       <c r="B170">
-        <v>4425</v>
+        <v>9931</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="4"/>
@@ -2126,7 +2126,7 @@
     <row r="171" spans="1:3">
       <c r="A171" s="2"/>
       <c r="B171">
-        <v>1947</v>
+        <v>4425</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="4"/>
@@ -2136,7 +2136,7 @@
     <row r="172" spans="1:3">
       <c r="A172" s="2"/>
       <c r="B172">
-        <v>9696</v>
+        <v>1947</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="4"/>
@@ -2146,7 +2146,7 @@
     <row r="173" spans="1:3">
       <c r="A173" s="2"/>
       <c r="B173">
-        <v>1223</v>
+        <v>9696</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="4"/>
@@ -2156,7 +2156,7 @@
     <row r="174" spans="1:3">
       <c r="A174" s="2"/>
       <c r="B174">
-        <v>3946</v>
+        <v>1223</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="4"/>
@@ -2166,7 +2166,7 @@
     <row r="175" spans="1:3">
       <c r="A175" s="2"/>
       <c r="B175">
-        <v>8311</v>
+        <v>3946</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="4"/>
@@ -2176,7 +2176,7 @@
     <row r="176" spans="1:3">
       <c r="A176" s="2"/>
       <c r="B176">
-        <v>3134</v>
+        <v>8311</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="4"/>
@@ -2186,7 +2186,7 @@
     <row r="177" spans="1:3">
       <c r="A177" s="2"/>
       <c r="B177">
-        <v>9774</v>
+        <v>3134</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="4"/>
@@ -2196,7 +2196,7 @@
     <row r="178" spans="1:3">
       <c r="A178" s="2"/>
       <c r="B178">
-        <v>9711</v>
+        <v>9774</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="4"/>
@@ -2206,7 +2206,7 @@
     <row r="179" spans="1:3">
       <c r="A179" s="2"/>
       <c r="B179">
-        <v>3333</v>
+        <v>9711</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="4"/>
@@ -2216,7 +2216,7 @@
     <row r="180" spans="1:3">
       <c r="A180" s="2"/>
       <c r="B180">
-        <v>7290</v>
+        <v>3333</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="4"/>
@@ -2226,7 +2226,7 @@
     <row r="181" spans="1:3">
       <c r="A181" s="2"/>
       <c r="B181">
-        <v>5694</v>
+        <v>7290</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="4"/>
@@ -2236,7 +2236,7 @@
     <row r="182" spans="1:3">
       <c r="A182" s="2"/>
       <c r="B182">
-        <v>7035</v>
+        <v>5694</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="4"/>
@@ -2246,7 +2246,7 @@
     <row r="183" spans="1:3">
       <c r="A183" s="2"/>
       <c r="B183">
-        <v>6806</v>
+        <v>7035</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="4"/>
@@ -2256,7 +2256,7 @@
     <row r="184" spans="1:3">
       <c r="A184" s="2"/>
       <c r="B184">
-        <v>4515</v>
+        <v>6806</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="4"/>
@@ -2266,7 +2266,7 @@
     <row r="185" spans="1:3">
       <c r="A185" s="2"/>
       <c r="B185">
-        <v>9271</v>
+        <v>4515</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="4"/>
@@ -2276,7 +2276,7 @@
     <row r="186" spans="1:3">
       <c r="A186" s="2"/>
       <c r="B186">
-        <v>8769</v>
+        <v>9271</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="4"/>
@@ -2286,7 +2286,7 @@
     <row r="187" spans="1:3">
       <c r="A187" s="2"/>
       <c r="B187">
-        <v>4497</v>
+        <v>8769</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="4"/>
@@ -2296,7 +2296,7 @@
     <row r="188" spans="1:3">
       <c r="A188" s="2"/>
       <c r="B188">
-        <v>3940</v>
+        <v>4497</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="4"/>
@@ -2306,7 +2306,7 @@
     <row r="189" spans="1:3">
       <c r="A189" s="2"/>
       <c r="B189">
-        <v>8820</v>
+        <v>3940</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="4"/>
@@ -2316,7 +2316,7 @@
     <row r="190" spans="1:3">
       <c r="A190" s="2"/>
       <c r="B190">
-        <v>3218</v>
+        <v>8820</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="4"/>
@@ -2326,7 +2326,7 @@
     <row r="191" spans="1:3">
       <c r="A191" s="2"/>
       <c r="B191">
-        <v>4283</v>
+        <v>3218</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="4"/>
@@ -2336,7 +2336,7 @@
     <row r="192" spans="1:3">
       <c r="A192" s="2"/>
       <c r="B192">
-        <v>7703</v>
+        <v>4283</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="4"/>
@@ -2346,7 +2346,7 @@
     <row r="193" spans="1:3">
       <c r="A193" s="2"/>
       <c r="B193">
-        <v>9182</v>
+        <v>7703</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="4"/>
@@ -2356,7 +2356,7 @@
     <row r="194" spans="1:3">
       <c r="A194" s="2"/>
       <c r="B194">
-        <v>5541</v>
+        <v>9182</v>
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="4"/>
@@ -2366,7 +2366,7 @@
     <row r="195" spans="1:3">
       <c r="A195" s="2"/>
       <c r="B195">
-        <v>2386</v>
+        <v>5541</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="4"/>
@@ -2376,7 +2376,7 @@
     <row r="196" spans="1:3">
       <c r="A196" s="2"/>
       <c r="B196">
-        <v>9159</v>
+        <v>2386</v>
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="4"/>
@@ -2384,11 +2384,9 @@
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A197" s="2"/>
       <c r="B197">
-        <v>6175</v>
+        <v>9159</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="4"/>
@@ -2396,9 +2394,11 @@
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="2"/>
+      <c r="A198" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B198">
-        <v>4642</v>
+        <v>6175</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="4"/>
@@ -2408,7 +2408,7 @@
     <row r="199" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199">
-        <v>4488</v>
+        <v>4642</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="4"/>
@@ -2418,7 +2418,7 @@
     <row r="200" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200">
-        <v>9765</v>
+        <v>4488</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="4"/>
@@ -2428,7 +2428,7 @@
     <row r="201" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201">
-        <v>4954</v>
+        <v>9765</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="4"/>
@@ -2438,7 +2438,7 @@
     <row r="202" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202">
-        <v>5537</v>
+        <v>4954</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="4"/>
@@ -2448,7 +2448,7 @@
     <row r="203" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203">
-        <v>6431</v>
+        <v>5537</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="4"/>
@@ -2458,7 +2458,7 @@
     <row r="204" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204">
-        <v>7193</v>
+        <v>6431</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="4"/>
@@ -2468,7 +2468,7 @@
     <row r="205" spans="1:3">
       <c r="A205" s="2"/>
       <c r="B205">
-        <v>5621</v>
+        <v>7193</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="4"/>
@@ -2478,7 +2478,7 @@
     <row r="206" spans="1:3">
       <c r="A206" s="2"/>
       <c r="B206">
-        <v>5847</v>
+        <v>5621</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="4"/>
@@ -2488,7 +2488,7 @@
     <row r="207" spans="1:3">
       <c r="A207" s="2"/>
       <c r="B207">
-        <v>4769</v>
+        <v>5847</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="4"/>
@@ -2498,7 +2498,7 @@
     <row r="208" spans="1:3">
       <c r="A208" s="2"/>
       <c r="B208">
-        <v>9930</v>
+        <v>4769</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="4"/>
@@ -2508,7 +2508,7 @@
     <row r="209" spans="1:3">
       <c r="A209" s="2"/>
       <c r="B209">
-        <v>6861</v>
+        <v>9930</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="4"/>
@@ -2518,7 +2518,7 @@
     <row r="210" spans="1:3">
       <c r="A210" s="2"/>
       <c r="B210">
-        <v>2205</v>
+        <v>3226</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="4"/>
@@ -2528,7 +2528,7 @@
     <row r="211" spans="1:3">
       <c r="A211" s="2"/>
       <c r="B211">
-        <v>4372</v>
+        <v>6861</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="4"/>
@@ -2538,7 +2538,7 @@
     <row r="212" spans="1:3">
       <c r="A212" s="2"/>
       <c r="B212">
-        <v>4463</v>
+        <v>2205</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="4"/>
@@ -2548,7 +2548,7 @@
     <row r="213" spans="1:3">
       <c r="A213" s="2"/>
       <c r="B213">
-        <v>1668</v>
+        <v>4372</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="4"/>
@@ -2558,7 +2558,7 @@
     <row r="214" spans="1:3">
       <c r="A214" s="2"/>
       <c r="B214">
-        <v>2137</v>
+        <v>4463</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="4"/>
@@ -2566,11 +2566,9 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A215" s="2"/>
       <c r="B215">
-        <v>9300</v>
+        <v>1668</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="4"/>
@@ -2580,7 +2578,7 @@
     <row r="216" spans="1:3">
       <c r="A216" s="2"/>
       <c r="B216">
-        <v>3951</v>
+        <v>2137</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="4"/>
@@ -2588,9 +2586,11 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="2"/>
+      <c r="A217" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B217">
-        <v>6409</v>
+        <v>9300</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
@@ -2600,7 +2600,7 @@
     <row r="218" spans="1:3">
       <c r="A218" s="2"/>
       <c r="B218">
-        <v>7343</v>
+        <v>3951</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
@@ -2610,7 +2610,7 @@
     <row r="219" spans="1:3">
       <c r="A219" s="2"/>
       <c r="B219">
-        <v>7060</v>
+        <v>6409</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="4"/>
@@ -2618,11 +2618,9 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A220" s="2"/>
       <c r="B220">
-        <v>9299</v>
+        <v>7343</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
@@ -2632,7 +2630,7 @@
     <row r="221" spans="1:3">
       <c r="A221" s="2"/>
       <c r="B221">
-        <v>7560</v>
+        <v>7060</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
@@ -2640,9 +2638,11 @@
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="2"/>
+      <c r="A222" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B222">
-        <v>9002</v>
+        <v>9299</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="4"/>
@@ -2652,7 +2652,7 @@
     <row r="223" spans="1:3">
       <c r="A223" s="2"/>
       <c r="B223">
-        <v>7432</v>
+        <v>7560</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="4"/>
@@ -2662,7 +2662,7 @@
     <row r="224" spans="1:3">
       <c r="A224" s="2"/>
       <c r="B224">
-        <v>1954</v>
+        <v>9002</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
@@ -2672,7 +2672,7 @@
     <row r="225" spans="1:3">
       <c r="A225" s="2"/>
       <c r="B225">
-        <v>2048</v>
+        <v>7432</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="4"/>
@@ -2680,11 +2680,9 @@
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A226" s="2"/>
       <c r="B226">
-        <v>3939</v>
+        <v>1954</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="4"/>
@@ -2694,7 +2692,7 @@
     <row r="227" spans="1:3">
       <c r="A227" s="2"/>
       <c r="B227">
-        <v>8861</v>
+        <v>2048</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="4"/>
@@ -2702,29 +2700,31 @@
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="2"/>
+      <c r="A228" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B228">
-        <v>1516</v>
+        <v>3939</v>
       </c>
       <c r="C228">
-        <f ca="1">IF(B228=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2"/>
       <c r="B229">
-        <v>9062</v>
+        <v>8861</v>
       </c>
       <c r="C229">
-        <f ca="1">IF(B229=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2"/>
       <c r="B230">
-        <v>5164</v>
+        <v>1516</v>
       </c>
       <c r="C230">
         <f ca="1">IF(B230=$E$1,1,0)</f>
@@ -2732,9 +2732,9 @@
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="1"/>
+      <c r="A231" s="2"/>
       <c r="B231">
-        <v>2354</v>
+        <v>9062</v>
       </c>
       <c r="C231">
         <f ca="1">IF(B231=$E$1,1,0)</f>
@@ -2742,31 +2742,31 @@
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="2"/>
+      <c r="B232">
+        <v>5164</v>
+      </c>
+      <c r="C232">
+        <f ca="1">IF(B232=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1"/>
+      <c r="B233">
+        <v>2354</v>
+      </c>
+      <c r="C233">
+        <f ca="1">IF(B233=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B232">
+      <c r="B234">
         <v>8403</v>
-      </c>
-      <c r="C232">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="2"/>
-      <c r="B233">
-        <v>3185</v>
-      </c>
-      <c r="C233">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="2"/>
-      <c r="B234">
-        <v>9914</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="4"/>
@@ -2776,7 +2776,7 @@
     <row r="235" spans="1:3">
       <c r="A235" s="2"/>
       <c r="B235">
-        <v>6011</v>
+        <v>3185</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="4"/>
@@ -2786,37 +2786,37 @@
     <row r="236" spans="1:3">
       <c r="A236" s="2"/>
       <c r="B236">
-        <v>6037</v>
+        <v>9914</v>
       </c>
       <c r="C236">
-        <f t="shared" ref="C236:C299" ca="1" si="5">IF(B236=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2"/>
       <c r="B237">
-        <v>2809</v>
+        <v>6011</v>
       </c>
       <c r="C237">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2"/>
       <c r="B238">
-        <v>7297</v>
+        <v>6037</v>
       </c>
       <c r="C238">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="C238:C301" ca="1" si="5">IF(B238=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2"/>
       <c r="B239">
-        <v>5242</v>
+        <v>2809</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="5"/>
@@ -2826,7 +2826,7 @@
     <row r="240" spans="1:3">
       <c r="A240" s="2"/>
       <c r="B240">
-        <v>1379</v>
+        <v>7297</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="5"/>
@@ -2836,7 +2836,7 @@
     <row r="241" spans="1:3">
       <c r="A241" s="2"/>
       <c r="B241">
-        <v>2401</v>
+        <v>5242</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="5"/>
@@ -2846,7 +2846,7 @@
     <row r="242" spans="1:3">
       <c r="A242" s="2"/>
       <c r="B242">
-        <v>5421</v>
+        <v>1379</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="5"/>
@@ -2856,7 +2856,7 @@
     <row r="243" spans="1:3">
       <c r="A243" s="2"/>
       <c r="B243">
-        <v>7301</v>
+        <v>2401</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="5"/>
@@ -2866,7 +2866,7 @@
     <row r="244" spans="1:3">
       <c r="A244" s="2"/>
       <c r="B244">
-        <v>2000</v>
+        <v>5421</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="5"/>
@@ -2876,7 +2876,7 @@
     <row r="245" spans="1:3">
       <c r="A245" s="2"/>
       <c r="B245">
-        <v>4147</v>
+        <v>7301</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="5"/>
@@ -2886,7 +2886,7 @@
     <row r="246" spans="1:3">
       <c r="A246" s="2"/>
       <c r="B246">
-        <v>1953</v>
+        <v>2000</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="5"/>
@@ -2896,7 +2896,7 @@
     <row r="247" spans="1:3">
       <c r="A247" s="2"/>
       <c r="B247">
-        <v>3956</v>
+        <v>4147</v>
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="5"/>
@@ -2906,7 +2906,7 @@
     <row r="248" spans="1:3">
       <c r="A248" s="2"/>
       <c r="B248">
-        <v>5463</v>
+        <v>1953</v>
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="5"/>
@@ -2914,12 +2914,20 @@
       </c>
     </row>
     <row r="249" spans="1:3">
+      <c r="A249" s="2"/>
+      <c r="B249">
+        <v>3956</v>
+      </c>
       <c r="C249">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3">
+      <c r="A250" s="2"/>
+      <c r="B250">
+        <v>5463</v>
+      </c>
       <c r="C250">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
@@ -3221,19 +3229,19 @@
     </row>
     <row r="300" spans="3:3">
       <c r="C300">
-        <f t="shared" ref="C300:C363" ca="1" si="6">IF(B300=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="3:3">
       <c r="C301">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="3:3">
       <c r="C302">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="C302:C365" ca="1" si="6">IF(B302=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3605,19 +3613,19 @@
     </row>
     <row r="364" spans="3:3">
       <c r="C364">
-        <f t="shared" ref="C364:C427" ca="1" si="7">IF(B364=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="3:3">
       <c r="C365">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="3:3">
       <c r="C366">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="C366:C429" ca="1" si="7">IF(B366=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3989,19 +3997,19 @@
     </row>
     <row r="428" spans="3:3">
       <c r="C428">
-        <f t="shared" ref="C428:C491" ca="1" si="8">IF(B428=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="429" spans="3:3">
       <c r="C429">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="3:3">
       <c r="C430">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="C430:C493" ca="1" si="8">IF(B430=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4373,19 +4381,19 @@
     </row>
     <row r="492" spans="3:3">
       <c r="C492">
-        <f t="shared" ref="C492:C555" ca="1" si="9">IF(B492=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="493" spans="3:3">
       <c r="C493">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="494" spans="3:3">
       <c r="C494">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="C494:C557" ca="1" si="9">IF(B494=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4757,19 +4765,19 @@
     </row>
     <row r="556" spans="3:3">
       <c r="C556">
-        <f t="shared" ref="C556:C619" ca="1" si="10">IF(B556=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="557" spans="3:3">
       <c r="C557">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="558" spans="3:3">
       <c r="C558">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="C558:C621" ca="1" si="10">IF(B558=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5141,19 +5149,19 @@
     </row>
     <row r="620" spans="3:3">
       <c r="C620">
-        <f t="shared" ref="C620:C683" ca="1" si="11">IF(B620=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="621" spans="3:3">
       <c r="C621">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="622" spans="3:3">
       <c r="C622">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="C622:C685" ca="1" si="11">IF(B622=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5525,19 +5533,19 @@
     </row>
     <row r="684" spans="3:3">
       <c r="C684">
-        <f t="shared" ref="C684:C747" ca="1" si="12">IF(B684=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="685" spans="3:3">
       <c r="C685">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="686" spans="3:3">
       <c r="C686">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="C686:C749" ca="1" si="12">IF(B686=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5909,19 +5917,19 @@
     </row>
     <row r="748" spans="3:3">
       <c r="C748">
-        <f t="shared" ref="C748:C811" ca="1" si="13">IF(B748=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="749" spans="3:3">
       <c r="C749">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="750" spans="3:3">
       <c r="C750">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="C750:C813" ca="1" si="13">IF(B750=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6293,19 +6301,19 @@
     </row>
     <row r="812" spans="3:3">
       <c r="C812">
-        <f t="shared" ref="C812:C875" ca="1" si="14">IF(B812=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="813" spans="3:3">
       <c r="C813">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="814" spans="3:3">
       <c r="C814">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="C814:C877" ca="1" si="14">IF(B814=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6677,19 +6685,19 @@
     </row>
     <row r="876" spans="3:3">
       <c r="C876">
-        <f t="shared" ref="C876:C890" ca="1" si="15">IF(B876=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="877" spans="3:3">
       <c r="C877">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="878" spans="3:3">
       <c r="C878">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="C878:C892" ca="1" si="15">IF(B878=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6765,20 +6773,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="891" spans="3:3">
+      <c r="C891">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="3:3">
+      <c r="C892">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A220:A225"/>
-    <mergeCell ref="A226:A230"/>
-    <mergeCell ref="A232:A248"/>
+    <mergeCell ref="A222:A227"/>
+    <mergeCell ref="A228:A232"/>
+    <mergeCell ref="A234:A250"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="A79:A118"/>
-    <mergeCell ref="A215:A219"/>
-    <mergeCell ref="A197:A214"/>
-    <mergeCell ref="A168:A196"/>
-    <mergeCell ref="A157:A167"/>
+    <mergeCell ref="A217:A221"/>
+    <mergeCell ref="A198:A216"/>
+    <mergeCell ref="A169:A197"/>
+    <mergeCell ref="A157:A168"/>
     <mergeCell ref="A119:A156"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -91,11 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,11 +395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E892"/>
+  <dimension ref="A1:E894"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F162" sqref="F162"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H229" sqref="H229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -414,11 +411,11 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>2120</v>
+        <v>9389</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -430,7 +427,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1"/>
       <c r="B3">
         <v>1860</v>
       </c>
@@ -440,7 +437,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
       <c r="B4">
         <v>4764</v>
       </c>
@@ -450,7 +447,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
       <c r="B5">
         <v>2429</v>
       </c>
@@ -460,7 +457,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1"/>
       <c r="B6">
         <v>7472</v>
       </c>
@@ -470,7 +467,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
       <c r="B7">
         <v>3862</v>
       </c>
@@ -480,7 +477,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
       <c r="B8">
         <v>9231</v>
       </c>
@@ -490,7 +487,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
       <c r="B9">
         <v>8624</v>
       </c>
@@ -500,7 +497,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
       <c r="B10">
         <v>2959</v>
       </c>
@@ -510,7 +507,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
       <c r="B11">
         <v>7271</v>
       </c>
@@ -520,7 +517,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
       <c r="B12">
         <v>2632</v>
       </c>
@@ -530,7 +527,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
       <c r="B13">
         <v>4343</v>
       </c>
@@ -540,7 +537,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1"/>
       <c r="B14">
         <v>1517</v>
       </c>
@@ -550,7 +547,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
       <c r="B15">
         <v>1413</v>
       </c>
@@ -560,7 +557,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
       <c r="B16">
         <v>9405</v>
       </c>
@@ -570,7 +567,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B17">
@@ -582,7 +579,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
       <c r="B18">
         <v>9298</v>
       </c>
@@ -592,7 +589,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
       <c r="B19">
         <v>3354</v>
       </c>
@@ -602,7 +599,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
       <c r="B20">
         <v>8569</v>
       </c>
@@ -612,7 +609,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
       <c r="B21">
         <v>3730</v>
       </c>
@@ -622,7 +619,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
       <c r="B22">
         <v>9007</v>
       </c>
@@ -632,7 +629,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1"/>
       <c r="B23">
         <v>5201</v>
       </c>
@@ -642,7 +639,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1"/>
       <c r="B24">
         <v>2981</v>
       </c>
@@ -652,7 +649,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
       <c r="B25">
         <v>4312</v>
       </c>
@@ -662,7 +659,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
       <c r="B26">
         <v>8428</v>
       </c>
@@ -672,7 +669,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
       <c r="B27">
         <v>2361</v>
       </c>
@@ -682,7 +679,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
       <c r="B28">
         <v>5063</v>
       </c>
@@ -692,7 +689,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1"/>
       <c r="B29">
         <v>7711</v>
       </c>
@@ -702,7 +699,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
+      <c r="A30" s="1"/>
       <c r="B30">
         <v>8833</v>
       </c>
@@ -712,7 +709,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
+      <c r="A31" s="1"/>
       <c r="B31">
         <v>1262</v>
       </c>
@@ -722,7 +719,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
+      <c r="A32" s="1"/>
       <c r="B32">
         <v>9020</v>
       </c>
@@ -732,7 +729,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
+      <c r="A33" s="1"/>
       <c r="B33">
         <v>1934</v>
       </c>
@@ -742,7 +739,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
+      <c r="A34" s="1"/>
       <c r="B34">
         <v>7237</v>
       </c>
@@ -752,7 +749,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2"/>
+      <c r="A35" s="1"/>
       <c r="B35">
         <v>3943</v>
       </c>
@@ -762,7 +759,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
+      <c r="A36" s="1"/>
       <c r="B36">
         <v>7619</v>
       </c>
@@ -772,7 +769,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2"/>
+      <c r="A37" s="1"/>
       <c r="B37">
         <v>3832</v>
       </c>
@@ -782,7 +779,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
+      <c r="A38" s="1"/>
       <c r="B38">
         <v>1346</v>
       </c>
@@ -792,7 +789,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2"/>
+      <c r="A39" s="1"/>
       <c r="B39">
         <v>9622</v>
       </c>
@@ -802,7 +799,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
+      <c r="A40" s="1"/>
       <c r="B40">
         <v>8873</v>
       </c>
@@ -812,7 +809,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
+      <c r="A41" s="1"/>
       <c r="B41">
         <v>7799</v>
       </c>
@@ -822,7 +819,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2"/>
+      <c r="A42" s="1"/>
       <c r="B42">
         <v>9354</v>
       </c>
@@ -832,7 +829,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
+      <c r="A43" s="1"/>
       <c r="B43">
         <v>9130</v>
       </c>
@@ -842,7 +839,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="2"/>
+      <c r="A44" s="1"/>
       <c r="B44">
         <v>5895</v>
       </c>
@@ -852,7 +849,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2"/>
+      <c r="A45" s="1"/>
       <c r="B45">
         <v>2461</v>
       </c>
@@ -862,7 +859,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2"/>
+      <c r="A46" s="1"/>
       <c r="B46">
         <v>2790</v>
       </c>
@@ -872,7 +869,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
+      <c r="A47" s="1"/>
       <c r="B47">
         <v>2624</v>
       </c>
@@ -882,7 +879,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
+      <c r="A48" s="1"/>
       <c r="B48">
         <v>5871</v>
       </c>
@@ -892,7 +889,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2"/>
+      <c r="A49" s="1"/>
       <c r="B49">
         <v>9164</v>
       </c>
@@ -902,7 +899,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2"/>
+      <c r="A50" s="1"/>
       <c r="B50">
         <v>7457</v>
       </c>
@@ -912,7 +909,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2"/>
+      <c r="A51" s="1"/>
       <c r="B51">
         <v>9865</v>
       </c>
@@ -922,7 +919,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="2"/>
+      <c r="A52" s="1"/>
       <c r="B52">
         <v>3591</v>
       </c>
@@ -932,7 +929,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2"/>
+      <c r="A53" s="1"/>
       <c r="B53">
         <v>3558</v>
       </c>
@@ -942,7 +939,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="2"/>
+      <c r="A54" s="1"/>
       <c r="B54">
         <v>4366</v>
       </c>
@@ -952,7 +949,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="2"/>
+      <c r="A55" s="1"/>
       <c r="B55">
         <v>5789</v>
       </c>
@@ -962,7 +959,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="2"/>
+      <c r="A56" s="1"/>
       <c r="B56">
         <v>6522</v>
       </c>
@@ -972,7 +969,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B57">
@@ -984,7 +981,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2"/>
+      <c r="A58" s="1"/>
       <c r="B58">
         <v>1288</v>
       </c>
@@ -994,7 +991,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="2"/>
+      <c r="A59" s="1"/>
       <c r="B59">
         <v>2614</v>
       </c>
@@ -1004,7 +1001,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="2"/>
+      <c r="A60" s="1"/>
       <c r="B60">
         <v>7170</v>
       </c>
@@ -1014,7 +1011,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2"/>
+      <c r="A61" s="1"/>
       <c r="B61">
         <v>2709</v>
       </c>
@@ -1024,7 +1021,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="2"/>
+      <c r="A62" s="1"/>
       <c r="B62">
         <v>3402</v>
       </c>
@@ -1034,7 +1031,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2"/>
+      <c r="A63" s="1"/>
       <c r="B63">
         <v>8781</v>
       </c>
@@ -1044,7 +1041,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="2"/>
+      <c r="A64" s="1"/>
       <c r="B64">
         <v>8771</v>
       </c>
@@ -1054,7 +1051,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2"/>
+      <c r="A65" s="1"/>
       <c r="B65">
         <v>3091</v>
       </c>
@@ -1064,7 +1061,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="2"/>
+      <c r="A66" s="1"/>
       <c r="B66">
         <v>2195</v>
       </c>
@@ -1074,7 +1071,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="2"/>
+      <c r="A67" s="1"/>
       <c r="B67">
         <v>1184</v>
       </c>
@@ -1084,7 +1081,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="2"/>
+      <c r="A68" s="1"/>
       <c r="B68">
         <v>2667</v>
       </c>
@@ -1094,7 +1091,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="2"/>
+      <c r="A69" s="1"/>
       <c r="B69">
         <v>5917</v>
       </c>
@@ -1104,7 +1101,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="2"/>
+      <c r="A70" s="1"/>
       <c r="B70">
         <v>3929</v>
       </c>
@@ -1114,7 +1111,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="2"/>
+      <c r="A71" s="1"/>
       <c r="B71">
         <v>3083</v>
       </c>
@@ -1124,7 +1121,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="2"/>
+      <c r="A72" s="1"/>
       <c r="B72">
         <v>7546</v>
       </c>
@@ -1134,7 +1131,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B73">
@@ -1146,7 +1143,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2"/>
+      <c r="A74" s="1"/>
       <c r="B74">
         <v>6598</v>
       </c>
@@ -1156,7 +1153,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="2"/>
+      <c r="A75" s="1"/>
       <c r="B75">
         <v>3093</v>
       </c>
@@ -1166,7 +1163,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="2"/>
+      <c r="A76" s="1"/>
       <c r="B76">
         <v>8805</v>
       </c>
@@ -1176,7 +1173,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="2"/>
+      <c r="A77" s="1"/>
       <c r="B77">
         <v>8158</v>
       </c>
@@ -1186,7 +1183,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="2"/>
+      <c r="A78" s="1"/>
       <c r="B78">
         <v>6499</v>
       </c>
@@ -1196,7 +1193,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B79">
@@ -1208,7 +1205,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="2"/>
+      <c r="A80" s="1"/>
       <c r="B80">
         <v>2217</v>
       </c>
@@ -1218,7 +1215,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="2"/>
+      <c r="A81" s="1"/>
       <c r="B81">
         <v>1824</v>
       </c>
@@ -1228,7 +1225,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="2"/>
+      <c r="A82" s="1"/>
       <c r="B82">
         <v>2564</v>
       </c>
@@ -1238,7 +1235,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="2"/>
+      <c r="A83" s="1"/>
       <c r="B83">
         <v>8487</v>
       </c>
@@ -1248,7 +1245,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="2"/>
+      <c r="A84" s="1"/>
       <c r="B84">
         <v>8045</v>
       </c>
@@ -1258,7 +1255,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="2"/>
+      <c r="A85" s="1"/>
       <c r="B85">
         <v>8878</v>
       </c>
@@ -1268,7 +1265,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="2"/>
+      <c r="A86" s="1"/>
       <c r="B86">
         <v>3072</v>
       </c>
@@ -1278,7 +1275,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="2"/>
+      <c r="A87" s="1"/>
       <c r="B87">
         <v>5980</v>
       </c>
@@ -1288,7 +1285,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="2"/>
+      <c r="A88" s="1"/>
       <c r="B88">
         <v>8174</v>
       </c>
@@ -1298,7 +1295,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2"/>
+      <c r="A89" s="1"/>
       <c r="B89">
         <v>4257</v>
       </c>
@@ -1308,7 +1305,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="2"/>
+      <c r="A90" s="1"/>
       <c r="B90">
         <v>2291</v>
       </c>
@@ -1318,7 +1315,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="2"/>
+      <c r="A91" s="1"/>
       <c r="B91">
         <v>1763</v>
       </c>
@@ -1328,7 +1325,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="2"/>
+      <c r="A92" s="1"/>
       <c r="B92">
         <v>5662</v>
       </c>
@@ -1338,7 +1335,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="2"/>
+      <c r="A93" s="1"/>
       <c r="B93">
         <v>1945</v>
       </c>
@@ -1348,7 +1345,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="2"/>
+      <c r="A94" s="1"/>
       <c r="B94">
         <v>1186</v>
       </c>
@@ -1358,7 +1355,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="2"/>
+      <c r="A95" s="1"/>
       <c r="B95">
         <v>8715</v>
       </c>
@@ -1368,7 +1365,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="2"/>
+      <c r="A96" s="1"/>
       <c r="B96">
         <v>8518</v>
       </c>
@@ -1378,7 +1375,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="2"/>
+      <c r="A97" s="1"/>
       <c r="B97">
         <v>4847</v>
       </c>
@@ -1388,7 +1385,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="2"/>
+      <c r="A98" s="1"/>
       <c r="B98">
         <v>7991</v>
       </c>
@@ -1398,7 +1395,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="2"/>
+      <c r="A99" s="1"/>
       <c r="B99">
         <v>6291</v>
       </c>
@@ -1408,7 +1405,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="2"/>
+      <c r="A100" s="1"/>
       <c r="B100">
         <v>3770</v>
       </c>
@@ -1418,7 +1415,7 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="2"/>
+      <c r="A101" s="1"/>
       <c r="B101">
         <v>7178</v>
       </c>
@@ -1428,7 +1425,7 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="2"/>
+      <c r="A102" s="1"/>
       <c r="B102">
         <v>3883</v>
       </c>
@@ -1438,7 +1435,7 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="2"/>
+      <c r="A103" s="1"/>
       <c r="B103">
         <v>4527</v>
       </c>
@@ -1448,7 +1445,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="2"/>
+      <c r="A104" s="1"/>
       <c r="B104">
         <v>6556</v>
       </c>
@@ -1458,7 +1455,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="2"/>
+      <c r="A105" s="1"/>
       <c r="B105">
         <v>5635</v>
       </c>
@@ -1468,7 +1465,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="2"/>
+      <c r="A106" s="1"/>
       <c r="B106">
         <v>3878</v>
       </c>
@@ -1478,7 +1475,7 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="2"/>
+      <c r="A107" s="1"/>
       <c r="B107">
         <v>1217</v>
       </c>
@@ -1488,7 +1485,7 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="2"/>
+      <c r="A108" s="1"/>
       <c r="B108">
         <v>1438</v>
       </c>
@@ -1498,7 +1495,7 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="2"/>
+      <c r="A109" s="1"/>
       <c r="B109">
         <v>2153</v>
       </c>
@@ -1508,7 +1505,7 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="2"/>
+      <c r="A110" s="1"/>
       <c r="B110">
         <v>7937</v>
       </c>
@@ -1518,7 +1515,7 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="2"/>
+      <c r="A111" s="1"/>
       <c r="B111">
         <v>1999</v>
       </c>
@@ -1528,7 +1525,7 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="2"/>
+      <c r="A112" s="1"/>
       <c r="B112">
         <v>4042</v>
       </c>
@@ -1538,7 +1535,7 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="2"/>
+      <c r="A113" s="1"/>
       <c r="B113">
         <v>6351</v>
       </c>
@@ -1548,7 +1545,7 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="2"/>
+      <c r="A114" s="1"/>
       <c r="B114">
         <v>5382</v>
       </c>
@@ -1558,7 +1555,7 @@
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="2"/>
+      <c r="A115" s="1"/>
       <c r="B115">
         <v>7088</v>
       </c>
@@ -1568,7 +1565,7 @@
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="2"/>
+      <c r="A116" s="1"/>
       <c r="B116">
         <v>7250</v>
       </c>
@@ -1578,7 +1575,7 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="2"/>
+      <c r="A117" s="1"/>
       <c r="B117">
         <v>6740</v>
       </c>
@@ -1588,7 +1585,7 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="2"/>
+      <c r="A118" s="1"/>
       <c r="B118">
         <v>9038</v>
       </c>
@@ -1598,7 +1595,7 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B119">
@@ -1610,7 +1607,7 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="2"/>
+      <c r="A120" s="1"/>
       <c r="B120">
         <v>8495</v>
       </c>
@@ -1620,7 +1617,7 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="2"/>
+      <c r="A121" s="1"/>
       <c r="B121">
         <v>1315</v>
       </c>
@@ -1630,7 +1627,7 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="2"/>
+      <c r="A122" s="1"/>
       <c r="B122">
         <v>6066</v>
       </c>
@@ -1640,7 +1637,7 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="2"/>
+      <c r="A123" s="1"/>
       <c r="B123">
         <v>2565</v>
       </c>
@@ -1650,7 +1647,7 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="2"/>
+      <c r="A124" s="1"/>
       <c r="B124">
         <v>2594</v>
       </c>
@@ -1660,7 +1657,7 @@
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="2"/>
+      <c r="A125" s="1"/>
       <c r="B125">
         <v>3762</v>
       </c>
@@ -1670,7 +1667,7 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="2"/>
+      <c r="A126" s="1"/>
       <c r="B126">
         <v>3550</v>
       </c>
@@ -1680,7 +1677,7 @@
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="2"/>
+      <c r="A127" s="1"/>
       <c r="B127">
         <v>2475</v>
       </c>
@@ -1690,7 +1687,7 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="2"/>
+      <c r="A128" s="1"/>
       <c r="B128">
         <v>9180</v>
       </c>
@@ -1700,7 +1697,7 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="2"/>
+      <c r="A129" s="1"/>
       <c r="B129">
         <v>1544</v>
       </c>
@@ -1710,7 +1707,7 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="2"/>
+      <c r="A130" s="1"/>
       <c r="B130">
         <v>9562</v>
       </c>
@@ -1720,7 +1717,7 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="2"/>
+      <c r="A131" s="1"/>
       <c r="B131">
         <v>3669</v>
       </c>
@@ -1730,7 +1727,7 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="2"/>
+      <c r="A132" s="1"/>
       <c r="B132">
         <v>5951</v>
       </c>
@@ -1740,7 +1737,7 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="2"/>
+      <c r="A133" s="1"/>
       <c r="B133">
         <v>2802</v>
       </c>
@@ -1750,7 +1747,7 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="2"/>
+      <c r="A134" s="1"/>
       <c r="B134">
         <v>6580</v>
       </c>
@@ -1760,7 +1757,7 @@
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="2"/>
+      <c r="A135" s="1"/>
       <c r="B135">
         <v>7585</v>
       </c>
@@ -1770,7 +1767,7 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="2"/>
+      <c r="A136" s="1"/>
       <c r="B136">
         <v>2321</v>
       </c>
@@ -1780,7 +1777,7 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="2"/>
+      <c r="A137" s="1"/>
       <c r="B137">
         <v>5053</v>
       </c>
@@ -1790,7 +1787,7 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="2"/>
+      <c r="A138" s="1"/>
       <c r="B138">
         <v>3983</v>
       </c>
@@ -1800,7 +1797,7 @@
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="2"/>
+      <c r="A139" s="1"/>
       <c r="B139">
         <v>8770</v>
       </c>
@@ -1810,7 +1807,7 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="2"/>
+      <c r="A140" s="1"/>
       <c r="B140">
         <v>4236</v>
       </c>
@@ -1820,7 +1817,7 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="2"/>
+      <c r="A141" s="1"/>
       <c r="B141">
         <v>5969</v>
       </c>
@@ -1830,7 +1827,7 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="2"/>
+      <c r="A142" s="1"/>
       <c r="B142">
         <v>8696</v>
       </c>
@@ -1840,7 +1837,7 @@
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="2"/>
+      <c r="A143" s="1"/>
       <c r="B143">
         <v>8418</v>
       </c>
@@ -1850,7 +1847,7 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="2"/>
+      <c r="A144" s="1"/>
       <c r="B144">
         <v>8395</v>
       </c>
@@ -1860,7 +1857,7 @@
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="2"/>
+      <c r="A145" s="1"/>
       <c r="B145">
         <v>5170</v>
       </c>
@@ -1870,7 +1867,7 @@
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="2"/>
+      <c r="A146" s="1"/>
       <c r="B146">
         <v>5568</v>
       </c>
@@ -1880,7 +1877,7 @@
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="2"/>
+      <c r="A147" s="1"/>
       <c r="B147">
         <v>2592</v>
       </c>
@@ -1890,7 +1887,7 @@
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="2"/>
+      <c r="A148" s="1"/>
       <c r="B148">
         <v>4075</v>
       </c>
@@ -1900,7 +1897,7 @@
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="2"/>
+      <c r="A149" s="1"/>
       <c r="B149">
         <v>7517</v>
       </c>
@@ -1910,7 +1907,7 @@
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="2"/>
+      <c r="A150" s="1"/>
       <c r="B150">
         <v>5448</v>
       </c>
@@ -1920,7 +1917,7 @@
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="2"/>
+      <c r="A151" s="1"/>
       <c r="B151">
         <v>6572</v>
       </c>
@@ -1930,7 +1927,7 @@
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="2"/>
+      <c r="A152" s="1"/>
       <c r="B152">
         <v>5238</v>
       </c>
@@ -1940,7 +1937,7 @@
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="2"/>
+      <c r="A153" s="1"/>
       <c r="B153">
         <v>2084</v>
       </c>
@@ -1950,7 +1947,7 @@
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="2"/>
+      <c r="A154" s="1"/>
       <c r="B154">
         <v>5411</v>
       </c>
@@ -1960,7 +1957,7 @@
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="2"/>
+      <c r="A155" s="1"/>
       <c r="B155">
         <v>5171</v>
       </c>
@@ -1970,7 +1967,7 @@
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="2"/>
+      <c r="A156" s="1"/>
       <c r="B156">
         <v>1862</v>
       </c>
@@ -1980,7 +1977,7 @@
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B157">
@@ -1992,7 +1989,7 @@
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="2"/>
+      <c r="A158" s="1"/>
       <c r="B158">
         <v>9001</v>
       </c>
@@ -2002,7 +1999,7 @@
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="2"/>
+      <c r="A159" s="1"/>
       <c r="B159">
         <v>9631</v>
       </c>
@@ -2012,7 +2009,7 @@
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="2"/>
+      <c r="A160" s="1"/>
       <c r="B160">
         <v>9812</v>
       </c>
@@ -2022,7 +2019,7 @@
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="2"/>
+      <c r="A161" s="1"/>
       <c r="B161">
         <v>5728</v>
       </c>
@@ -2032,7 +2029,7 @@
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="2"/>
+      <c r="A162" s="1"/>
       <c r="B162">
         <v>1618</v>
       </c>
@@ -2042,7 +2039,7 @@
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="2"/>
+      <c r="A163" s="1"/>
       <c r="B163">
         <v>7491</v>
       </c>
@@ -2052,7 +2049,7 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="2"/>
+      <c r="A164" s="1"/>
       <c r="B164">
         <v>5923</v>
       </c>
@@ -2062,7 +2059,7 @@
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="2"/>
+      <c r="A165" s="1"/>
       <c r="B165">
         <v>4265</v>
       </c>
@@ -2072,17 +2069,17 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="2"/>
+      <c r="A166" s="1"/>
       <c r="B166">
         <v>2166</v>
       </c>
       <c r="C166">
-        <f t="shared" ref="C166:C237" ca="1" si="4">IF(B166=$E$1,1,0)</f>
+        <f t="shared" ref="C166:C239" ca="1" si="4">IF(B166=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="2"/>
+      <c r="A167" s="1"/>
       <c r="B167">
         <v>9116</v>
       </c>
@@ -2092,7 +2089,7 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="2"/>
+      <c r="A168" s="1"/>
       <c r="B168">
         <v>9925</v>
       </c>
@@ -2102,7 +2099,7 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B169">
@@ -2114,7 +2111,7 @@
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="2"/>
+      <c r="A170" s="1"/>
       <c r="B170">
         <v>9931</v>
       </c>
@@ -2124,7 +2121,7 @@
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="2"/>
+      <c r="A171" s="1"/>
       <c r="B171">
         <v>4425</v>
       </c>
@@ -2134,7 +2131,7 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="2"/>
+      <c r="A172" s="1"/>
       <c r="B172">
         <v>1947</v>
       </c>
@@ -2144,7 +2141,7 @@
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="2"/>
+      <c r="A173" s="1"/>
       <c r="B173">
         <v>9696</v>
       </c>
@@ -2154,7 +2151,7 @@
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="2"/>
+      <c r="A174" s="1"/>
       <c r="B174">
         <v>1223</v>
       </c>
@@ -2164,7 +2161,7 @@
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="2"/>
+      <c r="A175" s="1"/>
       <c r="B175">
         <v>3946</v>
       </c>
@@ -2174,7 +2171,7 @@
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="2"/>
+      <c r="A176" s="1"/>
       <c r="B176">
         <v>8311</v>
       </c>
@@ -2184,7 +2181,7 @@
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="2"/>
+      <c r="A177" s="1"/>
       <c r="B177">
         <v>3134</v>
       </c>
@@ -2194,7 +2191,7 @@
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="2"/>
+      <c r="A178" s="1"/>
       <c r="B178">
         <v>9774</v>
       </c>
@@ -2204,7 +2201,7 @@
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="2"/>
+      <c r="A179" s="1"/>
       <c r="B179">
         <v>9711</v>
       </c>
@@ -2214,7 +2211,7 @@
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="2"/>
+      <c r="A180" s="1"/>
       <c r="B180">
         <v>3333</v>
       </c>
@@ -2224,7 +2221,7 @@
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="2"/>
+      <c r="A181" s="1"/>
       <c r="B181">
         <v>7290</v>
       </c>
@@ -2234,7 +2231,7 @@
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="2"/>
+      <c r="A182" s="1"/>
       <c r="B182">
         <v>5694</v>
       </c>
@@ -2244,7 +2241,7 @@
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="2"/>
+      <c r="A183" s="1"/>
       <c r="B183">
         <v>7035</v>
       </c>
@@ -2254,7 +2251,7 @@
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="2"/>
+      <c r="A184" s="1"/>
       <c r="B184">
         <v>6806</v>
       </c>
@@ -2264,7 +2261,7 @@
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="2"/>
+      <c r="A185" s="1"/>
       <c r="B185">
         <v>4515</v>
       </c>
@@ -2274,7 +2271,7 @@
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="2"/>
+      <c r="A186" s="1"/>
       <c r="B186">
         <v>9271</v>
       </c>
@@ -2284,7 +2281,7 @@
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="2"/>
+      <c r="A187" s="1"/>
       <c r="B187">
         <v>8769</v>
       </c>
@@ -2294,7 +2291,7 @@
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="2"/>
+      <c r="A188" s="1"/>
       <c r="B188">
         <v>4497</v>
       </c>
@@ -2304,7 +2301,7 @@
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="2"/>
+      <c r="A189" s="1"/>
       <c r="B189">
         <v>3940</v>
       </c>
@@ -2314,7 +2311,7 @@
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="2"/>
+      <c r="A190" s="1"/>
       <c r="B190">
         <v>8820</v>
       </c>
@@ -2324,7 +2321,7 @@
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="2"/>
+      <c r="A191" s="1"/>
       <c r="B191">
         <v>3218</v>
       </c>
@@ -2334,7 +2331,7 @@
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="2"/>
+      <c r="A192" s="1"/>
       <c r="B192">
         <v>4283</v>
       </c>
@@ -2344,7 +2341,7 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="2"/>
+      <c r="A193" s="1"/>
       <c r="B193">
         <v>7703</v>
       </c>
@@ -2354,7 +2351,7 @@
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="2"/>
+      <c r="A194" s="1"/>
       <c r="B194">
         <v>9182</v>
       </c>
@@ -2364,7 +2361,7 @@
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="2"/>
+      <c r="A195" s="1"/>
       <c r="B195">
         <v>5541</v>
       </c>
@@ -2374,7 +2371,7 @@
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="2"/>
+      <c r="A196" s="1"/>
       <c r="B196">
         <v>2386</v>
       </c>
@@ -2384,7 +2381,7 @@
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="2"/>
+      <c r="A197" s="1"/>
       <c r="B197">
         <v>9159</v>
       </c>
@@ -2394,7 +2391,7 @@
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B198">
@@ -2406,7 +2403,7 @@
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="2"/>
+      <c r="A199" s="1"/>
       <c r="B199">
         <v>4642</v>
       </c>
@@ -2416,7 +2413,7 @@
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="2"/>
+      <c r="A200" s="1"/>
       <c r="B200">
         <v>4488</v>
       </c>
@@ -2426,7 +2423,7 @@
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="2"/>
+      <c r="A201" s="1"/>
       <c r="B201">
         <v>9765</v>
       </c>
@@ -2436,7 +2433,7 @@
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="2"/>
+      <c r="A202" s="1"/>
       <c r="B202">
         <v>4954</v>
       </c>
@@ -2446,7 +2443,7 @@
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="2"/>
+      <c r="A203" s="1"/>
       <c r="B203">
         <v>5537</v>
       </c>
@@ -2456,7 +2453,7 @@
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="2"/>
+      <c r="A204" s="1"/>
       <c r="B204">
         <v>6431</v>
       </c>
@@ -2466,7 +2463,7 @@
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="2"/>
+      <c r="A205" s="1"/>
       <c r="B205">
         <v>7193</v>
       </c>
@@ -2476,7 +2473,7 @@
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="2"/>
+      <c r="A206" s="1"/>
       <c r="B206">
         <v>5621</v>
       </c>
@@ -2486,7 +2483,7 @@
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="2"/>
+      <c r="A207" s="1"/>
       <c r="B207">
         <v>5847</v>
       </c>
@@ -2496,7 +2493,7 @@
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="2"/>
+      <c r="A208" s="1"/>
       <c r="B208">
         <v>4769</v>
       </c>
@@ -2506,7 +2503,7 @@
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="2"/>
+      <c r="A209" s="1"/>
       <c r="B209">
         <v>9930</v>
       </c>
@@ -2516,7 +2513,7 @@
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="2"/>
+      <c r="A210" s="1"/>
       <c r="B210">
         <v>3226</v>
       </c>
@@ -2526,7 +2523,7 @@
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="2"/>
+      <c r="A211" s="1"/>
       <c r="B211">
         <v>6861</v>
       </c>
@@ -2536,7 +2533,7 @@
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="2"/>
+      <c r="A212" s="1"/>
       <c r="B212">
         <v>2205</v>
       </c>
@@ -2546,7 +2543,7 @@
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="2"/>
+      <c r="A213" s="1"/>
       <c r="B213">
         <v>4372</v>
       </c>
@@ -2556,7 +2553,7 @@
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="2"/>
+      <c r="A214" s="1"/>
       <c r="B214">
         <v>4463</v>
       </c>
@@ -2566,7 +2563,7 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="2"/>
+      <c r="A215" s="1"/>
       <c r="B215">
         <v>1668</v>
       </c>
@@ -2576,7 +2573,7 @@
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="2"/>
+      <c r="A216" s="1"/>
       <c r="B216">
         <v>2137</v>
       </c>
@@ -2586,7 +2583,7 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B217">
@@ -2598,7 +2595,7 @@
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="2"/>
+      <c r="A218" s="1"/>
       <c r="B218">
         <v>3951</v>
       </c>
@@ -2608,7 +2605,7 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="2"/>
+      <c r="A219" s="1"/>
       <c r="B219">
         <v>6409</v>
       </c>
@@ -2618,7 +2615,7 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="2"/>
+      <c r="A220" s="1"/>
       <c r="B220">
         <v>7343</v>
       </c>
@@ -2628,7 +2625,7 @@
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="2"/>
+      <c r="A221" s="1"/>
       <c r="B221">
         <v>7060</v>
       </c>
@@ -2638,7 +2635,7 @@
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B222">
@@ -2650,7 +2647,7 @@
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="2"/>
+      <c r="A223" s="1"/>
       <c r="B223">
         <v>7560</v>
       </c>
@@ -2660,7 +2657,7 @@
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="2"/>
+      <c r="A224" s="1"/>
       <c r="B224">
         <v>9002</v>
       </c>
@@ -2670,7 +2667,7 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="2"/>
+      <c r="A225" s="1"/>
       <c r="B225">
         <v>7432</v>
       </c>
@@ -2680,7 +2677,7 @@
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="2"/>
+      <c r="A226" s="1"/>
       <c r="B226">
         <v>1954</v>
       </c>
@@ -2690,7 +2687,7 @@
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="2"/>
+      <c r="A227" s="1"/>
       <c r="B227">
         <v>2048</v>
       </c>
@@ -2700,7 +2697,7 @@
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B228">
@@ -2712,7 +2709,7 @@
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="2"/>
+      <c r="A229" s="1"/>
       <c r="B229">
         <v>8861</v>
       </c>
@@ -2722,7 +2719,7 @@
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="2"/>
+      <c r="A230" s="1"/>
       <c r="B230">
         <v>1516</v>
       </c>
@@ -2732,7 +2729,7 @@
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="2"/>
+      <c r="A231" s="1"/>
       <c r="B231">
         <v>9062</v>
       </c>
@@ -2742,7 +2739,7 @@
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="2"/>
+      <c r="A232" s="1"/>
       <c r="B232">
         <v>5164</v>
       </c>
@@ -2754,7 +2751,7 @@
     <row r="233" spans="1:3">
       <c r="A233" s="1"/>
       <c r="B233">
-        <v>2354</v>
+        <v>2030</v>
       </c>
       <c r="C233">
         <f ca="1">IF(B233=$E$1,1,0)</f>
@@ -2762,31 +2759,31 @@
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="1"/>
+      <c r="B234">
+        <v>7649</v>
+      </c>
+      <c r="C234">
+        <f ca="1">IF(B234=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1"/>
+      <c r="B235">
+        <v>2354</v>
+      </c>
+      <c r="C235">
+        <f ca="1">IF(B235=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B234">
+      <c r="B236">
         <v>8403</v>
-      </c>
-      <c r="C234">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="2"/>
-      <c r="B235">
-        <v>3185</v>
-      </c>
-      <c r="C235">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="2"/>
-      <c r="B236">
-        <v>9914</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="4"/>
@@ -2794,9 +2791,9 @@
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="2"/>
+      <c r="A237" s="1"/>
       <c r="B237">
-        <v>6011</v>
+        <v>3185</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="4"/>
@@ -2804,39 +2801,39 @@
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="2"/>
+      <c r="A238" s="1"/>
       <c r="B238">
+        <v>9914</v>
+      </c>
+      <c r="C238">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1"/>
+      <c r="B239">
+        <v>6011</v>
+      </c>
+      <c r="C239">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1"/>
+      <c r="B240">
         <v>6037</v>
       </c>
-      <c r="C238">
-        <f t="shared" ref="C238:C301" ca="1" si="5">IF(B238=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="2"/>
-      <c r="B239">
+      <c r="C240">
+        <f t="shared" ref="C240:C303" ca="1" si="5">IF(B240=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1"/>
+      <c r="B241">
         <v>2809</v>
-      </c>
-      <c r="C239">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="2"/>
-      <c r="B240">
-        <v>7297</v>
-      </c>
-      <c r="C240">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="2"/>
-      <c r="B241">
-        <v>5242</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="5"/>
@@ -2844,9 +2841,9 @@
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="2"/>
+      <c r="A242" s="1"/>
       <c r="B242">
-        <v>1379</v>
+        <v>7297</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="5"/>
@@ -2854,9 +2851,9 @@
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="2"/>
+      <c r="A243" s="1"/>
       <c r="B243">
-        <v>2401</v>
+        <v>5242</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="5"/>
@@ -2864,9 +2861,9 @@
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="2"/>
+      <c r="A244" s="1"/>
       <c r="B244">
-        <v>5421</v>
+        <v>1379</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="5"/>
@@ -2874,9 +2871,9 @@
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="2"/>
+      <c r="A245" s="1"/>
       <c r="B245">
-        <v>7301</v>
+        <v>2401</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="5"/>
@@ -2884,9 +2881,9 @@
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="2"/>
+      <c r="A246" s="1"/>
       <c r="B246">
-        <v>2000</v>
+        <v>5421</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="5"/>
@@ -2894,9 +2891,9 @@
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="2"/>
+      <c r="A247" s="1"/>
       <c r="B247">
-        <v>4147</v>
+        <v>7301</v>
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="5"/>
@@ -2904,9 +2901,9 @@
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="2"/>
+      <c r="A248" s="1"/>
       <c r="B248">
-        <v>1953</v>
+        <v>2000</v>
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="5"/>
@@ -2914,9 +2911,9 @@
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="2"/>
+      <c r="A249" s="1"/>
       <c r="B249">
-        <v>3956</v>
+        <v>4147</v>
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="5"/>
@@ -2924,9 +2921,9 @@
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="2"/>
+      <c r="A250" s="1"/>
       <c r="B250">
-        <v>5463</v>
+        <v>1953</v>
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="5"/>
@@ -2934,12 +2931,20 @@
       </c>
     </row>
     <row r="251" spans="1:3">
+      <c r="A251" s="1"/>
+      <c r="B251">
+        <v>3956</v>
+      </c>
       <c r="C251">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3">
+      <c r="A252" s="1"/>
+      <c r="B252">
+        <v>5463</v>
+      </c>
       <c r="C252">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
@@ -3241,19 +3246,19 @@
     </row>
     <row r="302" spans="3:3">
       <c r="C302">
-        <f t="shared" ref="C302:C365" ca="1" si="6">IF(B302=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="3:3">
       <c r="C303">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="3:3">
       <c r="C304">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="C304:C367" ca="1" si="6">IF(B304=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3625,19 +3630,19 @@
     </row>
     <row r="366" spans="3:3">
       <c r="C366">
-        <f t="shared" ref="C366:C429" ca="1" si="7">IF(B366=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="3:3">
       <c r="C367">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="368" spans="3:3">
       <c r="C368">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="C368:C431" ca="1" si="7">IF(B368=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4009,19 +4014,19 @@
     </row>
     <row r="430" spans="3:3">
       <c r="C430">
-        <f t="shared" ref="C430:C493" ca="1" si="8">IF(B430=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="431" spans="3:3">
       <c r="C431">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="432" spans="3:3">
       <c r="C432">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="C432:C495" ca="1" si="8">IF(B432=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4393,19 +4398,19 @@
     </row>
     <row r="494" spans="3:3">
       <c r="C494">
-        <f t="shared" ref="C494:C557" ca="1" si="9">IF(B494=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="495" spans="3:3">
       <c r="C495">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="496" spans="3:3">
       <c r="C496">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="C496:C559" ca="1" si="9">IF(B496=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4777,19 +4782,19 @@
     </row>
     <row r="558" spans="3:3">
       <c r="C558">
-        <f t="shared" ref="C558:C621" ca="1" si="10">IF(B558=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="559" spans="3:3">
       <c r="C559">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="560" spans="3:3">
       <c r="C560">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="C560:C623" ca="1" si="10">IF(B560=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5161,19 +5166,19 @@
     </row>
     <row r="622" spans="3:3">
       <c r="C622">
-        <f t="shared" ref="C622:C685" ca="1" si="11">IF(B622=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="623" spans="3:3">
       <c r="C623">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="624" spans="3:3">
       <c r="C624">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="C624:C687" ca="1" si="11">IF(B624=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5545,19 +5550,19 @@
     </row>
     <row r="686" spans="3:3">
       <c r="C686">
-        <f t="shared" ref="C686:C749" ca="1" si="12">IF(B686=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="687" spans="3:3">
       <c r="C687">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="688" spans="3:3">
       <c r="C688">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="C688:C751" ca="1" si="12">IF(B688=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5929,19 +5934,19 @@
     </row>
     <row r="750" spans="3:3">
       <c r="C750">
-        <f t="shared" ref="C750:C813" ca="1" si="13">IF(B750=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="751" spans="3:3">
       <c r="C751">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="752" spans="3:3">
       <c r="C752">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="C752:C815" ca="1" si="13">IF(B752=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6313,19 +6318,19 @@
     </row>
     <row r="814" spans="3:3">
       <c r="C814">
-        <f t="shared" ref="C814:C877" ca="1" si="14">IF(B814=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="815" spans="3:3">
       <c r="C815">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="816" spans="3:3">
       <c r="C816">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="C816:C879" ca="1" si="14">IF(B816=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6697,19 +6702,19 @@
     </row>
     <row r="878" spans="3:3">
       <c r="C878">
-        <f t="shared" ref="C878:C892" ca="1" si="15">IF(B878=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="879" spans="3:3">
       <c r="C879">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="880" spans="3:3">
       <c r="C880">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="C880:C894" ca="1" si="15">IF(B880=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6785,11 +6790,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="893" spans="3:3">
+      <c r="C893">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="3:3">
+      <c r="C894">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A222:A227"/>
-    <mergeCell ref="A228:A232"/>
-    <mergeCell ref="A234:A250"/>
+    <mergeCell ref="A236:A252"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
@@ -6800,6 +6816,7 @@
     <mergeCell ref="A169:A197"/>
     <mergeCell ref="A157:A168"/>
     <mergeCell ref="A119:A156"/>
+    <mergeCell ref="A228:A235"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>лр1</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>лр14</t>
+  </si>
+  <si>
+    <t>лр13</t>
   </si>
 </sst>
 </file>
@@ -395,11 +398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E894"/>
+  <dimension ref="A1:E896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H229" sqref="H229"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F231" sqref="F231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -411,7 +414,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>9389</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2074,7 +2077,7 @@
         <v>2166</v>
       </c>
       <c r="C166">
-        <f t="shared" ref="C166:C239" ca="1" si="4">IF(B166=$E$1,1,0)</f>
+        <f t="shared" ref="C166:C241" ca="1" si="4">IF(B166=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2724,7 +2727,7 @@
         <v>1516</v>
       </c>
       <c r="C230">
-        <f ca="1">IF(B230=$E$1,1,0)</f>
+        <f t="shared" ref="C230:C237" ca="1" si="5">IF(B230=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2734,7 +2737,7 @@
         <v>9062</v>
       </c>
       <c r="C231">
-        <f ca="1">IF(B231=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2744,7 +2747,7 @@
         <v>5164</v>
       </c>
       <c r="C232">
-        <f ca="1">IF(B232=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2754,7 +2757,7 @@
         <v>2030</v>
       </c>
       <c r="C233">
-        <f ca="1">IF(B233=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2764,7 +2767,7 @@
         <v>7649</v>
       </c>
       <c r="C234">
-        <f ca="1">IF(B234=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2774,36 +2777,38 @@
         <v>2354</v>
       </c>
       <c r="C235">
-        <f ca="1">IF(B235=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B236">
-        <v>8403</v>
+        <v>9701</v>
       </c>
       <c r="C236">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237">
-        <v>3185</v>
+        <v>6732</v>
       </c>
       <c r="C237">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="1"/>
+      <c r="A238" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B238">
-        <v>9914</v>
+        <v>8403</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="4"/>
@@ -2813,7 +2818,7 @@
     <row r="239" spans="1:3">
       <c r="A239" s="1"/>
       <c r="B239">
-        <v>6011</v>
+        <v>3185</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="4"/>
@@ -2823,442 +2828,450 @@
     <row r="240" spans="1:3">
       <c r="A240" s="1"/>
       <c r="B240">
-        <v>6037</v>
+        <v>9914</v>
       </c>
       <c r="C240">
-        <f t="shared" ref="C240:C303" ca="1" si="5">IF(B240=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241">
-        <v>2809</v>
+        <v>6011</v>
       </c>
       <c r="C241">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1"/>
       <c r="B242">
-        <v>7297</v>
+        <v>6037</v>
       </c>
       <c r="C242">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="C242:C305" ca="1" si="6">IF(B242=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243">
-        <v>5242</v>
+        <v>2809</v>
       </c>
       <c r="C243">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244">
-        <v>1379</v>
+        <v>7297</v>
       </c>
       <c r="C244">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245">
-        <v>2401</v>
+        <v>5242</v>
       </c>
       <c r="C245">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246">
-        <v>5421</v>
+        <v>1379</v>
       </c>
       <c r="C246">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247">
-        <v>7301</v>
+        <v>2401</v>
       </c>
       <c r="C247">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248">
-        <v>2000</v>
+        <v>5421</v>
       </c>
       <c r="C248">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249">
-        <v>4147</v>
+        <v>7301</v>
       </c>
       <c r="C249">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250">
-        <v>1953</v>
+        <v>2000</v>
       </c>
       <c r="C250">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251">
-        <v>3956</v>
+        <v>4147</v>
       </c>
       <c r="C251">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252">
+        <v>1953</v>
+      </c>
+      <c r="C252">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1"/>
+      <c r="B253">
+        <v>3956</v>
+      </c>
+      <c r="C253">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1"/>
+      <c r="B254">
         <v>5463</v>
       </c>
-      <c r="C252">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="C253">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
       <c r="C254">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="C255">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="C256">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="3:3">
       <c r="C257">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="3:3">
       <c r="C258">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="3:3">
       <c r="C259">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="3:3">
       <c r="C260">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="3:3">
       <c r="C261">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="3:3">
       <c r="C262">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="3:3">
       <c r="C263">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="3:3">
       <c r="C264">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="3:3">
       <c r="C265">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="3:3">
       <c r="C266">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="3:3">
       <c r="C267">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="3:3">
       <c r="C268">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="3:3">
       <c r="C269">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="3:3">
       <c r="C270">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="3:3">
       <c r="C271">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="3:3">
       <c r="C272">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="3:3">
       <c r="C273">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="3:3">
       <c r="C274">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="3:3">
       <c r="C275">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="3:3">
       <c r="C276">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="3:3">
       <c r="C277">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="3:3">
       <c r="C278">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="3:3">
       <c r="C279">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="3:3">
       <c r="C280">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="3:3">
       <c r="C281">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="3:3">
       <c r="C282">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="3:3">
       <c r="C283">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="3:3">
       <c r="C284">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="3:3">
       <c r="C285">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="3:3">
       <c r="C286">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="3:3">
       <c r="C287">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="3:3">
       <c r="C288">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="3:3">
       <c r="C289">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="3:3">
       <c r="C290">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="3:3">
       <c r="C291">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="3:3">
       <c r="C292">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="3:3">
       <c r="C293">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="3:3">
       <c r="C294">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="3:3">
       <c r="C295">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="3:3">
       <c r="C296">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="3:3">
       <c r="C297">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="3:3">
       <c r="C298">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="3:3">
       <c r="C299">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="3:3">
       <c r="C300">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="3:3">
       <c r="C301">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="3:3">
       <c r="C302">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="3:3">
       <c r="C303">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="3:3">
       <c r="C304">
-        <f t="shared" ref="C304:C367" ca="1" si="6">IF(B304=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3270,379 +3283,379 @@
     </row>
     <row r="306" spans="3:3">
       <c r="C306">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="C306:C369" ca="1" si="7">IF(B306=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="3:3">
       <c r="C307">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="3:3">
       <c r="C308">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="3:3">
       <c r="C309">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="3:3">
       <c r="C310">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="3:3">
       <c r="C311">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="3:3">
       <c r="C312">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="3:3">
       <c r="C313">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="3:3">
       <c r="C314">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="3:3">
       <c r="C315">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="3:3">
       <c r="C316">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="317" spans="3:3">
       <c r="C317">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="3:3">
       <c r="C318">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="319" spans="3:3">
       <c r="C319">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="3:3">
       <c r="C320">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="321" spans="3:3">
       <c r="C321">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="3:3">
       <c r="C322">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="3:3">
       <c r="C323">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="3:3">
       <c r="C324">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="325" spans="3:3">
       <c r="C325">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="3:3">
       <c r="C326">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="3:3">
       <c r="C327">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="3:3">
       <c r="C328">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="3:3">
       <c r="C329">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="330" spans="3:3">
       <c r="C330">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="3:3">
       <c r="C331">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="3:3">
       <c r="C332">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="333" spans="3:3">
       <c r="C333">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="334" spans="3:3">
       <c r="C334">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="3:3">
       <c r="C335">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="3:3">
       <c r="C336">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="337" spans="3:3">
       <c r="C337">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="338" spans="3:3">
       <c r="C338">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="3:3">
       <c r="C339">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="3:3">
       <c r="C340">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="341" spans="3:3">
       <c r="C341">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="3:3">
       <c r="C342">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="3:3">
       <c r="C343">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="3:3">
       <c r="C344">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="3:3">
       <c r="C345">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="346" spans="3:3">
       <c r="C346">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="347" spans="3:3">
       <c r="C347">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="348" spans="3:3">
       <c r="C348">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="3:3">
       <c r="C349">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="3:3">
       <c r="C350">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="3:3">
       <c r="C351">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="3:3">
       <c r="C352">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="3:3">
       <c r="C353">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="3:3">
       <c r="C354">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="3:3">
       <c r="C355">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="3:3">
       <c r="C356">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="3:3">
       <c r="C357">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="3:3">
       <c r="C358">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="359" spans="3:3">
       <c r="C359">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="3:3">
       <c r="C360">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="3:3">
       <c r="C361">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="362" spans="3:3">
       <c r="C362">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="3:3">
       <c r="C363">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="3:3">
       <c r="C364">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="3:3">
       <c r="C365">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="3:3">
       <c r="C366">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="3:3">
       <c r="C367">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="368" spans="3:3">
       <c r="C368">
-        <f t="shared" ref="C368:C431" ca="1" si="7">IF(B368=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3654,379 +3667,379 @@
     </row>
     <row r="370" spans="3:3">
       <c r="C370">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="C370:C433" ca="1" si="8">IF(B370=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="3:3">
       <c r="C371">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="3:3">
       <c r="C372">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="3:3">
       <c r="C373">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="3:3">
       <c r="C374">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="375" spans="3:3">
       <c r="C375">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="3:3">
       <c r="C376">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="377" spans="3:3">
       <c r="C377">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="3:3">
       <c r="C378">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="3:3">
       <c r="C379">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="380" spans="3:3">
       <c r="C380">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="381" spans="3:3">
       <c r="C381">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="382" spans="3:3">
       <c r="C382">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="3:3">
       <c r="C383">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="3:3">
       <c r="C384">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="3:3">
       <c r="C385">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="3:3">
       <c r="C386">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="3:3">
       <c r="C387">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="3:3">
       <c r="C388">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="3:3">
       <c r="C389">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="3:3">
       <c r="C390">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="3:3">
       <c r="C391">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="392" spans="3:3">
       <c r="C392">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="3:3">
       <c r="C393">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="3:3">
       <c r="C394">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="3:3">
       <c r="C395">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="3:3">
       <c r="C396">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="3:3">
       <c r="C397">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="3:3">
       <c r="C398">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="3:3">
       <c r="C399">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="400" spans="3:3">
       <c r="C400">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="3:3">
       <c r="C401">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="3:3">
       <c r="C402">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="3:3">
       <c r="C403">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="3:3">
       <c r="C404">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="3:3">
       <c r="C405">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="406" spans="3:3">
       <c r="C406">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="3:3">
       <c r="C407">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="3:3">
       <c r="C408">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="3:3">
       <c r="C409">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="410" spans="3:3">
       <c r="C410">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="3:3">
       <c r="C411">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="412" spans="3:3">
       <c r="C412">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="413" spans="3:3">
       <c r="C413">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="414" spans="3:3">
       <c r="C414">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="415" spans="3:3">
       <c r="C415">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="416" spans="3:3">
       <c r="C416">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="417" spans="3:3">
       <c r="C417">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="418" spans="3:3">
       <c r="C418">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="3:3">
       <c r="C419">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="420" spans="3:3">
       <c r="C420">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="421" spans="3:3">
       <c r="C421">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="422" spans="3:3">
       <c r="C422">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="423" spans="3:3">
       <c r="C423">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="424" spans="3:3">
       <c r="C424">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="425" spans="3:3">
       <c r="C425">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="426" spans="3:3">
       <c r="C426">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="427" spans="3:3">
       <c r="C427">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="428" spans="3:3">
       <c r="C428">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="429" spans="3:3">
       <c r="C429">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="3:3">
       <c r="C430">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="431" spans="3:3">
       <c r="C431">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="432" spans="3:3">
       <c r="C432">
-        <f t="shared" ref="C432:C495" ca="1" si="8">IF(B432=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4038,379 +4051,379 @@
     </row>
     <row r="434" spans="3:3">
       <c r="C434">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="C434:C497" ca="1" si="9">IF(B434=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="435" spans="3:3">
       <c r="C435">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="436" spans="3:3">
       <c r="C436">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="437" spans="3:3">
       <c r="C437">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="438" spans="3:3">
       <c r="C438">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="439" spans="3:3">
       <c r="C439">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="440" spans="3:3">
       <c r="C440">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="441" spans="3:3">
       <c r="C441">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="442" spans="3:3">
       <c r="C442">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="443" spans="3:3">
       <c r="C443">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="444" spans="3:3">
       <c r="C444">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="445" spans="3:3">
       <c r="C445">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="446" spans="3:3">
       <c r="C446">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="447" spans="3:3">
       <c r="C447">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="448" spans="3:3">
       <c r="C448">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="449" spans="3:3">
       <c r="C449">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="450" spans="3:3">
       <c r="C450">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="451" spans="3:3">
       <c r="C451">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="452" spans="3:3">
       <c r="C452">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="3:3">
       <c r="C453">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="454" spans="3:3">
       <c r="C454">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="455" spans="3:3">
       <c r="C455">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="456" spans="3:3">
       <c r="C456">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="457" spans="3:3">
       <c r="C457">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="458" spans="3:3">
       <c r="C458">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="459" spans="3:3">
       <c r="C459">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="460" spans="3:3">
       <c r="C460">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="461" spans="3:3">
       <c r="C461">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="462" spans="3:3">
       <c r="C462">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="463" spans="3:3">
       <c r="C463">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="464" spans="3:3">
       <c r="C464">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="465" spans="3:3">
       <c r="C465">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="466" spans="3:3">
       <c r="C466">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="467" spans="3:3">
       <c r="C467">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="468" spans="3:3">
       <c r="C468">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="469" spans="3:3">
       <c r="C469">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="470" spans="3:3">
       <c r="C470">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="3:3">
       <c r="C471">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="472" spans="3:3">
       <c r="C472">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="473" spans="3:3">
       <c r="C473">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="474" spans="3:3">
       <c r="C474">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="475" spans="3:3">
       <c r="C475">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="476" spans="3:3">
       <c r="C476">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="477" spans="3:3">
       <c r="C477">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="478" spans="3:3">
       <c r="C478">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="479" spans="3:3">
       <c r="C479">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="480" spans="3:3">
       <c r="C480">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="481" spans="3:3">
       <c r="C481">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="482" spans="3:3">
       <c r="C482">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="483" spans="3:3">
       <c r="C483">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="484" spans="3:3">
       <c r="C484">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="485" spans="3:3">
       <c r="C485">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="486" spans="3:3">
       <c r="C486">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="487" spans="3:3">
       <c r="C487">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="488" spans="3:3">
       <c r="C488">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="489" spans="3:3">
       <c r="C489">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="490" spans="3:3">
       <c r="C490">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="491" spans="3:3">
       <c r="C491">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="492" spans="3:3">
       <c r="C492">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="493" spans="3:3">
       <c r="C493">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="494" spans="3:3">
       <c r="C494">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="495" spans="3:3">
       <c r="C495">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="496" spans="3:3">
       <c r="C496">
-        <f t="shared" ref="C496:C559" ca="1" si="9">IF(B496=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4422,379 +4435,379 @@
     </row>
     <row r="498" spans="3:3">
       <c r="C498">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="C498:C561" ca="1" si="10">IF(B498=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="499" spans="3:3">
       <c r="C499">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="500" spans="3:3">
       <c r="C500">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="501" spans="3:3">
       <c r="C501">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="502" spans="3:3">
       <c r="C502">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="503" spans="3:3">
       <c r="C503">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="504" spans="3:3">
       <c r="C504">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="505" spans="3:3">
       <c r="C505">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="506" spans="3:3">
       <c r="C506">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="507" spans="3:3">
       <c r="C507">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="508" spans="3:3">
       <c r="C508">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="509" spans="3:3">
       <c r="C509">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="510" spans="3:3">
       <c r="C510">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="511" spans="3:3">
       <c r="C511">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="512" spans="3:3">
       <c r="C512">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="513" spans="3:3">
       <c r="C513">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="514" spans="3:3">
       <c r="C514">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="515" spans="3:3">
       <c r="C515">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="516" spans="3:3">
       <c r="C516">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="517" spans="3:3">
       <c r="C517">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="518" spans="3:3">
       <c r="C518">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="519" spans="3:3">
       <c r="C519">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="520" spans="3:3">
       <c r="C520">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="521" spans="3:3">
       <c r="C521">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="522" spans="3:3">
       <c r="C522">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="523" spans="3:3">
       <c r="C523">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="524" spans="3:3">
       <c r="C524">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="525" spans="3:3">
       <c r="C525">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="526" spans="3:3">
       <c r="C526">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="527" spans="3:3">
       <c r="C527">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="528" spans="3:3">
       <c r="C528">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="529" spans="3:3">
       <c r="C529">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="530" spans="3:3">
       <c r="C530">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="531" spans="3:3">
       <c r="C531">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="532" spans="3:3">
       <c r="C532">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="533" spans="3:3">
       <c r="C533">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="534" spans="3:3">
       <c r="C534">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="535" spans="3:3">
       <c r="C535">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="536" spans="3:3">
       <c r="C536">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="537" spans="3:3">
       <c r="C537">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="538" spans="3:3">
       <c r="C538">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="539" spans="3:3">
       <c r="C539">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="540" spans="3:3">
       <c r="C540">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="541" spans="3:3">
       <c r="C541">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="542" spans="3:3">
       <c r="C542">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="543" spans="3:3">
       <c r="C543">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="544" spans="3:3">
       <c r="C544">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="545" spans="3:3">
       <c r="C545">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="546" spans="3:3">
       <c r="C546">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="547" spans="3:3">
       <c r="C547">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="548" spans="3:3">
       <c r="C548">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="549" spans="3:3">
       <c r="C549">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="550" spans="3:3">
       <c r="C550">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="551" spans="3:3">
       <c r="C551">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="552" spans="3:3">
       <c r="C552">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="553" spans="3:3">
       <c r="C553">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="554" spans="3:3">
       <c r="C554">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="555" spans="3:3">
       <c r="C555">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="556" spans="3:3">
       <c r="C556">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="557" spans="3:3">
       <c r="C557">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="558" spans="3:3">
       <c r="C558">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="559" spans="3:3">
       <c r="C559">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="560" spans="3:3">
       <c r="C560">
-        <f t="shared" ref="C560:C623" ca="1" si="10">IF(B560=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4806,379 +4819,379 @@
     </row>
     <row r="562" spans="3:3">
       <c r="C562">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="C562:C625" ca="1" si="11">IF(B562=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="563" spans="3:3">
       <c r="C563">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="564" spans="3:3">
       <c r="C564">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="565" spans="3:3">
       <c r="C565">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="566" spans="3:3">
       <c r="C566">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="567" spans="3:3">
       <c r="C567">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="568" spans="3:3">
       <c r="C568">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="569" spans="3:3">
       <c r="C569">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="570" spans="3:3">
       <c r="C570">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="571" spans="3:3">
       <c r="C571">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="572" spans="3:3">
       <c r="C572">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="573" spans="3:3">
       <c r="C573">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="574" spans="3:3">
       <c r="C574">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="575" spans="3:3">
       <c r="C575">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="576" spans="3:3">
       <c r="C576">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="577" spans="3:3">
       <c r="C577">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="578" spans="3:3">
       <c r="C578">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="579" spans="3:3">
       <c r="C579">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="580" spans="3:3">
       <c r="C580">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="581" spans="3:3">
       <c r="C581">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="582" spans="3:3">
       <c r="C582">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="583" spans="3:3">
       <c r="C583">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="584" spans="3:3">
       <c r="C584">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="585" spans="3:3">
       <c r="C585">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="586" spans="3:3">
       <c r="C586">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="587" spans="3:3">
       <c r="C587">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="588" spans="3:3">
       <c r="C588">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="589" spans="3:3">
       <c r="C589">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="590" spans="3:3">
       <c r="C590">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="591" spans="3:3">
       <c r="C591">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="592" spans="3:3">
       <c r="C592">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="593" spans="3:3">
       <c r="C593">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="594" spans="3:3">
       <c r="C594">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="595" spans="3:3">
       <c r="C595">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="596" spans="3:3">
       <c r="C596">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="597" spans="3:3">
       <c r="C597">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="598" spans="3:3">
       <c r="C598">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="599" spans="3:3">
       <c r="C599">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="600" spans="3:3">
       <c r="C600">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="601" spans="3:3">
       <c r="C601">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="602" spans="3:3">
       <c r="C602">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="603" spans="3:3">
       <c r="C603">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="604" spans="3:3">
       <c r="C604">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="605" spans="3:3">
       <c r="C605">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="606" spans="3:3">
       <c r="C606">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="607" spans="3:3">
       <c r="C607">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="608" spans="3:3">
       <c r="C608">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="609" spans="3:3">
       <c r="C609">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="610" spans="3:3">
       <c r="C610">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="611" spans="3:3">
       <c r="C611">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="612" spans="3:3">
       <c r="C612">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="613" spans="3:3">
       <c r="C613">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="614" spans="3:3">
       <c r="C614">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="615" spans="3:3">
       <c r="C615">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="616" spans="3:3">
       <c r="C616">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="617" spans="3:3">
       <c r="C617">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="618" spans="3:3">
       <c r="C618">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="619" spans="3:3">
       <c r="C619">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="620" spans="3:3">
       <c r="C620">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="621" spans="3:3">
       <c r="C621">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="622" spans="3:3">
       <c r="C622">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="623" spans="3:3">
       <c r="C623">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="624" spans="3:3">
       <c r="C624">
-        <f t="shared" ref="C624:C687" ca="1" si="11">IF(B624=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5190,379 +5203,379 @@
     </row>
     <row r="626" spans="3:3">
       <c r="C626">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="C626:C689" ca="1" si="12">IF(B626=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="627" spans="3:3">
       <c r="C627">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="628" spans="3:3">
       <c r="C628">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="629" spans="3:3">
       <c r="C629">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="630" spans="3:3">
       <c r="C630">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="631" spans="3:3">
       <c r="C631">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="632" spans="3:3">
       <c r="C632">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="633" spans="3:3">
       <c r="C633">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="634" spans="3:3">
       <c r="C634">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="635" spans="3:3">
       <c r="C635">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="636" spans="3:3">
       <c r="C636">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="637" spans="3:3">
       <c r="C637">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="638" spans="3:3">
       <c r="C638">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="639" spans="3:3">
       <c r="C639">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="640" spans="3:3">
       <c r="C640">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="641" spans="3:3">
       <c r="C641">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="642" spans="3:3">
       <c r="C642">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="643" spans="3:3">
       <c r="C643">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="644" spans="3:3">
       <c r="C644">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="645" spans="3:3">
       <c r="C645">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="646" spans="3:3">
       <c r="C646">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="647" spans="3:3">
       <c r="C647">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="648" spans="3:3">
       <c r="C648">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="649" spans="3:3">
       <c r="C649">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="650" spans="3:3">
       <c r="C650">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="651" spans="3:3">
       <c r="C651">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="652" spans="3:3">
       <c r="C652">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="653" spans="3:3">
       <c r="C653">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="654" spans="3:3">
       <c r="C654">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="655" spans="3:3">
       <c r="C655">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="656" spans="3:3">
       <c r="C656">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="657" spans="3:3">
       <c r="C657">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="658" spans="3:3">
       <c r="C658">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="659" spans="3:3">
       <c r="C659">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="660" spans="3:3">
       <c r="C660">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="661" spans="3:3">
       <c r="C661">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="662" spans="3:3">
       <c r="C662">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="663" spans="3:3">
       <c r="C663">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="664" spans="3:3">
       <c r="C664">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="665" spans="3:3">
       <c r="C665">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="666" spans="3:3">
       <c r="C666">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="667" spans="3:3">
       <c r="C667">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="668" spans="3:3">
       <c r="C668">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="669" spans="3:3">
       <c r="C669">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="670" spans="3:3">
       <c r="C670">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="671" spans="3:3">
       <c r="C671">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="672" spans="3:3">
       <c r="C672">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="673" spans="3:3">
       <c r="C673">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="674" spans="3:3">
       <c r="C674">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="675" spans="3:3">
       <c r="C675">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="676" spans="3:3">
       <c r="C676">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="677" spans="3:3">
       <c r="C677">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="678" spans="3:3">
       <c r="C678">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="679" spans="3:3">
       <c r="C679">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="680" spans="3:3">
       <c r="C680">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="681" spans="3:3">
       <c r="C681">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="682" spans="3:3">
       <c r="C682">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="683" spans="3:3">
       <c r="C683">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="684" spans="3:3">
       <c r="C684">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="685" spans="3:3">
       <c r="C685">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="686" spans="3:3">
       <c r="C686">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="687" spans="3:3">
       <c r="C687">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="688" spans="3:3">
       <c r="C688">
-        <f t="shared" ref="C688:C751" ca="1" si="12">IF(B688=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5574,379 +5587,379 @@
     </row>
     <row r="690" spans="3:3">
       <c r="C690">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="C690:C753" ca="1" si="13">IF(B690=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="691" spans="3:3">
       <c r="C691">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="692" spans="3:3">
       <c r="C692">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="693" spans="3:3">
       <c r="C693">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="694" spans="3:3">
       <c r="C694">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="695" spans="3:3">
       <c r="C695">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="696" spans="3:3">
       <c r="C696">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="697" spans="3:3">
       <c r="C697">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="698" spans="3:3">
       <c r="C698">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="699" spans="3:3">
       <c r="C699">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="700" spans="3:3">
       <c r="C700">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="701" spans="3:3">
       <c r="C701">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="702" spans="3:3">
       <c r="C702">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="703" spans="3:3">
       <c r="C703">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="704" spans="3:3">
       <c r="C704">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="705" spans="3:3">
       <c r="C705">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="706" spans="3:3">
       <c r="C706">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="707" spans="3:3">
       <c r="C707">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="708" spans="3:3">
       <c r="C708">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="709" spans="3:3">
       <c r="C709">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="710" spans="3:3">
       <c r="C710">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="711" spans="3:3">
       <c r="C711">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="712" spans="3:3">
       <c r="C712">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="713" spans="3:3">
       <c r="C713">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="714" spans="3:3">
       <c r="C714">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="715" spans="3:3">
       <c r="C715">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="716" spans="3:3">
       <c r="C716">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="717" spans="3:3">
       <c r="C717">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="718" spans="3:3">
       <c r="C718">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="719" spans="3:3">
       <c r="C719">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="720" spans="3:3">
       <c r="C720">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="721" spans="3:3">
       <c r="C721">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="722" spans="3:3">
       <c r="C722">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="723" spans="3:3">
       <c r="C723">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="724" spans="3:3">
       <c r="C724">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="725" spans="3:3">
       <c r="C725">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="726" spans="3:3">
       <c r="C726">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="727" spans="3:3">
       <c r="C727">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="728" spans="3:3">
       <c r="C728">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="729" spans="3:3">
       <c r="C729">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="730" spans="3:3">
       <c r="C730">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="731" spans="3:3">
       <c r="C731">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="732" spans="3:3">
       <c r="C732">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="733" spans="3:3">
       <c r="C733">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="734" spans="3:3">
       <c r="C734">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="735" spans="3:3">
       <c r="C735">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="736" spans="3:3">
       <c r="C736">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="737" spans="3:3">
       <c r="C737">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="738" spans="3:3">
       <c r="C738">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="739" spans="3:3">
       <c r="C739">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="740" spans="3:3">
       <c r="C740">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="741" spans="3:3">
       <c r="C741">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="742" spans="3:3">
       <c r="C742">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="743" spans="3:3">
       <c r="C743">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="744" spans="3:3">
       <c r="C744">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="745" spans="3:3">
       <c r="C745">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="746" spans="3:3">
       <c r="C746">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="747" spans="3:3">
       <c r="C747">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="748" spans="3:3">
       <c r="C748">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="749" spans="3:3">
       <c r="C749">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="750" spans="3:3">
       <c r="C750">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="751" spans="3:3">
       <c r="C751">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="752" spans="3:3">
       <c r="C752">
-        <f t="shared" ref="C752:C815" ca="1" si="13">IF(B752=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5958,379 +5971,379 @@
     </row>
     <row r="754" spans="3:3">
       <c r="C754">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="C754:C817" ca="1" si="14">IF(B754=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="755" spans="3:3">
       <c r="C755">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="756" spans="3:3">
       <c r="C756">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="757" spans="3:3">
       <c r="C757">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="758" spans="3:3">
       <c r="C758">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="759" spans="3:3">
       <c r="C759">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="760" spans="3:3">
       <c r="C760">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="761" spans="3:3">
       <c r="C761">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="762" spans="3:3">
       <c r="C762">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="763" spans="3:3">
       <c r="C763">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="764" spans="3:3">
       <c r="C764">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="765" spans="3:3">
       <c r="C765">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="766" spans="3:3">
       <c r="C766">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="767" spans="3:3">
       <c r="C767">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="768" spans="3:3">
       <c r="C768">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="769" spans="3:3">
       <c r="C769">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="770" spans="3:3">
       <c r="C770">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="771" spans="3:3">
       <c r="C771">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="772" spans="3:3">
       <c r="C772">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="773" spans="3:3">
       <c r="C773">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="774" spans="3:3">
       <c r="C774">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="775" spans="3:3">
       <c r="C775">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="776" spans="3:3">
       <c r="C776">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="777" spans="3:3">
       <c r="C777">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="778" spans="3:3">
       <c r="C778">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="779" spans="3:3">
       <c r="C779">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="780" spans="3:3">
       <c r="C780">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="781" spans="3:3">
       <c r="C781">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="782" spans="3:3">
       <c r="C782">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="783" spans="3:3">
       <c r="C783">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="784" spans="3:3">
       <c r="C784">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="785" spans="3:3">
       <c r="C785">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="786" spans="3:3">
       <c r="C786">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="787" spans="3:3">
       <c r="C787">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="788" spans="3:3">
       <c r="C788">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="789" spans="3:3">
       <c r="C789">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="790" spans="3:3">
       <c r="C790">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="791" spans="3:3">
       <c r="C791">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="792" spans="3:3">
       <c r="C792">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="793" spans="3:3">
       <c r="C793">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="794" spans="3:3">
       <c r="C794">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="795" spans="3:3">
       <c r="C795">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="796" spans="3:3">
       <c r="C796">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="797" spans="3:3">
       <c r="C797">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="798" spans="3:3">
       <c r="C798">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="799" spans="3:3">
       <c r="C799">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="800" spans="3:3">
       <c r="C800">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="801" spans="3:3">
       <c r="C801">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="802" spans="3:3">
       <c r="C802">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="803" spans="3:3">
       <c r="C803">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="804" spans="3:3">
       <c r="C804">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="805" spans="3:3">
       <c r="C805">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="806" spans="3:3">
       <c r="C806">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="807" spans="3:3">
       <c r="C807">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="808" spans="3:3">
       <c r="C808">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="809" spans="3:3">
       <c r="C809">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="810" spans="3:3">
       <c r="C810">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="811" spans="3:3">
       <c r="C811">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="812" spans="3:3">
       <c r="C812">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="813" spans="3:3">
       <c r="C813">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="814" spans="3:3">
       <c r="C814">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="815" spans="3:3">
       <c r="C815">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="816" spans="3:3">
       <c r="C816">
-        <f t="shared" ref="C816:C879" ca="1" si="14">IF(B816=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6342,379 +6355,379 @@
     </row>
     <row r="818" spans="3:3">
       <c r="C818">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="C818:C881" ca="1" si="15">IF(B818=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="819" spans="3:3">
       <c r="C819">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="820" spans="3:3">
       <c r="C820">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="821" spans="3:3">
       <c r="C821">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="822" spans="3:3">
       <c r="C822">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="823" spans="3:3">
       <c r="C823">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="824" spans="3:3">
       <c r="C824">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="825" spans="3:3">
       <c r="C825">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="826" spans="3:3">
       <c r="C826">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="827" spans="3:3">
       <c r="C827">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="828" spans="3:3">
       <c r="C828">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="829" spans="3:3">
       <c r="C829">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="830" spans="3:3">
       <c r="C830">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="831" spans="3:3">
       <c r="C831">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="832" spans="3:3">
       <c r="C832">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="833" spans="3:3">
       <c r="C833">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="834" spans="3:3">
       <c r="C834">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="835" spans="3:3">
       <c r="C835">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="836" spans="3:3">
       <c r="C836">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="837" spans="3:3">
       <c r="C837">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="838" spans="3:3">
       <c r="C838">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="839" spans="3:3">
       <c r="C839">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="840" spans="3:3">
       <c r="C840">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="841" spans="3:3">
       <c r="C841">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="842" spans="3:3">
       <c r="C842">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="843" spans="3:3">
       <c r="C843">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="844" spans="3:3">
       <c r="C844">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="845" spans="3:3">
       <c r="C845">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="846" spans="3:3">
       <c r="C846">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="847" spans="3:3">
       <c r="C847">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="848" spans="3:3">
       <c r="C848">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="849" spans="3:3">
       <c r="C849">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="850" spans="3:3">
       <c r="C850">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="851" spans="3:3">
       <c r="C851">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="852" spans="3:3">
       <c r="C852">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="853" spans="3:3">
       <c r="C853">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="854" spans="3:3">
       <c r="C854">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="855" spans="3:3">
       <c r="C855">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="856" spans="3:3">
       <c r="C856">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="857" spans="3:3">
       <c r="C857">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="858" spans="3:3">
       <c r="C858">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="859" spans="3:3">
       <c r="C859">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="860" spans="3:3">
       <c r="C860">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="861" spans="3:3">
       <c r="C861">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="862" spans="3:3">
       <c r="C862">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="863" spans="3:3">
       <c r="C863">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="864" spans="3:3">
       <c r="C864">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="865" spans="3:3">
       <c r="C865">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="866" spans="3:3">
       <c r="C866">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="867" spans="3:3">
       <c r="C867">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="868" spans="3:3">
       <c r="C868">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="869" spans="3:3">
       <c r="C869">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="870" spans="3:3">
       <c r="C870">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="871" spans="3:3">
       <c r="C871">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="872" spans="3:3">
       <c r="C872">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="873" spans="3:3">
       <c r="C873">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="874" spans="3:3">
       <c r="C874">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="875" spans="3:3">
       <c r="C875">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="876" spans="3:3">
       <c r="C876">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="877" spans="3:3">
       <c r="C877">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="878" spans="3:3">
       <c r="C878">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="879" spans="3:3">
       <c r="C879">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="880" spans="3:3">
       <c r="C880">
-        <f t="shared" ref="C880:C894" ca="1" si="15">IF(B880=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6726,86 +6739,98 @@
     </row>
     <row r="882" spans="3:3">
       <c r="C882">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="C882:C896" ca="1" si="16">IF(B882=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="883" spans="3:3">
       <c r="C883">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="884" spans="3:3">
       <c r="C884">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="885" spans="3:3">
       <c r="C885">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="886" spans="3:3">
       <c r="C886">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="887" spans="3:3">
       <c r="C887">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="888" spans="3:3">
       <c r="C888">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="889" spans="3:3">
       <c r="C889">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="890" spans="3:3">
       <c r="C890">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="891" spans="3:3">
       <c r="C891">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="892" spans="3:3">
       <c r="C892">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="893" spans="3:3">
       <c r="C893">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="894" spans="3:3">
       <c r="C894">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="3:3">
+      <c r="C895">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="3:3">
+      <c r="C896">
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A222:A227"/>
-    <mergeCell ref="A236:A252"/>
+    <mergeCell ref="A238:A254"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
@@ -6817,6 +6842,7 @@
     <mergeCell ref="A157:A168"/>
     <mergeCell ref="A119:A156"/>
     <mergeCell ref="A228:A235"/>
+    <mergeCell ref="A236:A237"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -398,11 +398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E896"/>
+  <dimension ref="A1:E897"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F231" sqref="F231"/>
+      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -414,7 +414,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>4012</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2077,7 +2077,7 @@
         <v>2166</v>
       </c>
       <c r="C166">
-        <f t="shared" ref="C166:C241" ca="1" si="4">IF(B166=$E$1,1,0)</f>
+        <f t="shared" ref="C166:C242" ca="1" si="4">IF(B166=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
         <v>1516</v>
       </c>
       <c r="C230">
-        <f t="shared" ref="C230:C237" ca="1" si="5">IF(B230=$E$1,1,0)</f>
+        <f t="shared" ref="C230:C238" ca="1" si="5">IF(B230=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
     <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237">
-        <v>6732</v>
+        <v>3784</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="5"/>
@@ -2804,21 +2804,21 @@
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="1"/>
+      <c r="B238">
+        <v>6732</v>
+      </c>
+      <c r="C238">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B238">
+      <c r="B239">
         <v>8403</v>
-      </c>
-      <c r="C238">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="1"/>
-      <c r="B239">
-        <v>3185</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="4"/>
@@ -2828,7 +2828,7 @@
     <row r="240" spans="1:3">
       <c r="A240" s="1"/>
       <c r="B240">
-        <v>9914</v>
+        <v>3185</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="4"/>
@@ -2838,7 +2838,7 @@
     <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241">
-        <v>6011</v>
+        <v>9914</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="4"/>
@@ -2848,27 +2848,27 @@
     <row r="242" spans="1:3">
       <c r="A242" s="1"/>
       <c r="B242">
-        <v>6037</v>
+        <v>6011</v>
       </c>
       <c r="C242">
-        <f t="shared" ref="C242:C305" ca="1" si="6">IF(B242=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243">
-        <v>2809</v>
+        <v>6037</v>
       </c>
       <c r="C243">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="C243:C306" ca="1" si="6">IF(B243=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244">
-        <v>7297</v>
+        <v>2809</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="6"/>
@@ -2878,7 +2878,7 @@
     <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245">
-        <v>5242</v>
+        <v>7297</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="6"/>
@@ -2888,7 +2888,7 @@
     <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246">
-        <v>1379</v>
+        <v>5242</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="6"/>
@@ -2898,7 +2898,7 @@
     <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247">
-        <v>2401</v>
+        <v>1379</v>
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="6"/>
@@ -2908,7 +2908,7 @@
     <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248">
-        <v>5421</v>
+        <v>2401</v>
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="6"/>
@@ -2918,7 +2918,7 @@
     <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249">
-        <v>7301</v>
+        <v>5421</v>
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="6"/>
@@ -2928,7 +2928,7 @@
     <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250">
-        <v>2000</v>
+        <v>7301</v>
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="6"/>
@@ -2938,7 +2938,7 @@
     <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251">
-        <v>4147</v>
+        <v>2000</v>
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="6"/>
@@ -2948,7 +2948,7 @@
     <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252">
-        <v>1953</v>
+        <v>4147</v>
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="6"/>
@@ -2958,7 +2958,7 @@
     <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253">
-        <v>3956</v>
+        <v>1953</v>
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="6"/>
@@ -2968,7 +2968,7 @@
     <row r="254" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254">
-        <v>5463</v>
+        <v>3956</v>
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="6"/>
@@ -2976,6 +2976,10 @@
       </c>
     </row>
     <row r="255" spans="1:3">
+      <c r="A255" s="1"/>
+      <c r="B255">
+        <v>5463</v>
+      </c>
       <c r="C255">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -3283,13 +3287,13 @@
     </row>
     <row r="306" spans="3:3">
       <c r="C306">
-        <f t="shared" ref="C306:C369" ca="1" si="7">IF(B306=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="3:3">
       <c r="C307">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="C307:C370" ca="1" si="7">IF(B307=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3667,13 +3671,13 @@
     </row>
     <row r="370" spans="3:3">
       <c r="C370">
-        <f t="shared" ref="C370:C433" ca="1" si="8">IF(B370=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="3:3">
       <c r="C371">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="C371:C434" ca="1" si="8">IF(B371=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4051,13 +4055,13 @@
     </row>
     <row r="434" spans="3:3">
       <c r="C434">
-        <f t="shared" ref="C434:C497" ca="1" si="9">IF(B434=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="435" spans="3:3">
       <c r="C435">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="C435:C498" ca="1" si="9">IF(B435=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4435,13 +4439,13 @@
     </row>
     <row r="498" spans="3:3">
       <c r="C498">
-        <f t="shared" ref="C498:C561" ca="1" si="10">IF(B498=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="499" spans="3:3">
       <c r="C499">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="C499:C562" ca="1" si="10">IF(B499=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4819,13 +4823,13 @@
     </row>
     <row r="562" spans="3:3">
       <c r="C562">
-        <f t="shared" ref="C562:C625" ca="1" si="11">IF(B562=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="563" spans="3:3">
       <c r="C563">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="C563:C626" ca="1" si="11">IF(B563=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5203,13 +5207,13 @@
     </row>
     <row r="626" spans="3:3">
       <c r="C626">
-        <f t="shared" ref="C626:C689" ca="1" si="12">IF(B626=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="627" spans="3:3">
       <c r="C627">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="C627:C690" ca="1" si="12">IF(B627=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5587,13 +5591,13 @@
     </row>
     <row r="690" spans="3:3">
       <c r="C690">
-        <f t="shared" ref="C690:C753" ca="1" si="13">IF(B690=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="691" spans="3:3">
       <c r="C691">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="C691:C754" ca="1" si="13">IF(B691=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5971,13 +5975,13 @@
     </row>
     <row r="754" spans="3:3">
       <c r="C754">
-        <f t="shared" ref="C754:C817" ca="1" si="14">IF(B754=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="755" spans="3:3">
       <c r="C755">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="C755:C818" ca="1" si="14">IF(B755=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6355,13 +6359,13 @@
     </row>
     <row r="818" spans="3:3">
       <c r="C818">
-        <f t="shared" ref="C818:C881" ca="1" si="15">IF(B818=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="819" spans="3:3">
       <c r="C819">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="C819:C882" ca="1" si="15">IF(B819=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6739,13 +6743,13 @@
     </row>
     <row r="882" spans="3:3">
       <c r="C882">
-        <f t="shared" ref="C882:C896" ca="1" si="16">IF(B882=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="883" spans="3:3">
       <c r="C883">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ref="C883:C897" ca="1" si="16">IF(B883=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6827,10 +6831,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="897" spans="3:3">
+      <c r="C897">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A222:A227"/>
-    <mergeCell ref="A238:A254"/>
+    <mergeCell ref="A239:A255"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
@@ -6842,7 +6852,7 @@
     <mergeCell ref="A157:A168"/>
     <mergeCell ref="A119:A156"/>
     <mergeCell ref="A228:A235"/>
-    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="A236:A238"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>лр1</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>лр13</t>
+  </si>
+  <si>
+    <t>лр15</t>
   </si>
 </sst>
 </file>
@@ -401,8 +404,8 @@
   <dimension ref="A1:E897"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F259" sqref="F259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -414,7 +417,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>1708</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2986,6 +2989,12 @@
       </c>
     </row>
     <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>14</v>
+      </c>
+      <c r="B256">
+        <v>8787</v>
+      </c>
       <c r="C256">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E897"/>
+  <dimension ref="A1:E901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F259" sqref="F259"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,7 +417,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>7169</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2080,7 +2080,7 @@
         <v>2166</v>
       </c>
       <c r="C166">
-        <f t="shared" ref="C166:C242" ca="1" si="4">IF(B166=$E$1,1,0)</f>
+        <f t="shared" ref="C166:C246" ca="1" si="4">IF(B166=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
         <v>7703</v>
       </c>
       <c r="C193">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(B193=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
     <row r="220" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220">
-        <v>7343</v>
+        <v>3290</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
@@ -2633,7 +2633,7 @@
     <row r="221" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221">
-        <v>7060</v>
+        <v>5309</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
@@ -2641,11 +2641,9 @@
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A222" s="1"/>
       <c r="B222">
-        <v>9299</v>
+        <v>5345</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="4"/>
@@ -2655,7 +2653,7 @@
     <row r="223" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223">
-        <v>7560</v>
+        <v>6812</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="4"/>
@@ -2665,7 +2663,7 @@
     <row r="224" spans="1:3">
       <c r="A224" s="1"/>
       <c r="B224">
-        <v>9002</v>
+        <v>7343</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
@@ -2675,7 +2673,7 @@
     <row r="225" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225">
-        <v>7432</v>
+        <v>7060</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="4"/>
@@ -2683,9 +2681,11 @@
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="1"/>
+      <c r="A226" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B226">
-        <v>1954</v>
+        <v>9299</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="4"/>
@@ -2695,7 +2695,7 @@
     <row r="227" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227">
-        <v>2048</v>
+        <v>7560</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="4"/>
@@ -2703,11 +2703,9 @@
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A228" s="1"/>
       <c r="B228">
-        <v>3939</v>
+        <v>9002</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="4"/>
@@ -2717,7 +2715,7 @@
     <row r="229" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229">
-        <v>8861</v>
+        <v>7432</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="4"/>
@@ -2727,57 +2725,59 @@
     <row r="230" spans="1:3">
       <c r="A230" s="1"/>
       <c r="B230">
-        <v>1516</v>
+        <v>1954</v>
       </c>
       <c r="C230">
-        <f t="shared" ref="C230:C238" ca="1" si="5">IF(B230=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231">
-        <v>9062</v>
+        <v>2048</v>
       </c>
       <c r="C231">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="1"/>
+      <c r="A232" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B232">
-        <v>5164</v>
+        <v>3939</v>
       </c>
       <c r="C232">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1"/>
       <c r="B233">
-        <v>2030</v>
+        <v>8861</v>
       </c>
       <c r="C233">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234">
-        <v>7649</v>
+        <v>1516</v>
       </c>
       <c r="C234">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="C234:C242" ca="1" si="5">IF(B234=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235">
-        <v>2354</v>
+        <v>9062</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="5"/>
@@ -2785,11 +2785,9 @@
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A236" s="1"/>
       <c r="B236">
-        <v>9701</v>
+        <v>5164</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="5"/>
@@ -2799,7 +2797,7 @@
     <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237">
-        <v>3784</v>
+        <v>2030</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="5"/>
@@ -2809,7 +2807,7 @@
     <row r="238" spans="1:3">
       <c r="A238" s="1"/>
       <c r="B238">
-        <v>6732</v>
+        <v>7649</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="5"/>
@@ -2817,101 +2815,103 @@
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A239" s="1"/>
       <c r="B239">
-        <v>8403</v>
+        <v>2354</v>
       </c>
       <c r="C239">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="1"/>
+      <c r="A240" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B240">
-        <v>3185</v>
+        <v>9701</v>
       </c>
       <c r="C240">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241">
-        <v>9914</v>
+        <v>3784</v>
       </c>
       <c r="C241">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1"/>
       <c r="B242">
-        <v>6011</v>
+        <v>6732</v>
       </c>
       <c r="C242">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B243">
+        <v>8403</v>
+      </c>
+      <c r="C243">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="1"/>
-      <c r="B243">
-        <v>6037</v>
-      </c>
-      <c r="C243">
-        <f t="shared" ref="C243:C306" ca="1" si="6">IF(B243=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244">
-        <v>2809</v>
+        <v>3185</v>
       </c>
       <c r="C244">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245">
-        <v>7297</v>
+        <v>9914</v>
       </c>
       <c r="C245">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246">
-        <v>5242</v>
+        <v>6011</v>
       </c>
       <c r="C246">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247">
-        <v>1379</v>
+        <v>6037</v>
       </c>
       <c r="C247">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="C247:C310" ca="1" si="6">IF(B247=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248">
-        <v>2401</v>
+        <v>2809</v>
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="6"/>
@@ -2921,7 +2921,7 @@
     <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249">
-        <v>5421</v>
+        <v>7297</v>
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="6"/>
@@ -2931,7 +2931,7 @@
     <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250">
-        <v>7301</v>
+        <v>5242</v>
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="6"/>
@@ -2941,7 +2941,7 @@
     <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251">
-        <v>2000</v>
+        <v>1379</v>
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="6"/>
@@ -2951,7 +2951,7 @@
     <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252">
-        <v>4147</v>
+        <v>2401</v>
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="6"/>
@@ -2961,7 +2961,7 @@
     <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253">
-        <v>1953</v>
+        <v>5421</v>
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="6"/>
@@ -2971,7 +2971,7 @@
     <row r="254" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254">
-        <v>3956</v>
+        <v>7301</v>
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="6"/>
@@ -2981,7 +2981,7 @@
     <row r="255" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255">
-        <v>5463</v>
+        <v>2000</v>
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="6"/>
@@ -2989,108 +2989,124 @@
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" t="s">
-        <v>14</v>
-      </c>
+      <c r="A256" s="1"/>
       <c r="B256">
-        <v>8787</v>
+        <v>4147</v>
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:3">
+    <row r="257" spans="1:3">
+      <c r="A257" s="1"/>
+      <c r="B257">
+        <v>1953</v>
+      </c>
       <c r="C257">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:3">
+    <row r="258" spans="1:3">
+      <c r="A258" s="1"/>
+      <c r="B258">
+        <v>3956</v>
+      </c>
       <c r="C258">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:3">
+    <row r="259" spans="1:3">
+      <c r="A259" s="1"/>
+      <c r="B259">
+        <v>5463</v>
+      </c>
       <c r="C259">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:3">
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>14</v>
+      </c>
+      <c r="B260">
+        <v>8787</v>
+      </c>
       <c r="C260">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:3">
+    <row r="261" spans="1:3">
       <c r="C261">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:3">
+    <row r="262" spans="1:3">
       <c r="C262">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:3">
+    <row r="263" spans="1:3">
       <c r="C263">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:3">
+    <row r="264" spans="1:3">
       <c r="C264">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:3">
+    <row r="265" spans="1:3">
       <c r="C265">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:3">
+    <row r="266" spans="1:3">
       <c r="C266">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:3">
+    <row r="267" spans="1:3">
       <c r="C267">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:3">
+    <row r="268" spans="1:3">
       <c r="C268">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:3">
+    <row r="269" spans="1:3">
       <c r="C269">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:3">
+    <row r="270" spans="1:3">
       <c r="C270">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:3">
+    <row r="271" spans="1:3">
       <c r="C271">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:3">
+    <row r="272" spans="1:3">
       <c r="C272">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -3302,31 +3318,31 @@
     </row>
     <row r="307" spans="3:3">
       <c r="C307">
-        <f t="shared" ref="C307:C370" ca="1" si="7">IF(B307=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="3:3">
       <c r="C308">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="3:3">
       <c r="C309">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="3:3">
       <c r="C310">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="3:3">
       <c r="C311">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="C311:C374" ca="1" si="7">IF(B311=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3686,31 +3702,31 @@
     </row>
     <row r="371" spans="3:3">
       <c r="C371">
-        <f t="shared" ref="C371:C434" ca="1" si="8">IF(B371=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="3:3">
       <c r="C372">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="3:3">
       <c r="C373">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="3:3">
       <c r="C374">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="375" spans="3:3">
       <c r="C375">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="C375:C438" ca="1" si="8">IF(B375=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4070,31 +4086,31 @@
     </row>
     <row r="435" spans="3:3">
       <c r="C435">
-        <f t="shared" ref="C435:C498" ca="1" si="9">IF(B435=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="436" spans="3:3">
       <c r="C436">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="437" spans="3:3">
       <c r="C437">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="438" spans="3:3">
       <c r="C438">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="439" spans="3:3">
       <c r="C439">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="C439:C502" ca="1" si="9">IF(B439=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4454,31 +4470,31 @@
     </row>
     <row r="499" spans="3:3">
       <c r="C499">
-        <f t="shared" ref="C499:C562" ca="1" si="10">IF(B499=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="500" spans="3:3">
       <c r="C500">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="501" spans="3:3">
       <c r="C501">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="502" spans="3:3">
       <c r="C502">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="503" spans="3:3">
       <c r="C503">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="C503:C566" ca="1" si="10">IF(B503=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4838,31 +4854,31 @@
     </row>
     <row r="563" spans="3:3">
       <c r="C563">
-        <f t="shared" ref="C563:C626" ca="1" si="11">IF(B563=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="564" spans="3:3">
       <c r="C564">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="565" spans="3:3">
       <c r="C565">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="566" spans="3:3">
       <c r="C566">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="567" spans="3:3">
       <c r="C567">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="C567:C630" ca="1" si="11">IF(B567=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5222,31 +5238,31 @@
     </row>
     <row r="627" spans="3:3">
       <c r="C627">
-        <f t="shared" ref="C627:C690" ca="1" si="12">IF(B627=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="628" spans="3:3">
       <c r="C628">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="629" spans="3:3">
       <c r="C629">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="630" spans="3:3">
       <c r="C630">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="631" spans="3:3">
       <c r="C631">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="C631:C694" ca="1" si="12">IF(B631=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5606,31 +5622,31 @@
     </row>
     <row r="691" spans="3:3">
       <c r="C691">
-        <f t="shared" ref="C691:C754" ca="1" si="13">IF(B691=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="692" spans="3:3">
       <c r="C692">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="693" spans="3:3">
       <c r="C693">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="694" spans="3:3">
       <c r="C694">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="695" spans="3:3">
       <c r="C695">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="C695:C758" ca="1" si="13">IF(B695=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5990,31 +6006,31 @@
     </row>
     <row r="755" spans="3:3">
       <c r="C755">
-        <f t="shared" ref="C755:C818" ca="1" si="14">IF(B755=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="756" spans="3:3">
       <c r="C756">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="757" spans="3:3">
       <c r="C757">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="758" spans="3:3">
       <c r="C758">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="759" spans="3:3">
       <c r="C759">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="C759:C822" ca="1" si="14">IF(B759=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6374,31 +6390,31 @@
     </row>
     <row r="819" spans="3:3">
       <c r="C819">
-        <f t="shared" ref="C819:C882" ca="1" si="15">IF(B819=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="820" spans="3:3">
       <c r="C820">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="821" spans="3:3">
       <c r="C821">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="822" spans="3:3">
       <c r="C822">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="823" spans="3:3">
       <c r="C823">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="C823:C886" ca="1" si="15">IF(B823=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6758,31 +6774,31 @@
     </row>
     <row r="883" spans="3:3">
       <c r="C883">
-        <f t="shared" ref="C883:C897" ca="1" si="16">IF(B883=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="884" spans="3:3">
       <c r="C884">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="885" spans="3:3">
       <c r="C885">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="886" spans="3:3">
       <c r="C886">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="887" spans="3:3">
       <c r="C887">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ref="C887:C901" ca="1" si="16">IF(B887=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6846,22 +6862,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="898" spans="3:3">
+      <c r="C898">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="3:3">
+      <c r="C899">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="3:3">
+      <c r="C900">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="3:3">
+      <c r="C901">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A222:A227"/>
-    <mergeCell ref="A239:A255"/>
+    <mergeCell ref="A226:A231"/>
+    <mergeCell ref="A243:A259"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="A79:A118"/>
-    <mergeCell ref="A217:A221"/>
+    <mergeCell ref="A217:A225"/>
     <mergeCell ref="A198:A216"/>
     <mergeCell ref="A169:A197"/>
     <mergeCell ref="A157:A168"/>
     <mergeCell ref="A119:A156"/>
-    <mergeCell ref="A228:A235"/>
-    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="A232:A239"/>
+    <mergeCell ref="A240:A242"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E901"/>
+  <dimension ref="A1:E902"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B224" sqref="B224"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M139" sqref="M139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,7 +417,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>3349</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1396,7 +1396,7 @@
         <v>7991</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:C165" ca="1" si="3">IF(B98=$E$1,1,0)</f>
+        <f t="shared" ref="C98:C166" ca="1" si="3">IF(B98=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
     <row r="143" spans="1:3">
       <c r="A143" s="1"/>
       <c r="B143">
-        <v>8418</v>
+        <v>1483</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="3"/>
@@ -1855,7 +1855,7 @@
     <row r="144" spans="1:3">
       <c r="A144" s="1"/>
       <c r="B144">
-        <v>8395</v>
+        <v>8418</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="3"/>
@@ -1865,7 +1865,7 @@
     <row r="145" spans="1:3">
       <c r="A145" s="1"/>
       <c r="B145">
-        <v>5170</v>
+        <v>8395</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="3"/>
@@ -1875,7 +1875,7 @@
     <row r="146" spans="1:3">
       <c r="A146" s="1"/>
       <c r="B146">
-        <v>5568</v>
+        <v>5170</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="3"/>
@@ -1885,7 +1885,7 @@
     <row r="147" spans="1:3">
       <c r="A147" s="1"/>
       <c r="B147">
-        <v>2592</v>
+        <v>5568</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="3"/>
@@ -1895,7 +1895,7 @@
     <row r="148" spans="1:3">
       <c r="A148" s="1"/>
       <c r="B148">
-        <v>4075</v>
+        <v>2592</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="3"/>
@@ -1905,7 +1905,7 @@
     <row r="149" spans="1:3">
       <c r="A149" s="1"/>
       <c r="B149">
-        <v>7517</v>
+        <v>4075</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="3"/>
@@ -1915,7 +1915,7 @@
     <row r="150" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150">
-        <v>5448</v>
+        <v>7517</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="3"/>
@@ -1925,7 +1925,7 @@
     <row r="151" spans="1:3">
       <c r="A151" s="1"/>
       <c r="B151">
-        <v>6572</v>
+        <v>5448</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="3"/>
@@ -1935,7 +1935,7 @@
     <row r="152" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152">
-        <v>5238</v>
+        <v>6572</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="3"/>
@@ -1945,7 +1945,7 @@
     <row r="153" spans="1:3">
       <c r="A153" s="1"/>
       <c r="B153">
-        <v>2084</v>
+        <v>5238</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="3"/>
@@ -1955,7 +1955,7 @@
     <row r="154" spans="1:3">
       <c r="A154" s="1"/>
       <c r="B154">
-        <v>5411</v>
+        <v>2084</v>
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="3"/>
@@ -1965,7 +1965,7 @@
     <row r="155" spans="1:3">
       <c r="A155" s="1"/>
       <c r="B155">
-        <v>5171</v>
+        <v>5411</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="3"/>
@@ -1975,7 +1975,7 @@
     <row r="156" spans="1:3">
       <c r="A156" s="1"/>
       <c r="B156">
-        <v>1862</v>
+        <v>5171</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="3"/>
@@ -1983,11 +1983,9 @@
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A157" s="1"/>
       <c r="B157">
-        <v>8165</v>
+        <v>1862</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="3"/>
@@ -1995,9 +1993,11 @@
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B158">
-        <v>9001</v>
+        <v>8165</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="3"/>
@@ -2007,7 +2007,7 @@
     <row r="159" spans="1:3">
       <c r="A159" s="1"/>
       <c r="B159">
-        <v>9631</v>
+        <v>9001</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="3"/>
@@ -2017,7 +2017,7 @@
     <row r="160" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160">
-        <v>9812</v>
+        <v>9631</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="3"/>
@@ -2027,7 +2027,7 @@
     <row r="161" spans="1:3">
       <c r="A161" s="1"/>
       <c r="B161">
-        <v>5728</v>
+        <v>9812</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="3"/>
@@ -2037,7 +2037,7 @@
     <row r="162" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162">
-        <v>1618</v>
+        <v>5728</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="3"/>
@@ -2047,7 +2047,7 @@
     <row r="163" spans="1:3">
       <c r="A163" s="1"/>
       <c r="B163">
-        <v>7491</v>
+        <v>1618</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="3"/>
@@ -2057,7 +2057,7 @@
     <row r="164" spans="1:3">
       <c r="A164" s="1"/>
       <c r="B164">
-        <v>5923</v>
+        <v>7491</v>
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="3"/>
@@ -2067,7 +2067,7 @@
     <row r="165" spans="1:3">
       <c r="A165" s="1"/>
       <c r="B165">
-        <v>4265</v>
+        <v>5923</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="3"/>
@@ -2077,27 +2077,27 @@
     <row r="166" spans="1:3">
       <c r="A166" s="1"/>
       <c r="B166">
-        <v>2166</v>
+        <v>4265</v>
       </c>
       <c r="C166">
-        <f t="shared" ref="C166:C246" ca="1" si="4">IF(B166=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1"/>
       <c r="B167">
-        <v>9116</v>
+        <v>2166</v>
       </c>
       <c r="C167">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="C167:C247" ca="1" si="4">IF(B167=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1"/>
       <c r="B168">
-        <v>9925</v>
+        <v>9116</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="4"/>
@@ -2105,11 +2105,9 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A169" s="1"/>
       <c r="B169">
-        <v>2885</v>
+        <v>9925</v>
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="4"/>
@@ -2117,9 +2115,11 @@
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B170">
-        <v>9931</v>
+        <v>2885</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="4"/>
@@ -2129,7 +2129,7 @@
     <row r="171" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171">
-        <v>4425</v>
+        <v>9931</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="4"/>
@@ -2139,7 +2139,7 @@
     <row r="172" spans="1:3">
       <c r="A172" s="1"/>
       <c r="B172">
-        <v>1947</v>
+        <v>4425</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="4"/>
@@ -2149,7 +2149,7 @@
     <row r="173" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173">
-        <v>9696</v>
+        <v>1947</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="4"/>
@@ -2159,7 +2159,7 @@
     <row r="174" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174">
-        <v>1223</v>
+        <v>9696</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="4"/>
@@ -2169,7 +2169,7 @@
     <row r="175" spans="1:3">
       <c r="A175" s="1"/>
       <c r="B175">
-        <v>3946</v>
+        <v>1223</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="4"/>
@@ -2179,7 +2179,7 @@
     <row r="176" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176">
-        <v>8311</v>
+        <v>3946</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="4"/>
@@ -2189,7 +2189,7 @@
     <row r="177" spans="1:3">
       <c r="A177" s="1"/>
       <c r="B177">
-        <v>3134</v>
+        <v>8311</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="4"/>
@@ -2199,7 +2199,7 @@
     <row r="178" spans="1:3">
       <c r="A178" s="1"/>
       <c r="B178">
-        <v>9774</v>
+        <v>3134</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="4"/>
@@ -2209,7 +2209,7 @@
     <row r="179" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179">
-        <v>9711</v>
+        <v>9774</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="4"/>
@@ -2219,7 +2219,7 @@
     <row r="180" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180">
-        <v>3333</v>
+        <v>9711</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="4"/>
@@ -2229,7 +2229,7 @@
     <row r="181" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181">
-        <v>7290</v>
+        <v>3333</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="4"/>
@@ -2239,7 +2239,7 @@
     <row r="182" spans="1:3">
       <c r="A182" s="1"/>
       <c r="B182">
-        <v>5694</v>
+        <v>7290</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="4"/>
@@ -2249,7 +2249,7 @@
     <row r="183" spans="1:3">
       <c r="A183" s="1"/>
       <c r="B183">
-        <v>7035</v>
+        <v>5694</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="4"/>
@@ -2259,7 +2259,7 @@
     <row r="184" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184">
-        <v>6806</v>
+        <v>7035</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="4"/>
@@ -2269,7 +2269,7 @@
     <row r="185" spans="1:3">
       <c r="A185" s="1"/>
       <c r="B185">
-        <v>4515</v>
+        <v>6806</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="4"/>
@@ -2279,7 +2279,7 @@
     <row r="186" spans="1:3">
       <c r="A186" s="1"/>
       <c r="B186">
-        <v>9271</v>
+        <v>4515</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="4"/>
@@ -2289,7 +2289,7 @@
     <row r="187" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187">
-        <v>8769</v>
+        <v>9271</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="4"/>
@@ -2299,7 +2299,7 @@
     <row r="188" spans="1:3">
       <c r="A188" s="1"/>
       <c r="B188">
-        <v>4497</v>
+        <v>8769</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="4"/>
@@ -2309,7 +2309,7 @@
     <row r="189" spans="1:3">
       <c r="A189" s="1"/>
       <c r="B189">
-        <v>3940</v>
+        <v>4497</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="4"/>
@@ -2319,7 +2319,7 @@
     <row r="190" spans="1:3">
       <c r="A190" s="1"/>
       <c r="B190">
-        <v>8820</v>
+        <v>3940</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="4"/>
@@ -2329,7 +2329,7 @@
     <row r="191" spans="1:3">
       <c r="A191" s="1"/>
       <c r="B191">
-        <v>3218</v>
+        <v>8820</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="4"/>
@@ -2339,7 +2339,7 @@
     <row r="192" spans="1:3">
       <c r="A192" s="1"/>
       <c r="B192">
-        <v>4283</v>
+        <v>3218</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="4"/>
@@ -2349,27 +2349,27 @@
     <row r="193" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193">
-        <v>7703</v>
+        <v>4283</v>
       </c>
       <c r="C193">
-        <f ca="1">IF(B193=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1"/>
       <c r="B194">
-        <v>9182</v>
+        <v>7703</v>
       </c>
       <c r="C194">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(B194=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195">
-        <v>5541</v>
+        <v>9182</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="4"/>
@@ -2379,7 +2379,7 @@
     <row r="196" spans="1:3">
       <c r="A196" s="1"/>
       <c r="B196">
-        <v>2386</v>
+        <v>5541</v>
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="4"/>
@@ -2389,7 +2389,7 @@
     <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197">
-        <v>9159</v>
+        <v>2386</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="4"/>
@@ -2397,11 +2397,9 @@
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A198" s="1"/>
       <c r="B198">
-        <v>6175</v>
+        <v>9159</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="4"/>
@@ -2409,9 +2407,11 @@
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="1"/>
+      <c r="A199" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B199">
-        <v>4642</v>
+        <v>6175</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="4"/>
@@ -2421,7 +2421,7 @@
     <row r="200" spans="1:3">
       <c r="A200" s="1"/>
       <c r="B200">
-        <v>4488</v>
+        <v>4642</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="4"/>
@@ -2431,7 +2431,7 @@
     <row r="201" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201">
-        <v>9765</v>
+        <v>4488</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="4"/>
@@ -2441,7 +2441,7 @@
     <row r="202" spans="1:3">
       <c r="A202" s="1"/>
       <c r="B202">
-        <v>4954</v>
+        <v>9765</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="4"/>
@@ -2451,7 +2451,7 @@
     <row r="203" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203">
-        <v>5537</v>
+        <v>4954</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="4"/>
@@ -2461,7 +2461,7 @@
     <row r="204" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204">
-        <v>6431</v>
+        <v>5537</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="4"/>
@@ -2471,7 +2471,7 @@
     <row r="205" spans="1:3">
       <c r="A205" s="1"/>
       <c r="B205">
-        <v>7193</v>
+        <v>6431</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="4"/>
@@ -2481,7 +2481,7 @@
     <row r="206" spans="1:3">
       <c r="A206" s="1"/>
       <c r="B206">
-        <v>5621</v>
+        <v>7193</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="4"/>
@@ -2491,7 +2491,7 @@
     <row r="207" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207">
-        <v>5847</v>
+        <v>5621</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="4"/>
@@ -2501,7 +2501,7 @@
     <row r="208" spans="1:3">
       <c r="A208" s="1"/>
       <c r="B208">
-        <v>4769</v>
+        <v>5847</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="4"/>
@@ -2511,7 +2511,7 @@
     <row r="209" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209">
-        <v>9930</v>
+        <v>4769</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="4"/>
@@ -2521,7 +2521,7 @@
     <row r="210" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210">
-        <v>3226</v>
+        <v>9930</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="4"/>
@@ -2531,7 +2531,7 @@
     <row r="211" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211">
-        <v>6861</v>
+        <v>3226</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="4"/>
@@ -2541,7 +2541,7 @@
     <row r="212" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212">
-        <v>2205</v>
+        <v>6861</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="4"/>
@@ -2551,7 +2551,7 @@
     <row r="213" spans="1:3">
       <c r="A213" s="1"/>
       <c r="B213">
-        <v>4372</v>
+        <v>2205</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="4"/>
@@ -2561,7 +2561,7 @@
     <row r="214" spans="1:3">
       <c r="A214" s="1"/>
       <c r="B214">
-        <v>4463</v>
+        <v>4372</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="4"/>
@@ -2571,7 +2571,7 @@
     <row r="215" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215">
-        <v>1668</v>
+        <v>4463</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="4"/>
@@ -2581,7 +2581,7 @@
     <row r="216" spans="1:3">
       <c r="A216" s="1"/>
       <c r="B216">
-        <v>2137</v>
+        <v>1668</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="4"/>
@@ -2589,11 +2589,9 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A217" s="1"/>
       <c r="B217">
-        <v>9300</v>
+        <v>2137</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
@@ -2601,9 +2599,11 @@
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1"/>
+      <c r="A218" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B218">
-        <v>3951</v>
+        <v>9300</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
@@ -2613,7 +2613,7 @@
     <row r="219" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219">
-        <v>6409</v>
+        <v>3951</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="4"/>
@@ -2623,7 +2623,7 @@
     <row r="220" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220">
-        <v>3290</v>
+        <v>6409</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
@@ -2633,7 +2633,7 @@
     <row r="221" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221">
-        <v>5309</v>
+        <v>3290</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
@@ -2643,7 +2643,7 @@
     <row r="222" spans="1:3">
       <c r="A222" s="1"/>
       <c r="B222">
-        <v>5345</v>
+        <v>5309</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="4"/>
@@ -2653,7 +2653,7 @@
     <row r="223" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223">
-        <v>6812</v>
+        <v>5345</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="4"/>
@@ -2663,7 +2663,7 @@
     <row r="224" spans="1:3">
       <c r="A224" s="1"/>
       <c r="B224">
-        <v>7343</v>
+        <v>6812</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
@@ -2673,7 +2673,7 @@
     <row r="225" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225">
-        <v>7060</v>
+        <v>7343</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="4"/>
@@ -2681,11 +2681,9 @@
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A226" s="1"/>
       <c r="B226">
-        <v>9299</v>
+        <v>7060</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="4"/>
@@ -2693,9 +2691,11 @@
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="1"/>
+      <c r="A227" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B227">
-        <v>7560</v>
+        <v>9299</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="4"/>
@@ -2705,7 +2705,7 @@
     <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228">
-        <v>9002</v>
+        <v>7560</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="4"/>
@@ -2715,7 +2715,7 @@
     <row r="229" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229">
-        <v>7432</v>
+        <v>9002</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="4"/>
@@ -2725,7 +2725,7 @@
     <row r="230" spans="1:3">
       <c r="A230" s="1"/>
       <c r="B230">
-        <v>1954</v>
+        <v>7432</v>
       </c>
       <c r="C230">
         <f t="shared" ca="1" si="4"/>
@@ -2735,7 +2735,7 @@
     <row r="231" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231">
-        <v>2048</v>
+        <v>1954</v>
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="4"/>
@@ -2743,11 +2743,9 @@
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A232" s="1"/>
       <c r="B232">
-        <v>3939</v>
+        <v>2048</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="4"/>
@@ -2755,9 +2753,11 @@
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="1"/>
+      <c r="A233" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B233">
-        <v>8861</v>
+        <v>3939</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="4"/>
@@ -2767,27 +2767,27 @@
     <row r="234" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234">
-        <v>1516</v>
+        <v>8861</v>
       </c>
       <c r="C234">
-        <f t="shared" ref="C234:C242" ca="1" si="5">IF(B234=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235">
-        <v>9062</v>
+        <v>1516</v>
       </c>
       <c r="C235">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="C235:C243" ca="1" si="5">IF(B235=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1"/>
       <c r="B236">
-        <v>5164</v>
+        <v>9062</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="5"/>
@@ -2797,7 +2797,7 @@
     <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237">
-        <v>2030</v>
+        <v>5164</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="5"/>
@@ -2807,7 +2807,7 @@
     <row r="238" spans="1:3">
       <c r="A238" s="1"/>
       <c r="B238">
-        <v>7649</v>
+        <v>2030</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="5"/>
@@ -2817,7 +2817,7 @@
     <row r="239" spans="1:3">
       <c r="A239" s="1"/>
       <c r="B239">
-        <v>2354</v>
+        <v>7649</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="5"/>
@@ -2825,11 +2825,9 @@
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A240" s="1"/>
       <c r="B240">
-        <v>9701</v>
+        <v>2354</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="5"/>
@@ -2837,9 +2835,11 @@
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="1"/>
+      <c r="A241" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B241">
-        <v>3784</v>
+        <v>9701</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="5"/>
@@ -2849,7 +2849,7 @@
     <row r="242" spans="1:3">
       <c r="A242" s="1"/>
       <c r="B242">
-        <v>6732</v>
+        <v>3784</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="5"/>
@@ -2857,21 +2857,21 @@
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="1"/>
+      <c r="B243">
+        <v>6732</v>
+      </c>
+      <c r="C243">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B243">
+      <c r="B244">
         <v>8403</v>
-      </c>
-      <c r="C243">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="1"/>
-      <c r="B244">
-        <v>3185</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="4"/>
@@ -2881,7 +2881,7 @@
     <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245">
-        <v>9914</v>
+        <v>3185</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="4"/>
@@ -2891,7 +2891,7 @@
     <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246">
-        <v>6011</v>
+        <v>9914</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="4"/>
@@ -2901,27 +2901,27 @@
     <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247">
-        <v>6037</v>
+        <v>6011</v>
       </c>
       <c r="C247">
-        <f t="shared" ref="C247:C310" ca="1" si="6">IF(B247=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248">
-        <v>2809</v>
+        <v>6037</v>
       </c>
       <c r="C248">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="C248:C311" ca="1" si="6">IF(B248=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249">
-        <v>7297</v>
+        <v>2809</v>
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="6"/>
@@ -2931,7 +2931,7 @@
     <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250">
-        <v>5242</v>
+        <v>7297</v>
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="6"/>
@@ -2941,7 +2941,7 @@
     <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251">
-        <v>1379</v>
+        <v>5242</v>
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="6"/>
@@ -2951,7 +2951,7 @@
     <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252">
-        <v>2401</v>
+        <v>1379</v>
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="6"/>
@@ -2961,7 +2961,7 @@
     <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253">
-        <v>5421</v>
+        <v>2401</v>
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="6"/>
@@ -2971,7 +2971,7 @@
     <row r="254" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254">
-        <v>7301</v>
+        <v>5421</v>
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="6"/>
@@ -2981,7 +2981,7 @@
     <row r="255" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255">
-        <v>2000</v>
+        <v>7301</v>
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="6"/>
@@ -2991,7 +2991,7 @@
     <row r="256" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256">
-        <v>4147</v>
+        <v>2000</v>
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="6"/>
@@ -3001,7 +3001,7 @@
     <row r="257" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257">
-        <v>1953</v>
+        <v>4147</v>
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="6"/>
@@ -3011,7 +3011,7 @@
     <row r="258" spans="1:3">
       <c r="A258" s="1"/>
       <c r="B258">
-        <v>3956</v>
+        <v>1953</v>
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="6"/>
@@ -3021,7 +3021,7 @@
     <row r="259" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259">
-        <v>5463</v>
+        <v>3956</v>
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="6"/>
@@ -3029,11 +3029,9 @@
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" t="s">
-        <v>14</v>
-      </c>
+      <c r="A260" s="1"/>
       <c r="B260">
-        <v>8787</v>
+        <v>5463</v>
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="6"/>
@@ -3041,6 +3039,12 @@
       </c>
     </row>
     <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>14</v>
+      </c>
+      <c r="B261">
+        <v>8787</v>
+      </c>
       <c r="C261">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -3342,13 +3346,13 @@
     </row>
     <row r="311" spans="3:3">
       <c r="C311">
-        <f t="shared" ref="C311:C374" ca="1" si="7">IF(B311=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="3:3">
       <c r="C312">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="C312:C375" ca="1" si="7">IF(B312=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3726,13 +3730,13 @@
     </row>
     <row r="375" spans="3:3">
       <c r="C375">
-        <f t="shared" ref="C375:C438" ca="1" si="8">IF(B375=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="3:3">
       <c r="C376">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="C376:C439" ca="1" si="8">IF(B376=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4110,13 +4114,13 @@
     </row>
     <row r="439" spans="3:3">
       <c r="C439">
-        <f t="shared" ref="C439:C502" ca="1" si="9">IF(B439=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="440" spans="3:3">
       <c r="C440">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="C440:C503" ca="1" si="9">IF(B440=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4494,13 +4498,13 @@
     </row>
     <row r="503" spans="3:3">
       <c r="C503">
-        <f t="shared" ref="C503:C566" ca="1" si="10">IF(B503=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="504" spans="3:3">
       <c r="C504">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="C504:C567" ca="1" si="10">IF(B504=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4878,13 +4882,13 @@
     </row>
     <row r="567" spans="3:3">
       <c r="C567">
-        <f t="shared" ref="C567:C630" ca="1" si="11">IF(B567=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="568" spans="3:3">
       <c r="C568">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="C568:C631" ca="1" si="11">IF(B568=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5262,13 +5266,13 @@
     </row>
     <row r="631" spans="3:3">
       <c r="C631">
-        <f t="shared" ref="C631:C694" ca="1" si="12">IF(B631=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="632" spans="3:3">
       <c r="C632">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="C632:C695" ca="1" si="12">IF(B632=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5646,13 +5650,13 @@
     </row>
     <row r="695" spans="3:3">
       <c r="C695">
-        <f t="shared" ref="C695:C758" ca="1" si="13">IF(B695=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="696" spans="3:3">
       <c r="C696">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="C696:C759" ca="1" si="13">IF(B696=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6030,13 +6034,13 @@
     </row>
     <row r="759" spans="3:3">
       <c r="C759">
-        <f t="shared" ref="C759:C822" ca="1" si="14">IF(B759=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="760" spans="3:3">
       <c r="C760">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="C760:C823" ca="1" si="14">IF(B760=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6414,13 +6418,13 @@
     </row>
     <row r="823" spans="3:3">
       <c r="C823">
-        <f t="shared" ref="C823:C886" ca="1" si="15">IF(B823=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="824" spans="3:3">
       <c r="C824">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="C824:C887" ca="1" si="15">IF(B824=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6798,13 +6802,13 @@
     </row>
     <row r="887" spans="3:3">
       <c r="C887">
-        <f t="shared" ref="C887:C901" ca="1" si="16">IF(B887=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="888" spans="3:3">
       <c r="C888">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ref="C888:C902" ca="1" si="16">IF(B888=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6886,22 +6890,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="902" spans="3:3">
+      <c r="C902">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A226:A231"/>
-    <mergeCell ref="A243:A259"/>
+    <mergeCell ref="A227:A232"/>
+    <mergeCell ref="A244:A260"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="A79:A118"/>
-    <mergeCell ref="A217:A225"/>
-    <mergeCell ref="A198:A216"/>
-    <mergeCell ref="A169:A197"/>
-    <mergeCell ref="A157:A168"/>
-    <mergeCell ref="A119:A156"/>
-    <mergeCell ref="A232:A239"/>
-    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="A218:A226"/>
+    <mergeCell ref="A199:A217"/>
+    <mergeCell ref="A170:A198"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A119:A157"/>
+    <mergeCell ref="A233:A240"/>
+    <mergeCell ref="A241:A243"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E902"/>
+  <dimension ref="A1:E904"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M139" sqref="M139"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,7 +417,7 @@
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>9186</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1396,7 +1396,7 @@
         <v>7991</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:C166" ca="1" si="3">IF(B98=$E$1,1,0)</f>
+        <f t="shared" ref="C98:C168" ca="1" si="3">IF(B98=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
     <row r="162" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162">
-        <v>5728</v>
+        <v>4845</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="3"/>
@@ -2047,7 +2047,7 @@
     <row r="163" spans="1:3">
       <c r="A163" s="1"/>
       <c r="B163">
-        <v>1618</v>
+        <v>5728</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="3"/>
@@ -2057,7 +2057,7 @@
     <row r="164" spans="1:3">
       <c r="A164" s="1"/>
       <c r="B164">
-        <v>7491</v>
+        <v>1618</v>
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="3"/>
@@ -2067,7 +2067,7 @@
     <row r="165" spans="1:3">
       <c r="A165" s="1"/>
       <c r="B165">
-        <v>5923</v>
+        <v>9279</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="3"/>
@@ -2077,7 +2077,7 @@
     <row r="166" spans="1:3">
       <c r="A166" s="1"/>
       <c r="B166">
-        <v>4265</v>
+        <v>7491</v>
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="3"/>
@@ -2087,39 +2087,37 @@
     <row r="167" spans="1:3">
       <c r="A167" s="1"/>
       <c r="B167">
-        <v>2166</v>
+        <v>5923</v>
       </c>
       <c r="C167">
-        <f t="shared" ref="C167:C247" ca="1" si="4">IF(B167=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1"/>
       <c r="B168">
-        <v>9116</v>
+        <v>4265</v>
       </c>
       <c r="C168">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1"/>
       <c r="B169">
-        <v>9925</v>
+        <v>2166</v>
       </c>
       <c r="C169">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="C169:C249" ca="1" si="4">IF(B169=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A170" s="1"/>
       <c r="B170">
-        <v>2885</v>
+        <v>9116</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="4"/>
@@ -2129,7 +2127,7 @@
     <row r="171" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171">
-        <v>9931</v>
+        <v>9925</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="4"/>
@@ -2137,9 +2135,11 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B172">
-        <v>4425</v>
+        <v>2885</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="4"/>
@@ -2149,7 +2149,7 @@
     <row r="173" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173">
-        <v>1947</v>
+        <v>9931</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="4"/>
@@ -2159,7 +2159,7 @@
     <row r="174" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174">
-        <v>9696</v>
+        <v>4425</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="4"/>
@@ -2169,7 +2169,7 @@
     <row r="175" spans="1:3">
       <c r="A175" s="1"/>
       <c r="B175">
-        <v>1223</v>
+        <v>1947</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="4"/>
@@ -2179,7 +2179,7 @@
     <row r="176" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176">
-        <v>3946</v>
+        <v>9696</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="4"/>
@@ -2189,7 +2189,7 @@
     <row r="177" spans="1:3">
       <c r="A177" s="1"/>
       <c r="B177">
-        <v>8311</v>
+        <v>1223</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="4"/>
@@ -2199,7 +2199,7 @@
     <row r="178" spans="1:3">
       <c r="A178" s="1"/>
       <c r="B178">
-        <v>3134</v>
+        <v>3946</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="4"/>
@@ -2209,7 +2209,7 @@
     <row r="179" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179">
-        <v>9774</v>
+        <v>8311</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="4"/>
@@ -2219,7 +2219,7 @@
     <row r="180" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180">
-        <v>9711</v>
+        <v>3134</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="4"/>
@@ -2229,7 +2229,7 @@
     <row r="181" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181">
-        <v>3333</v>
+        <v>9774</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="4"/>
@@ -2239,7 +2239,7 @@
     <row r="182" spans="1:3">
       <c r="A182" s="1"/>
       <c r="B182">
-        <v>7290</v>
+        <v>9711</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="4"/>
@@ -2249,7 +2249,7 @@
     <row r="183" spans="1:3">
       <c r="A183" s="1"/>
       <c r="B183">
-        <v>5694</v>
+        <v>3333</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="4"/>
@@ -2259,7 +2259,7 @@
     <row r="184" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184">
-        <v>7035</v>
+        <v>7290</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="4"/>
@@ -2269,7 +2269,7 @@
     <row r="185" spans="1:3">
       <c r="A185" s="1"/>
       <c r="B185">
-        <v>6806</v>
+        <v>5694</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="4"/>
@@ -2279,7 +2279,7 @@
     <row r="186" spans="1:3">
       <c r="A186" s="1"/>
       <c r="B186">
-        <v>4515</v>
+        <v>7035</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="4"/>
@@ -2289,7 +2289,7 @@
     <row r="187" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187">
-        <v>9271</v>
+        <v>6806</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="4"/>
@@ -2299,7 +2299,7 @@
     <row r="188" spans="1:3">
       <c r="A188" s="1"/>
       <c r="B188">
-        <v>8769</v>
+        <v>4515</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="4"/>
@@ -2309,7 +2309,7 @@
     <row r="189" spans="1:3">
       <c r="A189" s="1"/>
       <c r="B189">
-        <v>4497</v>
+        <v>9271</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="4"/>
@@ -2319,7 +2319,7 @@
     <row r="190" spans="1:3">
       <c r="A190" s="1"/>
       <c r="B190">
-        <v>3940</v>
+        <v>8769</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="4"/>
@@ -2329,7 +2329,7 @@
     <row r="191" spans="1:3">
       <c r="A191" s="1"/>
       <c r="B191">
-        <v>8820</v>
+        <v>4497</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="4"/>
@@ -2339,7 +2339,7 @@
     <row r="192" spans="1:3">
       <c r="A192" s="1"/>
       <c r="B192">
-        <v>3218</v>
+        <v>3940</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="4"/>
@@ -2349,7 +2349,7 @@
     <row r="193" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193">
-        <v>4283</v>
+        <v>8820</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="4"/>
@@ -2359,17 +2359,17 @@
     <row r="194" spans="1:3">
       <c r="A194" s="1"/>
       <c r="B194">
-        <v>7703</v>
+        <v>3218</v>
       </c>
       <c r="C194">
-        <f ca="1">IF(B194=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195">
-        <v>9182</v>
+        <v>4283</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="4"/>
@@ -2379,17 +2379,17 @@
     <row r="196" spans="1:3">
       <c r="A196" s="1"/>
       <c r="B196">
-        <v>5541</v>
+        <v>7703</v>
       </c>
       <c r="C196">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(B196=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197">
-        <v>2386</v>
+        <v>9182</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="4"/>
@@ -2399,7 +2399,7 @@
     <row r="198" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198">
-        <v>9159</v>
+        <v>5541</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="4"/>
@@ -2407,11 +2407,9 @@
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A199" s="1"/>
       <c r="B199">
-        <v>6175</v>
+        <v>2386</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="4"/>
@@ -2421,7 +2419,7 @@
     <row r="200" spans="1:3">
       <c r="A200" s="1"/>
       <c r="B200">
-        <v>4642</v>
+        <v>9159</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="4"/>
@@ -2429,9 +2427,11 @@
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B201">
-        <v>4488</v>
+        <v>6175</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="4"/>
@@ -2441,7 +2441,7 @@
     <row r="202" spans="1:3">
       <c r="A202" s="1"/>
       <c r="B202">
-        <v>9765</v>
+        <v>4642</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="4"/>
@@ -2451,7 +2451,7 @@
     <row r="203" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203">
-        <v>4954</v>
+        <v>4488</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="4"/>
@@ -2461,7 +2461,7 @@
     <row r="204" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204">
-        <v>5537</v>
+        <v>9765</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="4"/>
@@ -2471,7 +2471,7 @@
     <row r="205" spans="1:3">
       <c r="A205" s="1"/>
       <c r="B205">
-        <v>6431</v>
+        <v>4954</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="4"/>
@@ -2481,7 +2481,7 @@
     <row r="206" spans="1:3">
       <c r="A206" s="1"/>
       <c r="B206">
-        <v>7193</v>
+        <v>5537</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="4"/>
@@ -2491,7 +2491,7 @@
     <row r="207" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207">
-        <v>5621</v>
+        <v>6431</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="4"/>
@@ -2501,7 +2501,7 @@
     <row r="208" spans="1:3">
       <c r="A208" s="1"/>
       <c r="B208">
-        <v>5847</v>
+        <v>7193</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="4"/>
@@ -2511,7 +2511,7 @@
     <row r="209" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209">
-        <v>4769</v>
+        <v>5621</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="4"/>
@@ -2521,7 +2521,7 @@
     <row r="210" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210">
-        <v>9930</v>
+        <v>5847</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="4"/>
@@ -2531,7 +2531,7 @@
     <row r="211" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211">
-        <v>3226</v>
+        <v>4769</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="4"/>
@@ -2541,7 +2541,7 @@
     <row r="212" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212">
-        <v>6861</v>
+        <v>9930</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="4"/>
@@ -2551,7 +2551,7 @@
     <row r="213" spans="1:3">
       <c r="A213" s="1"/>
       <c r="B213">
-        <v>2205</v>
+        <v>3226</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="4"/>
@@ -2561,7 +2561,7 @@
     <row r="214" spans="1:3">
       <c r="A214" s="1"/>
       <c r="B214">
-        <v>4372</v>
+        <v>6861</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="4"/>
@@ -2571,7 +2571,7 @@
     <row r="215" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215">
-        <v>4463</v>
+        <v>2205</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="4"/>
@@ -2581,7 +2581,7 @@
     <row r="216" spans="1:3">
       <c r="A216" s="1"/>
       <c r="B216">
-        <v>1668</v>
+        <v>4372</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="4"/>
@@ -2591,7 +2591,7 @@
     <row r="217" spans="1:3">
       <c r="A217" s="1"/>
       <c r="B217">
-        <v>2137</v>
+        <v>4463</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
@@ -2599,11 +2599,9 @@
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A218" s="1"/>
       <c r="B218">
-        <v>9300</v>
+        <v>1668</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
@@ -2613,7 +2611,7 @@
     <row r="219" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219">
-        <v>3951</v>
+        <v>2137</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="4"/>
@@ -2621,9 +2619,11 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="1"/>
+      <c r="A220" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B220">
-        <v>6409</v>
+        <v>9300</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
@@ -2633,7 +2633,7 @@
     <row r="221" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221">
-        <v>3290</v>
+        <v>3951</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
@@ -2643,7 +2643,7 @@
     <row r="222" spans="1:3">
       <c r="A222" s="1"/>
       <c r="B222">
-        <v>5309</v>
+        <v>6409</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="4"/>
@@ -2653,7 +2653,7 @@
     <row r="223" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223">
-        <v>5345</v>
+        <v>3290</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="4"/>
@@ -2663,7 +2663,7 @@
     <row r="224" spans="1:3">
       <c r="A224" s="1"/>
       <c r="B224">
-        <v>6812</v>
+        <v>5309</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
@@ -2673,7 +2673,7 @@
     <row r="225" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225">
-        <v>7343</v>
+        <v>5345</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="4"/>
@@ -2683,7 +2683,7 @@
     <row r="226" spans="1:3">
       <c r="A226" s="1"/>
       <c r="B226">
-        <v>7060</v>
+        <v>6812</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="4"/>
@@ -2691,11 +2691,9 @@
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A227" s="1"/>
       <c r="B227">
-        <v>9299</v>
+        <v>7343</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="4"/>
@@ -2705,7 +2703,7 @@
     <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228">
-        <v>7560</v>
+        <v>7060</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="4"/>
@@ -2713,9 +2711,11 @@
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="1"/>
+      <c r="A229" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B229">
-        <v>9002</v>
+        <v>9299</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="4"/>
@@ -2725,7 +2725,7 @@
     <row r="230" spans="1:3">
       <c r="A230" s="1"/>
       <c r="B230">
-        <v>7432</v>
+        <v>7560</v>
       </c>
       <c r="C230">
         <f t="shared" ca="1" si="4"/>
@@ -2735,7 +2735,7 @@
     <row r="231" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231">
-        <v>1954</v>
+        <v>9002</v>
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="4"/>
@@ -2745,7 +2745,7 @@
     <row r="232" spans="1:3">
       <c r="A232" s="1"/>
       <c r="B232">
-        <v>2048</v>
+        <v>7432</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="4"/>
@@ -2753,11 +2753,9 @@
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A233" s="1"/>
       <c r="B233">
-        <v>3939</v>
+        <v>1954</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="4"/>
@@ -2767,7 +2765,7 @@
     <row r="234" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234">
-        <v>8861</v>
+        <v>2048</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="4"/>
@@ -2775,39 +2773,41 @@
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="1"/>
+      <c r="A235" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B235">
-        <v>1516</v>
+        <v>3939</v>
       </c>
       <c r="C235">
-        <f t="shared" ref="C235:C243" ca="1" si="5">IF(B235=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1"/>
       <c r="B236">
-        <v>9062</v>
+        <v>8861</v>
       </c>
       <c r="C236">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237">
-        <v>5164</v>
+        <v>1516</v>
       </c>
       <c r="C237">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="C237:C245" ca="1" si="5">IF(B237=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1"/>
       <c r="B238">
-        <v>2030</v>
+        <v>9062</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="5"/>
@@ -2817,7 +2817,7 @@
     <row r="239" spans="1:3">
       <c r="A239" s="1"/>
       <c r="B239">
-        <v>7649</v>
+        <v>5164</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="5"/>
@@ -2827,7 +2827,7 @@
     <row r="240" spans="1:3">
       <c r="A240" s="1"/>
       <c r="B240">
-        <v>2354</v>
+        <v>2030</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="5"/>
@@ -2835,11 +2835,9 @@
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A241" s="1"/>
       <c r="B241">
-        <v>9701</v>
+        <v>7649</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="5"/>
@@ -2849,7 +2847,7 @@
     <row r="242" spans="1:3">
       <c r="A242" s="1"/>
       <c r="B242">
-        <v>3784</v>
+        <v>2354</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="5"/>
@@ -2857,9 +2855,11 @@
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="1"/>
+      <c r="A243" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B243">
-        <v>6732</v>
+        <v>9701</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="5"/>
@@ -2867,31 +2867,31 @@
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A244" s="1"/>
       <c r="B244">
-        <v>8403</v>
+        <v>3784</v>
       </c>
       <c r="C244">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245">
-        <v>3185</v>
+        <v>6732</v>
       </c>
       <c r="C245">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="1"/>
+      <c r="A246" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B246">
-        <v>9914</v>
+        <v>8403</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="4"/>
@@ -2901,7 +2901,7 @@
     <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247">
-        <v>6011</v>
+        <v>3185</v>
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="4"/>
@@ -2911,37 +2911,37 @@
     <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248">
-        <v>6037</v>
+        <v>9914</v>
       </c>
       <c r="C248">
-        <f t="shared" ref="C248:C311" ca="1" si="6">IF(B248=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249">
-        <v>2809</v>
+        <v>6011</v>
       </c>
       <c r="C249">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250">
-        <v>7297</v>
+        <v>6037</v>
       </c>
       <c r="C250">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="C250:C313" ca="1" si="6">IF(B250=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251">
-        <v>5242</v>
+        <v>2809</v>
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="6"/>
@@ -2951,7 +2951,7 @@
     <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252">
-        <v>1379</v>
+        <v>7297</v>
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="6"/>
@@ -2961,7 +2961,7 @@
     <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253">
-        <v>2401</v>
+        <v>5242</v>
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="6"/>
@@ -2971,7 +2971,7 @@
     <row r="254" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254">
-        <v>5421</v>
+        <v>1379</v>
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="6"/>
@@ -2981,7 +2981,7 @@
     <row r="255" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255">
-        <v>7301</v>
+        <v>2401</v>
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="6"/>
@@ -2991,7 +2991,7 @@
     <row r="256" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256">
-        <v>2000</v>
+        <v>5421</v>
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="6"/>
@@ -3001,7 +3001,7 @@
     <row r="257" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257">
-        <v>4147</v>
+        <v>7301</v>
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="6"/>
@@ -3011,7 +3011,7 @@
     <row r="258" spans="1:3">
       <c r="A258" s="1"/>
       <c r="B258">
-        <v>1953</v>
+        <v>2000</v>
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="6"/>
@@ -3021,7 +3021,7 @@
     <row r="259" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259">
-        <v>3956</v>
+        <v>4147</v>
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="6"/>
@@ -3031,7 +3031,7 @@
     <row r="260" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260">
-        <v>5463</v>
+        <v>1953</v>
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="6"/>
@@ -3039,11 +3039,9 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" t="s">
-        <v>14</v>
-      </c>
+      <c r="A261" s="1"/>
       <c r="B261">
-        <v>8787</v>
+        <v>3956</v>
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="6"/>
@@ -3051,12 +3049,22 @@
       </c>
     </row>
     <row r="262" spans="1:3">
+      <c r="A262" s="1"/>
+      <c r="B262">
+        <v>5463</v>
+      </c>
       <c r="C262">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>14</v>
+      </c>
+      <c r="B263">
+        <v>8787</v>
+      </c>
       <c r="C263">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -3352,19 +3360,19 @@
     </row>
     <row r="312" spans="3:3">
       <c r="C312">
-        <f t="shared" ref="C312:C375" ca="1" si="7">IF(B312=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="3:3">
       <c r="C313">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="3:3">
       <c r="C314">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="C314:C377" ca="1" si="7">IF(B314=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3736,19 +3744,19 @@
     </row>
     <row r="376" spans="3:3">
       <c r="C376">
-        <f t="shared" ref="C376:C439" ca="1" si="8">IF(B376=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="377" spans="3:3">
       <c r="C377">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="3:3">
       <c r="C378">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="C378:C441" ca="1" si="8">IF(B378=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4120,19 +4128,19 @@
     </row>
     <row r="440" spans="3:3">
       <c r="C440">
-        <f t="shared" ref="C440:C503" ca="1" si="9">IF(B440=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="441" spans="3:3">
       <c r="C441">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="442" spans="3:3">
       <c r="C442">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="C442:C505" ca="1" si="9">IF(B442=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4504,19 +4512,19 @@
     </row>
     <row r="504" spans="3:3">
       <c r="C504">
-        <f t="shared" ref="C504:C567" ca="1" si="10">IF(B504=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="505" spans="3:3">
       <c r="C505">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="506" spans="3:3">
       <c r="C506">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="C506:C569" ca="1" si="10">IF(B506=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4888,19 +4896,19 @@
     </row>
     <row r="568" spans="3:3">
       <c r="C568">
-        <f t="shared" ref="C568:C631" ca="1" si="11">IF(B568=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="569" spans="3:3">
       <c r="C569">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="570" spans="3:3">
       <c r="C570">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="C570:C633" ca="1" si="11">IF(B570=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5272,19 +5280,19 @@
     </row>
     <row r="632" spans="3:3">
       <c r="C632">
-        <f t="shared" ref="C632:C695" ca="1" si="12">IF(B632=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="633" spans="3:3">
       <c r="C633">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="634" spans="3:3">
       <c r="C634">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="C634:C697" ca="1" si="12">IF(B634=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5656,19 +5664,19 @@
     </row>
     <row r="696" spans="3:3">
       <c r="C696">
-        <f t="shared" ref="C696:C759" ca="1" si="13">IF(B696=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="697" spans="3:3">
       <c r="C697">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="698" spans="3:3">
       <c r="C698">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="C698:C761" ca="1" si="13">IF(B698=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6040,19 +6048,19 @@
     </row>
     <row r="760" spans="3:3">
       <c r="C760">
-        <f t="shared" ref="C760:C823" ca="1" si="14">IF(B760=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="761" spans="3:3">
       <c r="C761">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="762" spans="3:3">
       <c r="C762">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="C762:C825" ca="1" si="14">IF(B762=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6424,19 +6432,19 @@
     </row>
     <row r="824" spans="3:3">
       <c r="C824">
-        <f t="shared" ref="C824:C887" ca="1" si="15">IF(B824=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="825" spans="3:3">
       <c r="C825">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="826" spans="3:3">
       <c r="C826">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="C826:C889" ca="1" si="15">IF(B826=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6808,19 +6816,19 @@
     </row>
     <row r="888" spans="3:3">
       <c r="C888">
-        <f t="shared" ref="C888:C902" ca="1" si="16">IF(B888=$E$1,1,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="889" spans="3:3">
       <c r="C889">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="890" spans="3:3">
       <c r="C890">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ref="C890:C904" ca="1" si="16">IF(B890=$E$1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6896,22 +6904,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="903" spans="3:3">
+      <c r="C903">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="3:3">
+      <c r="C904">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A227:A232"/>
-    <mergeCell ref="A244:A260"/>
+    <mergeCell ref="A229:A234"/>
+    <mergeCell ref="A246:A262"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="A79:A118"/>
-    <mergeCell ref="A218:A226"/>
-    <mergeCell ref="A199:A217"/>
-    <mergeCell ref="A170:A198"/>
-    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A220:A228"/>
+    <mergeCell ref="A201:A219"/>
+    <mergeCell ref="A172:A200"/>
+    <mergeCell ref="A158:A171"/>
     <mergeCell ref="A119:A157"/>
-    <mergeCell ref="A233:A240"/>
-    <mergeCell ref="A241:A243"/>
+    <mergeCell ref="A235:A242"/>
+    <mergeCell ref="A243:A245"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="13335" windowHeight="7680"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -66,8 +66,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,7 +104,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,9 +117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -191,6 +191,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,9 +226,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,27 +402,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E904"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E905"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F164" sqref="F164"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1">
         <f ca="1">SUM(C:C)</f>
         <v>0</v>
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>4131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>1860</v>
@@ -442,7 +444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>4764</v>
@@ -452,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>2429</v>
@@ -462,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>7472</v>
@@ -472,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>3862</v>
@@ -482,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>9231</v>
@@ -492,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>8624</v>
@@ -502,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>2959</v>
@@ -512,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>7271</v>
@@ -522,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>2632</v>
@@ -532,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>4343</v>
@@ -542,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>1517</v>
@@ -552,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>1413</v>
@@ -562,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>9405</v>
@@ -572,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -584,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18">
         <v>9298</v>
@@ -594,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19">
         <v>3354</v>
@@ -604,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20">
         <v>8569</v>
@@ -614,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21">
         <v>3730</v>
@@ -624,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22">
         <v>9007</v>
@@ -634,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23">
         <v>5201</v>
@@ -644,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24">
         <v>2981</v>
@@ -654,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25">
         <v>4312</v>
@@ -664,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26">
         <v>8428</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27">
         <v>2361</v>
@@ -684,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28">
         <v>5063</v>
@@ -694,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29">
         <v>7711</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30">
         <v>8833</v>
@@ -714,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31">
         <v>1262</v>
@@ -724,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32">
         <v>9020</v>
@@ -734,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33">
         <v>1934</v>
@@ -744,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34">
         <v>7237</v>
@@ -754,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35">
         <v>3943</v>
@@ -764,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36">
         <v>7619</v>
@@ -774,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37">
         <v>3832</v>
@@ -784,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38">
         <v>1346</v>
@@ -794,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39">
         <v>9622</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40">
         <v>8873</v>
@@ -814,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41">
         <v>7799</v>
@@ -824,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42">
         <v>9354</v>
@@ -834,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43">
         <v>9130</v>
@@ -844,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44">
         <v>5895</v>
@@ -854,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45">
         <v>2461</v>
@@ -864,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46">
         <v>2790</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47">
         <v>2624</v>
@@ -884,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48">
         <v>5871</v>
@@ -894,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49">
         <v>9164</v>
@@ -904,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50">
         <v>7457</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51">
         <v>9865</v>
@@ -924,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52">
         <v>3591</v>
@@ -934,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53">
         <v>3558</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54">
         <v>4366</v>
@@ -954,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55">
         <v>5789</v>
@@ -964,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56">
         <v>6522</v>
@@ -974,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -986,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58">
         <v>1288</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59">
         <v>2614</v>
@@ -1006,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60">
         <v>7170</v>
@@ -1016,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61">
         <v>2709</v>
@@ -1026,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62">
         <v>3402</v>
@@ -1036,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63">
         <v>8781</v>
@@ -1046,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64">
         <v>8771</v>
@@ -1056,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65">
         <v>3091</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66">
         <v>2195</v>
@@ -1076,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67">
         <v>1184</v>
@@ -1086,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68">
         <v>2667</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69">
         <v>5917</v>
@@ -1106,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70">
         <v>3929</v>
@@ -1116,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71">
         <v>3083</v>
@@ -1126,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72">
         <v>7546</v>
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74">
         <v>6598</v>
@@ -1158,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75">
         <v>3093</v>
@@ -1168,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76">
         <v>8805</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77">
         <v>8158</v>
@@ -1188,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78">
         <v>6499</v>
@@ -1198,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80">
         <v>2217</v>
@@ -1220,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81">
         <v>1824</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82">
         <v>2564</v>
@@ -1240,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83">
         <v>8487</v>
@@ -1250,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84">
         <v>8045</v>
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85">
         <v>8878</v>
@@ -1270,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86">
         <v>3072</v>
@@ -1280,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87">
         <v>5980</v>
@@ -1290,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88">
         <v>8174</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89">
         <v>4257</v>
@@ -1310,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90">
         <v>2291</v>
@@ -1320,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91">
         <v>1763</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92">
         <v>5662</v>
@@ -1340,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93">
         <v>1945</v>
@@ -1350,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94">
         <v>1186</v>
@@ -1360,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95">
         <v>8715</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96">
         <v>8518</v>
@@ -1380,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97">
         <v>4847</v>
@@ -1390,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98">
         <v>7991</v>
@@ -1400,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99">
         <v>6291</v>
@@ -1410,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100">
         <v>3770</v>
@@ -1420,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101">
         <v>7178</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102">
         <v>3883</v>
@@ -1440,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103">
         <v>4527</v>
@@ -1450,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104">
         <v>6556</v>
@@ -1460,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105">
         <v>5635</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106">
         <v>3878</v>
@@ -1480,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107">
         <v>1217</v>
@@ -1490,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108">
         <v>1438</v>
@@ -1500,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109">
         <v>2153</v>
@@ -1510,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110">
         <v>7937</v>
@@ -1520,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111">
         <v>1999</v>
@@ -1530,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112">
         <v>4042</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113">
         <v>6351</v>
@@ -1550,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114">
         <v>5382</v>
@@ -1560,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115">
         <v>7088</v>
@@ -1570,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116">
         <v>7250</v>
@@ -1580,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117">
         <v>6740</v>
@@ -1590,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118">
         <v>9038</v>
@@ -1600,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
@@ -1612,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120">
         <v>8495</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121">
         <v>1315</v>
@@ -1632,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122">
         <v>6066</v>
@@ -1642,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123">
         <v>2565</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124">
         <v>2594</v>
@@ -1662,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125">
         <v>3762</v>
@@ -1672,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126">
         <v>3550</v>
@@ -1682,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127">
         <v>2475</v>
@@ -1692,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128">
         <v>9180</v>
@@ -1702,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129">
         <v>1544</v>
@@ -1712,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130">
         <v>9562</v>
@@ -1722,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131">
         <v>3669</v>
@@ -1732,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132">
         <v>5951</v>
@@ -1742,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133">
         <v>2802</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134">
         <v>6580</v>
@@ -1762,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135">
         <v>7585</v>
@@ -1772,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136">
         <v>2321</v>
@@ -1782,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137">
         <v>5053</v>
@@ -1792,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138">
         <v>3983</v>
@@ -1802,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139">
         <v>8770</v>
@@ -1812,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140">
         <v>4236</v>
@@ -1822,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141">
         <v>5969</v>
@@ -1832,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142">
         <v>8696</v>
@@ -1842,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143">
         <v>1483</v>
@@ -1852,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144">
         <v>8418</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145">
         <v>8395</v>
@@ -1872,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146">
         <v>5170</v>
@@ -1882,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147">
         <v>5568</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148">
         <v>2592</v>
@@ -1902,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149">
         <v>4075</v>
@@ -1912,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150">
         <v>7517</v>
@@ -1922,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151">
         <v>5448</v>
@@ -1932,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152">
         <v>6572</v>
@@ -1942,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153">
         <v>5238</v>
@@ -1952,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154">
         <v>2084</v>
@@ -1962,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155">
         <v>5411</v>
@@ -1972,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156">
         <v>5171</v>
@@ -1982,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157">
         <v>1862</v>
@@ -1992,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159">
         <v>9001</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160">
         <v>9631</v>
@@ -2024,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161">
         <v>9812</v>
@@ -2034,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162">
         <v>4845</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163">
         <v>5728</v>
@@ -2054,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164">
         <v>1618</v>
@@ -2064,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165">
         <v>9279</v>
@@ -2074,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166">
         <v>7491</v>
@@ -2084,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167">
         <v>5923</v>
@@ -2094,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168">
         <v>4265</v>
@@ -2104,17 +2106,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169">
         <v>2166</v>
       </c>
       <c r="C169">
-        <f t="shared" ref="C169:C249" ca="1" si="4">IF(B169=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <f t="shared" ref="C169:C250" ca="1" si="4">IF(B169=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170">
         <v>9116</v>
@@ -2124,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171">
         <v>9925</v>
@@ -2134,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>7</v>
       </c>
@@ -2146,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173">
         <v>9931</v>
@@ -2156,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174">
         <v>4425</v>
@@ -2166,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175">
         <v>1947</v>
@@ -2176,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176">
         <v>9696</v>
@@ -2186,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177">
         <v>1223</v>
@@ -2196,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178">
         <v>3946</v>
@@ -2206,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179">
         <v>8311</v>
@@ -2216,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180">
         <v>3134</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181">
         <v>9774</v>
@@ -2236,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182">
         <v>9711</v>
@@ -2246,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183">
         <v>3333</v>
@@ -2256,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184">
         <v>7290</v>
@@ -2266,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185">
         <v>5694</v>
@@ -2276,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186">
         <v>7035</v>
@@ -2286,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187">
         <v>6806</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188">
         <v>4515</v>
@@ -2306,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189">
         <v>9271</v>
@@ -2316,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190">
         <v>8769</v>
@@ -2326,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191">
         <v>4497</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192">
         <v>3940</v>
@@ -2346,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193">
         <v>8820</v>
@@ -2356,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194">
         <v>3218</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195">
         <v>4283</v>
@@ -2376,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196">
         <v>7703</v>
@@ -2386,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197">
         <v>9182</v>
@@ -2396,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198">
         <v>5541</v>
@@ -2406,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199">
         <v>2386</v>
@@ -2416,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200">
         <v>9159</v>
@@ -2426,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>8</v>
       </c>
@@ -2438,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202">
         <v>4642</v>
@@ -2448,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203">
         <v>4488</v>
@@ -2458,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204">
         <v>9765</v>
@@ -2468,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205">
         <v>4954</v>
@@ -2478,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206">
         <v>5537</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207">
         <v>6431</v>
@@ -2498,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208">
         <v>7193</v>
@@ -2508,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209">
         <v>5621</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210">
         <v>5847</v>
@@ -2528,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211">
         <v>4769</v>
@@ -2538,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212">
         <v>9930</v>
@@ -2548,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213">
         <v>3226</v>
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214">
         <v>6861</v>
@@ -2568,4370 +2570,4380 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215">
-        <v>2205</v>
+        <v>5032</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216">
-        <v>4372</v>
+        <v>2205</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217">
-        <v>4463</v>
+        <v>4372</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218">
-        <v>1668</v>
+        <v>4463</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219">
+        <v>1668</v>
+      </c>
+      <c r="C219">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="B220">
         <v>2137</v>
       </c>
-      <c r="C219">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="1" t="s">
+      <c r="C220">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B220">
+      <c r="B221">
         <v>9300</v>
       </c>
-      <c r="C220">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="1"/>
-      <c r="B221">
-        <v>3951</v>
-      </c>
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222">
-        <v>6409</v>
+        <v>3951</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223">
-        <v>3290</v>
+        <v>6409</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224">
-        <v>5309</v>
+        <v>3290</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225">
-        <v>5345</v>
+        <v>5309</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226">
-        <v>6812</v>
+        <v>5345</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227">
-        <v>7343</v>
+        <v>6812</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228">
+        <v>7343</v>
+      </c>
+      <c r="C228">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="B229">
         <v>7060</v>
       </c>
-      <c r="C228">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="1" t="s">
+      <c r="C229">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B229">
+      <c r="B230">
         <v>9299</v>
       </c>
-      <c r="C229">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="1"/>
-      <c r="B230">
-        <v>7560</v>
-      </c>
       <c r="C230">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231">
-        <v>9002</v>
+        <v>7560</v>
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232">
-        <v>7432</v>
+        <v>9002</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233">
-        <v>1954</v>
+        <v>7432</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234">
+        <v>1954</v>
+      </c>
+      <c r="C234">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235">
         <v>2048</v>
       </c>
-      <c r="C234">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="1" t="s">
+      <c r="C235">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B235">
+      <c r="B236">
         <v>3939</v>
       </c>
-      <c r="C235">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="1"/>
-      <c r="B236">
-        <v>8861</v>
-      </c>
       <c r="C236">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237">
-        <v>1516</v>
+        <v>8861</v>
       </c>
       <c r="C237">
-        <f t="shared" ref="C237:C245" ca="1" si="5">IF(B237=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238">
-        <v>9062</v>
+        <v>1516</v>
       </c>
       <c r="C238">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <f t="shared" ref="C238:C246" ca="1" si="5">IF(B238=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239">
-        <v>5164</v>
+        <v>9062</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240">
-        <v>2030</v>
+        <v>5164</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241">
-        <v>7649</v>
+        <v>2030</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242">
-        <v>2354</v>
+        <v>7649</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
       <c r="B243">
-        <v>9701</v>
+        <v>2354</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="1"/>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B244">
-        <v>3784</v>
+        <v>9701</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245">
-        <v>6732</v>
+        <v>3784</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="1" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+      <c r="B246">
+        <v>6732</v>
+      </c>
+      <c r="C246">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B246">
+      <c r="B247">
         <v>8403</v>
       </c>
-      <c r="C246">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="1"/>
-      <c r="B247">
-        <v>3185</v>
-      </c>
       <c r="C247">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248">
-        <v>9914</v>
+        <v>3185</v>
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249">
-        <v>6011</v>
+        <v>9914</v>
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250">
-        <v>6037</v>
+        <v>6011</v>
       </c>
       <c r="C250">
-        <f t="shared" ref="C250:C313" ca="1" si="6">IF(B250=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251">
-        <v>2809</v>
+        <v>6037</v>
       </c>
       <c r="C251">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <f t="shared" ref="C251:C314" ca="1" si="6">IF(B251=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252">
-        <v>7297</v>
+        <v>2809</v>
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253">
-        <v>5242</v>
+        <v>7297</v>
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254">
-        <v>1379</v>
+        <v>5242</v>
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255">
-        <v>2401</v>
+        <v>1379</v>
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256">
-        <v>5421</v>
+        <v>2401</v>
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257">
-        <v>7301</v>
+        <v>5421</v>
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258">
-        <v>2000</v>
+        <v>7301</v>
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259">
-        <v>4147</v>
+        <v>2000</v>
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260">
-        <v>1953</v>
+        <v>4147</v>
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261">
-        <v>3956</v>
+        <v>1953</v>
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262">
-        <v>5463</v>
+        <v>3956</v>
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
-      <c r="A263" t="s">
-        <v>14</v>
-      </c>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
       <c r="B263">
-        <v>8787</v>
+        <v>5463</v>
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>14</v>
+      </c>
+      <c r="B264">
+        <v>8787</v>
+      </c>
       <c r="C264">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C265">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C266">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C267">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C268">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C269">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C270">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C271">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C272">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:3">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:3">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:3">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:3">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:3">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:3">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:3">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:3">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:3">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:3">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:3">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:3">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:3">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:3">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:3">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:3">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:3">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:3">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:3">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:3">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C292">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:3">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C293">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:3">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C294">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:3">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C295">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:3">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C296">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:3">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C297">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:3">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C298">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:3">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C299">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:3">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C300">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:3">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C301">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:3">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C302">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:3">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C303">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:3">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C304">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:3">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C305">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:3">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C306">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:3">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C307">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:3">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C308">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:3">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C309">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:3">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C310">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:3">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C311">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:3">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C312">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:3">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C313">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:3">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C314">
-        <f t="shared" ref="C314:C377" ca="1" si="7">IF(B314=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="3:3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C315">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="3:3">
+        <f t="shared" ref="C315:C378" ca="1" si="7">IF(B315=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C316">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:3">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C317">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:3">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C318">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:3">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C319">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:3">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C320">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:3">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C321">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:3">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C322">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:3">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C323">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:3">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C324">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:3">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C325">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:3">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C326">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:3">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C327">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:3">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C328">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:3">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C329">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:3">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C330">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:3">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C331">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:3">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C332">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:3">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C333">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:3">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C334">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:3">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C335">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:3">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C336">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:3">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C337">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:3">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C338">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:3">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C339">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:3">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C340">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:3">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C341">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:3">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C342">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:3">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C343">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:3">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C344">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:3">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C345">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:3">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C346">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:3">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C347">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:3">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C348">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:3">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C349">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:3">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C350">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:3">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C351">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:3">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C352">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:3">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C353">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:3">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C354">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:3">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C355">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:3">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C356">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:3">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C357">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:3">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C358">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:3">
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C359">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:3">
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C360">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:3">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C361">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:3">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C362">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:3">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C363">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:3">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C364">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:3">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C365">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:3">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C366">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:3">
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C367">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:3">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C368">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:3">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C369">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:3">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C370">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:3">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C371">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:3">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C372">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:3">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C373">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:3">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C374">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:3">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C375">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:3">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C376">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:3">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C377">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:3">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C378">
-        <f t="shared" ref="C378:C441" ca="1" si="8">IF(B378=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="3:3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C379">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="3:3">
+        <f t="shared" ref="C379:C442" ca="1" si="8">IF(B379=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C380">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:3">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C381">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:3">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C382">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:3">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C383">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:3">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C384">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:3">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C385">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:3">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C386">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:3">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C387">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:3">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C388">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:3">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C389">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:3">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C390">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:3">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C391">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:3">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C392">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:3">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C393">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:3">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C394">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:3">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C395">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:3">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C396">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:3">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C397">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:3">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C398">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:3">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C399">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:3">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C400">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:3">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C401">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:3">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C402">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:3">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C403">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:3">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C404">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:3">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C405">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:3">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C406">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:3">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C407">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:3">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C408">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:3">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C409">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:3">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C410">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:3">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C411">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:3">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C412">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:3">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C413">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:3">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C414">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:3">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C415">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:3">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C416">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:3">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C417">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:3">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C418">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:3">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C419">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:3">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C420">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:3">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C421">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:3">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C422">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:3">
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C423">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:3">
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C424">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:3">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C425">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:3">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C426">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:3">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C427">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:3">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C428">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:3">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C429">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:3">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C430">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:3">
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C431">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:3">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C432">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:3">
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C433">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:3">
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C434">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:3">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C435">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:3">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C436">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:3">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C437">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:3">
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C438">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:3">
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C439">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:3">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C440">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:3">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C441">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:3">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C442">
-        <f t="shared" ref="C442:C505" ca="1" si="9">IF(B442=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="3:3">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C443">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="3:3">
+        <f t="shared" ref="C443:C506" ca="1" si="9">IF(B443=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C444">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="3:3">
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C445">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:3">
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C446">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:3">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C447">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:3">
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C448">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:3">
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C449">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:3">
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C450">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:3">
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C451">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:3">
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C452">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:3">
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C453">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:3">
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C454">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:3">
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C455">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:3">
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C456">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:3">
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C457">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:3">
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C458">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:3">
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C459">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:3">
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C460">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:3">
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C461">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:3">
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C462">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:3">
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C463">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:3">
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C464">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:3">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C465">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:3">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C466">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:3">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C467">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:3">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C468">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:3">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C469">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:3">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C470">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:3">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C471">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:3">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C472">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:3">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C473">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:3">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C474">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:3">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C475">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:3">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C476">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:3">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C477">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:3">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C478">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:3">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C479">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:3">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C480">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:3">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C481">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:3">
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C482">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:3">
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C483">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:3">
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C484">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:3">
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C485">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:3">
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C486">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:3">
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C487">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:3">
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C488">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:3">
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C489">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:3">
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C490">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:3">
+    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C491">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:3">
+    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C492">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:3">
+    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C493">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:3">
+    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C494">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:3">
+    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C495">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:3">
+    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C496">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:3">
+    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C497">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:3">
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C498">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:3">
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C499">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:3">
+    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C500">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:3">
+    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C501">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:3">
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C502">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:3">
+    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C503">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:3">
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C504">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:3">
+    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C505">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:3">
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C506">
-        <f t="shared" ref="C506:C569" ca="1" si="10">IF(B506=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="3:3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C507">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="3:3">
+        <f t="shared" ref="C507:C570" ca="1" si="10">IF(B507=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C508">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="3:3">
+    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C509">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="3:3">
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C510">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:3">
+    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C511">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:3">
+    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C512">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:3">
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C513">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:3">
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C514">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:3">
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C515">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:3">
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C516">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:3">
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C517">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:3">
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C518">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:3">
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C519">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:3">
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C520">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:3">
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C521">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:3">
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C522">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:3">
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C523">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:3">
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C524">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:3">
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C525">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:3">
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C526">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:3">
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C527">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:3">
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C528">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:3">
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C529">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:3">
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C530">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:3">
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C531">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:3">
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C532">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:3">
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C533">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:3">
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C534">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:3">
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C535">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:3">
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C536">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:3">
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C537">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:3">
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C538">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:3">
+    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C539">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:3">
+    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C540">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:3">
+    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C541">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:3">
+    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C542">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:3">
+    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C543">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:3">
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C544">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:3">
+    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C545">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:3">
+    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C546">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:3">
+    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C547">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:3">
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C548">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:3">
+    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C549">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:3">
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C550">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:3">
+    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C551">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:3">
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C552">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:3">
+    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C553">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:3">
+    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C554">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:3">
+    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C555">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:3">
+    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C556">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:3">
+    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C557">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:3">
+    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C558">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:3">
+    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C559">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:3">
+    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C560">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:3">
+    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C561">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:3">
+    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C562">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:3">
+    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C563">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:3">
+    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C564">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:3">
+    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C565">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:3">
+    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C566">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:3">
+    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C567">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:3">
+    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C568">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:3">
+    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C569">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:3">
+    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C570">
-        <f t="shared" ref="C570:C633" ca="1" si="11">IF(B570=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571" spans="3:3">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C571">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572" spans="3:3">
+        <f t="shared" ref="C571:C634" ca="1" si="11">IF(B571=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C572">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:3">
+    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C573">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:3">
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C574">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:3">
+    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C575">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:3">
+    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C576">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:3">
+    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C577">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:3">
+    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C578">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:3">
+    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C579">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:3">
+    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C580">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:3">
+    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C581">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:3">
+    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C582">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:3">
+    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C583">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:3">
+    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C584">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:3">
+    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C585">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:3">
+    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C586">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:3">
+    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C587">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:3">
+    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C588">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:3">
+    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C589">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:3">
+    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C590">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:3">
+    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C591">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:3">
+    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C592">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:3">
+    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C593">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:3">
+    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C594">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:3">
+    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C595">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:3">
+    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C596">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:3">
+    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C597">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:3">
+    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C598">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:3">
+    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C599">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:3">
+    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C600">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:3">
+    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C601">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:3">
+    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C602">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:3">
+    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C603">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:3">
+    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C604">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:3">
+    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C605">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:3">
+    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C606">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:3">
+    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C607">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:3">
+    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C608">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:3">
+    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C609">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:3">
+    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C610">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:3">
+    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C611">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:3">
+    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C612">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:3">
+    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C613">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:3">
+    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C614">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:3">
+    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C615">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:3">
+    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C616">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:3">
+    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C617">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:3">
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C618">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:3">
+    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C619">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:3">
+    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C620">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:3">
+    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C621">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:3">
+    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C622">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:3">
+    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C623">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:3">
+    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C624">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:3">
+    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C625">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:3">
+    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C626">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:3">
+    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C627">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:3">
+    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C628">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:3">
+    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C629">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:3">
+    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C630">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:3">
+    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C631">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:3">
+    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C632">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:3">
+    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C633">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:3">
+    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C634">
-        <f t="shared" ref="C634:C697" ca="1" si="12">IF(B634=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" spans="3:3">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C635">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="3:3">
+        <f t="shared" ref="C635:C698" ca="1" si="12">IF(B635=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C636">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:3">
+    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C637">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:3">
+    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C638">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:3">
+    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C639">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:3">
+    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C640">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:3">
+    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C641">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:3">
+    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C642">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:3">
+    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C643">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:3">
+    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C644">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:3">
+    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C645">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:3">
+    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C646">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:3">
+    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C647">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:3">
+    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C648">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:3">
+    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C649">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:3">
+    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C650">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:3">
+    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C651">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:3">
+    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C652">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:3">
+    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C653">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:3">
+    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C654">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:3">
+    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C655">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:3">
+    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C656">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:3">
+    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C657">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:3">
+    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C658">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:3">
+    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C659">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:3">
+    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C660">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:3">
+    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C661">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:3">
+    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C662">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:3">
+    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C663">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:3">
+    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C664">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:3">
+    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C665">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:3">
+    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C666">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:3">
+    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C667">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:3">
+    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C668">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:3">
+    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C669">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:3">
+    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C670">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="3:3">
+    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C671">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="3:3">
+    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C672">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="3:3">
+    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C673">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="3:3">
+    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C674">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="3:3">
+    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C675">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="3:3">
+    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C676">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="3:3">
+    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C677">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="3:3">
+    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C678">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="3:3">
+    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C679">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="3:3">
+    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C680">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="3:3">
+    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C681">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="3:3">
+    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C682">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="3:3">
+    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C683">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="3:3">
+    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C684">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="3:3">
+    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C685">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="3:3">
+    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C686">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="3:3">
+    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C687">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="3:3">
+    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C688">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="3:3">
+    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C689">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="3:3">
+    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C690">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="3:3">
+    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C691">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="3:3">
+    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C692">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="3:3">
+    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C693">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="3:3">
+    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C694">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="3:3">
+    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C695">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="3:3">
+    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C696">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="3:3">
+    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C697">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="3:3">
+    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C698">
-        <f t="shared" ref="C698:C761" ca="1" si="13">IF(B698=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="699" spans="3:3">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C699">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="700" spans="3:3">
+        <f t="shared" ref="C699:C762" ca="1" si="13">IF(B699=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C700">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="3:3">
+    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C701">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="3:3">
+    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C702">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="3:3">
+    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C703">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="3:3">
+    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C704">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="3:3">
+    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C705">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="3:3">
+    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C706">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="3:3">
+    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C707">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="3:3">
+    <row r="708" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C708">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="3:3">
+    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C709">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="3:3">
+    <row r="710" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C710">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="3:3">
+    <row r="711" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C711">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="3:3">
+    <row r="712" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C712">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="3:3">
+    <row r="713" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C713">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="3:3">
+    <row r="714" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C714">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="3:3">
+    <row r="715" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C715">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="3:3">
+    <row r="716" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C716">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="3:3">
+    <row r="717" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C717">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="3:3">
+    <row r="718" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C718">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="3:3">
+    <row r="719" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C719">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="3:3">
+    <row r="720" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C720">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="3:3">
+    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C721">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="3:3">
+    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C722">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="3:3">
+    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C723">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="3:3">
+    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C724">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="3:3">
+    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C725">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="3:3">
+    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C726">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="3:3">
+    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C727">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="3:3">
+    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C728">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="3:3">
+    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C729">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="3:3">
+    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C730">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="3:3">
+    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C731">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="3:3">
+    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C732">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="3:3">
+    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C733">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="3:3">
+    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C734">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="3:3">
+    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C735">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="3:3">
+    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C736">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="3:3">
+    <row r="737" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C737">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="3:3">
+    <row r="738" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C738">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="3:3">
+    <row r="739" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C739">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="3:3">
+    <row r="740" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C740">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="3:3">
+    <row r="741" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C741">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="3:3">
+    <row r="742" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C742">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="3:3">
+    <row r="743" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C743">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="3:3">
+    <row r="744" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C744">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="3:3">
+    <row r="745" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C745">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="3:3">
+    <row r="746" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C746">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="3:3">
+    <row r="747" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C747">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="3:3">
+    <row r="748" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C748">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="3:3">
+    <row r="749" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C749">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="3:3">
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C750">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="3:3">
+    <row r="751" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C751">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="3:3">
+    <row r="752" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C752">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="3:3">
+    <row r="753" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C753">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="3:3">
+    <row r="754" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C754">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="3:3">
+    <row r="755" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C755">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="3:3">
+    <row r="756" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C756">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="3:3">
+    <row r="757" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C757">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="3:3">
+    <row r="758" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C758">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="3:3">
+    <row r="759" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C759">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="3:3">
+    <row r="760" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C760">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="3:3">
+    <row r="761" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C761">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="3:3">
+    <row r="762" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C762">
-        <f t="shared" ref="C762:C825" ca="1" si="14">IF(B762=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763" spans="3:3">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C763">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="764" spans="3:3">
+        <f t="shared" ref="C763:C826" ca="1" si="14">IF(B763=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C764">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="3:3">
+    <row r="765" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C765">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="3:3">
+    <row r="766" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C766">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="3:3">
+    <row r="767" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C767">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="3:3">
+    <row r="768" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C768">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="3:3">
+    <row r="769" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C769">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="3:3">
+    <row r="770" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C770">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="3:3">
+    <row r="771" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C771">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="3:3">
+    <row r="772" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C772">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="3:3">
+    <row r="773" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C773">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="3:3">
+    <row r="774" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C774">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="3:3">
+    <row r="775" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C775">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="3:3">
+    <row r="776" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C776">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="3:3">
+    <row r="777" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C777">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="3:3">
+    <row r="778" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C778">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="3:3">
+    <row r="779" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C779">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="3:3">
+    <row r="780" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C780">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="3:3">
+    <row r="781" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C781">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="3:3">
+    <row r="782" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C782">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="3:3">
+    <row r="783" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C783">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="3:3">
+    <row r="784" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C784">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="3:3">
+    <row r="785" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C785">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="3:3">
+    <row r="786" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C786">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="3:3">
+    <row r="787" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C787">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="3:3">
+    <row r="788" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C788">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="3:3">
+    <row r="789" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C789">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="3:3">
+    <row r="790" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C790">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="3:3">
+    <row r="791" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C791">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="3:3">
+    <row r="792" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C792">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="3:3">
+    <row r="793" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C793">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="3:3">
+    <row r="794" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C794">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="3:3">
+    <row r="795" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C795">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="3:3">
+    <row r="796" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C796">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="3:3">
+    <row r="797" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C797">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="3:3">
+    <row r="798" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C798">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="3:3">
+    <row r="799" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C799">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="3:3">
+    <row r="800" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C800">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="3:3">
+    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C801">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="3:3">
+    <row r="802" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C802">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="3:3">
+    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C803">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="3:3">
+    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C804">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="3:3">
+    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C805">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="3:3">
+    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C806">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="3:3">
+    <row r="807" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C807">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="3:3">
+    <row r="808" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C808">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="3:3">
+    <row r="809" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C809">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="3:3">
+    <row r="810" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C810">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="3:3">
+    <row r="811" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C811">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="3:3">
+    <row r="812" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C812">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="3:3">
+    <row r="813" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C813">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="3:3">
+    <row r="814" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C814">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="3:3">
+    <row r="815" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C815">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="3:3">
+    <row r="816" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C816">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="3:3">
+    <row r="817" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C817">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="3:3">
+    <row r="818" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C818">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="3:3">
+    <row r="819" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C819">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="3:3">
+    <row r="820" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C820">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="3:3">
+    <row r="821" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C821">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="3:3">
+    <row r="822" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C822">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="3:3">
+    <row r="823" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C823">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="3:3">
+    <row r="824" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C824">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="3:3">
+    <row r="825" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C825">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="3:3">
+    <row r="826" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C826">
-        <f t="shared" ref="C826:C889" ca="1" si="15">IF(B826=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="827" spans="3:3">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C827">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="828" spans="3:3">
+        <f t="shared" ref="C827:C890" ca="1" si="15">IF(B827=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C828">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="3:3">
+    <row r="829" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C829">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="3:3">
+    <row r="830" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C830">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="3:3">
+    <row r="831" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C831">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="3:3">
+    <row r="832" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C832">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="3:3">
+    <row r="833" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C833">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="3:3">
+    <row r="834" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C834">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="3:3">
+    <row r="835" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C835">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="3:3">
+    <row r="836" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C836">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="3:3">
+    <row r="837" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C837">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="3:3">
+    <row r="838" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C838">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="3:3">
+    <row r="839" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C839">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="3:3">
+    <row r="840" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C840">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="3:3">
+    <row r="841" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C841">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="3:3">
+    <row r="842" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C842">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="3:3">
+    <row r="843" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C843">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="3:3">
+    <row r="844" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C844">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="3:3">
+    <row r="845" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C845">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="3:3">
+    <row r="846" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C846">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="3:3">
+    <row r="847" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C847">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="3:3">
+    <row r="848" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C848">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="3:3">
+    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C849">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="3:3">
+    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C850">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="3:3">
+    <row r="851" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C851">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="3:3">
+    <row r="852" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C852">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="3:3">
+    <row r="853" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C853">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="3:3">
+    <row r="854" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C854">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="3:3">
+    <row r="855" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C855">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="3:3">
+    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C856">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="3:3">
+    <row r="857" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C857">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="3:3">
+    <row r="858" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C858">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="3:3">
+    <row r="859" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C859">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="3:3">
+    <row r="860" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C860">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="3:3">
+    <row r="861" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C861">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="3:3">
+    <row r="862" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C862">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="3:3">
+    <row r="863" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C863">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="3:3">
+    <row r="864" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C864">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="3:3">
+    <row r="865" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C865">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="3:3">
+    <row r="866" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C866">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="3:3">
+    <row r="867" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C867">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="3:3">
+    <row r="868" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C868">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="3:3">
+    <row r="869" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C869">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="3:3">
+    <row r="870" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C870">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="3:3">
+    <row r="871" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C871">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="3:3">
+    <row r="872" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C872">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="3:3">
+    <row r="873" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C873">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="3:3">
+    <row r="874" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C874">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="3:3">
+    <row r="875" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C875">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="3:3">
+    <row r="876" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C876">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="3:3">
+    <row r="877" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C877">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="3:3">
+    <row r="878" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C878">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="3:3">
+    <row r="879" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C879">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="3:3">
+    <row r="880" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C880">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="3:3">
+    <row r="881" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C881">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="3:3">
+    <row r="882" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C882">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="3:3">
+    <row r="883" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C883">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="3:3">
+    <row r="884" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C884">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="3:3">
+    <row r="885" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C885">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="3:3">
+    <row r="886" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C886">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="3:3">
+    <row r="887" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C887">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="3:3">
+    <row r="888" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C888">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="3:3">
+    <row r="889" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C889">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="3:3">
+    <row r="890" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C890">
-        <f t="shared" ref="C890:C904" ca="1" si="16">IF(B890=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="891" spans="3:3">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C891">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="892" spans="3:3">
+        <f t="shared" ref="C891:C905" ca="1" si="16">IF(B891=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C892">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="3:3">
+    <row r="893" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C893">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="3:3">
+    <row r="894" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C894">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="3:3">
+    <row r="895" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C895">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="3:3">
+    <row r="896" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C896">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="3:3">
+    <row r="897" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C897">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="3:3">
+    <row r="898" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C898">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="3:3">
+    <row r="899" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C899">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="3:3">
+    <row r="900" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C900">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="3:3">
+    <row r="901" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C901">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="3:3">
+    <row r="902" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C902">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="3:3">
+    <row r="903" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C903">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="3:3">
+    <row r="904" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C904">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
+    <row r="905" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C905">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A229:A234"/>
-    <mergeCell ref="A246:A262"/>
+    <mergeCell ref="A230:A235"/>
+    <mergeCell ref="A247:A263"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="A79:A118"/>
-    <mergeCell ref="A220:A228"/>
-    <mergeCell ref="A201:A219"/>
+    <mergeCell ref="A221:A229"/>
+    <mergeCell ref="A201:A220"/>
     <mergeCell ref="A172:A200"/>
     <mergeCell ref="A158:A171"/>
     <mergeCell ref="A119:A157"/>
-    <mergeCell ref="A235:A242"/>
-    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="A236:A243"/>
+    <mergeCell ref="A244:A246"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6939,24 +6951,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="13335" windowHeight="7680"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -66,8 +66,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,7 +104,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,9 +117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -191,7 +191,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -226,10 +225,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -402,27 +400,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E905"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E906"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B216" sqref="B216"/>
+      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="D1">
         <f ca="1">SUM(C:C)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>3775</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>1860</v>
@@ -444,7 +442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>4764</v>
@@ -454,7 +452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>2429</v>
@@ -464,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>7472</v>
@@ -474,7 +472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>3862</v>
@@ -484,7 +482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>9231</v>
@@ -494,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>8624</v>
@@ -504,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>2959</v>
@@ -514,7 +512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>7271</v>
@@ -524,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>2632</v>
@@ -534,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>4343</v>
@@ -544,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>1517</v>
@@ -554,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>1413</v>
@@ -564,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>9405</v>
@@ -574,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -586,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18">
         <v>9298</v>
@@ -596,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19">
         <v>3354</v>
@@ -606,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20">
         <v>8569</v>
@@ -616,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21">
         <v>3730</v>
@@ -626,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22">
         <v>9007</v>
@@ -636,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23">
         <v>5201</v>
@@ -646,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24">
         <v>2981</v>
@@ -656,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25">
         <v>4312</v>
@@ -666,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26">
         <v>8428</v>
@@ -676,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27">
         <v>2361</v>
@@ -686,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28">
         <v>5063</v>
@@ -696,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29">
         <v>7711</v>
@@ -706,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30">
         <v>8833</v>
@@ -716,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31">
         <v>1262</v>
@@ -726,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32">
         <v>9020</v>
@@ -736,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33">
         <v>1934</v>
@@ -746,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34">
         <v>7237</v>
@@ -756,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35">
         <v>3943</v>
@@ -766,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36">
         <v>7619</v>
@@ -776,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37">
         <v>3832</v>
@@ -786,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38">
         <v>1346</v>
@@ -796,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39">
         <v>9622</v>
@@ -806,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40">
         <v>8873</v>
@@ -816,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41">
         <v>7799</v>
@@ -826,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42">
         <v>9354</v>
@@ -836,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43">
         <v>9130</v>
@@ -846,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44">
         <v>5895</v>
@@ -856,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45">
         <v>2461</v>
@@ -866,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46">
         <v>2790</v>
@@ -876,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47">
         <v>2624</v>
@@ -886,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48">
         <v>5871</v>
@@ -896,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49">
         <v>9164</v>
@@ -906,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50">
         <v>7457</v>
@@ -916,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51">
         <v>9865</v>
@@ -926,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52">
         <v>3591</v>
@@ -936,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53">
         <v>3558</v>
@@ -946,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54">
         <v>4366</v>
@@ -956,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1"/>
       <c r="B55">
         <v>5789</v>
@@ -966,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1"/>
       <c r="B56">
         <v>6522</v>
@@ -976,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -988,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1"/>
       <c r="B58">
         <v>1288</v>
@@ -998,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1"/>
       <c r="B59">
         <v>2614</v>
@@ -1008,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60">
         <v>7170</v>
@@ -1018,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1"/>
       <c r="B61">
         <v>2709</v>
@@ -1028,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1"/>
       <c r="B62">
         <v>3402</v>
@@ -1038,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1"/>
       <c r="B63">
         <v>8781</v>
@@ -1048,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64">
         <v>8771</v>
@@ -1058,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65">
         <v>3091</v>
@@ -1068,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1"/>
       <c r="B66">
         <v>2195</v>
@@ -1078,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67">
         <v>1184</v>
@@ -1088,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1"/>
       <c r="B68">
         <v>2667</v>
@@ -1098,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1"/>
       <c r="B69">
         <v>5917</v>
@@ -1108,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70">
         <v>3929</v>
@@ -1118,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71">
         <v>3083</v>
@@ -1128,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1"/>
       <c r="B72">
         <v>7546</v>
@@ -1138,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -1150,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1"/>
       <c r="B74">
         <v>6598</v>
@@ -1160,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75">
         <v>3093</v>
@@ -1170,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76">
         <v>8805</v>
@@ -1180,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1"/>
       <c r="B77">
         <v>8158</v>
@@ -1190,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1"/>
       <c r="B78">
         <v>6499</v>
@@ -1200,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
@@ -1212,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1"/>
       <c r="B80">
         <v>2217</v>
@@ -1222,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1"/>
       <c r="B81">
         <v>1824</v>
@@ -1232,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1"/>
       <c r="B82">
         <v>2564</v>
@@ -1242,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83">
         <v>8487</v>
@@ -1252,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1"/>
       <c r="B84">
         <v>8045</v>
@@ -1262,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1"/>
       <c r="B85">
         <v>8878</v>
@@ -1272,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1"/>
       <c r="B86">
         <v>3072</v>
@@ -1282,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1"/>
       <c r="B87">
         <v>5980</v>
@@ -1292,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1"/>
       <c r="B88">
         <v>8174</v>
@@ -1302,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1"/>
       <c r="B89">
         <v>4257</v>
@@ -1312,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1"/>
       <c r="B90">
         <v>2291</v>
@@ -1322,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1"/>
       <c r="B91">
         <v>1763</v>
@@ -1332,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1"/>
       <c r="B92">
         <v>5662</v>
@@ -1342,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1"/>
       <c r="B93">
         <v>1945</v>
@@ -1352,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1"/>
       <c r="B94">
         <v>1186</v>
@@ -1362,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1"/>
       <c r="B95">
         <v>8715</v>
@@ -1372,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1"/>
       <c r="B96">
         <v>8518</v>
@@ -1382,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1"/>
       <c r="B97">
         <v>4847</v>
@@ -1392,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1"/>
       <c r="B98">
         <v>7991</v>
@@ -1402,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1"/>
       <c r="B99">
         <v>6291</v>
@@ -1412,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1"/>
       <c r="B100">
         <v>3770</v>
@@ -1422,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1"/>
       <c r="B101">
         <v>7178</v>
@@ -1432,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1"/>
       <c r="B102">
         <v>3883</v>
@@ -1442,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1"/>
       <c r="B103">
         <v>4527</v>
@@ -1452,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1"/>
       <c r="B104">
         <v>6556</v>
@@ -1462,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1"/>
       <c r="B105">
         <v>5635</v>
@@ -1472,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1"/>
       <c r="B106">
         <v>3878</v>
@@ -1482,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1"/>
       <c r="B107">
         <v>1217</v>
@@ -1492,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1"/>
       <c r="B108">
         <v>1438</v>
@@ -1502,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1"/>
       <c r="B109">
         <v>2153</v>
@@ -1512,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1"/>
       <c r="B110">
         <v>7937</v>
@@ -1522,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1"/>
       <c r="B111">
         <v>1999</v>
@@ -1532,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1"/>
       <c r="B112">
         <v>4042</v>
@@ -1542,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1"/>
       <c r="B113">
         <v>6351</v>
@@ -1552,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1"/>
       <c r="B114">
         <v>5382</v>
@@ -1562,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1"/>
       <c r="B115">
         <v>7088</v>
@@ -1572,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1"/>
       <c r="B116">
         <v>7250</v>
@@ -1582,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1"/>
       <c r="B117">
         <v>6740</v>
@@ -1592,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1"/>
       <c r="B118">
         <v>9038</v>
@@ -1602,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1"/>
       <c r="B120">
         <v>8495</v>
@@ -1624,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1"/>
       <c r="B121">
         <v>1315</v>
@@ -1634,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1"/>
       <c r="B122">
         <v>6066</v>
@@ -1644,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1"/>
       <c r="B123">
         <v>2565</v>
@@ -1654,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1"/>
       <c r="B124">
         <v>2594</v>
@@ -1664,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1"/>
       <c r="B125">
         <v>3762</v>
@@ -1674,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="1"/>
       <c r="B126">
         <v>3550</v>
@@ -1684,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1"/>
       <c r="B127">
         <v>2475</v>
@@ -1694,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1"/>
       <c r="B128">
         <v>9180</v>
@@ -1704,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1"/>
       <c r="B129">
         <v>1544</v>
@@ -1714,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1"/>
       <c r="B130">
         <v>9562</v>
@@ -1724,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1"/>
       <c r="B131">
         <v>3669</v>
@@ -1734,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1"/>
       <c r="B132">
         <v>5951</v>
@@ -1744,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1"/>
       <c r="B133">
         <v>2802</v>
@@ -1754,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1"/>
       <c r="B134">
         <v>6580</v>
@@ -1764,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1"/>
       <c r="B135">
         <v>7585</v>
@@ -1774,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="1"/>
       <c r="B136">
         <v>2321</v>
@@ -1784,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1"/>
       <c r="B137">
         <v>5053</v>
@@ -1794,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1"/>
       <c r="B138">
         <v>3983</v>
@@ -1804,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="1"/>
       <c r="B139">
         <v>8770</v>
@@ -1814,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1"/>
       <c r="B140">
         <v>4236</v>
@@ -1824,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1"/>
       <c r="B141">
         <v>5969</v>
@@ -1834,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1"/>
       <c r="B142">
         <v>8696</v>
@@ -1844,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1"/>
       <c r="B143">
         <v>1483</v>
@@ -1854,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1"/>
       <c r="B144">
         <v>8418</v>
@@ -1864,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1"/>
       <c r="B145">
         <v>8395</v>
@@ -1874,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1"/>
       <c r="B146">
         <v>5170</v>
@@ -1884,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1"/>
       <c r="B147">
         <v>5568</v>
@@ -1894,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1"/>
       <c r="B148">
         <v>2592</v>
@@ -1904,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1"/>
       <c r="B149">
         <v>4075</v>
@@ -1914,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150">
         <v>7517</v>
@@ -1924,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1"/>
       <c r="B151">
         <v>5448</v>
@@ -1934,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152">
         <v>6572</v>
@@ -1944,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1"/>
       <c r="B153">
         <v>5238</v>
@@ -1954,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="1"/>
       <c r="B154">
         <v>2084</v>
@@ -1964,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="1"/>
       <c r="B155">
         <v>5411</v>
@@ -1974,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="1"/>
       <c r="B156">
         <v>5171</v>
@@ -1984,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="1"/>
       <c r="B157">
         <v>1862</v>
@@ -1994,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -2006,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="1"/>
       <c r="B159">
         <v>9001</v>
@@ -2016,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160">
         <v>9631</v>
@@ -2026,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="1"/>
       <c r="B161">
         <v>9812</v>
@@ -2036,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162">
         <v>4845</v>
@@ -2046,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="1"/>
       <c r="B163">
         <v>5728</v>
@@ -2056,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="1"/>
       <c r="B164">
         <v>1618</v>
@@ -2066,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="1"/>
       <c r="B165">
         <v>9279</v>
@@ -2076,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="1"/>
       <c r="B166">
         <v>7491</v>
@@ -2086,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="1"/>
       <c r="B167">
         <v>5923</v>
@@ -2096,27 +2094,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="1"/>
       <c r="B168">
         <v>4265</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="1"/>
       <c r="B169">
         <v>2166</v>
       </c>
       <c r="C169">
-        <f t="shared" ref="C169:C250" ca="1" si="4">IF(B169=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C169:C251" ca="1" si="4">IF(B169=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="1"/>
       <c r="B170">
         <v>9116</v>
@@ -2126,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171">
         <v>9925</v>
@@ -2136,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>7</v>
       </c>
@@ -2148,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173">
         <v>9931</v>
@@ -2158,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174">
         <v>4425</v>
@@ -2168,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="1"/>
       <c r="B175">
         <v>1947</v>
@@ -2178,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176">
         <v>9696</v>
@@ -2188,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="1"/>
       <c r="B177">
         <v>1223</v>
@@ -2198,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="1"/>
       <c r="B178">
         <v>3946</v>
@@ -2208,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179">
         <v>8311</v>
@@ -2218,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180">
         <v>3134</v>
@@ -2228,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181">
         <v>9774</v>
@@ -2238,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="1"/>
       <c r="B182">
         <v>9711</v>
@@ -2248,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="1"/>
       <c r="B183">
         <v>3333</v>
@@ -2258,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184">
         <v>7290</v>
@@ -2268,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="1"/>
       <c r="B185">
         <v>5694</v>
@@ -2278,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="1"/>
       <c r="B186">
         <v>7035</v>
@@ -2288,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187">
         <v>6806</v>
@@ -2298,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="1"/>
       <c r="B188">
         <v>4515</v>
@@ -2308,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="1"/>
       <c r="B189">
         <v>9271</v>
@@ -2318,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="1"/>
       <c r="B190">
         <v>8769</v>
@@ -2328,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="1"/>
       <c r="B191">
         <v>4497</v>
@@ -2338,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="1"/>
       <c r="B192">
         <v>3940</v>
@@ -2348,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193">
         <v>8820</v>
@@ -2358,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="1"/>
       <c r="B194">
         <v>3218</v>
@@ -2368,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195">
         <v>4283</v>
@@ -2378,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="1"/>
       <c r="B196">
         <v>7703</v>
@@ -2388,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197">
         <v>9182</v>
@@ -2398,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198">
         <v>5541</v>
@@ -2408,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="1"/>
       <c r="B199">
         <v>2386</v>
@@ -2418,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="1"/>
       <c r="B200">
         <v>9159</v>
@@ -2428,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>8</v>
       </c>
@@ -2440,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="1"/>
       <c r="B202">
         <v>4642</v>
@@ -2450,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203">
         <v>4488</v>
@@ -2460,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204">
         <v>9765</v>
@@ -2470,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="1"/>
       <c r="B205">
         <v>4954</v>
@@ -2480,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="1"/>
       <c r="B206">
         <v>5537</v>
@@ -2490,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207">
         <v>6431</v>
@@ -2500,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="1"/>
       <c r="B208">
         <v>7193</v>
@@ -2510,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209">
         <v>5621</v>
@@ -2520,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210">
         <v>5847</v>
@@ -2530,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211">
         <v>4769</v>
@@ -2540,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212">
         <v>9930</v>
@@ -2550,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="1"/>
       <c r="B213">
         <v>3226</v>
@@ -2560,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="1"/>
       <c r="B214">
         <v>6861</v>
@@ -2570,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215">
         <v>5032</v>
@@ -2580,4370 +2578,4380 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="1"/>
       <c r="B216">
-        <v>2205</v>
+        <v>5108</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" s="1"/>
       <c r="B217">
-        <v>4372</v>
+        <v>2205</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" s="1"/>
       <c r="B218">
-        <v>4463</v>
+        <v>4372</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219">
-        <v>1668</v>
+        <v>4463</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220">
+        <v>1668</v>
+      </c>
+      <c r="C220">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1"/>
+      <c r="B221">
         <v>2137</v>
       </c>
-      <c r="C220">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+      <c r="C221">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B221">
+      <c r="B222">
         <v>9300</v>
       </c>
-      <c r="C221">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222">
-        <v>3951</v>
-      </c>
       <c r="C222">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223">
-        <v>6409</v>
+        <v>3951</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" s="1"/>
       <c r="B224">
-        <v>3290</v>
+        <v>6409</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225">
-        <v>5309</v>
+        <v>3290</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" s="1"/>
       <c r="B226">
-        <v>5345</v>
+        <v>5309</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227">
-        <v>6812</v>
+        <v>5345</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228">
-        <v>7343</v>
+        <v>6812</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229">
+        <v>7343</v>
+      </c>
+      <c r="C229">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1"/>
+      <c r="B230">
         <v>7060</v>
       </c>
-      <c r="C229">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="C230">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B230">
+      <c r="B231">
         <v>9299</v>
       </c>
-      <c r="C230">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231">
-        <v>7560</v>
-      </c>
       <c r="C231">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" s="1"/>
       <c r="B232">
-        <v>9002</v>
+        <v>7560</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" s="1"/>
       <c r="B233">
-        <v>7432</v>
+        <v>9002</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234">
-        <v>1954</v>
+        <v>7432</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235">
+        <v>1954</v>
+      </c>
+      <c r="C235">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1"/>
+      <c r="B236">
         <v>2048</v>
       </c>
-      <c r="C235">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+      <c r="C236">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B236">
+      <c r="B237">
         <v>3939</v>
       </c>
-      <c r="C236">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-      <c r="B237">
-        <v>8861</v>
-      </c>
       <c r="C237">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" s="1"/>
       <c r="B238">
-        <v>1516</v>
+        <v>8861</v>
       </c>
       <c r="C238">
-        <f t="shared" ref="C238:C246" ca="1" si="5">IF(B238=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" s="1"/>
       <c r="B239">
-        <v>9062</v>
+        <v>1516</v>
       </c>
       <c r="C239">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C239:C247" ca="1" si="5">IF(B239=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" s="1"/>
       <c r="B240">
-        <v>5164</v>
+        <v>9062</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241">
-        <v>2030</v>
+        <v>5164</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" s="1"/>
       <c r="B242">
-        <v>7649</v>
+        <v>2030</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243">
-        <v>2354</v>
+        <v>7649</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1"/>
       <c r="B244">
-        <v>9701</v>
+        <v>2354</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B245">
-        <v>3784</v>
+        <v>9701</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246">
-        <v>6732</v>
+        <v>3784</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+    <row r="247" spans="1:3">
+      <c r="A247" s="1"/>
+      <c r="B247">
+        <v>6732</v>
+      </c>
+      <c r="C247">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B247">
+      <c r="B248">
         <v>8403</v>
       </c>
-      <c r="C247">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-      <c r="B248">
-        <v>3185</v>
-      </c>
       <c r="C248">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249">
-        <v>9914</v>
+        <v>3185</v>
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250">
-        <v>6011</v>
+        <v>9914</v>
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251">
-        <v>6037</v>
+        <v>6011</v>
       </c>
       <c r="C251">
-        <f t="shared" ref="C251:C314" ca="1" si="6">IF(B251=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252">
-        <v>2809</v>
+        <v>6037</v>
       </c>
       <c r="C252">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C252:C315" ca="1" si="6">IF(B252=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253">
-        <v>7297</v>
+        <v>2809</v>
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254">
-        <v>5242</v>
+        <v>7297</v>
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255">
-        <v>1379</v>
+        <v>5242</v>
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256">
-        <v>2401</v>
+        <v>1379</v>
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257">
-        <v>5421</v>
+        <v>2401</v>
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" s="1"/>
       <c r="B258">
-        <v>7301</v>
+        <v>5421</v>
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259">
-        <v>2000</v>
+        <v>7301</v>
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260">
-        <v>4147</v>
+        <v>2000</v>
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" s="1"/>
       <c r="B261">
-        <v>1953</v>
+        <v>4147</v>
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262">
-        <v>3956</v>
+        <v>1953</v>
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" s="1"/>
       <c r="B263">
-        <v>5463</v>
+        <v>3956</v>
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>14</v>
-      </c>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1"/>
       <c r="B264">
-        <v>8787</v>
+        <v>5463</v>
       </c>
       <c r="C264">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>14</v>
+      </c>
+      <c r="B265">
+        <v>8787</v>
+      </c>
       <c r="C265">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="C266">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="C267">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="C268">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="C269">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="C270">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="C271">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="C272">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3">
       <c r="C273">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3">
       <c r="C274">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3">
       <c r="C275">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3">
       <c r="C276">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3">
       <c r="C277">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3">
       <c r="C278">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3">
       <c r="C279">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3">
       <c r="C280">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3">
       <c r="C281">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3">
       <c r="C282">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3">
       <c r="C283">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3">
       <c r="C284">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3">
       <c r="C285">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3">
       <c r="C286">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3">
       <c r="C287">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3">
       <c r="C288">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3">
       <c r="C289">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3">
       <c r="C290">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3">
       <c r="C291">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3">
       <c r="C292">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3">
       <c r="C293">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3">
       <c r="C294">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3">
       <c r="C295">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3">
       <c r="C296">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3">
       <c r="C297">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3">
       <c r="C298">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3">
       <c r="C299">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3">
       <c r="C300">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3">
       <c r="C301">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3">
       <c r="C302">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3">
       <c r="C303">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3">
       <c r="C304">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3">
       <c r="C305">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3">
       <c r="C306">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3">
       <c r="C307">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3">
       <c r="C308">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3">
       <c r="C309">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3">
       <c r="C310">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3">
       <c r="C311">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3">
       <c r="C312">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3">
       <c r="C313">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3">
       <c r="C314">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3">
       <c r="C315">
-        <f t="shared" ref="C315:C378" ca="1" si="7">IF(B315=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3">
       <c r="C316">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C316:C379" ca="1" si="7">IF(B316=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3">
       <c r="C317">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3">
       <c r="C318">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3">
       <c r="C319">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3">
       <c r="C320">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3">
       <c r="C321">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3">
       <c r="C322">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3">
       <c r="C323">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3">
       <c r="C324">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3">
       <c r="C325">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3">
       <c r="C326">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3">
       <c r="C327">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3">
       <c r="C328">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3">
       <c r="C329">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3">
       <c r="C330">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3">
       <c r="C331">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3">
       <c r="C332">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3">
       <c r="C333">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3">
       <c r="C334">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3">
       <c r="C335">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3">
       <c r="C336">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3">
       <c r="C337">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3">
       <c r="C338">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3">
       <c r="C339">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3">
       <c r="C340">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3">
       <c r="C341">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3">
       <c r="C342">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3">
       <c r="C343">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3">
       <c r="C344">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3">
       <c r="C345">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3">
       <c r="C346">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3">
       <c r="C347">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3">
       <c r="C348">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3">
       <c r="C349">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3">
       <c r="C350">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3">
       <c r="C351">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3">
       <c r="C352">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3">
       <c r="C353">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3">
       <c r="C354">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3">
       <c r="C355">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3">
       <c r="C356">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3">
       <c r="C357">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3">
       <c r="C358">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3">
       <c r="C359">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3">
       <c r="C360">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3">
       <c r="C361">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3">
       <c r="C362">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3">
       <c r="C363">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3">
       <c r="C364">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3">
       <c r="C365">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3">
       <c r="C366">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3">
       <c r="C367">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3">
       <c r="C368">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3">
       <c r="C369">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3">
       <c r="C370">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3">
       <c r="C371">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3">
       <c r="C372">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3">
       <c r="C373">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3">
       <c r="C374">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3">
       <c r="C375">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3">
       <c r="C376">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3">
       <c r="C377">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3">
       <c r="C378">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3">
       <c r="C379">
-        <f t="shared" ref="C379:C442" ca="1" si="8">IF(B379=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3">
       <c r="C380">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C380:C443" ca="1" si="8">IF(B380=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3">
       <c r="C381">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3">
       <c r="C382">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3">
       <c r="C383">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3">
       <c r="C384">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3">
       <c r="C385">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3">
       <c r="C386">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3">
       <c r="C387">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3">
       <c r="C388">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3">
       <c r="C389">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3">
       <c r="C390">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3">
       <c r="C391">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3">
       <c r="C392">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3">
       <c r="C393">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3">
       <c r="C394">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3">
       <c r="C395">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3">
       <c r="C396">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3">
       <c r="C397">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3">
       <c r="C398">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3">
       <c r="C399">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3">
       <c r="C400">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3">
       <c r="C401">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3">
       <c r="C402">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3">
       <c r="C403">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3">
       <c r="C404">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3">
       <c r="C405">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3">
       <c r="C406">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3">
       <c r="C407">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3">
       <c r="C408">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3">
       <c r="C409">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3">
       <c r="C410">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3">
       <c r="C411">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3">
       <c r="C412">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3">
       <c r="C413">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3">
       <c r="C414">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3">
       <c r="C415">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3">
       <c r="C416">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3">
       <c r="C417">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3">
       <c r="C418">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3">
       <c r="C419">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3">
       <c r="C420">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3">
       <c r="C421">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3">
       <c r="C422">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3">
       <c r="C423">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3">
       <c r="C424">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3">
       <c r="C425">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3">
       <c r="C426">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3">
       <c r="C427">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3">
       <c r="C428">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3">
       <c r="C429">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3">
       <c r="C430">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3">
       <c r="C431">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3">
       <c r="C432">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3">
       <c r="C433">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3">
       <c r="C434">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3">
       <c r="C435">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3">
       <c r="C436">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3">
       <c r="C437">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3">
       <c r="C438">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3">
       <c r="C439">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3">
       <c r="C440">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3">
       <c r="C441">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3">
       <c r="C442">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3">
       <c r="C443">
-        <f t="shared" ref="C443:C506" ca="1" si="9">IF(B443=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3">
       <c r="C444">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C444:C507" ca="1" si="9">IF(B444=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3">
       <c r="C445">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3">
       <c r="C446">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3">
       <c r="C447">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3">
       <c r="C448">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3">
       <c r="C449">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3">
       <c r="C450">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3">
       <c r="C451">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3">
       <c r="C452">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3">
       <c r="C453">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3">
       <c r="C454">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3">
       <c r="C455">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3">
       <c r="C456">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3">
       <c r="C457">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3">
       <c r="C458">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3">
       <c r="C459">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3">
       <c r="C460">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3">
       <c r="C461">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3">
       <c r="C462">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3">
       <c r="C463">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3">
       <c r="C464">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3">
       <c r="C465">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3">
       <c r="C466">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3">
       <c r="C467">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3">
       <c r="C468">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3">
       <c r="C469">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3">
       <c r="C470">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3">
       <c r="C471">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3">
       <c r="C472">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3">
       <c r="C473">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3">
       <c r="C474">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3">
       <c r="C475">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3">
       <c r="C476">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3">
       <c r="C477">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3">
       <c r="C478">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3">
       <c r="C479">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3">
       <c r="C480">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3">
       <c r="C481">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3">
       <c r="C482">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3">
       <c r="C483">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3">
       <c r="C484">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3">
       <c r="C485">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3">
       <c r="C486">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3">
       <c r="C487">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3">
       <c r="C488">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3">
       <c r="C489">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3">
       <c r="C490">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3">
       <c r="C491">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3">
       <c r="C492">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3">
       <c r="C493">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3">
       <c r="C494">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3">
       <c r="C495">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3">
       <c r="C496">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3">
       <c r="C497">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3">
       <c r="C498">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3">
       <c r="C499">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3">
       <c r="C500">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3">
       <c r="C501">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3">
       <c r="C502">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3">
       <c r="C503">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3">
       <c r="C504">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3">
       <c r="C505">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3">
       <c r="C506">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3">
       <c r="C507">
-        <f t="shared" ref="C507:C570" ca="1" si="10">IF(B507=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3">
       <c r="C508">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C508:C571" ca="1" si="10">IF(B508=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3">
       <c r="C509">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3">
       <c r="C510">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3">
       <c r="C511">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3">
       <c r="C512">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3">
       <c r="C513">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3">
       <c r="C514">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3">
       <c r="C515">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3">
       <c r="C516">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3">
       <c r="C517">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3">
       <c r="C518">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3">
       <c r="C519">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3">
       <c r="C520">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3">
       <c r="C521">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3">
       <c r="C522">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3">
       <c r="C523">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3">
       <c r="C524">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3">
       <c r="C525">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3">
       <c r="C526">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3">
       <c r="C527">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3">
       <c r="C528">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3">
       <c r="C529">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3">
       <c r="C530">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3">
       <c r="C531">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3">
       <c r="C532">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3">
       <c r="C533">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3">
       <c r="C534">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3">
       <c r="C535">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3">
       <c r="C536">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3">
       <c r="C537">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3">
       <c r="C538">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3">
       <c r="C539">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3">
       <c r="C540">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3">
       <c r="C541">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3">
       <c r="C542">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3">
       <c r="C543">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3">
       <c r="C544">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3">
       <c r="C545">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3">
       <c r="C546">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3">
       <c r="C547">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3">
       <c r="C548">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3">
       <c r="C549">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3">
       <c r="C550">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3">
       <c r="C551">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3">
       <c r="C552">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3">
       <c r="C553">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3">
       <c r="C554">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3">
       <c r="C555">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3">
       <c r="C556">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3">
       <c r="C557">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3">
       <c r="C558">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3">
       <c r="C559">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3">
       <c r="C560">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3">
       <c r="C561">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3">
       <c r="C562">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3">
       <c r="C563">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3">
       <c r="C564">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3">
       <c r="C565">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3">
       <c r="C566">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3">
       <c r="C567">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3">
       <c r="C568">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3">
       <c r="C569">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3">
       <c r="C570">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3">
       <c r="C571">
-        <f t="shared" ref="C571:C634" ca="1" si="11">IF(B571=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="3:3">
       <c r="C572">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C572:C635" ca="1" si="11">IF(B572=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="3:3">
       <c r="C573">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3">
       <c r="C574">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3">
       <c r="C575">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3">
       <c r="C576">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3">
       <c r="C577">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3">
       <c r="C578">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3">
       <c r="C579">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3">
       <c r="C580">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3">
       <c r="C581">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3">
       <c r="C582">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3">
       <c r="C583">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3">
       <c r="C584">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3">
       <c r="C585">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3">
       <c r="C586">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3">
       <c r="C587">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3">
       <c r="C588">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3">
       <c r="C589">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3">
       <c r="C590">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3">
       <c r="C591">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3">
       <c r="C592">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3">
       <c r="C593">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3">
       <c r="C594">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3">
       <c r="C595">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3">
       <c r="C596">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3">
       <c r="C597">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3">
       <c r="C598">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3">
       <c r="C599">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3">
       <c r="C600">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3">
       <c r="C601">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3">
       <c r="C602">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3">
       <c r="C603">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3">
       <c r="C604">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3">
       <c r="C605">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3">
       <c r="C606">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3">
       <c r="C607">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3">
       <c r="C608">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3">
       <c r="C609">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3">
       <c r="C610">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3">
       <c r="C611">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3">
       <c r="C612">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3">
       <c r="C613">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3">
       <c r="C614">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3">
       <c r="C615">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3">
       <c r="C616">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3">
       <c r="C617">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3">
       <c r="C618">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3">
       <c r="C619">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3">
       <c r="C620">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3">
       <c r="C621">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3">
       <c r="C622">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3">
       <c r="C623">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3">
       <c r="C624">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3">
       <c r="C625">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3">
       <c r="C626">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3">
       <c r="C627">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3">
       <c r="C628">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3">
       <c r="C629">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3">
       <c r="C630">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3">
       <c r="C631">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3">
       <c r="C632">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3">
       <c r="C633">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3">
       <c r="C634">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3">
       <c r="C635">
-        <f t="shared" ref="C635:C698" ca="1" si="12">IF(B635=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="3:3">
       <c r="C636">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C636:C699" ca="1" si="12">IF(B636=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="3:3">
       <c r="C637">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3">
       <c r="C638">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3">
       <c r="C639">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3">
       <c r="C640">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3">
       <c r="C641">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3">
       <c r="C642">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3">
       <c r="C643">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3">
       <c r="C644">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3">
       <c r="C645">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3">
       <c r="C646">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3">
       <c r="C647">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3">
       <c r="C648">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3">
       <c r="C649">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3">
       <c r="C650">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3">
       <c r="C651">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3">
       <c r="C652">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3">
       <c r="C653">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3">
       <c r="C654">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3">
       <c r="C655">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3">
       <c r="C656">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3">
       <c r="C657">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3">
       <c r="C658">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3">
       <c r="C659">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3">
       <c r="C660">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3">
       <c r="C661">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3">
       <c r="C662">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3">
       <c r="C663">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3">
       <c r="C664">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3">
       <c r="C665">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3">
       <c r="C666">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3">
       <c r="C667">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3">
       <c r="C668">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3">
       <c r="C669">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3">
       <c r="C670">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3">
       <c r="C671">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3">
       <c r="C672">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3">
       <c r="C673">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3">
       <c r="C674">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3">
       <c r="C675">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3">
       <c r="C676">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3">
       <c r="C677">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3">
       <c r="C678">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3">
       <c r="C679">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3">
       <c r="C680">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3">
       <c r="C681">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3">
       <c r="C682">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3">
       <c r="C683">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3">
       <c r="C684">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3">
       <c r="C685">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3">
       <c r="C686">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3">
       <c r="C687">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3">
       <c r="C688">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3">
       <c r="C689">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3">
       <c r="C690">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3">
       <c r="C691">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3">
       <c r="C692">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3">
       <c r="C693">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3">
       <c r="C694">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3">
       <c r="C695">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3">
       <c r="C696">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3">
       <c r="C697">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3">
       <c r="C698">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3">
       <c r="C699">
-        <f t="shared" ref="C699:C762" ca="1" si="13">IF(B699=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="3:3">
       <c r="C700">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C700:C763" ca="1" si="13">IF(B700=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="3:3">
       <c r="C701">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3">
       <c r="C702">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3">
       <c r="C703">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3">
       <c r="C704">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3">
       <c r="C705">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3">
       <c r="C706">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3">
       <c r="C707">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3">
       <c r="C708">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3">
       <c r="C709">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3">
       <c r="C710">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3">
       <c r="C711">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3">
       <c r="C712">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3">
       <c r="C713">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3">
       <c r="C714">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3">
       <c r="C715">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3">
       <c r="C716">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3">
       <c r="C717">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3">
       <c r="C718">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3">
       <c r="C719">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3">
       <c r="C720">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3">
       <c r="C721">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3">
       <c r="C722">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3">
       <c r="C723">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3">
       <c r="C724">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3">
       <c r="C725">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3">
       <c r="C726">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3">
       <c r="C727">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3">
       <c r="C728">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3">
       <c r="C729">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3">
       <c r="C730">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3">
       <c r="C731">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3">
       <c r="C732">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3">
       <c r="C733">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3">
       <c r="C734">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3">
       <c r="C735">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3">
       <c r="C736">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3">
       <c r="C737">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3">
       <c r="C738">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3">
       <c r="C739">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3">
       <c r="C740">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3">
       <c r="C741">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3">
       <c r="C742">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3">
       <c r="C743">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3">
       <c r="C744">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3">
       <c r="C745">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3">
       <c r="C746">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3">
       <c r="C747">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3">
       <c r="C748">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3">
       <c r="C749">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3">
       <c r="C750">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3">
       <c r="C751">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3">
       <c r="C752">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3">
       <c r="C753">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3">
       <c r="C754">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3">
       <c r="C755">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3">
       <c r="C756">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3">
       <c r="C757">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3">
       <c r="C758">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3">
       <c r="C759">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3">
       <c r="C760">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3">
       <c r="C761">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3">
       <c r="C762">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3">
       <c r="C763">
-        <f t="shared" ref="C763:C826" ca="1" si="14">IF(B763=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="764" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="3:3">
       <c r="C764">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="765" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C764:C827" ca="1" si="14">IF(B764=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="3:3">
       <c r="C765">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3">
       <c r="C766">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3">
       <c r="C767">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3">
       <c r="C768">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3">
       <c r="C769">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3">
       <c r="C770">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3">
       <c r="C771">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3">
       <c r="C772">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3">
       <c r="C773">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3">
       <c r="C774">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3">
       <c r="C775">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3">
       <c r="C776">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3">
       <c r="C777">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3">
       <c r="C778">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3">
       <c r="C779">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3">
       <c r="C780">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3">
       <c r="C781">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3">
       <c r="C782">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3">
       <c r="C783">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3">
       <c r="C784">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3">
       <c r="C785">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3">
       <c r="C786">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3">
       <c r="C787">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3">
       <c r="C788">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3">
       <c r="C789">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3">
       <c r="C790">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3">
       <c r="C791">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3">
       <c r="C792">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3">
       <c r="C793">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3">
       <c r="C794">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3">
       <c r="C795">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3">
       <c r="C796">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3">
       <c r="C797">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3">
       <c r="C798">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3">
       <c r="C799">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3">
       <c r="C800">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3">
       <c r="C801">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3">
       <c r="C802">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3">
       <c r="C803">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3">
       <c r="C804">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3">
       <c r="C805">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3">
       <c r="C806">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3">
       <c r="C807">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3">
       <c r="C808">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3">
       <c r="C809">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3">
       <c r="C810">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3">
       <c r="C811">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3">
       <c r="C812">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3">
       <c r="C813">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3">
       <c r="C814">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3">
       <c r="C815">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3">
       <c r="C816">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3">
       <c r="C817">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3">
       <c r="C818">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3">
       <c r="C819">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3">
       <c r="C820">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3">
       <c r="C821">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3">
       <c r="C822">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3">
       <c r="C823">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3">
       <c r="C824">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3">
       <c r="C825">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3">
       <c r="C826">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3">
       <c r="C827">
-        <f t="shared" ref="C827:C890" ca="1" si="15">IF(B827=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="828" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="3:3">
       <c r="C828">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="829" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C828:C891" ca="1" si="15">IF(B828=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="3:3">
       <c r="C829">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3">
       <c r="C830">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3">
       <c r="C831">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3">
       <c r="C832">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3">
       <c r="C833">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3">
       <c r="C834">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3">
       <c r="C835">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3">
       <c r="C836">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3">
       <c r="C837">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3">
       <c r="C838">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3">
       <c r="C839">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3">
       <c r="C840">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3">
       <c r="C841">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3">
       <c r="C842">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3">
       <c r="C843">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3">
       <c r="C844">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3">
       <c r="C845">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3">
       <c r="C846">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3">
       <c r="C847">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3">
       <c r="C848">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3">
       <c r="C849">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3">
       <c r="C850">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3">
       <c r="C851">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3">
       <c r="C852">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3">
       <c r="C853">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3">
       <c r="C854">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3">
       <c r="C855">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3">
       <c r="C856">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3">
       <c r="C857">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3">
       <c r="C858">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3">
       <c r="C859">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3">
       <c r="C860">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3">
       <c r="C861">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3">
       <c r="C862">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3">
       <c r="C863">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3">
       <c r="C864">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3">
       <c r="C865">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3">
       <c r="C866">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3">
       <c r="C867">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3">
       <c r="C868">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3">
       <c r="C869">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3">
       <c r="C870">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3">
       <c r="C871">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3">
       <c r="C872">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3">
       <c r="C873">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3">
       <c r="C874">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3">
       <c r="C875">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3">
       <c r="C876">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3">
       <c r="C877">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3">
       <c r="C878">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3">
       <c r="C879">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3">
       <c r="C880">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3">
       <c r="C881">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3">
       <c r="C882">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3">
       <c r="C883">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3">
       <c r="C884">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3">
       <c r="C885">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3">
       <c r="C886">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3">
       <c r="C887">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3">
       <c r="C888">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3">
       <c r="C889">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3">
       <c r="C890">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3">
       <c r="C891">
-        <f t="shared" ref="C891:C905" ca="1" si="16">IF(B891=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="892" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="3:3">
       <c r="C892">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="893" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C892:C906" ca="1" si="16">IF(B892=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="3:3">
       <c r="C893">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3">
       <c r="C894">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3">
       <c r="C895">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3">
       <c r="C896">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3">
       <c r="C897">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3">
       <c r="C898">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3">
       <c r="C899">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3">
       <c r="C900">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3">
       <c r="C901">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3">
       <c r="C902">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3">
       <c r="C903">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3">
       <c r="C904">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3">
       <c r="C905">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
+    <row r="906" spans="3:3">
+      <c r="C906">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A230:A235"/>
-    <mergeCell ref="A247:A263"/>
+    <mergeCell ref="A231:A236"/>
+    <mergeCell ref="A248:A264"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="A79:A118"/>
-    <mergeCell ref="A221:A229"/>
-    <mergeCell ref="A201:A220"/>
+    <mergeCell ref="A222:A230"/>
+    <mergeCell ref="A201:A221"/>
     <mergeCell ref="A172:A200"/>
     <mergeCell ref="A158:A171"/>
     <mergeCell ref="A119:A157"/>
-    <mergeCell ref="A236:A243"/>
-    <mergeCell ref="A244:A246"/>
+    <mergeCell ref="A237:A244"/>
+    <mergeCell ref="A245:A247"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6951,24 +6959,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="13335" windowHeight="7680"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -66,8 +66,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,7 +104,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,9 +117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -191,6 +191,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,9 +226,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,27 +402,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E906"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E907"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
+      <selection pane="bottomLeft" activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1">
         <f ca="1">SUM(C:C)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>1860</v>
@@ -442,7 +444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>4764</v>
@@ -452,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>2429</v>
@@ -462,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>7472</v>
@@ -472,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>3862</v>
@@ -482,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>9231</v>
@@ -492,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>8624</v>
@@ -502,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>2959</v>
@@ -512,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>7271</v>
@@ -522,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>2632</v>
@@ -532,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>4343</v>
@@ -542,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>1517</v>
@@ -552,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>1413</v>
@@ -562,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>9405</v>
@@ -572,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -584,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18">
         <v>9298</v>
@@ -594,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19">
         <v>3354</v>
@@ -604,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20">
         <v>8569</v>
@@ -614,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21">
         <v>3730</v>
@@ -624,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22">
         <v>9007</v>
@@ -634,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23">
         <v>5201</v>
@@ -644,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24">
         <v>2981</v>
@@ -654,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25">
         <v>4312</v>
@@ -664,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26">
         <v>8428</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27">
         <v>2361</v>
@@ -684,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28">
         <v>5063</v>
@@ -694,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29">
         <v>7711</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30">
         <v>8833</v>
@@ -714,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31">
         <v>1262</v>
@@ -724,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32">
         <v>9020</v>
@@ -734,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33">
         <v>1934</v>
@@ -744,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34">
         <v>7237</v>
@@ -754,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35">
         <v>3943</v>
@@ -764,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36">
         <v>7619</v>
@@ -774,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37">
         <v>3832</v>
@@ -784,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38">
         <v>1346</v>
@@ -794,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39">
         <v>9622</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40">
         <v>8873</v>
@@ -814,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41">
         <v>7799</v>
@@ -824,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42">
         <v>9354</v>
@@ -834,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43">
         <v>9130</v>
@@ -844,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44">
         <v>5895</v>
@@ -854,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45">
         <v>2461</v>
@@ -864,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46">
         <v>2790</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47">
         <v>2624</v>
@@ -884,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48">
         <v>5871</v>
@@ -894,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49">
         <v>9164</v>
@@ -904,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50">
         <v>7457</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51">
         <v>9865</v>
@@ -924,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52">
         <v>3591</v>
@@ -934,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53">
         <v>3558</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54">
         <v>4366</v>
@@ -954,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55">
         <v>5789</v>
@@ -964,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56">
         <v>6522</v>
@@ -974,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -986,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58">
         <v>1288</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59">
         <v>2614</v>
@@ -1006,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60">
         <v>7170</v>
@@ -1016,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61">
         <v>2709</v>
@@ -1026,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62">
         <v>3402</v>
@@ -1036,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63">
         <v>8781</v>
@@ -1046,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64">
         <v>8771</v>
@@ -1056,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65">
         <v>3091</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66">
         <v>2195</v>
@@ -1076,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67">
         <v>1184</v>
@@ -1086,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68">
         <v>2667</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69">
         <v>5917</v>
@@ -1106,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70">
         <v>3929</v>
@@ -1116,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71">
         <v>3083</v>
@@ -1126,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72">
         <v>7546</v>
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74">
         <v>6598</v>
@@ -1158,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75">
         <v>3093</v>
@@ -1168,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76">
         <v>8805</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77">
         <v>8158</v>
@@ -1188,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78">
         <v>6499</v>
@@ -1198,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80">
         <v>2217</v>
@@ -1220,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81">
         <v>1824</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82">
         <v>2564</v>
@@ -1240,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83">
         <v>8487</v>
@@ -1250,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84">
         <v>8045</v>
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85">
         <v>8878</v>
@@ -1270,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86">
         <v>3072</v>
@@ -1280,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87">
         <v>5980</v>
@@ -1290,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88">
         <v>8174</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89">
         <v>4257</v>
@@ -1310,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90">
         <v>2291</v>
@@ -1320,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91">
         <v>1763</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92">
         <v>5662</v>
@@ -1340,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93">
         <v>1945</v>
@@ -1350,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94">
         <v>1186</v>
@@ -1360,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95">
         <v>8715</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96">
         <v>8518</v>
@@ -1380,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97">
         <v>4847</v>
@@ -1390,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98">
         <v>7991</v>
@@ -1400,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99">
         <v>6291</v>
@@ -1410,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100">
         <v>3770</v>
@@ -1420,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101">
         <v>7178</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102">
         <v>3883</v>
@@ -1440,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103">
         <v>4527</v>
@@ -1450,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104">
         <v>6556</v>
@@ -1460,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105">
         <v>5635</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106">
         <v>3878</v>
@@ -1480,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107">
         <v>1217</v>
@@ -1490,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108">
         <v>1438</v>
@@ -1500,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109">
         <v>2153</v>
@@ -1510,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110">
         <v>7937</v>
@@ -1520,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111">
         <v>1999</v>
@@ -1530,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112">
         <v>4042</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113">
         <v>6351</v>
@@ -1550,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114">
         <v>5382</v>
@@ -1560,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115">
         <v>7088</v>
@@ -1570,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116">
         <v>7250</v>
@@ -1580,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117">
         <v>6740</v>
@@ -1590,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118">
         <v>9038</v>
@@ -1600,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
@@ -1612,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120">
         <v>8495</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121">
         <v>1315</v>
@@ -1632,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122">
         <v>6066</v>
@@ -1642,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123">
         <v>2565</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124">
         <v>2594</v>
@@ -1662,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125">
         <v>3762</v>
@@ -1672,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126">
         <v>3550</v>
@@ -1682,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127">
         <v>2475</v>
@@ -1692,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128">
         <v>9180</v>
@@ -1702,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129">
         <v>1544</v>
@@ -1712,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130">
         <v>9562</v>
@@ -1722,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131">
         <v>3669</v>
@@ -1732,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132">
         <v>5951</v>
@@ -1742,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133">
         <v>2802</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134">
         <v>6580</v>
@@ -1762,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135">
         <v>7585</v>
@@ -1772,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136">
         <v>2321</v>
@@ -1782,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137">
         <v>5053</v>
@@ -1792,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138">
         <v>3983</v>
@@ -1802,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139">
         <v>8770</v>
@@ -1812,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140">
         <v>4236</v>
@@ -1822,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141">
         <v>5969</v>
@@ -1832,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142">
         <v>8696</v>
@@ -1842,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143">
         <v>1483</v>
@@ -1852,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144">
         <v>8418</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145">
         <v>8395</v>
@@ -1872,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146">
         <v>5170</v>
@@ -1882,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147">
         <v>5568</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148">
         <v>2592</v>
@@ -1902,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149">
         <v>4075</v>
@@ -1912,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150">
         <v>7517</v>
@@ -1922,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151">
         <v>5448</v>
@@ -1932,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152">
         <v>6572</v>
@@ -1942,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153">
         <v>5238</v>
@@ -1952,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154">
         <v>2084</v>
@@ -1962,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155">
         <v>5411</v>
@@ -1972,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156">
         <v>5171</v>
@@ -1982,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157">
         <v>1862</v>
@@ -1992,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159">
         <v>9001</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160">
         <v>9631</v>
@@ -2024,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161">
         <v>9812</v>
@@ -2034,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162">
         <v>4845</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163">
         <v>5728</v>
@@ -2054,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164">
         <v>1618</v>
@@ -2064,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165">
         <v>9279</v>
@@ -2074,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166">
         <v>7491</v>
@@ -2084,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167">
         <v>5923</v>
@@ -2094,27 +2096,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168">
         <v>4265</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169">
         <v>2166</v>
       </c>
       <c r="C169">
-        <f t="shared" ref="C169:C251" ca="1" si="4">IF(B169=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <f t="shared" ref="C169:C252" ca="1" si="4">IF(B169=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170">
         <v>9116</v>
@@ -2124,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171">
         <v>9925</v>
@@ -2134,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>7</v>
       </c>
@@ -2146,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173">
         <v>9931</v>
@@ -2156,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174">
         <v>4425</v>
@@ -2166,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175">
         <v>1947</v>
@@ -2176,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176">
         <v>9696</v>
@@ -2186,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177">
         <v>1223</v>
@@ -2196,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178">
         <v>3946</v>
@@ -2206,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179">
         <v>8311</v>
@@ -2216,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180">
         <v>3134</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181">
         <v>9774</v>
@@ -2236,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182">
         <v>9711</v>
@@ -2246,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183">
         <v>3333</v>
@@ -2256,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184">
         <v>7290</v>
@@ -2266,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185">
         <v>5694</v>
@@ -2276,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186">
         <v>7035</v>
@@ -2286,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187">
         <v>6806</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188">
         <v>4515</v>
@@ -2306,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189">
         <v>9271</v>
@@ -2316,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190">
         <v>8769</v>
@@ -2326,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191">
         <v>4497</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192">
         <v>3940</v>
@@ -2346,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193">
         <v>8820</v>
@@ -2356,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194">
         <v>3218</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195">
         <v>4283</v>
@@ -2376,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196">
         <v>7703</v>
@@ -2386,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197">
         <v>9182</v>
@@ -2396,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198">
         <v>5541</v>
@@ -2406,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199">
         <v>2386</v>
@@ -2416,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200">
         <v>9159</v>
@@ -2426,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>8</v>
       </c>
@@ -2438,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202">
         <v>4642</v>
@@ -2448,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203">
         <v>4488</v>
@@ -2458,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204">
         <v>9765</v>
@@ -2468,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205">
         <v>4954</v>
@@ -2478,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206">
         <v>5537</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207">
         <v>6431</v>
@@ -2498,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208">
         <v>7193</v>
@@ -2508,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209">
         <v>5621</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210">
         <v>5847</v>
@@ -2528,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211">
         <v>4769</v>
@@ -2538,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212">
         <v>9930</v>
@@ -2548,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213">
         <v>3226</v>
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214">
         <v>6861</v>
@@ -2568,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215">
         <v>5032</v>
@@ -2578,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216">
         <v>5108</v>
@@ -2588,4370 +2590,4380 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217">
-        <v>2205</v>
+        <v>3567</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218">
-        <v>4372</v>
+        <v>2205</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219">
-        <v>4463</v>
+        <v>4372</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220">
-        <v>1668</v>
+        <v>4463</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221">
+        <v>1668</v>
+      </c>
+      <c r="C221">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222">
         <v>2137</v>
       </c>
-      <c r="C221">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="1" t="s">
+      <c r="C222">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B222">
+      <c r="B223">
         <v>9300</v>
       </c>
-      <c r="C222">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="1"/>
-      <c r="B223">
-        <v>3951</v>
-      </c>
       <c r="C223">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224">
-        <v>6409</v>
+        <v>3951</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225">
-        <v>3290</v>
+        <v>6409</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226">
-        <v>5309</v>
+        <v>3290</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227">
-        <v>5345</v>
+        <v>5309</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228">
-        <v>6812</v>
+        <v>5345</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229">
-        <v>7343</v>
+        <v>6812</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230">
+        <v>7343</v>
+      </c>
+      <c r="C230">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231">
         <v>7060</v>
       </c>
-      <c r="C230">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="1" t="s">
+      <c r="C231">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B231">
+      <c r="B232">
         <v>9299</v>
       </c>
-      <c r="C231">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="1"/>
-      <c r="B232">
-        <v>7560</v>
-      </c>
       <c r="C232">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233">
-        <v>9002</v>
+        <v>7560</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234">
-        <v>7432</v>
+        <v>9002</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235">
-        <v>1954</v>
+        <v>7432</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236">
+        <v>1954</v>
+      </c>
+      <c r="C236">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="B237">
         <v>2048</v>
       </c>
-      <c r="C236">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="1" t="s">
+      <c r="C237">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B237">
+      <c r="B238">
         <v>3939</v>
       </c>
-      <c r="C237">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="1"/>
-      <c r="B238">
-        <v>8861</v>
-      </c>
       <c r="C238">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239">
-        <v>1516</v>
+        <v>8861</v>
       </c>
       <c r="C239">
-        <f t="shared" ref="C239:C247" ca="1" si="5">IF(B239=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240">
-        <v>9062</v>
+        <v>1516</v>
       </c>
       <c r="C240">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <f t="shared" ref="C240:C248" ca="1" si="5">IF(B240=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241">
-        <v>5164</v>
+        <v>9062</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242">
-        <v>2030</v>
+        <v>5164</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243">
-        <v>7649</v>
+        <v>2030</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244">
-        <v>2354</v>
+        <v>7649</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
       <c r="B245">
-        <v>9701</v>
+        <v>2354</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="1"/>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B246">
-        <v>3784</v>
+        <v>9701</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247">
-        <v>6732</v>
+        <v>3784</v>
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="1" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+      <c r="B248">
+        <v>6732</v>
+      </c>
+      <c r="C248">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B248">
+      <c r="B249">
         <v>8403</v>
       </c>
-      <c r="C248">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="1"/>
-      <c r="B249">
-        <v>3185</v>
-      </c>
       <c r="C249">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250">
-        <v>9914</v>
+        <v>3185</v>
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251">
-        <v>6011</v>
+        <v>9914</v>
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252">
-        <v>6037</v>
+        <v>6011</v>
       </c>
       <c r="C252">
-        <f t="shared" ref="C252:C315" ca="1" si="6">IF(B252=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253">
-        <v>2809</v>
+        <v>6037</v>
       </c>
       <c r="C253">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <f t="shared" ref="C253:C316" ca="1" si="6">IF(B253=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254">
-        <v>7297</v>
+        <v>2809</v>
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255">
-        <v>5242</v>
+        <v>7297</v>
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256">
-        <v>1379</v>
+        <v>5242</v>
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257">
-        <v>2401</v>
+        <v>1379</v>
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258">
-        <v>5421</v>
+        <v>2401</v>
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259">
-        <v>7301</v>
+        <v>5421</v>
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260">
-        <v>2000</v>
+        <v>7301</v>
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261">
-        <v>4147</v>
+        <v>2000</v>
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262">
-        <v>1953</v>
+        <v>4147</v>
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263">
-        <v>3956</v>
+        <v>1953</v>
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264">
-        <v>5463</v>
+        <v>3956</v>
       </c>
       <c r="C264">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
-      <c r="A265" t="s">
-        <v>14</v>
-      </c>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
       <c r="B265">
-        <v>8787</v>
+        <v>5463</v>
       </c>
       <c r="C265">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>14</v>
+      </c>
+      <c r="B266">
+        <v>8787</v>
+      </c>
       <c r="C266">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C267">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C268">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C269">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C270">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C271">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C272">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:3">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:3">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:3">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:3">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:3">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:3">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:3">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:3">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:3">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:3">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:3">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:3">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:3">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:3">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:3">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:3">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:3">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:3">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:3">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:3">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C292">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:3">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C293">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:3">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C294">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:3">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C295">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:3">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C296">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:3">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C297">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:3">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C298">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:3">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C299">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:3">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C300">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:3">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C301">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:3">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C302">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:3">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C303">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:3">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C304">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:3">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C305">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:3">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C306">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:3">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C307">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:3">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C308">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:3">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C309">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:3">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C310">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:3">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C311">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:3">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C312">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:3">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C313">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:3">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C314">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:3">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C315">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:3">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C316">
-        <f t="shared" ref="C316:C379" ca="1" si="7">IF(B316=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="3:3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C317">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="3:3">
+        <f t="shared" ref="C317:C380" ca="1" si="7">IF(B317=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C318">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:3">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C319">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:3">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C320">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:3">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C321">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:3">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C322">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:3">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C323">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:3">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C324">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:3">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C325">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:3">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C326">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:3">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C327">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:3">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C328">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:3">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C329">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:3">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C330">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:3">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C331">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:3">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C332">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:3">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C333">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:3">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C334">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:3">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C335">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:3">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C336">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:3">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C337">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:3">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C338">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:3">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C339">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:3">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C340">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:3">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C341">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:3">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C342">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:3">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C343">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:3">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C344">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:3">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C345">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:3">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C346">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:3">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C347">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:3">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C348">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:3">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C349">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:3">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C350">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:3">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C351">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:3">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C352">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:3">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C353">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:3">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C354">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:3">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C355">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:3">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C356">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:3">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C357">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:3">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C358">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:3">
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C359">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:3">
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C360">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:3">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C361">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:3">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C362">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:3">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C363">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:3">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C364">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:3">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C365">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:3">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C366">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:3">
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C367">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:3">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C368">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:3">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C369">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:3">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C370">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:3">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C371">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:3">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C372">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:3">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C373">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:3">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C374">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:3">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C375">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:3">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C376">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:3">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C377">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:3">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C378">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:3">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C379">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:3">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C380">
-        <f t="shared" ref="C380:C443" ca="1" si="8">IF(B380=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="3:3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C381">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="3:3">
+        <f t="shared" ref="C381:C444" ca="1" si="8">IF(B381=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C382">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:3">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C383">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:3">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C384">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:3">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C385">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:3">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C386">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:3">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C387">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:3">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C388">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:3">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C389">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:3">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C390">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:3">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C391">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:3">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C392">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:3">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C393">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:3">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C394">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:3">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C395">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:3">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C396">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:3">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C397">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:3">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C398">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:3">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C399">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:3">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C400">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:3">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C401">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:3">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C402">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:3">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C403">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:3">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C404">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:3">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C405">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:3">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C406">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:3">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C407">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:3">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C408">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:3">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C409">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:3">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C410">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:3">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C411">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:3">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C412">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:3">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C413">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:3">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C414">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:3">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C415">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:3">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C416">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:3">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C417">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:3">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C418">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:3">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C419">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:3">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C420">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:3">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C421">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:3">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C422">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:3">
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C423">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:3">
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C424">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:3">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C425">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:3">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C426">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:3">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C427">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:3">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C428">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:3">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C429">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:3">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C430">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:3">
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C431">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:3">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C432">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:3">
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C433">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:3">
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C434">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:3">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C435">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:3">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C436">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:3">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C437">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:3">
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C438">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:3">
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C439">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:3">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C440">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:3">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C441">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:3">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C442">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:3">
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C443">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="3:3">
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C444">
-        <f t="shared" ref="C444:C507" ca="1" si="9">IF(B444=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="3:3">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C445">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="3:3">
+        <f t="shared" ref="C445:C508" ca="1" si="9">IF(B445=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C446">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:3">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C447">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:3">
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C448">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:3">
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C449">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:3">
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C450">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:3">
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C451">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:3">
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C452">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:3">
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C453">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:3">
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C454">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:3">
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C455">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:3">
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C456">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:3">
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C457">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:3">
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C458">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:3">
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C459">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:3">
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C460">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:3">
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C461">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:3">
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C462">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:3">
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C463">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:3">
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C464">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:3">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C465">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:3">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C466">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:3">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C467">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:3">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C468">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:3">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C469">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:3">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C470">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:3">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C471">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:3">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C472">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:3">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C473">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:3">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C474">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:3">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C475">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:3">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C476">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:3">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C477">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:3">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C478">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:3">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C479">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:3">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C480">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:3">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C481">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:3">
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C482">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:3">
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C483">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:3">
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C484">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:3">
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C485">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:3">
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C486">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:3">
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C487">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:3">
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C488">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:3">
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C489">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:3">
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C490">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:3">
+    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C491">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:3">
+    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C492">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:3">
+    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C493">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:3">
+    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C494">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:3">
+    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C495">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:3">
+    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C496">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:3">
+    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C497">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:3">
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C498">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:3">
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C499">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:3">
+    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C500">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:3">
+    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C501">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:3">
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C502">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:3">
+    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C503">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:3">
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C504">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:3">
+    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C505">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:3">
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C506">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:3">
+    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C507">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="3:3">
+    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C508">
-        <f t="shared" ref="C508:C571" ca="1" si="10">IF(B508=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="3:3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C509">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="3:3">
+        <f t="shared" ref="C509:C572" ca="1" si="10">IF(B509=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C510">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:3">
+    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C511">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:3">
+    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C512">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:3">
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C513">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:3">
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C514">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:3">
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C515">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:3">
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C516">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:3">
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C517">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:3">
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C518">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:3">
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C519">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:3">
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C520">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:3">
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C521">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:3">
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C522">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:3">
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C523">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:3">
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C524">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:3">
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C525">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:3">
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C526">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:3">
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C527">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:3">
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C528">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:3">
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C529">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:3">
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C530">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:3">
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C531">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:3">
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C532">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:3">
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C533">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:3">
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C534">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:3">
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C535">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:3">
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C536">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:3">
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C537">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:3">
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C538">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:3">
+    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C539">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:3">
+    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C540">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:3">
+    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C541">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:3">
+    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C542">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:3">
+    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C543">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:3">
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C544">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:3">
+    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C545">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:3">
+    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C546">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:3">
+    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C547">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:3">
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C548">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:3">
+    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C549">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:3">
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C550">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:3">
+    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C551">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:3">
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C552">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:3">
+    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C553">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:3">
+    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C554">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:3">
+    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C555">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:3">
+    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C556">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:3">
+    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C557">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:3">
+    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C558">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:3">
+    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C559">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:3">
+    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C560">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:3">
+    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C561">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:3">
+    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C562">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:3">
+    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C563">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:3">
+    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C564">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:3">
+    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C565">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:3">
+    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C566">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:3">
+    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C567">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:3">
+    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C568">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:3">
+    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C569">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:3">
+    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C570">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:3">
+    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C571">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:3">
+    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C572">
-        <f t="shared" ref="C572:C635" ca="1" si="11">IF(B572=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573" spans="3:3">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C573">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574" spans="3:3">
+        <f t="shared" ref="C573:C636" ca="1" si="11">IF(B573=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C574">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:3">
+    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C575">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:3">
+    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C576">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:3">
+    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C577">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:3">
+    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C578">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:3">
+    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C579">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:3">
+    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C580">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:3">
+    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C581">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:3">
+    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C582">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:3">
+    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C583">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:3">
+    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C584">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:3">
+    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C585">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:3">
+    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C586">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:3">
+    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C587">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:3">
+    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C588">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:3">
+    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C589">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:3">
+    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C590">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:3">
+    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C591">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:3">
+    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C592">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:3">
+    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C593">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:3">
+    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C594">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:3">
+    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C595">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:3">
+    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C596">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:3">
+    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C597">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:3">
+    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C598">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:3">
+    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C599">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:3">
+    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C600">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:3">
+    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C601">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:3">
+    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C602">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:3">
+    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C603">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:3">
+    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C604">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:3">
+    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C605">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:3">
+    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C606">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:3">
+    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C607">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:3">
+    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C608">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:3">
+    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C609">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:3">
+    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C610">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:3">
+    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C611">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:3">
+    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C612">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:3">
+    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C613">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:3">
+    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C614">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:3">
+    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C615">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:3">
+    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C616">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:3">
+    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C617">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:3">
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C618">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:3">
+    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C619">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:3">
+    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C620">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:3">
+    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C621">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:3">
+    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C622">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:3">
+    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C623">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:3">
+    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C624">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:3">
+    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C625">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:3">
+    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C626">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:3">
+    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C627">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:3">
+    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C628">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:3">
+    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C629">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:3">
+    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C630">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:3">
+    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C631">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:3">
+    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C632">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:3">
+    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C633">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:3">
+    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C634">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:3">
+    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C635">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:3">
+    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C636">
-        <f t="shared" ref="C636:C699" ca="1" si="12">IF(B636=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="3:3">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C637">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="3:3">
+        <f t="shared" ref="C637:C700" ca="1" si="12">IF(B637=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C638">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:3">
+    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C639">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:3">
+    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C640">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:3">
+    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C641">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:3">
+    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C642">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:3">
+    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C643">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:3">
+    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C644">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:3">
+    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C645">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:3">
+    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C646">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:3">
+    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C647">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:3">
+    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C648">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:3">
+    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C649">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:3">
+    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C650">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:3">
+    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C651">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:3">
+    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C652">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:3">
+    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C653">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:3">
+    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C654">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:3">
+    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C655">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:3">
+    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C656">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:3">
+    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C657">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:3">
+    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C658">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:3">
+    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C659">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:3">
+    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C660">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:3">
+    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C661">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:3">
+    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C662">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:3">
+    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C663">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:3">
+    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C664">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:3">
+    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C665">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:3">
+    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C666">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:3">
+    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C667">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:3">
+    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C668">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:3">
+    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C669">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:3">
+    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C670">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="3:3">
+    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C671">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="3:3">
+    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C672">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="3:3">
+    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C673">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="3:3">
+    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C674">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="3:3">
+    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C675">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="3:3">
+    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C676">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="3:3">
+    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C677">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="3:3">
+    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C678">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="3:3">
+    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C679">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="3:3">
+    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C680">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="3:3">
+    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C681">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="3:3">
+    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C682">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="3:3">
+    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C683">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="3:3">
+    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C684">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="3:3">
+    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C685">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="3:3">
+    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C686">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="3:3">
+    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C687">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="3:3">
+    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C688">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="3:3">
+    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C689">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="3:3">
+    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C690">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="3:3">
+    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C691">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="3:3">
+    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C692">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="3:3">
+    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C693">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="3:3">
+    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C694">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="3:3">
+    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C695">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="3:3">
+    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C696">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="3:3">
+    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C697">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="3:3">
+    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C698">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="3:3">
+    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C699">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="3:3">
+    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C700">
-        <f t="shared" ref="C700:C763" ca="1" si="13">IF(B700=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="701" spans="3:3">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C701">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="702" spans="3:3">
+        <f t="shared" ref="C701:C764" ca="1" si="13">IF(B701=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C702">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="3:3">
+    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C703">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="3:3">
+    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C704">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="3:3">
+    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C705">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="3:3">
+    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C706">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="3:3">
+    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C707">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="3:3">
+    <row r="708" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C708">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="3:3">
+    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C709">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="3:3">
+    <row r="710" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C710">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="3:3">
+    <row r="711" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C711">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="3:3">
+    <row r="712" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C712">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="3:3">
+    <row r="713" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C713">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="3:3">
+    <row r="714" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C714">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="3:3">
+    <row r="715" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C715">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="3:3">
+    <row r="716" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C716">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="3:3">
+    <row r="717" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C717">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="3:3">
+    <row r="718" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C718">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="3:3">
+    <row r="719" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C719">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="3:3">
+    <row r="720" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C720">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="3:3">
+    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C721">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="3:3">
+    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C722">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="3:3">
+    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C723">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="3:3">
+    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C724">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="3:3">
+    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C725">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="3:3">
+    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C726">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="3:3">
+    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C727">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="3:3">
+    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C728">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="3:3">
+    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C729">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="3:3">
+    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C730">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="3:3">
+    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C731">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="3:3">
+    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C732">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="3:3">
+    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C733">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="3:3">
+    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C734">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="3:3">
+    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C735">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="3:3">
+    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C736">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="3:3">
+    <row r="737" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C737">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="3:3">
+    <row r="738" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C738">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="3:3">
+    <row r="739" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C739">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="3:3">
+    <row r="740" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C740">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="3:3">
+    <row r="741" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C741">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="3:3">
+    <row r="742" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C742">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="3:3">
+    <row r="743" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C743">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="3:3">
+    <row r="744" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C744">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="3:3">
+    <row r="745" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C745">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="3:3">
+    <row r="746" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C746">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="3:3">
+    <row r="747" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C747">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="3:3">
+    <row r="748" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C748">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="3:3">
+    <row r="749" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C749">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="3:3">
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C750">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="3:3">
+    <row r="751" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C751">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="3:3">
+    <row r="752" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C752">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="3:3">
+    <row r="753" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C753">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="3:3">
+    <row r="754" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C754">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="3:3">
+    <row r="755" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C755">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="3:3">
+    <row r="756" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C756">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="3:3">
+    <row r="757" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C757">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="3:3">
+    <row r="758" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C758">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="3:3">
+    <row r="759" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C759">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="3:3">
+    <row r="760" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C760">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="3:3">
+    <row r="761" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C761">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="3:3">
+    <row r="762" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C762">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="3:3">
+    <row r="763" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C763">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="3:3">
+    <row r="764" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C764">
-        <f t="shared" ref="C764:C827" ca="1" si="14">IF(B764=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="765" spans="3:3">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C765">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="766" spans="3:3">
+        <f t="shared" ref="C765:C828" ca="1" si="14">IF(B765=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C766">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="3:3">
+    <row r="767" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C767">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="3:3">
+    <row r="768" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C768">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="3:3">
+    <row r="769" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C769">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="3:3">
+    <row r="770" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C770">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="3:3">
+    <row r="771" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C771">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="3:3">
+    <row r="772" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C772">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="3:3">
+    <row r="773" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C773">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="3:3">
+    <row r="774" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C774">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="3:3">
+    <row r="775" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C775">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="3:3">
+    <row r="776" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C776">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="3:3">
+    <row r="777" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C777">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="3:3">
+    <row r="778" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C778">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="3:3">
+    <row r="779" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C779">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="3:3">
+    <row r="780" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C780">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="3:3">
+    <row r="781" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C781">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="3:3">
+    <row r="782" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C782">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="3:3">
+    <row r="783" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C783">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="3:3">
+    <row r="784" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C784">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="3:3">
+    <row r="785" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C785">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="3:3">
+    <row r="786" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C786">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="3:3">
+    <row r="787" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C787">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="3:3">
+    <row r="788" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C788">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="3:3">
+    <row r="789" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C789">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="3:3">
+    <row r="790" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C790">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="3:3">
+    <row r="791" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C791">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="3:3">
+    <row r="792" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C792">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="3:3">
+    <row r="793" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C793">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="3:3">
+    <row r="794" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C794">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="3:3">
+    <row r="795" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C795">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="3:3">
+    <row r="796" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C796">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="3:3">
+    <row r="797" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C797">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="3:3">
+    <row r="798" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C798">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="3:3">
+    <row r="799" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C799">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="3:3">
+    <row r="800" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C800">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="3:3">
+    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C801">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="3:3">
+    <row r="802" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C802">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="3:3">
+    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C803">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="3:3">
+    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C804">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="3:3">
+    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C805">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="3:3">
+    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C806">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="3:3">
+    <row r="807" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C807">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="3:3">
+    <row r="808" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C808">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="3:3">
+    <row r="809" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C809">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="3:3">
+    <row r="810" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C810">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="3:3">
+    <row r="811" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C811">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="3:3">
+    <row r="812" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C812">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="3:3">
+    <row r="813" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C813">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="3:3">
+    <row r="814" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C814">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="3:3">
+    <row r="815" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C815">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="3:3">
+    <row r="816" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C816">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="3:3">
+    <row r="817" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C817">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="3:3">
+    <row r="818" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C818">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="3:3">
+    <row r="819" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C819">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="3:3">
+    <row r="820" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C820">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="3:3">
+    <row r="821" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C821">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="3:3">
+    <row r="822" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C822">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="3:3">
+    <row r="823" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C823">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="3:3">
+    <row r="824" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C824">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="3:3">
+    <row r="825" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C825">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="3:3">
+    <row r="826" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C826">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="3:3">
+    <row r="827" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C827">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="3:3">
+    <row r="828" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C828">
-        <f t="shared" ref="C828:C891" ca="1" si="15">IF(B828=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="829" spans="3:3">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C829">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="830" spans="3:3">
+        <f t="shared" ref="C829:C892" ca="1" si="15">IF(B829=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C830">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="3:3">
+    <row r="831" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C831">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="3:3">
+    <row r="832" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C832">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="3:3">
+    <row r="833" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C833">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="3:3">
+    <row r="834" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C834">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="3:3">
+    <row r="835" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C835">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="3:3">
+    <row r="836" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C836">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="3:3">
+    <row r="837" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C837">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="3:3">
+    <row r="838" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C838">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="3:3">
+    <row r="839" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C839">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="3:3">
+    <row r="840" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C840">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="3:3">
+    <row r="841" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C841">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="3:3">
+    <row r="842" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C842">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="3:3">
+    <row r="843" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C843">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="3:3">
+    <row r="844" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C844">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="3:3">
+    <row r="845" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C845">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="3:3">
+    <row r="846" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C846">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="3:3">
+    <row r="847" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C847">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="3:3">
+    <row r="848" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C848">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="3:3">
+    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C849">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="3:3">
+    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C850">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="3:3">
+    <row r="851" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C851">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="3:3">
+    <row r="852" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C852">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="3:3">
+    <row r="853" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C853">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="3:3">
+    <row r="854" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C854">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="3:3">
+    <row r="855" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C855">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="3:3">
+    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C856">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="3:3">
+    <row r="857" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C857">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="3:3">
+    <row r="858" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C858">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="3:3">
+    <row r="859" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C859">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="3:3">
+    <row r="860" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C860">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="3:3">
+    <row r="861" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C861">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="3:3">
+    <row r="862" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C862">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="3:3">
+    <row r="863" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C863">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="3:3">
+    <row r="864" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C864">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="3:3">
+    <row r="865" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C865">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="3:3">
+    <row r="866" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C866">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="3:3">
+    <row r="867" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C867">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="3:3">
+    <row r="868" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C868">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="3:3">
+    <row r="869" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C869">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="3:3">
+    <row r="870" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C870">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="3:3">
+    <row r="871" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C871">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="3:3">
+    <row r="872" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C872">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="3:3">
+    <row r="873" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C873">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="3:3">
+    <row r="874" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C874">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="3:3">
+    <row r="875" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C875">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="3:3">
+    <row r="876" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C876">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="3:3">
+    <row r="877" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C877">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="3:3">
+    <row r="878" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C878">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="3:3">
+    <row r="879" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C879">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="3:3">
+    <row r="880" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C880">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="3:3">
+    <row r="881" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C881">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="3:3">
+    <row r="882" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C882">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="3:3">
+    <row r="883" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C883">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="3:3">
+    <row r="884" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C884">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="3:3">
+    <row r="885" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C885">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="3:3">
+    <row r="886" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C886">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="3:3">
+    <row r="887" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C887">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="3:3">
+    <row r="888" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C888">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="3:3">
+    <row r="889" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C889">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="3:3">
+    <row r="890" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C890">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="3:3">
+    <row r="891" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C891">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="3:3">
+    <row r="892" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C892">
-        <f t="shared" ref="C892:C906" ca="1" si="16">IF(B892=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="893" spans="3:3">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C893">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="894" spans="3:3">
+        <f t="shared" ref="C893:C907" ca="1" si="16">IF(B893=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C894">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="3:3">
+    <row r="895" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C895">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="3:3">
+    <row r="896" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C896">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="3:3">
+    <row r="897" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C897">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="3:3">
+    <row r="898" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C898">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="3:3">
+    <row r="899" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C899">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="3:3">
+    <row r="900" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C900">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="3:3">
+    <row r="901" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C901">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="3:3">
+    <row r="902" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C902">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="3:3">
+    <row r="903" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C903">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="3:3">
+    <row r="904" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C904">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="3:3">
+    <row r="905" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C905">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="3:3">
+    <row r="906" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C906">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
+    <row r="907" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C907">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A231:A236"/>
-    <mergeCell ref="A248:A264"/>
+    <mergeCell ref="A232:A237"/>
+    <mergeCell ref="A249:A265"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A56"/>
     <mergeCell ref="A57:A72"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="A79:A118"/>
-    <mergeCell ref="A222:A230"/>
-    <mergeCell ref="A201:A221"/>
+    <mergeCell ref="A223:A231"/>
+    <mergeCell ref="A201:A222"/>
     <mergeCell ref="A172:A200"/>
     <mergeCell ref="A158:A171"/>
     <mergeCell ref="A119:A157"/>
-    <mergeCell ref="A237:A244"/>
-    <mergeCell ref="A245:A247"/>
+    <mergeCell ref="A238:A245"/>
+    <mergeCell ref="A246:A248"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6959,24 +6971,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/numbersMap.xlsx
+++ b/src/numbersMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="13335" windowHeight="7680"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -66,8 +66,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,7 +104,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,9 +117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -191,7 +191,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -226,10 +225,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -402,27 +400,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E907"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E908"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B218" sqref="B218"/>
+      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="D1">
         <f ca="1">SUM(C:C)</f>
         <v>0</v>
       </c>
       <c r="E1">
         <f ca="1">RANDBETWEEN(1000,9999)</f>
-        <v>7018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>1860</v>
@@ -444,7 +442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>4764</v>
@@ -454,7 +452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>2429</v>
@@ -464,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>7472</v>
@@ -474,7 +472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>3862</v>
@@ -484,7 +482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>9231</v>
@@ -494,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>8624</v>
@@ -504,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>2959</v>
@@ -514,7 +512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>7271</v>
@@ -524,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>2632</v>
@@ -534,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>4343</v>
@@ -544,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>1517</v>
@@ -554,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>1413</v>
@@ -564,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>9405</v>
@@ -574,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -586,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18">
         <v>9298</v>
@@ -596,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19">
         <v>3354</v>
@@ -606,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20">
         <v>8569</v>
@@ -616,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21">
         <v>3730</v>
@@ -626,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22">
         <v>9007</v>
@@ -636,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23">
         <v>5201</v>
@@ -646,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24">
         <v>2981</v>
@@ -656,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25">
         <v>4312</v>
@@ -666,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26">
         <v>8428</v>
@@ -676,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27">
         <v>2361</v>
@@ -686,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28">
         <v>5063</v>
@@ -696,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29">
         <v>7711</v>
@@ -706,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30">
         <v>8833</v>
@@ -716,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31">
         <v>1262</v>
@@ -726,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32">
         <v>9020</v>
@@ -736,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33">
         <v>1934</v>
@@ -746,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34">
         <v>7237</v>
@@ -756,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35">
         <v>3943</v>
@@ -766,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36">
         <v>7619</v>
@@ -776,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37">
         <v>3832</v>
@@ -786,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38">
         <v>1346</v>
@@ -796,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39">
         <v>9622</v>
@@ -806,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40">
         <v>8873</v>
@@ -816,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41">
         <v>7799</v>
@@ -826,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42">
         <v>9354</v>
@@ -836,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43">
         <v>9130</v>
@@ -846,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44">
         <v>5895</v>
@@ -856,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45">
         <v>2461</v>
@@ -866,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46">
         <v>2790</v>
@@ -876,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47">
         <v>2624</v>
@@ -886,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48">
         <v>5871</v>
@@ -896,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49">
         <v>9164</v>
@@ -906,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50">
         <v>7457</v>
@@ -916,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51">
         <v>9865</v>
@@ -926,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52">
         <v>3591</v>
@@ -936,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53">
         <v>3558</v>
@@ -946,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54">
         <v>4366</v>
@@ -956,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1"/>
       <c r="B55">
         <v>5789</v>
@@ -966,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1"/>
       <c r="B56">
         <v>6522</v>
@@ -976,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -988,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1"/>
       <c r="B58">
         <v>1288</v>
@@ -998,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1"/>
       <c r="B59">
         <v>2614</v>
@@ -1008,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60">
         <v>7170</v>
@@ -1018,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1"/>
       <c r="B61">
         <v>2709</v>
@@ -1028,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1"/>
       <c r="B62">
         <v>3402</v>
@@ -1038,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1"/>
       <c r="B63">
         <v>8781</v>
@@ -1048,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64">
         <v>8771</v>
@@ -1058,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65">
         <v>3091</v>
@@ -1068,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1"/>
       <c r="B66">
         <v>2195</v>
@@ -1078,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67">
         <v>1184</v>
@@ -1088,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1"/>
       <c r="B68">
         <v>2667</v>
@@ -1098,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1"/>
       <c r="B69">
         <v>5917</v>
@@ -1108,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70">
         <v>3929</v>
@@ -1118,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71">
         <v>3083</v>
@@ -1128,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1"/>
       <c r="B72">
         <v>7546</v>
@@ -1138,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -1150,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1"/>
       <c r="B74">
         <v>6598</v>
@@ -1160,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75">
         <v>3093</v>
@@ -1170,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76">
         <v>8805</v>
@@ -1180,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1"/>
       <c r="B77">
         <v>8158</v>
@@ -1190,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1"/>
       <c r="B78">
         <v>6499</v>
@@ -1200,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
@@ -1212,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1"/>
       <c r="B80">
         <v>2217</v>
@@ -1222,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1"/>
       <c r="B81">
         <v>1824</v>
@@ -1232,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1"/>
       <c r="B82">
         <v>2564</v>
@@ -1242,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83">
         <v>8487</v>
@@ -1252,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1"/>
       <c r="B84">
         <v>8045</v>
@@ -1262,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1"/>
       <c r="B85">
         <v>8878</v>
@@ -1272,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1"/>
       <c r="B86">
         <v>3072</v>
@@ -1282,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1"/>
       <c r="B87">
         <v>5980</v>
@@ -1292,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1"/>
       <c r="B88">
         <v>8174</v>
@@ -1302,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1"/>
       <c r="B89">
         <v>4257</v>
@@ -1312,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1"/>
       <c r="B90">
         <v>2291</v>
@@ -1322,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1"/>
       <c r="B91">
         <v>1763</v>
@@ -1332,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1"/>
       <c r="B92">
         <v>5662</v>
@@ -1342,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1"/>
       <c r="B93">
         <v>1945</v>
@@ -1352,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1"/>
       <c r="B94">
         <v>1186</v>
@@ -1362,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1"/>
       <c r="B95">
         <v>8715</v>
@@ -1372,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1"/>
       <c r="B96">
         <v>8518</v>
@@ -1382,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1"/>
       <c r="B97">
         <v>4847</v>
@@ -1392,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1"/>
       <c r="B98">
         <v>7991</v>
@@ -1402,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1"/>
       <c r="B99">
         <v>6291</v>
@@ -1412,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1"/>
       <c r="B100">
         <v>3770</v>
@@ -1422,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1"/>
       <c r="B101">
         <v>7178</v>
@@ -1432,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1"/>
       <c r="B102">
         <v>3883</v>
@@ -1442,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1"/>
       <c r="B103">
         <v>4527</v>
@@ -1452,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1"/>
       <c r="B104">
         <v>6556</v>
@@ -1462,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1"/>
       <c r="B105">
         <v>5635</v>
@@ -1472,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1"/>
       <c r="B106">
         <v>3878</v>
@@ -1482,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1"/>
       <c r="B107">
         <v>1217</v>
@@ -1492,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1"/>
       <c r="B108">
         <v>1438</v>
@@ -1502,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1"/>
       <c r="B109">
         <v>2153</v>
@@ -1512,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1"/>
       <c r="B110">
         <v>7937</v>
@@ -1522,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1"/>
       <c r="B111">
         <v>1999</v>
@@ -1532,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1"/>
       <c r="B112">
         <v>4042</v>
@@ -1542,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1"/>
       <c r="B113">
         <v>6351</v>
@@ -1552,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1"/>
       <c r="B114">
         <v>5382</v>
@@ -1562,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1"/>
       <c r="B115">
         <v>7088</v>
@@ -1572,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1"/>
       <c r="B116">
         <v>7250</v>
@@ -1582,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1"/>
       <c r="B117">
         <v>6740</v>
@@ -1592,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1"/>
       <c r="B118">
         <v>9038</v>
@@ -1602,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1"/>
       <c r="B120">
         <v>8495</v>
@@ -1624,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1"/>
       <c r="B121">
         <v>1315</v>
@@ -1634,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1"/>
       <c r="B122">
         <v>6066</v>
@@ -1644,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1"/>
       <c r="B123">
         <v>2565</v>
@@ -1654,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1"/>
       <c r="B124">
         <v>2594</v>
@@ -1664,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1"/>
       <c r="B125">
         <v>3762</v>
@@ -1674,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="1"/>
       <c r="B126">
         <v>3550</v>
@@ -1684,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1"/>
       <c r="B127">
         <v>2475</v>
@@ -1694,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1"/>
       <c r="B128">
         <v>9180</v>
@@ -1704,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1"/>
       <c r="B129">
         <v>1544</v>
@@ -1714,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1"/>
       <c r="B130">
         <v>9562</v>
@@ -1724,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1"/>
       <c r="B131">
         <v>3669</v>
@@ -1734,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1"/>
       <c r="B132">
         <v>5951</v>
@@ -1744,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1"/>
       <c r="B133">
         <v>2802</v>
@@ -1754,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1"/>
       <c r="B134">
         <v>6580</v>
@@ -1764,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1"/>
       <c r="B135">
         <v>7585</v>
@@ -1774,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="1"/>
       <c r="B136">
         <v>2321</v>
@@ -1784,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1"/>
       <c r="B137">
         <v>5053</v>
@@ -1794,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1"/>
       <c r="B138">
         <v>3983</v>
@@ -1804,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="1"/>
       <c r="B139">
         <v>8770</v>
@@ -1814,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1"/>
       <c r="B140">
         <v>4236</v>
@@ -1824,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1"/>
       <c r="B141">
         <v>5969</v>
@@ -1834,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1"/>
       <c r="B142">
         <v>8696</v>
@@ -1844,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1"/>
       <c r="B143">
         <v>1483</v>
@@ -1854,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1"/>
       <c r="B144">
         <v>8418</v>
@@ -1864,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1"/>
       <c r="B145">
         <v>8395</v>
@@ -1874,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1"/>
       <c r="B146">
         <v>5170</v>
@@ -1884,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1"/>
       <c r="B147">
         <v>5568</v>
@@ -1894,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1"/>
       <c r="B148">
         <v>2592</v>
@@ -1904,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1"/>
       <c r="B149">
         <v>4075</v>
@@ -1914,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150">
         <v>7517</v>
@@ -1924,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1"/>
       <c r="B151">
         <v>5448</v>
@@ -1934,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152">
         <v>6572</v>
@@ -1944,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1"/>
       <c r="B153">
         <v>5238</v>
@@ -1954,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="1"/>
       <c r="B154">
         <v>2084</v>
@@ -1964,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="1"/>
       <c r="B155">
         <v>5411</v>
@@ -1974,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="1"/>
       <c r="B156">
         <v>5171</v>
@@ -1984,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="1"/>
       <c r="B157">
         <v>1862</v>
@@ -1994,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -2006,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="1"/>
       <c r="B159">
         <v>9001</v>
@@ -2016,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160">
         <v>9631</v>
@@ -2026,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="1"/>
       <c r="B161">
         <v>9812</v>
@@ -2036,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162">
         <v>4845</v>
@@ -2046,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="1"/>
       <c r="B163">
         <v>5728</v>
@@ -2056,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="1"/>
       <c r="B164">
         <v>1618</v>
@@ -2066,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="1"/>
       <c r="B165">
         <v>9279</v>
@@ -2076,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="1"/>
       <c r="B166">
         <v>7491</v>
@@ -2086,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="1"/>
       <c r="B167">
         <v>5923</v>
@@ -2096,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="1"/>
       <c r="B168">
         <v>4265</v>
@@ -2106,17 +2104,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="1"/>
       <c r="B169">
         <v>2166</v>
       </c>
       <c r="C169">
-        <f t="shared" ref="C169:C252" ca="1" si="4">IF(B169=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C169:C253" ca="1" si="4">IF(B169=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="1"/>
       <c r="B170">
         <v>9116</v>
@@ -2126,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171">
         <v>9925</v>
@@ -2136,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>7</v>
       </c>
@@ -2148,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173">
         <v>9931</v>
@@ -2158,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174">
         <v>4425</v>
@@ -2168,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="1"/>
       <c r="B175">
         <v>1947</v>
@@ -2178,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176">
         <v>9696</v>
@@ -2188,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="1"/>
       <c r="B177">
         <v>1223</v>
@@ -2198,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="1"/>
       <c r="B178">
         <v>3946</v>
@@ -2208,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179">
         <v>8311</v>
@@ -2218,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180">
         <v>3134</v>
@@ -2228,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181">
         <v>9774</v>
@@ -2238,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="1"/>
       <c r="B182">
         <v>9711</v>
@@ -2248,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="1"/>
       <c r="B183">
         <v>3333</v>
@@ -2258,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184">
         <v>7290</v>
@@ -2268,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="1"/>
       <c r="B185">
         <v>5694</v>
@@ -2278,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="1"/>
       <c r="B186">
         <v>7035</v>
@@ -2288,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187">
         <v>6806</v>
@@ -2298,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="1"/>
       <c r="B188">
         <v>4515</v>
@@ -2308,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="1"/>
       <c r="B189">
         <v>9271</v>
@@ -2318,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="1"/>
       <c r="B190">
         <v>8769</v>
@@ -2328,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="1"/>
       <c r="B191">
         <v>4497</v>
@@ -2338,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="1"/>
       <c r="B192">
         <v>3940</v>
@@ -2348,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193">
         <v>8820</v>
@@ -2358,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="1"/>
       <c r="B194">
         <v>3218</v>
@@ -2368,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195">
         <v>4283</v>
@@ -2378,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="1"/>
       <c r="B196">
         <v>7703</v>
@@ -2388,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197">
         <v>9182</v>
@@ -2398,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198">
         <v>5541</v>
@@ -2408,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="1"/>
       <c r="B199">
         <v>2386</v>
@@ -2418,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="1"/>
       <c r="B200">
         <v>9159</v>
@@ -2428,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>8</v>
       </c>
@@ -2440,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="1"/>
       <c r="B202">
         <v>4642</v>
@@ -2450,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203">
         <v>4488</v>
@@ -2460,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204">
         <v>9765</v>
@@ -2470,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="1"/>
       <c r="B205">
         <v>4954</v>
@@ -2480,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="1"/>
       <c r="B206">
         <v>5537</v>
@@ -2490,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207">
         <v>6431</v>
@@ -2500,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="1"/>
       <c r="B208">
         <v>7193</v>
@@ -2510,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209">
         <v>5621</v>
@@ -2520,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210">
         <v>5847</v>
@@ -2530,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211">
         <v>4769</v>
@@ -2540,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212">
         <v>9930</v>
@@ -2550,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="1"/>
       <c r="B213">
         <v>3226</v>
@@ -2560,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="1"/>
       <c r="B214">
         <v>6861</v>
@@ -2570,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215">
         <v>5032</v>
@@ -2580,4390 +2578,4400 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="1"/>
       <c r="B216">
-        <v>5108</v>
+        <v>2033</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" s="1"/>
       <c r="B217">
-        <v>3567</v>
+        <v>5108</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" s="1"/>
       <c r="B218">
-        <v>2205</v>
+        <v>3567</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219">
-        <v>4372</v>
+        <v>2205</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220">
-        <v>4463</v>
+        <v>4372</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221">
-        <v>1668</v>
+        <v>4463</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="1"/>
       <c r="B222">
+        <v>1668</v>
+      </c>
+      <c r="C222">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1"/>
+      <c r="B223">
         <v>2137</v>
       </c>
-      <c r="C222">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+      <c r="C223">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B223">
+      <c r="B224">
         <v>9300</v>
       </c>
-      <c r="C223">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224">
-        <v>3951</v>
-      </c>
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225">
-        <v>6409</v>
+        <v>3951</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" s="1"/>
       <c r="B226">
-        <v>3290</v>
+        <v>6409</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227">
-        <v>5309</v>
+        <v>3290</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228">
-        <v>5345</v>
+        <v>5309</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229">
-        <v>6812</v>
+        <v>5345</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" s="1"/>
       <c r="B230">
-        <v>7343</v>
+        <v>6812</v>
       </c>
       <c r="C230">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231">
+        <v>7343</v>
+      </c>
+      <c r="C231">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1"/>
+      <c r="B232">
         <v>7060</v>
       </c>
-      <c r="C231">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="C232">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B232">
+      <c r="B233">
         <v>9299</v>
       </c>
-      <c r="C232">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233">
-        <v>7560</v>
-      </c>
       <c r="C233">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234">
-        <v>9002</v>
+        <v>7560</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235">
-        <v>7432</v>
+        <v>9002</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" s="1"/>
       <c r="B236">
-        <v>1954</v>
+        <v>7432</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237">
+        <v>1954</v>
+      </c>
+      <c r="C237">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1"/>
+      <c r="B238">
         <v>2048</v>
       </c>
-      <c r="C237">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+      <c r="C238">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B238">
+      <c r="B239">
         <v>3939</v>
       </c>
-      <c r="C238">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-      <c r="B239">
-        <v>8861</v>
-      </c>
       <c r="C239">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" s="1"/>
       <c r="B240">
-        <v>1516</v>
+        <v>8861</v>
       </c>
       <c r="C240">
-        <f t="shared" ref="C240:C248" ca="1" si="5">IF(B240=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241">
-        <v>9062</v>
+        <v>1516</v>
       </c>
       <c r="C241">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C241:C249" ca="1" si="5">IF(B241=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" s="1"/>
       <c r="B242">
-        <v>5164</v>
+        <v>9062</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243">
-        <v>2030</v>
+        <v>5164</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244">
-        <v>7649</v>
+        <v>2030</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245">
-        <v>2354</v>
+        <v>7649</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1"/>
       <c r="B246">
-        <v>9701</v>
+        <v>2354</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B247">
-        <v>3784</v>
+        <v>9701</v>
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248">
-        <v>6732</v>
+        <v>3784</v>
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+    <row r="249" spans="1:3">
+      <c r="A249" s="1"/>
+      <c r="B249">
+        <v>6732</v>
+      </c>
+      <c r="C249">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B249">
+      <c r="B250">
         <v>8403</v>
       </c>
-      <c r="C249">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-      <c r="B250">
-        <v>3185</v>
-      </c>
       <c r="C250">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251">
-        <v>9914</v>
+        <v>3185</v>
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252">
-        <v>6011</v>
+        <v>9914</v>
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253">
-        <v>6037</v>
+        <v>6011</v>
       </c>
       <c r="C253">
-        <f t="shared" ref="C253:C316" ca="1" si="6">IF(B253=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254">
-        <v>2809</v>
+        <v>6037</v>
       </c>
       <c r="C254">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C254:C317" ca="1" si="6">IF(B254=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255">
-        <v>7297</v>
+        <v>2809</v>
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256">
-        <v>5242</v>
+        <v>7297</v>
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257">
-        <v>1379</v>
+        <v>5242</v>
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" s="1"/>
       <c r="B258">
-        <v>2401</v>
+        <v>1379</v>
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259">
-        <v>5421</v>
+        <v>2401</v>
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260">
-        <v>7301</v>
+        <v>5421</v>
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" s="1"/>
       <c r="B261">
-        <v>2000</v>
+        <v>7301</v>
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262">
-        <v>4147</v>
+        <v>2000</v>
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" s="1"/>
       <c r="B263">
-        <v>1953</v>
+        <v>4147</v>
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" s="1"/>
       <c r="B264">
-        <v>3956</v>
+        <v>1953</v>
       </c>
       <c r="C264">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265">
-        <v>5463</v>
+        <v>3956</v>
       </c>
       <c r="C265">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>14</v>
-      </c>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1"/>
       <c r="B266">
-        <v>8787</v>
+        <v>5463</v>
       </c>
       <c r="C266">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>14</v>
+      </c>
+      <c r="B267">
+        <v>8787</v>
+      </c>
       <c r="C267">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="C268">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="C269">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="C270">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="C271">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="C272">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3">
       <c r="C273">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3">
       <c r="C274">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3">
       <c r="C275">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3">
       <c r="C276">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3">
       <c r="C277">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3">
       <c r="C278">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3">
       <c r="C279">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3">
       <c r="C280">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3">
       <c r="C281">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3">
       <c r="C282">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3">
       <c r="C283">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3">
       <c r="C284">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3">
       <c r="C285">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3">
       <c r="C286">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3">
       <c r="C287">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3">
       <c r="C288">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3">
       <c r="C289">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3">
       <c r="C290">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3">
       <c r="C291">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3">
       <c r="C292">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3">
       <c r="C293">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3">
       <c r="C294">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3">
       <c r="C295">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3">
       <c r="C296">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3">
       <c r="C297">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3">
       <c r="C298">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3">
       <c r="C299">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3">
       <c r="C300">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3">
       <c r="C301">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3">
       <c r="C302">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3">
       <c r="C303">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3">
       <c r="C304">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3">
       <c r="C305">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3">
       <c r="C306">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3">
       <c r="C307">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3">
       <c r="C308">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3">
       <c r="C309">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3">
       <c r="C310">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3">
       <c r="C311">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3">
       <c r="C312">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3">
       <c r="C313">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3">
       <c r="C314">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3">
       <c r="C315">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3">
       <c r="C316">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3">
       <c r="C317">
-        <f t="shared" ref="C317:C380" ca="1" si="7">IF(B317=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3">
       <c r="C318">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C318:C381" ca="1" si="7">IF(B318=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3">
       <c r="C319">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3">
       <c r="C320">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3">
       <c r="C321">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3">
       <c r="C322">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3">
       <c r="C323">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3">
       <c r="C324">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3">
       <c r="C325">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3">
       <c r="C326">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3">
       <c r="C327">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3">
       <c r="C328">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3">
       <c r="C329">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3">
       <c r="C330">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3">
       <c r="C331">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3">
       <c r="C332">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3">
       <c r="C333">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3">
       <c r="C334">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3">
       <c r="C335">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3">
       <c r="C336">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3">
       <c r="C337">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3">
       <c r="C338">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3">
       <c r="C339">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3">
       <c r="C340">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3">
       <c r="C341">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3">
       <c r="C342">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3">
       <c r="C343">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3">
       <c r="C344">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3">
       <c r="C345">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3">
       <c r="C346">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3">
       <c r="C347">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3">
       <c r="C348">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3">
       <c r="C349">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3">
       <c r="C350">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3">
       <c r="C351">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3">
       <c r="C352">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3">
       <c r="C353">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3">
       <c r="C354">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3">
       <c r="C355">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3">
       <c r="C356">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3">
       <c r="C357">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3">
       <c r="C358">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3">
       <c r="C359">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3">
       <c r="C360">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3">
       <c r="C361">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3">
       <c r="C362">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3">
       <c r="C363">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3">
       <c r="C364">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3">
       <c r="C365">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3">
       <c r="C366">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3">
       <c r="C367">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3">
       <c r="C368">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3">
       <c r="C369">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3">
       <c r="C370">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3">
       <c r="C371">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3">
       <c r="C372">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3">
       <c r="C373">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3">
       <c r="C374">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3">
       <c r="C375">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3">
       <c r="C376">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3">
       <c r="C377">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3">
       <c r="C378">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3">
       <c r="C379">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3">
       <c r="C380">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3">
       <c r="C381">
-        <f t="shared" ref="C381:C444" ca="1" si="8">IF(B381=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3">
       <c r="C382">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C382:C445" ca="1" si="8">IF(B382=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3">
       <c r="C383">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3">
       <c r="C384">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3">
       <c r="C385">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3">
       <c r="C386">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3">
       <c r="C387">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3">
       <c r="C388">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3">
       <c r="C389">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3">
       <c r="C390">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3">
       <c r="C391">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3">
       <c r="C392">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3">
       <c r="C393">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3">
       <c r="C394">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3">
       <c r="C395">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3">
       <c r="C396">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3">
       <c r="C397">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3">
       <c r="C398">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3">
       <c r="C399">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3">
       <c r="C400">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3">
       <c r="C401">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3">
       <c r="C402">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3">
       <c r="C403">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3">
       <c r="C404">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3">
       <c r="C405">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3">
       <c r="C406">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3">
       <c r="C407">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3">
       <c r="C408">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3">
       <c r="C409">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3">
       <c r="C410">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3">
       <c r="C411">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3">
       <c r="C412">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3">
       <c r="C413">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3">
       <c r="C414">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3">
       <c r="C415">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3">
       <c r="C416">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3">
       <c r="C417">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3">
       <c r="C418">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3">
       <c r="C419">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3">
       <c r="C420">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3">
       <c r="C421">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3">
       <c r="C422">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3">
       <c r="C423">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3">
       <c r="C424">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3">
       <c r="C425">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3">
       <c r="C426">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3">
       <c r="C427">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3">
       <c r="C428">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3">
       <c r="C429">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3">
       <c r="C430">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3">
       <c r="C431">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3">
       <c r="C432">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3">
       <c r="C433">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3">
       <c r="C434">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3">
       <c r="C435">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3">
       <c r="C436">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3">
       <c r="C437">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3">
       <c r="C438">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3">
       <c r="C439">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3">
       <c r="C440">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3">
       <c r="C441">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3">
       <c r="C442">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3">
       <c r="C443">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3">
       <c r="C444">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3">
       <c r="C445">
-        <f t="shared" ref="C445:C508" ca="1" si="9">IF(B445=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3">
       <c r="C446">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C446:C509" ca="1" si="9">IF(B446=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3">
       <c r="C447">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3">
       <c r="C448">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3">
       <c r="C449">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3">
       <c r="C450">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3">
       <c r="C451">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3">
       <c r="C452">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3">
       <c r="C453">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3">
       <c r="C454">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3">
       <c r="C455">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3">
       <c r="C456">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3">
       <c r="C457">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3">
       <c r="C458">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3">
       <c r="C459">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3">
       <c r="C460">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3">
       <c r="C461">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3">
       <c r="C462">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3">
       <c r="C463">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3">
       <c r="C464">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3">
       <c r="C465">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3">
       <c r="C466">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3">
       <c r="C467">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3">
       <c r="C468">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3">
       <c r="C469">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3">
       <c r="C470">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3">
       <c r="C471">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3">
       <c r="C472">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3">
       <c r="C473">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3">
       <c r="C474">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3">
       <c r="C475">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3">
       <c r="C476">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3">
       <c r="C477">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3">
       <c r="C478">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3">
       <c r="C479">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3">
       <c r="C480">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3">
       <c r="C481">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3">
       <c r="C482">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3">
       <c r="C483">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3">
       <c r="C484">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3">
       <c r="C485">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3">
       <c r="C486">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3">
       <c r="C487">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3">
       <c r="C488">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3">
       <c r="C489">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3">
       <c r="C490">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3">
       <c r="C491">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3">
       <c r="C492">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3">
       <c r="C493">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3">
       <c r="C494">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3">
       <c r="C495">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3">
       <c r="C496">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3">
       <c r="C497">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3">
       <c r="C498">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3">
       <c r="C499">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3">
       <c r="C500">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3">
       <c r="C501">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3">
       <c r="C502">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3">
       <c r="C503">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3">
       <c r="C504">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3">
       <c r="C505">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3">
       <c r="C506">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3">
       <c r="C507">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3">
       <c r="C508">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3">
       <c r="C509">
-        <f t="shared" ref="C509:C572" ca="1" si="10">IF(B509=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3">
       <c r="C510">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C510:C573" ca="1" si="10">IF(B510=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3">
       <c r="C511">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3">
       <c r="C512">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3">
       <c r="C513">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3">
       <c r="C514">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3">
       <c r="C515">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3">
       <c r="C516">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3">
       <c r="C517">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3">
       <c r="C518">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3">
       <c r="C519">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3">
       <c r="C520">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3">
       <c r="C521">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3">
       <c r="C522">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3">
       <c r="C523">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3">
       <c r="C524">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3">
       <c r="C525">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3">
       <c r="C526">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3">
       <c r="C527">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3">
       <c r="C528">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3">
       <c r="C529">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3">
       <c r="C530">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3">
       <c r="C531">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3">
       <c r="C532">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3">
       <c r="C533">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3">
       <c r="C534">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3">
       <c r="C535">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3">
       <c r="C536">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3">
       <c r="C537">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3">
       <c r="C538">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3">
       <c r="C539">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3">
       <c r="C540">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3">
       <c r="C541">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3">
       <c r="C542">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3">
       <c r="C543">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3">
       <c r="C544">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3">
       <c r="C545">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3">
       <c r="C546">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3">
       <c r="C547">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3">
       <c r="C548">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3">
       <c r="C549">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3">
       <c r="C550">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3">
       <c r="C551">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3">
       <c r="C552">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3">
       <c r="C553">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3">
       <c r="C554">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3">
       <c r="C555">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3">
       <c r="C556">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3">
       <c r="C557">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3">
       <c r="C558">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3">
       <c r="C559">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3">
       <c r="C560">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3">
       <c r="C561">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3">
       <c r="C562">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3">
       <c r="C563">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3">
       <c r="C564">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3">
       <c r="C565">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3">
       <c r="C566">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3">
       <c r="C567">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3">
       <c r="C568">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3">
       <c r="C569">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3">
       <c r="C570">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3">
       <c r="C571">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3">
       <c r="C572">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3">
       <c r="C573">
-        <f t="shared" ref="C573:C636" ca="1" si="11">IF(B573=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="3:3">
       <c r="C574">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C574:C637" ca="1" si="11">IF(B574=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="3:3">
       <c r="C575">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3">
       <c r="C576">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3">
       <c r="C577">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3">
       <c r="C578">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3">
       <c r="C579">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3">
       <c r="C580">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3">
       <c r="C581">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3">
       <c r="C582">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3">
       <c r="C583">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3">
       <c r="C584">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3">
       <c r="C585">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3">
       <c r="C586">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3">
       <c r="C587">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3">
       <c r="C588">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3">
       <c r="C589">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3">
       <c r="C590">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3">
       <c r="C591">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3">
       <c r="C592">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3">
       <c r="C593">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3">
       <c r="C594">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3">
       <c r="C595">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3">
       <c r="C596">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3">
       <c r="C597">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3">
       <c r="C598">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3">
       <c r="C599">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3">
       <c r="C600">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3">
       <c r="C601">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3">
       <c r="C602">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3">
       <c r="C603">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3">
       <c r="C604">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3">
       <c r="C605">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3">
       <c r="C606">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3">
       <c r="C607">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3">
       <c r="C608">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3">
       <c r="C609">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3">
       <c r="C610">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3">
       <c r="C611">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3">
       <c r="C612">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3">
       <c r="C613">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3">
       <c r="C614">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3">
       <c r="C615">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3">
       <c r="C616">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3">
       <c r="C617">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3">
       <c r="C618">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3">
       <c r="C619">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3">
       <c r="C620">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3">
       <c r="C621">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3">
       <c r="C622">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3">
       <c r="C623">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3">
       <c r="C624">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3">
       <c r="C625">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3">
       <c r="C626">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3">
       <c r="C627">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3">
       <c r="C628">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3">
       <c r="C629">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3">
       <c r="C630">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3">
       <c r="C631">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3">
       <c r="C632">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3">
       <c r="C633">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3">
       <c r="C634">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3">
       <c r="C635">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3">
       <c r="C636">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3">
       <c r="C637">
-        <f t="shared" ref="C637:C700" ca="1" si="12">IF(B637=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="3:3">
       <c r="C638">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C638:C701" ca="1" si="12">IF(B638=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="3:3">
       <c r="C639">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3">
       <c r="C640">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3">
       <c r="C641">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3">
       <c r="C642">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3">
       <c r="C643">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3">
       <c r="C644">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3">
       <c r="C645">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3">
       <c r="C646">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3">
       <c r="C647">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3">
       <c r="C648">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3">
       <c r="C649">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3">
       <c r="C650">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3">
       <c r="C651">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3">
       <c r="C652">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3">
       <c r="C653">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3">
       <c r="C654">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3">
       <c r="C655">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3">
       <c r="C656">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3">
       <c r="C657">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3">
       <c r="C658">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3">
       <c r="C659">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3">
       <c r="C660">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3">
       <c r="C661">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3">
       <c r="C662">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3">
       <c r="C663">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3">
       <c r="C664">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3">
       <c r="C665">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3">
       <c r="C666">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3">
       <c r="C667">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3">
       <c r="C668">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3">
       <c r="C669">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3">
       <c r="C670">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3">
       <c r="C671">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3">
       <c r="C672">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3">
       <c r="C673">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3">
       <c r="C674">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3">
       <c r="C675">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3">
       <c r="C676">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3">
       <c r="C677">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3">
       <c r="C678">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3">
       <c r="C679">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3">
       <c r="C680">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3">
       <c r="C681">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3">
       <c r="C682">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3">
       <c r="C683">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3">
       <c r="C684">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3">
       <c r="C685">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3">
       <c r="C686">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3">
       <c r="C687">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3">
       <c r="C688">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3">
       <c r="C689">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3">
       <c r="C690">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3">
       <c r="C691">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3">
       <c r="C692">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3">
       <c r="C693">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3">
       <c r="C694">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3">
       <c r="C695">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3">
       <c r="C696">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3">
       <c r="C697">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3">
       <c r="C698">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3">
       <c r="C699">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3">
       <c r="C700">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3">
       <c r="C701">
-        <f t="shared" ref="C701:C764" ca="1" si="13">IF(B701=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="3:3">
       <c r="C702">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C702:C765" ca="1" si="13">IF(B702=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="3:3">
       <c r="C703">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3">
       <c r="C704">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3">
       <c r="C705">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3">
       <c r="C706">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3">
       <c r="C707">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3">
       <c r="C708">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3">
       <c r="C709">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3">
       <c r="C710">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3">
       <c r="C711">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3">
       <c r="C712">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3">
       <c r="C713">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3">
       <c r="C714">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3">
       <c r="C715">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3">
       <c r="C716">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3">
       <c r="C717">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3">
       <c r="C718">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3">
       <c r="C719">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3">
       <c r="C720">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3">
       <c r="C721">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3">
       <c r="C722">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3">
       <c r="C723">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3">
       <c r="C724">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3">
       <c r="C725">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3">
       <c r="C726">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3">
       <c r="C727">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3">
       <c r="C728">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3">
       <c r="C729">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3">
       <c r="C730">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3">
       <c r="C731">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3">
       <c r="C732">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3">
       <c r="C733">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3">
       <c r="C734">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3">
       <c r="C735">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3">
       <c r="C736">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3">
       <c r="C737">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3">
       <c r="C738">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3">
       <c r="C739">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3">
       <c r="C740">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3">
       <c r="C741">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3">
       <c r="C742">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3">
       <c r="C743">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3">
       <c r="C744">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3">
       <c r="C745">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3">
       <c r="C746">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3">
       <c r="C747">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3">
       <c r="C748">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3">
       <c r="C749">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3">
       <c r="C750">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3">
       <c r="C751">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3">
       <c r="C752">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3">
       <c r="C753">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3">
       <c r="C754">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3">
       <c r="C755">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3">
       <c r="C756">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3">
       <c r="C757">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3">
       <c r="C758">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3">
       <c r="C759">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3">
       <c r="C760">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3">
       <c r="C761">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3">
       <c r="C762">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3">
       <c r="C763">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3">
       <c r="C764">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3">
       <c r="C765">
-        <f t="shared" ref="C765:C828" ca="1" si="14">IF(B765=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="766" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="3:3">
       <c r="C766">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="767" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C766:C829" ca="1" si="14">IF(B766=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="3:3">
       <c r="C767">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3">
       <c r="C768">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3">
       <c r="C769">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3">
       <c r="C770">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3">
       <c r="C771">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3">
       <c r="C772">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3">
       <c r="C773">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3">
       <c r="C774">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3">
       <c r="C775">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3">
       <c r="C776">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3">
       <c r="C777">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3">
       <c r="C778">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3">
       <c r="C779">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3">
       <c r="C780">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3">
       <c r="C781">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3">
       <c r="C782">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3">
       <c r="C783">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3">
       <c r="C784">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3">
       <c r="C785">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3">
       <c r="C786">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3">
       <c r="C787">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3">
       <c r="C788">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3">
       <c r="C789">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3">
       <c r="C790">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3">
       <c r="C791">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3">
       <c r="C792">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3">
       <c r="C793">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3">
       <c r="C794">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3">
       <c r="C795">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3">
       <c r="C796">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3">
       <c r="C797">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3">
       <c r="C798">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3">
       <c r="C799">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3">
       <c r="C800">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3">
       <c r="C801">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3">
       <c r="C802">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3">
       <c r="C803">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3">
       <c r="C804">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3">
       <c r="C805">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3">
       <c r="C806">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3">
       <c r="C807">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3">
       <c r="C808">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3">
       <c r="C809">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3">
       <c r="C810">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3">
       <c r="C811">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3">
       <c r="C812">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3">
       <c r="C813">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3">
       <c r="C814">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3">
       <c r="C815">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3">
       <c r="C816">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3">
       <c r="C817">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3">
       <c r="C818">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3">
       <c r="C819">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3">
       <c r="C820">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3">
       <c r="C821">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3">
       <c r="C822">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3">
       <c r="C823">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3">
       <c r="C824">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3">
       <c r="C825">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3">
       <c r="C826">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3">
       <c r="C827">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3">
       <c r="C828">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3">
       <c r="C829">
-        <f t="shared" ref="C829:C892" ca="1" si="15">IF(B829=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="830" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="3:3">
       <c r="C830">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="831" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C830:C893" ca="1" si="15">IF(B830=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="3:3">
       <c r="C831">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3">
       <c r="C832">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3">
       <c r="C833">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3">
       <c r="C834">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3">
       <c r="C835">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3">
       <c r="C836">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3">
       <c r="C837">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3">
       <c r="C838">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3">
       <c r="C839">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3">
       <c r="C840">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3">
       <c r="C841">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3">
       <c r="C842">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3">
       <c r="C843">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3">
       <c r="C844">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3">
       <c r="C845">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3">
       <c r="C846">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3">
       <c r="C847">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3">
       <c r="C848">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3">
       <c r="C849">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3">
       <c r="C850">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3">
       <c r="C851">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3">
       <c r="C852">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3">
       <c r="C853">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3">
       <c r="C854">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3">
       <c r="C855">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3">
       <c r="C856">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3">
       <c r="C857">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3">
       <c r="C858">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3">
       <c r="C859">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3">
       <c r="C860">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3">
       <c r="C861">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3">
       <c r="C862">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3">
       <c r="C863">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3">
       <c r="C864">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3">
       <c r="C865">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3">
       <c r="C866">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3">
       <c r="C867">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3">
       <c r="C868">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3">
       <c r="C869">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3">
       <c r="C870">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3">
       <c r="C871">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3">
       <c r="C872">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3">
       <c r="C873">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3">
       <c r="C874">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3">
       <c r="C875">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3">
       <c r="C876">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3">
       <c r="C877">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3">
       <c r="C878">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3">
       <c r="C879">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3">
       <c r="C880">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3">
       <c r="C881">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3">
       <c r="C882">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3">
       <c r="C883">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3">
       <c r="C884">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3">
       <c r="C885">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3">
       <c r="C886">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3">
       <c r="C887">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3">
       <c r="C888">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3">
       <c r="C889">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3">
       <c r="C890">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3">
       <c r="C891">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3">
       <c r="C892">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3">
       <c r="C893">
-        <f t="shared" ref="C893:C907" ca="1" si="16">IF(B893=$E$1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="894" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="3:3">
       <c r="C894">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="895" spans="3:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C894:C908" ca="1" si="16">IF(B894=$E$1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="3:3">
       <c r="C895">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3">
       <c r="C896">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3">
       <c r="C897">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3">
       <c r="C898">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3">
       <c r="C899">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3">
       <c r="C900">
         <f t=